--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aurelie/switchdrive/GREP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aurelie/Documents/GitHub/WavContact/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E781BBBA-F949-A845-B7A1-8700988AC6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDBCA02-354E-0D49-A0F4-02A653299FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="78">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>Cours de mise en pratique avec Steeve</t>
+  </si>
+  <si>
+    <t>Réunion de groupe</t>
   </si>
 </sst>
 </file>
@@ -1527,8 +1530,8 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:D11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1681,9 +1684,15 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="8"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="14"/>
+      <c r="B12" s="8">
+        <v>44487</v>
+      </c>
+      <c r="C12" s="15">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="8"/>
@@ -6613,7 +6622,7 @@
   </sheetPr>
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aurelie/switchdrive/GREP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/constantin/Documents/GitHub/WavContact/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E781BBBA-F949-A845-B7A1-8700988AC6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FFAEF1-1C74-6540-A879-535768A45F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="81">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -256,6 +256,18 @@
   </si>
   <si>
     <t>Cours de mise en pratique avec Steeve</t>
+  </si>
+  <si>
+    <t>1h30</t>
+  </si>
+  <si>
+    <t>Création des premières maquettes</t>
+  </si>
+  <si>
+    <t>0h30</t>
+  </si>
+  <si>
+    <t>Conversation avec Waview sur l'actualité du projet</t>
   </si>
 </sst>
 </file>
@@ -1527,8 +1539,8 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:D11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6613,8 +6625,8 @@
   </sheetPr>
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6746,14 +6758,26 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="36"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="14"/>
+      <c r="B8" s="36">
+        <v>44479</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="36"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="14"/>
+      <c r="B9" s="36">
+        <v>44485</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="36"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aurelie/Documents/GitHub/WavContact/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/constantin/Documents/GitHub/WavContact/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDBCA02-354E-0D49-A0F4-02A653299FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D929338-D910-5148-B2BB-A85A410206F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="82">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -259,6 +259,18 @@
   </si>
   <si>
     <t>Réunion de groupe</t>
+  </si>
+  <si>
+    <t>0h30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conversation avec Waview pour maj </t>
+  </si>
+  <si>
+    <t>1h30</t>
+  </si>
+  <si>
+    <t>Création des maquettes v1</t>
   </si>
 </sst>
 </file>
@@ -1530,7 +1542,7 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -6622,8 +6634,8 @@
   </sheetPr>
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6755,14 +6767,26 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="36"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="14"/>
+      <c r="B8" s="36">
+        <v>44479</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="36"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="14"/>
+      <c r="B9" s="36">
+        <v>44485</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="36"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/constantin/Documents/GitHub/WavContact/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aurelie/Documents/GitHub/WavContact/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D929338-D910-5148-B2BB-A85A410206F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A7FF62-3E44-6E41-92A0-E42DA1AA1D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="84">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -271,6 +271,12 @@
   </si>
   <si>
     <t>Création des maquettes v1</t>
+  </si>
+  <si>
+    <t>Création du PowerPoint pour la réunion A1</t>
+  </si>
+  <si>
+    <t>Réunion A1</t>
   </si>
 </sst>
 </file>
@@ -568,7 +574,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -644,9 +650,6 @@
     <xf numFmtId="165" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -688,6 +691,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1288,8 +1297,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau3" displayName="Tableau3" ref="B2:D18">
-  <autoFilter ref="B2:D18" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau3" displayName="Tableau3" ref="B2:D21">
+  <autoFilter ref="B2:D21" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D18">
     <sortCondition ref="B2:B18"/>
   </sortState>
@@ -1542,8 +1551,8 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1557,11 +1566,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -1707,9 +1716,15 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="8"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="14"/>
+      <c r="B13" s="8">
+        <v>44488</v>
+      </c>
+      <c r="C13" s="15">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="8"/>
@@ -2727,8 +2742,8 @@
   </sheetPr>
   <dimension ref="A1:Z1012"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2742,11 +2757,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3976,8 +3991,8 @@
   </sheetPr>
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3991,11 +4006,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4185,18 +4200,42 @@
       </c>
     </row>
     <row r="17" spans="2:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="24"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="14"/>
+      <c r="B17" s="24">
+        <v>44487</v>
+      </c>
+      <c r="C17" s="23">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="18" spans="2:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="25"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="14"/>
-    </row>
-    <row r="19" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="B18" s="24">
+        <v>44488</v>
+      </c>
+      <c r="C18" s="40">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="24"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="34"/>
+    </row>
+    <row r="20" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="24"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="24"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="34"/>
+    </row>
     <row r="22" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="23" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="24" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5198,8 +5237,8 @@
   </sheetPr>
   <dimension ref="A1:Z1009"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView showGridLines="0" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5213,11 +5252,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -5242,7 +5281,7 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="26"/>
+      <c r="A2" s="25"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -5252,34 +5291,34 @@
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
     </row>
     <row r="3" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="27">
+      <c r="B3" s="26">
         <v>44459</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="27">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D3" s="14" t="s">
@@ -5287,10 +5326,10 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="27">
+      <c r="B4" s="26">
         <v>44459</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="27">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -5298,10 +5337,10 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="27">
+      <c r="B5" s="26">
         <v>44461</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="27">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D5" s="14" t="s">
@@ -5309,10 +5348,10 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="27">
+      <c r="B6" s="26">
         <v>44465</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="27">
         <v>0.125</v>
       </c>
       <c r="D6" s="14" t="s">
@@ -5320,10 +5359,10 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="27">
+      <c r="B7" s="26">
         <v>44465</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="27">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -5331,21 +5370,21 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="27">
+      <c r="B8" s="26">
         <v>44466</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="27">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="28" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="27">
+      <c r="B9" s="26">
         <v>44467</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="27">
         <v>3.125E-2</v>
       </c>
       <c r="D9" s="14" t="s">
@@ -5353,10 +5392,10 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="27">
+      <c r="B10" s="26">
         <v>44467</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="27">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D10" s="14" t="s">
@@ -5364,10 +5403,10 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="27">
+      <c r="B11" s="26">
         <v>44467</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="29">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D11" s="14" t="s">
@@ -5375,10 +5414,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="27">
+      <c r="B12" s="26">
         <v>44470</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="30">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D12" s="14" t="s">
@@ -5386,10 +5425,10 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="27">
+      <c r="B13" s="26">
         <v>44472</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="31">
         <v>6.25E-2</v>
       </c>
       <c r="D13" s="14" t="s">
@@ -5397,10 +5436,10 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="27">
+      <c r="B14" s="26">
         <v>44472</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="31">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D14" s="14" t="s">
@@ -5408,10 +5447,10 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="27">
+      <c r="B15" s="26">
         <v>44472</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="32">
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="D15" s="14" t="s">
@@ -5419,10 +5458,10 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="27">
+      <c r="B16" s="26">
         <v>44477</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="33">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D16" s="14" t="s">
@@ -5430,10 +5469,10 @@
       </c>
     </row>
     <row r="17" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="27">
+      <c r="B17" s="26">
         <v>44477</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="27">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D17" s="14" t="s">
@@ -5441,10 +5480,10 @@
       </c>
     </row>
     <row r="18" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="27">
+      <c r="B18" s="26">
         <v>44477</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="27">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D18" s="14" t="s">
@@ -5452,10 +5491,10 @@
       </c>
     </row>
     <row r="19" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="27">
+      <c r="B19" s="26">
         <v>44480</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="27">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D19" s="14" t="s">
@@ -5463,10 +5502,10 @@
       </c>
     </row>
     <row r="20" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="27">
+      <c r="B20" s="26">
         <v>44480</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="27">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D20" s="14" t="s">
@@ -5474,10 +5513,10 @@
       </c>
     </row>
     <row r="21" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="27">
+      <c r="B21" s="26">
         <v>44483</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="27">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D21" s="14" t="s">
@@ -5485,10 +5524,10 @@
       </c>
     </row>
     <row r="22" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="27">
+      <c r="B22" s="26">
         <v>44483</v>
       </c>
-      <c r="C22" s="30">
+      <c r="C22" s="29">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D22" s="14" t="s">
@@ -5496,10 +5535,10 @@
       </c>
     </row>
     <row r="23" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="27">
+      <c r="B23" s="26">
         <v>44483</v>
       </c>
-      <c r="C23" s="31">
+      <c r="C23" s="30">
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D23" s="14" t="s">
@@ -5507,10 +5546,10 @@
       </c>
     </row>
     <row r="24" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="27">
+      <c r="B24" s="26">
         <v>44483</v>
       </c>
-      <c r="C24" s="32">
+      <c r="C24" s="31">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D24" s="14" t="s">
@@ -5518,10 +5557,10 @@
       </c>
     </row>
     <row r="25" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="27">
+      <c r="B25" s="26">
         <v>44484</v>
       </c>
-      <c r="C25" s="32">
+      <c r="C25" s="31">
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="D25" s="14" t="s">
@@ -5529,10 +5568,10 @@
       </c>
     </row>
     <row r="26" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="27">
+      <c r="B26" s="26">
         <v>44485</v>
       </c>
-      <c r="C26" s="28">
+      <c r="C26" s="27">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D26" s="14" t="s">
@@ -5540,10 +5579,10 @@
       </c>
     </row>
     <row r="27" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="27">
+      <c r="B27" s="26">
         <v>44485</v>
       </c>
-      <c r="C27" s="32">
+      <c r="C27" s="31">
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D27" s="14" t="s">
@@ -5551,10 +5590,10 @@
       </c>
     </row>
     <row r="28" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="27">
+      <c r="B28" s="26">
         <v>44485</v>
       </c>
-      <c r="C28" s="32">
+      <c r="C28" s="31">
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="D28" s="14" t="s">
@@ -5562,10 +5601,10 @@
       </c>
     </row>
     <row r="29" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="27">
+      <c r="B29" s="26">
         <v>44485</v>
       </c>
-      <c r="C29" s="28">
+      <c r="C29" s="27">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D29" s="14" t="s">
@@ -5573,10 +5612,10 @@
       </c>
     </row>
     <row r="30" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="27">
+      <c r="B30" s="26">
         <v>44485</v>
       </c>
-      <c r="C30" s="28">
+      <c r="C30" s="27">
         <v>3.125E-2</v>
       </c>
       <c r="D30" s="14" t="s">
@@ -5584,10 +5623,10 @@
       </c>
     </row>
     <row r="31" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="27">
+      <c r="B31" s="26">
         <v>44486</v>
       </c>
-      <c r="C31" s="28">
+      <c r="C31" s="27">
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="D31" s="14" t="s">
@@ -5595,10 +5634,10 @@
       </c>
     </row>
     <row r="32" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="27">
+      <c r="B32" s="26">
         <v>44486</v>
       </c>
-      <c r="C32" s="28">
+      <c r="C32" s="27">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D32" s="14" t="s">
@@ -5606,43 +5645,43 @@
       </c>
     </row>
     <row r="33" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="27"/>
-      <c r="C33" s="28"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="27"/>
       <c r="D33" s="14"/>
     </row>
     <row r="34" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="27"/>
-      <c r="C34" s="28"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="27"/>
       <c r="D34" s="14"/>
     </row>
     <row r="35" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="27"/>
       <c r="D35" s="14"/>
     </row>
     <row r="36" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="27"/>
-      <c r="C36" s="28"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="27"/>
       <c r="D36" s="14"/>
     </row>
     <row r="37" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="27"/>
-      <c r="C37" s="28"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="27"/>
       <c r="D37" s="14"/>
     </row>
     <row r="38" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="27"/>
-      <c r="C38" s="28"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="27"/>
       <c r="D38" s="14"/>
     </row>
     <row r="39" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="27"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="35"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="34"/>
     </row>
     <row r="40" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="27"/>
-      <c r="C40" s="32"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="31"/>
       <c r="D40" s="14"/>
     </row>
     <row r="41" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6634,7 +6673,7 @@
   </sheetPr>
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -6649,11 +6688,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -6678,7 +6717,7 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="26"/>
+      <c r="A2" s="25"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -6688,34 +6727,34 @@
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
     </row>
     <row r="3" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="36">
+      <c r="B3" s="35">
         <v>44459</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="36">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D3" s="14" t="s">
@@ -6723,10 +6762,10 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="36">
+      <c r="B4" s="35">
         <v>44463</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="36">
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -6734,10 +6773,10 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="36">
+      <c r="B5" s="35">
         <v>44463</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="36">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D5" s="14" t="s">
@@ -6745,21 +6784,21 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="36">
+      <c r="B6" s="35">
         <v>44468</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="36">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="28" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="36">
+      <c r="B7" s="35">
         <v>44477</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="36">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -6767,10 +6806,10 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="36">
+      <c r="B8" s="35">
         <v>44479</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="36" t="s">
         <v>80</v>
       </c>
       <c r="D8" s="14" t="s">
@@ -6778,10 +6817,10 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="36">
+      <c r="B9" s="35">
         <v>44485</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="36" t="s">
         <v>78</v>
       </c>
       <c r="D9" s="14" t="s">
@@ -6789,18 +6828,18 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="14"/>
     </row>
     <row r="11" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coral\OneDrive\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA3C687-41E6-4C1E-B19D-AC4265FD676B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680CD57E-ACF3-4948-A8A0-D4B50169B5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5202,7 +5202,7 @@
   <dimension ref="A1:Z1009"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5620,7 +5620,9 @@
       </c>
     </row>
     <row r="34" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="27"/>
+      <c r="B34" s="27">
+        <v>18</v>
+      </c>
       <c r="C34" s="28"/>
       <c r="D34" s="14"/>
     </row>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coral\OneDrive\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680CD57E-ACF3-4948-A8A0-D4B50169B5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C26F32-3E8C-4AFE-B854-0F84839DC865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5620,9 +5620,7 @@
       </c>
     </row>
     <row r="34" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="27">
-        <v>18</v>
-      </c>
+      <c r="B34" s="27"/>
       <c r="C34" s="28"/>
       <c r="D34" s="14"/>
     </row>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coral\OneDrive\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C26F32-3E8C-4AFE-B854-0F84839DC865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425EF1AE-4695-47A2-AC05-3830332D8FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="84">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>Prise de note pour présentation A1</t>
+  </si>
+  <si>
+    <t>Mise à jour des tâches du Trello</t>
   </si>
 </sst>
 </file>
@@ -5202,7 +5205,7 @@
   <dimension ref="A1:Z1009"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5620,9 +5623,15 @@
       </c>
     </row>
     <row r="34" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="27"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="14"/>
+      <c r="B34" s="27">
+        <v>44490</v>
+      </c>
+      <c r="C34" s="28">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="35" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="27"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coral\OneDrive\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425EF1AE-4695-47A2-AC05-3830332D8FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1862FA4E-12EB-41F7-9704-A6A900828BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="85">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -277,6 +277,9 @@
   </si>
   <si>
     <t>Mise à jour des tâches du Trello</t>
+  </si>
+  <si>
+    <t>Vérification du PV3</t>
   </si>
 </sst>
 </file>
@@ -5205,7 +5208,7 @@
   <dimension ref="A1:Z1009"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5634,9 +5637,15 @@
       </c>
     </row>
     <row r="35" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="14"/>
+      <c r="B35" s="27">
+        <v>44493</v>
+      </c>
+      <c r="C35" s="28">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="36" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="27"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coral\OneDrive\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B09FCD4-03CE-4C04-A285-AFF84871A051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B404604-DA98-41AE-BE55-E7F15B08C192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="90">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -261,15 +261,9 @@
     <t>Réunion de groupe</t>
   </si>
   <si>
-    <t>0h30</t>
-  </si>
-  <si>
     <t xml:space="preserve">Conversation avec Waview pour maj </t>
   </si>
   <si>
-    <t>1h30</t>
-  </si>
-  <si>
     <t>Création des maquettes v1</t>
   </si>
   <si>
@@ -282,24 +276,15 @@
     <t>Vérification du PV3</t>
   </si>
   <si>
-    <t>1h</t>
-  </si>
-  <si>
     <t>Correction et mise en page du PV</t>
   </si>
   <si>
-    <t>0h20</t>
-  </si>
-  <si>
     <t xml:space="preserve">Maj du gitignore pour enlever tous les fichiers parasites </t>
   </si>
   <si>
     <t>Création du fichier avec les logins sur le serveur de Waview.ch</t>
   </si>
   <si>
-    <t>0h45</t>
-  </si>
-  <si>
     <t>mise en place de l'accès à la base de données + ressources pour les membres du GREP</t>
   </si>
   <si>
@@ -307,6 +292,9 @@
   </si>
   <si>
     <t>Débrifing de la réunion A1 en groupe</t>
+  </si>
+  <si>
+    <t>Modification du planning</t>
   </si>
 </sst>
 </file>
@@ -604,7 +592,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -725,12 +713,6 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -740,101 +722,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF504A3B"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FFE39202"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Bookman Old Style"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEE1AE"/>
-          <bgColor rgb="FFFEE1AE"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -940,6 +841,38 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF504A3B"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
@@ -974,6 +907,39 @@
         <b/>
         <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFE39202"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
@@ -997,6 +963,31 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Bookman Old Style"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEE1AE"/>
+          <bgColor rgb="FFFEE1AE"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1327,8 +1318,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:D19">
-  <autoFilter ref="B2:D19" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:D23">
+  <autoFilter ref="B2:D23" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DATE" dataDxfId="14"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="DURÉE" dataDxfId="13"/>
@@ -1339,10 +1330,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau3" displayName="Tableau3" ref="B2:D18">
-  <autoFilter ref="B2:D18" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D18">
-    <sortCondition ref="B2:B18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau3" displayName="Tableau3" ref="B2:D26">
+  <autoFilter ref="B2:D26" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D26">
+    <sortCondition ref="B2:B26"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE" dataDxfId="11"/>
@@ -1357,9 +1348,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D43" totalsRowCount="1">
   <autoFilter ref="B2:D42" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="8" totalsRowDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="7" totalsRowDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ÉVÉNEMENT" dataDxfId="6" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ÉVÉNEMENT" dataDxfId="4" totalsRowDxfId="3"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1369,9 +1360,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tableau2" displayName="Tableau2" ref="B2:D14">
   <autoFilter ref="B2:D14" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="DATE" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DURÉE" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ÉVÉNEMENT" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="DATE" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DURÉE" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ÉVÉNEMENT" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1593,7 +1584,7 @@
   </sheetPr>
   <dimension ref="A1:Z1004"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1608,11 +1599,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -1765,22 +1756,22 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:26" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="44"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
     </row>
     <row r="15" spans="1:26" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="8"/>
-      <c r="C15" s="42"/>
+      <c r="C15" s="40"/>
       <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:26" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="8"/>
-      <c r="C16" s="42"/>
+      <c r="C16" s="40"/>
       <c r="D16" s="10"/>
     </row>
     <row r="17" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2797,10 +2788,10 @@
     <tabColor rgb="FFD8B1CB"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1012"/>
+  <dimension ref="A1:Z1016"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+    <sheetView showGridLines="0" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2814,11 +2805,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3030,15 +3021,31 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="17"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="14"/>
-    </row>
-    <row r="20" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="45"/>
+    </row>
+    <row r="20" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="45"/>
+    </row>
+    <row r="21" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="45"/>
+    </row>
+    <row r="22" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="45"/>
+    </row>
+    <row r="23" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="17"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="14"/>
+    </row>
     <row r="24" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4028,6 +4035,10 @@
     <row r="1010" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1011" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1012" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1013" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1014" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1015" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1016" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
@@ -4046,10 +4057,10 @@
     <tabColor rgb="FFBBDEC9"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1002"/>
+  <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4063,11 +4074,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4257,23 +4268,61 @@
       </c>
     </row>
     <row r="17" spans="2:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="24"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="14"/>
-    </row>
-    <row r="18" spans="2:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="25"/>
+      <c r="B17" s="24">
+        <v>44494</v>
+      </c>
+      <c r="C17" s="23">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" s="20" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="24"/>
       <c r="C18" s="23"/>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:4" s="20" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="24"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="2:4" s="20" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="24"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="2:4" s="20" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="24"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="2:4" s="20" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="24"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="2:4" s="20" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="24"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="2:4" s="20" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="24"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" spans="2:4" s="20" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="24"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" spans="2:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="25"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="14"/>
+    </row>
     <row r="27" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5250,6 +5299,14 @@
     <row r="1000" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1001" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1002" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1003" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1004" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1005" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1006" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1007" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1008" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1009" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1010" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
@@ -5270,7 +5327,7 @@
   </sheetPr>
   <dimension ref="A1:Z1012"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A30" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -5285,11 +5342,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -5685,7 +5742,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5696,7 +5753,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5707,7 +5764,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5718,7 +5775,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6745,8 +6802,8 @@
   </sheetPr>
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6760,11 +6817,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -6881,66 +6938,66 @@
       <c r="B8" s="36">
         <v>44479</v>
       </c>
-      <c r="C8" s="37" t="s">
-        <v>80</v>
+      <c r="C8" s="37">
+        <v>6.25E-2</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="36">
         <v>44485</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="37">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>78</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="36">
         <v>44488</v>
       </c>
-      <c r="C10" s="37" t="s">
-        <v>85</v>
+      <c r="C10" s="37">
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="36">
         <v>44494</v>
       </c>
-      <c r="C11" s="37" t="s">
-        <v>87</v>
+      <c r="C11" s="37">
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="36">
         <v>44494</v>
       </c>
-      <c r="C12" s="37" t="s">
-        <v>90</v>
+      <c r="C12" s="37">
+        <v>3.125E-2</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:26" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="38">
         <v>44494</v>
       </c>
-      <c r="C13" s="39" t="s">
-        <v>78</v>
+      <c r="C13" s="39">
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:26" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coral\OneDrive\Documents\GitHub\WavContact\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B404604-DA98-41AE-BE55-E7F15B08C192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829A43DB-5B7F-40C6-91C0-F6B4AB164D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="240" windowWidth="18400" windowHeight="9960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="95">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -295,6 +295,21 @@
   </si>
   <si>
     <t>Modification du planning</t>
+  </si>
+  <si>
+    <t>Recherche de nouveaux risques (Waview et nous)</t>
+  </si>
+  <si>
+    <t>Mise à jour document vision selon retour lors de la réunion A1</t>
+  </si>
+  <si>
+    <t>Prise de note pour la présentation A1</t>
+  </si>
+  <si>
+    <t>Vérification + correction du PV (réunion A1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remplissage sprint + backlog </t>
   </si>
 </sst>
 </file>
@@ -722,20 +737,110 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF504A3B"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFE39202"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Bookman Old Style"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEE1AE"/>
+          <bgColor rgb="FFFEE1AE"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -841,38 +946,6 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF504A3B"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
@@ -907,39 +980,6 @@
         <b/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FFE39202"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
@@ -963,31 +1003,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Bookman Old Style"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEE1AE"/>
-          <bgColor rgb="FFFEE1AE"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1318,8 +1333,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:D23">
-  <autoFilter ref="B2:D23" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:D25">
+  <autoFilter ref="B2:D25" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DATE" dataDxfId="14"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="DURÉE" dataDxfId="13"/>
@@ -1348,9 +1363,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D43" totalsRowCount="1">
   <autoFilter ref="B2:D42" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ÉVÉNEMENT" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="8" totalsRowDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="7" totalsRowDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ÉVÉNEMENT" dataDxfId="6" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1360,9 +1375,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tableau2" displayName="Tableau2" ref="B2:D14">
   <autoFilter ref="B2:D14" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="DATE" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DURÉE" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ÉVÉNEMENT" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="DATE" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DURÉE" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ÉVÉNEMENT" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1599,11 +1614,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2788,10 +2803,10 @@
     <tabColor rgb="FFD8B1CB"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1016"/>
+  <dimension ref="A1:Z1018"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2805,11 +2820,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3022,32 +3037,70 @@
       </c>
     </row>
     <row r="19" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="45"/>
+      <c r="B19" s="17">
+        <v>44487</v>
+      </c>
+      <c r="C19" s="18">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="20" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="45"/>
+      <c r="B20" s="17">
+        <v>44491</v>
+      </c>
+      <c r="C20" s="18">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="21" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="45"/>
+      <c r="B21" s="17">
+        <v>44493</v>
+      </c>
+      <c r="C21" s="18">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="22" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="45"/>
-    </row>
-    <row r="23" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="17"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="14"/>
-    </row>
-    <row r="24" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="B22" s="17">
+        <v>44494</v>
+      </c>
+      <c r="C22" s="18">
+        <v>3.125E-2</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="17">
+        <v>44497</v>
+      </c>
+      <c r="C23" s="18">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="43"/>
+    </row>
+    <row r="25" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="17"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="14"/>
+    </row>
     <row r="26" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4039,6 +4092,8 @@
     <row r="1014" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1015" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1016" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1017" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1018" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
@@ -4059,7 +4114,7 @@
   </sheetPr>
   <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -4074,11 +4129,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -5327,8 +5382,8 @@
   </sheetPr>
   <dimension ref="A1:Z1012"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5342,11 +5397,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -6802,8 +6857,8 @@
   </sheetPr>
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6817,11 +6872,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829A43DB-5B7F-40C6-91C0-F6B4AB164D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA360F4-7807-4BAF-9727-838ABC7064F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="240" windowWidth="18400" windowHeight="9960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="96">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -310,6 +310,9 @@
   </si>
   <si>
     <t xml:space="preserve">Remplissage sprint + backlog </t>
+  </si>
+  <si>
+    <t>Création ordre du jour pour la réunion A2</t>
   </si>
 </sst>
 </file>
@@ -756,96 +759,6 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF504A3B"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FFE39202"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Bookman Old Style"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEE1AE"/>
-          <bgColor rgb="FFFEE1AE"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
@@ -946,6 +859,38 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF504A3B"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
@@ -980,6 +925,39 @@
         <b/>
         <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFE39202"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
@@ -1003,6 +981,31 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Bookman Old Style"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEE1AE"/>
+          <bgColor rgb="FFFEE1AE"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1333,8 +1336,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:D25">
-  <autoFilter ref="B2:D25" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:D26">
+  <autoFilter ref="B2:D26" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DATE" dataDxfId="14"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="DURÉE" dataDxfId="13"/>
@@ -1363,9 +1366,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D43" totalsRowCount="1">
   <autoFilter ref="B2:D42" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="8" totalsRowDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="7" totalsRowDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ÉVÉNEMENT" dataDxfId="6" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ÉVÉNEMENT" dataDxfId="4" totalsRowDxfId="3"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1375,9 +1378,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tableau2" displayName="Tableau2" ref="B2:D14">
   <autoFilter ref="B2:D14" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="DATE" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DURÉE" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ÉVÉNEMENT" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="DATE" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DURÉE" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ÉVÉNEMENT" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2803,10 +2806,10 @@
     <tabColor rgb="FFD8B1CB"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1018"/>
+  <dimension ref="A1:Z1019"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B17" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3082,26 +3085,36 @@
     </row>
     <row r="23" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="17">
+        <v>44494</v>
+      </c>
+      <c r="C23" s="18">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="17">
         <v>44497</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C24" s="18">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D23" s="43" t="s">
+      <c r="D24" s="43" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="43"/>
-    </row>
-    <row r="25" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="17"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="14"/>
-    </row>
-    <row r="26" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="43"/>
+    </row>
+    <row r="26" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="17"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="14"/>
+    </row>
     <row r="27" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4094,6 +4107,7 @@
     <row r="1016" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1017" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1018" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1019" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\WavContact\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coral\OneDrive\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA360F4-7807-4BAF-9727-838ABC7064F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66496993-B99F-4761-8F9B-589EB663E63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="240" windowWidth="18400" windowHeight="9960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="100">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -313,6 +313,18 @@
   </si>
   <si>
     <t>Création ordre du jour pour la réunion A2</t>
+  </si>
+  <si>
+    <t>Ajout des annexes avec Coralie</t>
+  </si>
+  <si>
+    <t>Écriture des sprints et du backlog avec Coralie</t>
+  </si>
+  <si>
+    <t>Écriture des sprints et du backlog avec Angela</t>
+  </si>
+  <si>
+    <t>Ajout des annexes avec Angela</t>
   </si>
 </sst>
 </file>
@@ -610,7 +622,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -734,12 +746,6 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -754,6 +760,96 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF504A3B"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFE39202"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Bookman Old Style"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEE1AE"/>
+          <bgColor rgb="FFFEE1AE"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -859,38 +955,6 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF504A3B"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
@@ -925,39 +989,6 @@
         <b/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FFE39202"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
@@ -981,31 +1012,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Bookman Old Style"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEE1AE"/>
-          <bgColor rgb="FFFEE1AE"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1336,8 +1342,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:D26">
-  <autoFilter ref="B2:D26" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:D28">
+  <autoFilter ref="B2:D28" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DATE" dataDxfId="14"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="DURÉE" dataDxfId="13"/>
@@ -1366,9 +1372,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D43" totalsRowCount="1">
   <autoFilter ref="B2:D42" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ÉVÉNEMENT" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="8" totalsRowDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="7" totalsRowDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ÉVÉNEMENT" dataDxfId="6" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1378,9 +1384,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tableau2" displayName="Tableau2" ref="B2:D14">
   <autoFilter ref="B2:D14" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="DATE" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DURÉE" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ÉVÉNEMENT" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="DATE" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DURÉE" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ÉVÉNEMENT" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1602,8 +1608,8 @@
   </sheetPr>
   <dimension ref="A1:Z1004"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1617,11 +1623,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -1779,13 +1785,13 @@
     </row>
     <row r="14" spans="1:26" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="42"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:26" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="8"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="10"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:26" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="8"/>
@@ -2806,10 +2812,10 @@
     <tabColor rgb="FFD8B1CB"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1019"/>
+  <dimension ref="A1:Z1021"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B17" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView showGridLines="0" topLeftCell="B18" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2823,11 +2829,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3046,7 +3052,7 @@
       <c r="C19" s="18">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="D19" s="43" t="s">
+      <c r="D19" s="41" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3057,7 +3063,7 @@
       <c r="C20" s="18">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D20" s="43" t="s">
+      <c r="D20" s="41" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3068,7 +3074,7 @@
       <c r="C21" s="18">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="41" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3079,7 +3085,7 @@
       <c r="C22" s="18">
         <v>3.125E-2</v>
       </c>
-      <c r="D22" s="43" t="s">
+      <c r="D22" s="41" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3090,7 +3096,7 @@
       <c r="C23" s="18">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="41" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3101,22 +3107,42 @@
       <c r="C24" s="18">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="41" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="25" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="17"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="43"/>
-    </row>
-    <row r="26" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="17"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="14"/>
-    </row>
-    <row r="27" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="B25" s="17">
+        <v>44497</v>
+      </c>
+      <c r="C25" s="18">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="17">
+        <v>44497</v>
+      </c>
+      <c r="C26" s="18">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="41"/>
+    </row>
+    <row r="28" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="17"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="14"/>
+    </row>
     <row r="29" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4108,6 +4134,8 @@
     <row r="1017" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1018" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1019" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1020" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1021" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
@@ -4143,11 +4171,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -5396,8 +5424,8 @@
   </sheetPr>
   <dimension ref="A1:Z1012"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5411,11 +5439,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -5848,14 +5876,26 @@
       </c>
     </row>
     <row r="37" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="27"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="14"/>
+      <c r="B37" s="27">
+        <v>44497</v>
+      </c>
+      <c r="C37" s="28">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D37" s="41" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="38" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="27"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="14"/>
+      <c r="B38" s="27">
+        <v>44497</v>
+      </c>
+      <c r="C38" s="28">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D38" s="41" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="39" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="27"/>
@@ -6886,11 +6926,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coral\OneDrive\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66496993-B99F-4761-8F9B-589EB663E63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091DC218-00D8-4245-9317-CCA491CD5213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="101">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -325,6 +325,9 @@
   </si>
   <si>
     <t>Ajout des annexes avec Angela</t>
+  </si>
+  <si>
+    <t>Suite de l'écriture des sprints et du backlog et finalisation du document de vision avec Angela</t>
   </si>
 </sst>
 </file>
@@ -2814,8 +2817,8 @@
   </sheetPr>
   <dimension ref="A1:Z1021"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B18" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B20" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3134,9 +3137,15 @@
       </c>
     </row>
     <row r="27" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="17"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="41"/>
+      <c r="B27" s="17">
+        <v>44501</v>
+      </c>
+      <c r="C27" s="18">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="28" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="17"/>
@@ -5424,8 +5433,8 @@
   </sheetPr>
   <dimension ref="A1:Z1012"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5898,9 +5907,15 @@
       </c>
     </row>
     <row r="39" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="27"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="14"/>
+      <c r="B39" s="27">
+        <v>44501</v>
+      </c>
+      <c r="C39" s="28">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D39" s="41" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="40" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="27"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coral\OneDrive\Documents\GitHub\WavContact\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091DC218-00D8-4245-9317-CCA491CD5213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D631A4F-8C06-409C-9E36-BE3EB13DFF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="102">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -328,6 +328,9 @@
   </si>
   <si>
     <t>Suite de l'écriture des sprints et du backlog et finalisation du document de vision avec Angela</t>
+  </si>
+  <si>
+    <t>Suite de l'écriture des sprints et du backlog et finalisation du document de vision avec Coralie</t>
   </si>
 </sst>
 </file>
@@ -1611,7 +1614,7 @@
   </sheetPr>
   <dimension ref="A1:Z1004"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -2817,8 +2820,8 @@
   </sheetPr>
   <dimension ref="A1:Z1021"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B20" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3144,7 +3147,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5434,7 +5437,7 @@
   <dimension ref="A1:Z1012"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\WavContact\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coral\OneDrive\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D631A4F-8C06-409C-9E36-BE3EB13DFF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43600245-473D-4169-88D9-09B6D27BB486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="107">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -331,6 +331,21 @@
   </si>
   <si>
     <t>Suite de l'écriture des sprints et du backlog et finalisation du document de vision avec Coralie</t>
+  </si>
+  <si>
+    <t>Mise à jour document vision version 2</t>
+  </si>
+  <si>
+    <t>Mise à jour du document de vision</t>
+  </si>
+  <si>
+    <t>Envoi du mail à David pour vérification</t>
+  </si>
+  <si>
+    <t>Envoi du mail à Waview pour la demande de rendez-vous</t>
+  </si>
+  <si>
+    <t>Envoi du mail au groupe d'encadrement pour A2</t>
   </si>
 </sst>
 </file>
@@ -1348,8 +1363,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:D28">
-  <autoFilter ref="B2:D28" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:D29">
+  <autoFilter ref="B2:D29" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DATE" dataDxfId="14"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="DURÉE" dataDxfId="13"/>
@@ -1375,8 +1390,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D43" totalsRowCount="1">
-  <autoFilter ref="B2:D42" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D45" totalsRowCount="1">
+  <autoFilter ref="B2:D44" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="8" totalsRowDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="7" totalsRowDxfId="1"/>
@@ -1614,7 +1629,7 @@
   </sheetPr>
   <dimension ref="A1:Z1004"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -2818,10 +2833,10 @@
     <tabColor rgb="FFD8B1CB"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1021"/>
+  <dimension ref="A1:Z1022"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3150,12 +3165,22 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="17"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="14"/>
-    </row>
-    <row r="29" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="17">
+        <v>44504</v>
+      </c>
+      <c r="C28" s="18">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="17"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="14"/>
+    </row>
     <row r="30" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4148,6 +4173,7 @@
     <row r="1019" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1020" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1021" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1022" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
@@ -4168,7 +4194,7 @@
   </sheetPr>
   <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -4388,9 +4414,15 @@
       </c>
     </row>
     <row r="18" spans="2:4" s="20" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="24"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="14"/>
+      <c r="B18" s="24">
+        <v>44504</v>
+      </c>
+      <c r="C18" s="23">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="19" spans="2:4" s="20" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="24"/>
@@ -5434,10 +5466,10 @@
     <tabColor rgb="FFFEE1AE"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1012"/>
+  <dimension ref="A1:Z1014"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5921,27 +5953,59 @@
       </c>
     </row>
     <row r="40" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="27"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="14"/>
+      <c r="B40" s="27">
+        <v>44501</v>
+      </c>
+      <c r="C40" s="28">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="41" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="27"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="14"/>
-    </row>
-    <row r="42" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="27"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="35"/>
-    </row>
-    <row r="43" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="27"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="14"/>
-    </row>
-    <row r="44" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="B41" s="27">
+        <v>44501</v>
+      </c>
+      <c r="C41" s="28">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="27">
+        <v>44504</v>
+      </c>
+      <c r="C42" s="28">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="27">
+        <v>44504</v>
+      </c>
+      <c r="C43" s="28">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="27"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="35"/>
+    </row>
+    <row r="45" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="27"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="14"/>
+    </row>
     <row r="46" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6909,6 +6973,8 @@
     <row r="1010" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1011" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1012" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1013" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1014" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
@@ -6930,7 +6996,7 @@
   <dimension ref="A1:Z990"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aurelie/Documents/GitHub/WavContact/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/constantin/Documents/GitHub/WavContact/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5389E37A-BD3C-1D47-9CA9-8E3D463CE50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D695D49-3C34-2944-AE2F-E17FCA48D4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="116">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -355,6 +355,24 @@
   </si>
   <si>
     <t>Débrifing de la réunion A2 en groupe</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>Finalisation des maquettes</t>
+  </si>
+  <si>
+    <t>0h30</t>
+  </si>
+  <si>
+    <t>Mise au propre du PV + prise de rendez-vous avec Waview</t>
+  </si>
+  <si>
+    <t>Mise en page du PV avec la reunion de Waview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reunion avec le mandant </t>
   </si>
 </sst>
 </file>
@@ -1411,8 +1429,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tableau2" displayName="Tableau2" ref="B2:D14">
-  <autoFilter ref="B2:D14" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tableau2" displayName="Tableau2" ref="B2:D16">
+  <autoFilter ref="B2:D16" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="DATE" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DURÉE" dataDxfId="1"/>
@@ -1638,8 +1656,8 @@
   </sheetPr>
   <dimension ref="A1:Z1004"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1836,9 +1854,15 @@
       </c>
     </row>
     <row r="16" spans="1:26" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="8"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="10"/>
+      <c r="B16" s="8">
+        <v>44508</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="17" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="8"/>
@@ -4215,7 +4239,7 @@
   </sheetPr>
   <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
@@ -5496,7 +5520,7 @@
   <dimension ref="A1:Z1014"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="B39" sqref="B39:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7022,8 +7046,8 @@
   </sheetPr>
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7221,19 +7245,37 @@
       </c>
     </row>
     <row r="14" spans="1:26" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="35"/>
+      <c r="B14" s="38">
+        <v>44502</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="15" spans="1:26" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="36"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="14"/>
+      <c r="B15" s="38">
+        <v>44506</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="16" spans="1:26" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="14"/>
+      <c r="B16" s="38">
+        <v>44508</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="17" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="36"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coral\OneDrive\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A0C6A5-9711-466E-B442-7AAF440E847C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05814489-43CB-45B3-BC50-21C95801DA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="120">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -379,6 +379,12 @@
   </si>
   <si>
     <t>Envoi du PV par mail</t>
+  </si>
+  <si>
+    <t>Ajouts des mails envoyés et reçus dans le dossier Mails</t>
+  </si>
+  <si>
+    <t>Création du document du plan d'assurance qualité et écriture avec Angela</t>
   </si>
 </sst>
 </file>
@@ -1384,8 +1390,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau5" displayName="Tableau5" ref="B2:D18">
-  <autoFilter ref="B2:D18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau5" displayName="Tableau5" ref="B2:D19">
+  <autoFilter ref="B2:D19" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATE" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DURÉE" dataDxfId="16"/>
@@ -1660,7 +1666,7 @@
     <tabColor rgb="FF84E1FF"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1004"/>
+  <dimension ref="A1:Z1005"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
@@ -1870,17 +1876,21 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="8"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="14"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="16"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="15"/>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="16"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="14"/>
+    </row>
     <row r="20" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2866,6 +2876,7 @@
     <row r="1002" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1003" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1004" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1005" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
@@ -5526,7 +5537,7 @@
   <dimension ref="A1:Z1018"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:XFD46"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6076,14 +6087,26 @@
       </c>
     </row>
     <row r="46" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="27"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="14"/>
+      <c r="B46" s="27">
+        <v>44515</v>
+      </c>
+      <c r="C46" s="28">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="47" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="27"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="14"/>
+      <c r="B47" s="27">
+        <v>44515</v>
+      </c>
+      <c r="C47" s="28">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="48" spans="2:4" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="27"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aurelie/Documents/GitHub/WavContact/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF139D20-7AAB-9B41-AA3D-1F6BB81E074C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13F6945-89BA-264B-B92F-C9B13BBB54D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="128">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -404,15 +404,9 @@
     <t>Création du document du plan d'assurance qualité et écriture avec Coralie</t>
   </si>
   <si>
-    <t>1h15</t>
-  </si>
-  <si>
     <t>Modélisation BDD sur WinDesign</t>
   </si>
   <si>
-    <t>2h00</t>
-  </si>
-  <si>
     <t>Cours Qualité (travaille sur le Plan d'assurance qualité)</t>
   </si>
   <si>
@@ -423,6 +417,9 @@
   </si>
   <si>
     <t>Mise à jour des répertoires dans le GitHub et mise à jour du Trello</t>
+  </si>
+  <si>
+    <t>Création du BurnDown Chart</t>
   </si>
 </sst>
 </file>
@@ -443,39 +440,46 @@
       <sz val="11"/>
       <color rgb="FF504A3B"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="31"/>
       <color rgb="FF39352A"/>
       <name val="Bookman Old Style"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF39352A"/>
       <name val="Bookman Old Style"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Bookman Old Style"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF007498"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF504A3B"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
@@ -483,30 +487,35 @@
       <sz val="12"/>
       <color rgb="FF94497A"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="9"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF3F835B"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFE39202"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF504A3B"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -547,7 +556,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -729,11 +738,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -851,12 +869,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -877,6 +889,54 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1746,11 +1806,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -1786,13 +1846,13 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="41">
+      <c r="B3" s="39">
         <v>44384</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="40">
         <v>6.25E-2</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="41" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1896,13 +1956,13 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="46">
+      <c r="B13" s="44">
         <v>44488</v>
       </c>
-      <c r="C13" s="47">
+      <c r="C13" s="45">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="41" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1910,10 +1970,10 @@
       <c r="B14" s="5">
         <v>44505</v>
       </c>
-      <c r="C14" s="44">
+      <c r="C14" s="42">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="43" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2960,8 +3020,8 @@
   </sheetPr>
   <dimension ref="A1:Z1026"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2975,11 +3035,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3069,25 +3129,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:26" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="14">
         <v>44467</v>
       </c>
       <c r="C8" s="15">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="41" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:26" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B9" s="14">
         <v>44468</v>
       </c>
       <c r="C9" s="15">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="52" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3191,25 +3251,25 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="14">
+    <row r="19" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="50">
         <v>44487</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="51">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="61" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B20" s="14">
         <v>44491</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="48">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="49" t="s">
         <v>90</v>
       </c>
     </row>
@@ -4363,8 +4423,8 @@
   </sheetPr>
   <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4378,11 +4438,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4560,25 +4620,25 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="21">
+    <row r="16" spans="1:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="59">
         <v>44483</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="60">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:4" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B17" s="21">
         <v>44497</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="58">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="43" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4601,7 +4661,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="2:4" s="17" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4630,22 +4690,22 @@
       <c r="B22" s="21">
         <v>44518</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="20">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>122</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="23" spans="2:4" s="17" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="21">
         <v>44519</v>
       </c>
-      <c r="C23" s="20" t="s">
-        <v>124</v>
+      <c r="C23" s="20">
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="2:4" s="17" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4660,9 +4720,15 @@
       </c>
     </row>
     <row r="25" spans="2:4" s="17" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="21"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="11"/>
+      <c r="B25" s="21">
+        <v>44519</v>
+      </c>
+      <c r="C25" s="20">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="26" spans="2:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="22"/>
@@ -5673,8 +5739,8 @@
   </sheetPr>
   <dimension ref="A1:Z1020"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5688,11 +5754,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -6080,25 +6146,25 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="24">
+    <row r="33" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="56">
         <v>44487</v>
       </c>
-      <c r="C33" s="25">
+      <c r="C33" s="57">
         <v>3.125E-2</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="41" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B34" s="24">
         <v>44490</v>
       </c>
       <c r="C34" s="25">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="43" t="s">
         <v>81</v>
       </c>
     </row>
@@ -6253,7 +6319,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6264,7 +6330,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7267,7 +7333,7 @@
   <dimension ref="A1:Z990"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7281,11 +7347,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -7420,25 +7486,25 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="33">
+    <row r="10" spans="1:26" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="54">
         <v>44488</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="55">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="41" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:26" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B11" s="33">
         <v>44494</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="53">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="43" t="s">
         <v>84</v>
       </c>
     </row>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Constantin\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50319E4-563E-46A1-8D4F-D9D905112E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F68F374-7352-4376-B11D-A2953D489E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15435" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="14970" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="143">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -446,9 +446,6 @@
     <t>Mise en place et connexion et à la base de données WW</t>
   </si>
   <si>
-    <t>Faire les vues dans VISUAL STUDIO (aucune logique)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mise en ligne du code login sur le serveur de Waview </t>
   </si>
   <si>
@@ -456,6 +453,18 @@
   </si>
   <si>
     <t>Création du code c# afin de ce logger sur le serveur de WavContact</t>
+  </si>
+  <si>
+    <t>Faire la vue login et la logique de threading pour l'accès à l'api</t>
+  </si>
+  <si>
+    <t>Recherche HTTPClient</t>
+  </si>
+  <si>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>Quelques fonctionnalités (dark + light mode, login remember)</t>
   </si>
 </sst>
 </file>
@@ -466,7 +475,7 @@
     <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
     <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF504A3B"/>
@@ -593,26 +602,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="9" tint="0.39997558519241921"/>
-      <name val="Bookman Old Style"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="9" tint="0.39997558519241921"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9" tint="0.39997558519241921"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -850,7 +839,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1064,20 +1053,14 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1708,8 +1691,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tableau2" displayName="Tableau2" ref="B2:D21">
-  <autoFilter ref="B2:D21" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tableau2" displayName="Tableau2" ref="B2:D23">
+  <autoFilter ref="B2:D23" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="DATE" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DURÉE" dataDxfId="1"/>
@@ -1950,11 +1933,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3179,11 +3162,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4626,11 +4609,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -5942,11 +5925,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -7541,8 +7524,8 @@
   </sheetPr>
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7556,11 +7539,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -7795,12 +7778,14 @@
       </c>
     </row>
     <row r="19" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="71">
+      <c r="B19" s="68">
         <v>44521</v>
       </c>
-      <c r="C19" s="72"/>
-      <c r="D19" s="73" t="s">
-        <v>136</v>
+      <c r="C19" s="73" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="67" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7808,10 +7793,10 @@
         <v>44522</v>
       </c>
       <c r="C20" s="69" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D20" s="70" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7822,18 +7807,30 @@
         <v>132</v>
       </c>
       <c r="D21" s="70" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="68">
+        <v>44523</v>
+      </c>
+      <c r="C22" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" s="70" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="33"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="11"/>
-    </row>
     <row r="23" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="33"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="11"/>
+      <c r="B23" s="68">
+        <v>44523</v>
+      </c>
+      <c r="C23" s="69" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="70" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="24" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="33"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\WavContact\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coral\OneDrive\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805EF84E-F97F-403E-B845-C5C79BF77D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8545BA96-0432-400A-8001-903691EA3F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="146">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -471,6 +471,9 @@
   </si>
   <si>
     <t>Préparation réunion A2-1</t>
+  </si>
+  <si>
+    <t>Finalisation de l'écriture du Plan d'assurance qualité</t>
   </si>
 </sst>
 </file>
@@ -481,7 +484,7 @@
     <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
     <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF504A3B"/>
@@ -609,6 +612,12 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -845,7 +854,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1068,11 +1077,110 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF504A3B"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFE39202"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Bookman Old Style"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEE1AE"/>
+          <bgColor rgb="FFFEE1AE"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1178,39 +1286,6 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF504A3B"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
@@ -1245,40 +1320,6 @@
         <b/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FFE39202"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
@@ -1302,32 +1343,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Bookman Old Style"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEE1AE"/>
-          <bgColor rgb="FFFEE1AE"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1688,9 +1703,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D54" totalsRowCount="1">
   <autoFilter ref="B2:D53" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ÉVÉNEMENT" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="8" totalsRowDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="7" totalsRowDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ÉVÉNEMENT" dataDxfId="6" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1700,9 +1715,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tableau2" displayName="Tableau2" ref="B2:D23">
   <autoFilter ref="B2:D23" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="DATE" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DURÉE" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ÉVÉNEMENT" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="DATE" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DURÉE" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ÉVÉNEMENT" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3159,8 +3174,8 @@
   </sheetPr>
   <dimension ref="A1:Z1031"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3578,24 +3593,24 @@
       </c>
     </row>
     <row r="36" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="60">
+      <c r="B36" s="74">
         <v>44521</v>
       </c>
-      <c r="C36" s="61">
+      <c r="C36" s="71">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D36" s="38" t="s">
+      <c r="D36" s="75" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="37" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="60">
+      <c r="B37" s="74">
         <v>44524</v>
       </c>
-      <c r="C37" s="61">
+      <c r="C37" s="71">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D37" s="38" t="s">
+      <c r="D37" s="75" t="s">
         <v>143</v>
       </c>
     </row>
@@ -4602,9 +4617,9 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.45000000000000007" right="0.45000000000000007" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5933,8 +5948,8 @@
   </sheetPr>
   <dimension ref="A1:Z1023"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51:D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6539,9 +6554,15 @@
       </c>
     </row>
     <row r="51" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="63"/>
-      <c r="C51" s="64"/>
-      <c r="D51" s="62"/>
+      <c r="B51" s="65">
+        <v>44525</v>
+      </c>
+      <c r="C51" s="66">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D51" s="67" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="52" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="63"/>
@@ -7548,7 +7569,7 @@
   <dimension ref="A1:Z990"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E42C545-355B-4549-A495-4591DF4E7116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93788E80-6459-4653-8521-4AA9F9B6BA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="151">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -485,7 +485,10 @@
     <t>Modélisation BDD</t>
   </si>
   <si>
-    <t>Création powerPoint pour Plan Assurance Qualité</t>
+    <t>Création PowerPoint pour la réunion A2-1</t>
+  </si>
+  <si>
+    <t>Création PowerPoint pour Plan Assurance Qualité</t>
   </si>
 </sst>
 </file>
@@ -1697,8 +1700,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:D39">
-  <autoFilter ref="B2:D39" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:D40">
+  <autoFilter ref="B2:D40" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DATE" dataDxfId="14"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="DURÉE" dataDxfId="13"/>
@@ -3196,10 +3199,10 @@
     <tabColor rgb="FFD8B1CB"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1032"/>
+  <dimension ref="A1:Z1033"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="B39" sqref="B39:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3646,15 +3649,25 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D38" s="72" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="71">
+        <v>44525</v>
+      </c>
+      <c r="C39" s="70">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D39" s="72" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="39" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="14"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="11"/>
-    </row>
-    <row r="40" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="14"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="11"/>
+    </row>
     <row r="41" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4647,6 +4660,7 @@
     <row r="1030" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1031" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1032" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1033" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\WavContact\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coral\OneDrive\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93788E80-6459-4653-8521-4AA9F9B6BA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACE3D78-C087-45C5-8BC6-F7C7E68EB7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="152">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -489,6 +489,9 @@
   </si>
   <si>
     <t>Création PowerPoint pour Plan Assurance Qualité</t>
+  </si>
+  <si>
+    <t>Envoi mail pour réunion avec enseignant Point de contrôle</t>
   </si>
 </sst>
 </file>
@@ -499,7 +502,7 @@
     <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
     <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF504A3B"/>
@@ -596,17 +599,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF94497A"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF504A3B"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFE39202"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -869,7 +861,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1053,55 +1045,46 @@
     <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1115,6 +1098,99 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF504A3B"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFE39202"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Bookman Old Style"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEE1AE"/>
+          <bgColor rgb="FFFEE1AE"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1220,39 +1296,6 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF504A3B"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
@@ -1287,40 +1330,6 @@
         <b/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FFE39202"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
@@ -1344,32 +1353,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Bookman Old Style"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEE1AE"/>
-          <bgColor rgb="FFFEE1AE"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1730,9 +1713,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D54" totalsRowCount="1">
   <autoFilter ref="B2:D53" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ÉVÉNEMENT" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="8" totalsRowDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="7" totalsRowDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ÉVÉNEMENT" dataDxfId="6" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1742,9 +1725,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tableau2" displayName="Tableau2" ref="B2:D23">
   <autoFilter ref="B2:D23" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="DATE" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DURÉE" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ÉVÉNEMENT" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="DATE" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DURÉE" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ÉVÉNEMENT" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1981,11 +1964,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2175,13 +2158,13 @@
       </c>
     </row>
     <row r="17" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="73">
+      <c r="B17" s="70">
         <v>44522</v>
       </c>
-      <c r="C17" s="65">
+      <c r="C17" s="62">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D17" s="74" t="s">
+      <c r="D17" s="71" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3201,7 +3184,7 @@
   </sheetPr>
   <dimension ref="A1:Z1033"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="B39" sqref="B39:D39"/>
     </sheetView>
   </sheetViews>
@@ -3216,11 +3199,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3620,46 +3603,46 @@
       </c>
     </row>
     <row r="36" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="71">
+      <c r="B36" s="68">
         <v>44521</v>
       </c>
-      <c r="C36" s="70">
+      <c r="C36" s="67">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D36" s="72" t="s">
+      <c r="D36" s="69" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="37" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="71">
+      <c r="B37" s="68">
         <v>44524</v>
       </c>
-      <c r="C37" s="70">
+      <c r="C37" s="67">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D37" s="72" t="s">
+      <c r="D37" s="69" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="38" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="71">
+      <c r="B38" s="68">
         <v>44525</v>
       </c>
-      <c r="C38" s="70">
+      <c r="C38" s="67">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D38" s="72" t="s">
+      <c r="D38" s="69" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="39" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="71">
+      <c r="B39" s="68">
         <v>44525</v>
       </c>
-      <c r="C39" s="70">
+      <c r="C39" s="67">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D39" s="72" t="s">
+      <c r="D39" s="69" t="s">
         <v>149</v>
       </c>
     </row>
@@ -4696,11 +4679,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4989,33 +4972,33 @@
       </c>
     </row>
     <row r="26" spans="2:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="76">
+      <c r="B26" s="73">
         <v>44524</v>
       </c>
-      <c r="C26" s="70">
+      <c r="C26" s="67">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D26" s="66" t="s">
+      <c r="D26" s="63" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="76">
+      <c r="B27" s="73">
         <v>44524</v>
       </c>
-      <c r="C27" s="77">
+      <c r="C27" s="74">
         <v>3.125E-2</v>
       </c>
-      <c r="D27" s="66" t="s">
+      <c r="D27" s="63" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="76">
+      <c r="B28" s="73">
         <v>44525</v>
       </c>
-      <c r="C28" s="70"/>
-      <c r="D28" s="66" t="s">
+      <c r="C28" s="67"/>
+      <c r="D28" s="63" t="s">
         <v>148</v>
       </c>
     </row>
@@ -5031,7 +5014,7 @@
     </row>
     <row r="31" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="21"/>
-      <c r="C31" s="75"/>
+      <c r="C31" s="72"/>
       <c r="D31" s="31"/>
     </row>
     <row r="32" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6033,8 +6016,8 @@
   </sheetPr>
   <dimension ref="A1:Z1023"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51:D51"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52:D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6048,11 +6031,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -6628,31 +6611,37 @@
       </c>
     </row>
     <row r="50" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="64">
+      <c r="B50" s="61">
         <v>44520</v>
       </c>
-      <c r="C50" s="65">
+      <c r="C50" s="62">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D50" s="66" t="s">
+      <c r="D50" s="63" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="51" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="64">
+      <c r="B51" s="61">
         <v>44525</v>
       </c>
-      <c r="C51" s="65">
+      <c r="C51" s="62">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D51" s="66" t="s">
+      <c r="D51" s="63" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="52" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="62"/>
-      <c r="C52" s="63"/>
-      <c r="D52" s="61"/>
+      <c r="B52" s="61">
+        <v>44525</v>
+      </c>
+      <c r="C52" s="62">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="D52" s="63" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="53" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="23"/>
@@ -7668,11 +7657,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -7885,79 +7874,79 @@
       </c>
     </row>
     <row r="17" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="67">
+      <c r="B17" s="64">
         <v>44520</v>
       </c>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="D17" s="69" t="s">
+      <c r="D17" s="66" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="18" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="67">
+      <c r="B18" s="64">
         <v>44520</v>
       </c>
-      <c r="C18" s="68" t="s">
+      <c r="C18" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="D18" s="69" t="s">
+      <c r="D18" s="66" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="19" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="67">
+      <c r="B19" s="64">
         <v>44521</v>
       </c>
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="66" t="s">
+      <c r="D19" s="63" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="20" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="67">
+      <c r="B20" s="64">
         <v>44522</v>
       </c>
-      <c r="C20" s="68" t="s">
+      <c r="C20" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="D20" s="69" t="s">
+      <c r="D20" s="66" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="21" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="67">
+      <c r="B21" s="64">
         <v>44522</v>
       </c>
-      <c r="C21" s="68" t="s">
+      <c r="C21" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="D21" s="69" t="s">
+      <c r="D21" s="66" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="22" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="67">
+      <c r="B22" s="64">
         <v>44523</v>
       </c>
-      <c r="C22" s="68" t="s">
+      <c r="C22" s="65" t="s">
         <v>141</v>
       </c>
-      <c r="D22" s="69" t="s">
+      <c r="D22" s="66" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="23" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="67">
+      <c r="B23" s="64">
         <v>44523</v>
       </c>
-      <c r="C23" s="68" t="s">
+      <c r="C23" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="D23" s="69" t="s">
+      <c r="D23" s="66" t="s">
         <v>142</v>
       </c>
     </row>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aurelie/Documents/GitHub/WavContact/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D27F70-E239-B74B-B5D6-AB16C17BF6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C64894-C853-8749-B274-AC9D25EFCAA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="149">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -434,24 +434,15 @@
     <t>Suite de l'écriture du Plan d'assurance qualité</t>
   </si>
   <si>
-    <t>1h30</t>
-  </si>
-  <si>
     <t xml:space="preserve">Code du login </t>
   </si>
   <si>
-    <t>0h45</t>
-  </si>
-  <si>
     <t>Mise en place et connexion et à la base de données WW</t>
   </si>
   <si>
     <t xml:space="preserve">Mise en ligne du code login sur le serveur de Waview </t>
   </si>
   <si>
-    <t>0h30</t>
-  </si>
-  <si>
     <t>Création du code c# afin de ce logger sur le serveur de WavContact</t>
   </si>
   <si>
@@ -461,9 +452,6 @@
     <t>Recherche HTTPClient</t>
   </si>
   <si>
-    <t>4h</t>
-  </si>
-  <si>
     <t>Quelques fonctionnalités (dark + light mode, login remember)</t>
   </si>
   <si>
@@ -479,9 +467,6 @@
     <t>Relecture et modification du PAQ</t>
   </si>
   <si>
-    <t>Recherche logicil pour remplasser WinDesign</t>
-  </si>
-  <si>
     <t>Modélisation BDD</t>
   </si>
   <si>
@@ -495,6 +480,9 @@
   </si>
   <si>
     <t>Mise à jour modélisation</t>
+  </si>
+  <si>
+    <t>Recherche logiciel pour remplasser WinDesign</t>
   </si>
 </sst>
 </file>
@@ -505,7 +493,7 @@
     <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
     <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF504A3B"/>
@@ -609,27 +597,18 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Bookman Old Style"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -866,7 +845,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1050,13 +1029,37 @@
     <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="15" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1068,134 +1071,11 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF504A3B"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FFE39202"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Bookman Old Style"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEE1AE"/>
-          <bgColor rgb="FFFEE1AE"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1301,6 +1181,39 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF504A3B"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
@@ -1335,6 +1248,40 @@
         <b/>
         <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFE39202"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
@@ -1358,6 +1305,32 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Bookman Old Style"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEE1AE"/>
+          <bgColor rgb="FFFEE1AE"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1718,9 +1691,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D54" totalsRowCount="1">
   <autoFilter ref="B2:D53" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="8" totalsRowDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="7" totalsRowDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ÉVÉNEMENT" dataDxfId="6" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ÉVÉNEMENT" dataDxfId="4" totalsRowDxfId="3"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1730,9 +1703,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tableau2" displayName="Tableau2" ref="B2:D23">
   <autoFilter ref="B2:D23" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="DATE" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DURÉE" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ÉVÉNEMENT" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="DATE" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DURÉE" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ÉVÉNEMENT" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1954,8 +1927,8 @@
   </sheetPr>
   <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:D17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1969,11 +1942,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2163,14 +2136,14 @@
       </c>
     </row>
     <row r="17" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="70">
+      <c r="B17" s="64">
         <v>44522</v>
       </c>
-      <c r="C17" s="62">
+      <c r="C17" s="36">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D17" s="71" t="s">
-        <v>144</v>
+      <c r="D17" s="65" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3189,8 +3162,8 @@
   </sheetPr>
   <dimension ref="A1:Z1033"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39:D39"/>
+    <sheetView showGridLines="0" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3204,11 +3177,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3608,47 +3581,47 @@
       </c>
     </row>
     <row r="36" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="68">
+      <c r="B36" s="66">
         <v>44521</v>
       </c>
-      <c r="C36" s="67">
+      <c r="C36" s="60">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D36" s="69" t="s">
+      <c r="D36" s="68" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="37" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="68">
+      <c r="B37" s="66">
         <v>44524</v>
       </c>
-      <c r="C37" s="67">
+      <c r="C37" s="60">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D37" s="69" t="s">
-        <v>143</v>
+      <c r="D37" s="68" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="68">
+      <c r="B38" s="66">
         <v>44525</v>
       </c>
-      <c r="C38" s="67">
+      <c r="C38" s="60">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D38" s="69" t="s">
-        <v>150</v>
+      <c r="D38" s="68" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="68">
+      <c r="B39" s="66">
         <v>44525</v>
       </c>
-      <c r="C39" s="67">
+      <c r="C39" s="60">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D39" s="69" t="s">
-        <v>149</v>
+      <c r="D39" s="68" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4669,8 +4642,8 @@
   </sheetPr>
   <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4684,11 +4657,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4977,47 +4950,47 @@
       </c>
     </row>
     <row r="26" spans="2:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="73">
+      <c r="B26" s="69">
         <v>44524</v>
       </c>
-      <c r="C26" s="67">
+      <c r="C26" s="20">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D26" s="63" t="s">
-        <v>146</v>
+      <c r="D26" s="70" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="73">
+      <c r="B27" s="69">
         <v>44524</v>
       </c>
-      <c r="C27" s="74">
+      <c r="C27" s="20">
         <v>3.125E-2</v>
       </c>
-      <c r="D27" s="63" t="s">
+      <c r="D27" s="70" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="69">
+        <v>44525</v>
+      </c>
+      <c r="C28" s="20">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D28" s="70" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="69">
+        <v>44525</v>
+      </c>
+      <c r="C29" s="20">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D29" s="70" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="73">
-        <v>44525</v>
-      </c>
-      <c r="C28" s="67">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D28" s="63" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="73">
-        <v>44525</v>
-      </c>
-      <c r="C29" s="67">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="D29" s="63" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5027,7 +5000,7 @@
     </row>
     <row r="31" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="21"/>
-      <c r="C31" s="72"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="31"/>
     </row>
     <row r="32" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5062,7 +5035,7 @@
     </row>
     <row r="38" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="21"/>
-      <c r="C38" s="72"/>
+      <c r="C38" s="61"/>
       <c r="D38" s="31"/>
     </row>
     <row r="39" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6058,7 +6031,7 @@
   <dimension ref="A1:Z1023"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="C50" sqref="C50:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6072,11 +6045,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -6652,36 +6625,36 @@
       </c>
     </row>
     <row r="50" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="61">
+      <c r="B50" s="71">
         <v>44520</v>
       </c>
-      <c r="C50" s="62">
+      <c r="C50" s="24">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D50" s="63" t="s">
+      <c r="D50" s="70" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="51" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="61">
+      <c r="B51" s="71">
         <v>44524</v>
       </c>
-      <c r="C51" s="62">
+      <c r="C51" s="24">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D51" s="63" t="s">
-        <v>145</v>
+      <c r="D51" s="70" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="61">
+      <c r="B52" s="71">
         <v>44525</v>
       </c>
-      <c r="C52" s="62">
+      <c r="C52" s="24">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="D52" s="63" t="s">
-        <v>151</v>
+      <c r="D52" s="70" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7683,8 +7656,8 @@
   </sheetPr>
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7698,11 +7671,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -7915,80 +7888,80 @@
       </c>
     </row>
     <row r="17" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="64">
+      <c r="B17" s="72">
         <v>44520</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="73">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D17" s="74" t="s">
         <v>132</v>
       </c>
-      <c r="D17" s="66" t="s">
+    </row>
+    <row r="18" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="72">
+        <v>44520</v>
+      </c>
+      <c r="C18" s="73">
+        <v>3.125E-2</v>
+      </c>
+      <c r="D18" s="74" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="64">
-        <v>44520</v>
-      </c>
-      <c r="C18" s="65" t="s">
+    <row r="19" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="72">
+        <v>44521</v>
+      </c>
+      <c r="C19" s="67">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D19" s="70" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="72">
+        <v>44522</v>
+      </c>
+      <c r="C20" s="73">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D20" s="74" t="s">
         <v>134</v>
       </c>
-      <c r="D18" s="66" t="s">
+    </row>
+    <row r="21" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="72">
+        <v>44522</v>
+      </c>
+      <c r="C21" s="73">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D21" s="74" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="64">
-        <v>44521</v>
-      </c>
-      <c r="C19" s="67" t="s">
-        <v>137</v>
-      </c>
-      <c r="D19" s="63" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="64">
-        <v>44522</v>
-      </c>
-      <c r="C20" s="65" t="s">
-        <v>137</v>
-      </c>
-      <c r="D20" s="66" t="s">
+    <row r="22" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="72">
+        <v>44523</v>
+      </c>
+      <c r="C22" s="73">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D22" s="74" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="64">
-        <v>44522</v>
-      </c>
-      <c r="C21" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="D21" s="66" t="s">
+    <row r="23" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="72">
+        <v>44523</v>
+      </c>
+      <c r="C23" s="73">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D23" s="74" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="64">
-        <v>44523</v>
-      </c>
-      <c r="C22" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="D22" s="66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="64">
-        <v>44523</v>
-      </c>
-      <c r="C23" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="D23" s="66" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="24" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75DC1F6-2AD2-4CE1-9259-946FEF0BC081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCA780B-B9E2-43E6-B90F-3B6303D911B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aurelie/Documents/GitHub/WavContact/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046F8D1F-F934-A94E-8158-873B6C0856B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3D94C8-DD9B-3F44-A301-E9AF382991B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10000" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -514,7 +514,7 @@
     <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
     <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF504A3B"/>
@@ -669,12 +669,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF94497A"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -714,7 +708,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -905,11 +899,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -949,9 +954,6 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1135,26 +1137,59 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="21" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1162,17 +1197,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2030,8 +2059,8 @@
   </sheetPr>
   <dimension ref="A1:Z1008"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2045,11 +2074,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2085,13 +2114,13 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="38">
+      <c r="B3" s="37">
         <v>44384</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="38">
         <v>6.25E-2</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="39" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2195,28 +2224,28 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="43">
+      <c r="B13" s="42">
         <v>44488</v>
       </c>
-      <c r="C13" s="44">
+      <c r="C13" s="43">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="39" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:26" s="17" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:26" s="16" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B14" s="5">
         <v>44505</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C14" s="40">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="41" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:26" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="5">
         <v>44505</v>
       </c>
@@ -2227,70 +2256,70 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:26" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="5">
         <v>44508</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="35">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="61">
+    <row r="17" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="60">
         <v>44522</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="35">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D17" s="62" t="s">
+      <c r="D17" s="61" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="78">
+    <row r="18" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="60">
         <v>44526</v>
       </c>
-      <c r="C18" s="76">
+      <c r="C18" s="35">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D18" s="79" t="s">
+      <c r="D18" s="61" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="78">
+    <row r="19" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="60">
         <v>44526</v>
       </c>
-      <c r="C19" s="76">
+      <c r="C19" s="35">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D19" s="79" t="s">
+      <c r="D19" s="61" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="78">
+    <row r="20" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="80">
         <v>44526</v>
       </c>
-      <c r="C20" s="76">
+      <c r="C20" s="81">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D20" s="79" t="s">
+      <c r="D20" s="82" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="5"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="11"/>
+    <row r="21" spans="2:4" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="75"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="84"/>
     </row>
     <row r="22" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="13"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="11"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="74"/>
     </row>
     <row r="23" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="24" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3298,8 +3327,8 @@
   </sheetPr>
   <dimension ref="A1:Z1034"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3313,11 +3342,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3353,427 +3382,427 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <v>44459</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>44462</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>44463</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>44464</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>44466</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>44467</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="39" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>44468</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="48" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>44479</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>44480</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>3.125E-2</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>44480</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="17"/>
-      <c r="B13" s="14">
+      <c r="A13" s="16"/>
+      <c r="B13" s="13">
         <v>44482</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <v>44482</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="14">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="14">
+    <row r="15" spans="1:26" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="13">
         <v>44482</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="14">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="14">
+    <row r="16" spans="1:26" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="13">
         <v>44484</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="14">
         <v>0.125</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="14">
+    <row r="17" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="13">
         <v>44484</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="14">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="14">
+    <row r="18" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="13">
         <v>44485</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="14">
         <v>0.10416666666666667</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="47">
+    <row r="19" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="46">
         <v>44487</v>
       </c>
-      <c r="C19" s="48">
+      <c r="C19" s="47">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="57" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="14">
+    <row r="20" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="13">
         <v>44491</v>
       </c>
-      <c r="C20" s="45">
+      <c r="C20" s="44">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D20" s="46" t="s">
+      <c r="D20" s="45" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="14">
+    <row r="21" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="13">
         <v>44493</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="14">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="36" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="14">
+    <row r="22" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="13">
         <v>44494</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="14">
         <v>3.125E-2</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="36" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="14">
+    <row r="23" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="13">
         <v>44494</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="14">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="36" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="14">
+    <row r="24" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="13">
         <v>44497</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="14">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="36" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="14">
+    <row r="25" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="13">
         <v>44497</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="14">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="36" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="14">
+    <row r="26" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="13">
         <v>44497</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="14">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="36" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="14">
+    <row r="27" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="13">
         <v>44501</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="36" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="14">
+    <row r="28" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="13">
         <v>44504</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="14">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="36" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="59">
+    <row r="29" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="58">
         <v>44505</v>
       </c>
-      <c r="C29" s="60">
+      <c r="C29" s="59">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="36" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="14">
+    <row r="30" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="13">
         <v>44506</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="14">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="36" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="14">
+    <row r="31" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="13">
         <v>44515</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="14">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D31" s="37" t="s">
+      <c r="D31" s="36" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="14">
+    <row r="32" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="13">
         <v>44517</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="14">
         <v>0.1875</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="36" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="14">
+    <row r="33" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="13">
         <v>44518</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="14">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D33" s="37" t="s">
+      <c r="D33" s="36" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="59">
+    <row r="34" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="58">
         <v>44519</v>
       </c>
-      <c r="C34" s="60">
+      <c r="C34" s="59">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D34" s="37" t="s">
+      <c r="D34" s="36" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="2:4" s="17" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="59">
+    <row r="35" spans="2:4" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="58">
         <v>44519</v>
       </c>
-      <c r="C35" s="60">
+      <c r="C35" s="59">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D35" s="37" t="s">
+      <c r="D35" s="36" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="63">
+    <row r="36" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="62">
         <v>44521</v>
       </c>
-      <c r="C36" s="60">
+      <c r="C36" s="59">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D36" s="65" t="s">
+      <c r="D36" s="64" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="63">
+    <row r="37" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="62">
         <v>44524</v>
       </c>
-      <c r="C37" s="60">
+      <c r="C37" s="59">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D37" s="65" t="s">
+      <c r="D37" s="64" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="38" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="63">
+    <row r="38" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="62">
         <v>44525</v>
       </c>
-      <c r="C38" s="60">
+      <c r="C38" s="59">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D38" s="65" t="s">
+      <c r="D38" s="64" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="63">
+    <row r="39" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="86">
         <v>44525</v>
       </c>
-      <c r="C39" s="60">
+      <c r="C39" s="87">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D39" s="65" t="s">
+      <c r="D39" s="88" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="40" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="80">
+    <row r="40" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="62">
         <v>44528</v>
       </c>
-      <c r="C40" s="81">
+      <c r="C40" s="59">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D40" s="37" t="s">
+      <c r="D40" s="64" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="14"/>
-      <c r="C41" s="18"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="11"/>
     </row>
     <row r="42" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4789,8 +4818,8 @@
   </sheetPr>
   <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4804,11 +4833,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4844,10 +4873,10 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="19">
+      <c r="B3" s="18">
         <v>44323</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="19">
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -4855,10 +4884,10 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="21">
+      <c r="B4" s="20">
         <v>44460</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="19">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D4" s="11" t="s">
@@ -4866,10 +4895,10 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="21">
+      <c r="B5" s="20">
         <v>44461</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="19">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D5" s="11" t="s">
@@ -4877,10 +4906,10 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="21">
+      <c r="B6" s="20">
         <v>44463</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="19">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="D6" s="11" t="s">
@@ -4888,10 +4917,10 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="21">
+      <c r="B7" s="20">
         <v>44465</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="19">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D7" s="11" t="s">
@@ -4899,10 +4928,10 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="21">
+      <c r="B8" s="20">
         <v>44468</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="19">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D8" s="11" t="s">
@@ -4910,10 +4939,10 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="21">
+      <c r="B9" s="20">
         <v>44472</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="19">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D9" s="11" t="s">
@@ -4921,10 +4950,10 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="21">
+      <c r="B10" s="20">
         <v>44472</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="19">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D10" s="11" t="s">
@@ -4932,10 +4961,10 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="21">
+      <c r="B11" s="20">
         <v>44472</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="19">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D11" s="11" t="s">
@@ -4943,10 +4972,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="21">
+      <c r="B12" s="20">
         <v>44477</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="19">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D12" s="11" t="s">
@@ -4954,10 +4983,10 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="21">
+      <c r="B13" s="20">
         <v>44479</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="19">
         <v>0.125</v>
       </c>
       <c r="D13" s="11" t="s">
@@ -4965,10 +4994,10 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="21">
+      <c r="B14" s="20">
         <v>44479</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="19">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D14" s="11" t="s">
@@ -4976,10 +5005,10 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="21">
+      <c r="B15" s="20">
         <v>44479</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="19">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D15" s="11" t="s">
@@ -4987,109 +5016,109 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="56">
+      <c r="B16" s="55">
         <v>44483</v>
       </c>
-      <c r="C16" s="57">
+      <c r="C16" s="56">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="39" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="21">
+      <c r="B17" s="20">
         <v>44497</v>
       </c>
-      <c r="C17" s="55">
+      <c r="C17" s="54">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="2:4" s="17" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="21">
+    <row r="18" spans="2:4" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="20">
         <v>44504</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="19">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="2:4" s="17" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="21">
+    <row r="19" spans="2:4" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="20">
         <v>44505</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="19">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="2:4" s="17" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="21">
+    <row r="20" spans="2:4" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="20">
         <v>44505</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="19">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="2:4" s="17" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="21">
+    <row r="21" spans="2:4" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="20">
         <v>44515</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="19">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="2:4" s="17" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="21">
+    <row r="22" spans="2:4" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="20">
         <v>44518</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="19">
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="2:4" s="17" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="21">
+    <row r="23" spans="2:4" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="20">
         <v>44519</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="19">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="2:4" s="17" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="21">
+    <row r="24" spans="2:4" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="20">
         <v>44519</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="19">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="2:4" s="17" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="21">
+    <row r="25" spans="2:4" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="20">
         <v>44519</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="19">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D25" s="11" t="s">
@@ -5097,111 +5126,111 @@
       </c>
     </row>
     <row r="26" spans="2:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="66">
+      <c r="B26" s="65">
         <v>44524</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="19">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D26" s="67" t="s">
+      <c r="D26" s="66" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="66">
+      <c r="B27" s="65">
         <v>44524</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="19">
         <v>3.125E-2</v>
       </c>
-      <c r="D27" s="67" t="s">
+      <c r="D27" s="66" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="66">
+      <c r="B28" s="65">
         <v>44525</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="19">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D28" s="67" t="s">
+      <c r="D28" s="66" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="66">
+    <row r="29" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="89">
         <v>44525</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="56">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D29" s="67" t="s">
+      <c r="D29" s="90" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="84">
+    <row r="30" spans="2:4" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="65">
         <v>44532</v>
       </c>
-      <c r="C30" s="85">
+      <c r="C30" s="19">
         <v>3.125E-2</v>
       </c>
-      <c r="D30" s="77" t="s">
+      <c r="D30" s="66" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="84">
+      <c r="B31" s="65">
         <v>44533</v>
       </c>
-      <c r="C31" s="86">
+      <c r="C31" s="19">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="D31" s="87" t="s">
+      <c r="D31" s="66" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="84">
+      <c r="B32" s="65">
         <v>44533</v>
       </c>
-      <c r="C32" s="85">
+      <c r="C32" s="19">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="D32" s="77" t="s">
+      <c r="D32" s="66" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="84"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="77"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="74"/>
     </row>
     <row r="34" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="84"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="77"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="74"/>
     </row>
     <row r="35" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="84"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="77"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="74"/>
     </row>
     <row r="36" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="84"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="77"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="74"/>
     </row>
     <row r="37" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="84"/>
-      <c r="C37" s="85"/>
-      <c r="D37" s="77"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="74"/>
     </row>
     <row r="38" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="84"/>
-      <c r="C38" s="86"/>
-      <c r="D38" s="87"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="79"/>
     </row>
     <row r="39" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="40" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6195,8 +6224,8 @@
   </sheetPr>
   <dimension ref="A1:Z1026"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55:D55"/>
+    <sheetView showGridLines="0" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54:D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6210,11 +6239,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -6239,7 +6268,7 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22"/>
+      <c r="A2" s="21"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -6249,34 +6278,34 @@
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
     </row>
     <row r="3" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="23">
+      <c r="B3" s="22">
         <v>44459</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="23">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -6284,10 +6313,10 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="23">
+      <c r="B4" s="22">
         <v>44459</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="23">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D4" s="11" t="s">
@@ -6295,10 +6324,10 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="23">
+      <c r="B5" s="22">
         <v>44461</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="23">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D5" s="11" t="s">
@@ -6306,10 +6335,10 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="23">
+      <c r="B6" s="22">
         <v>44465</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="23">
         <v>0.125</v>
       </c>
       <c r="D6" s="11" t="s">
@@ -6317,10 +6346,10 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="23">
+      <c r="B7" s="22">
         <v>44465</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="23">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D7" s="11" t="s">
@@ -6328,21 +6357,21 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="23">
+      <c r="B8" s="22">
         <v>44466</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="23">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="23">
+      <c r="B9" s="22">
         <v>44467</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="23">
         <v>3.125E-2</v>
       </c>
       <c r="D9" s="11" t="s">
@@ -6350,10 +6379,10 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="23">
+      <c r="B10" s="22">
         <v>44467</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="23">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D10" s="11" t="s">
@@ -6361,10 +6390,10 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="23">
+      <c r="B11" s="22">
         <v>44467</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="25">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D11" s="11" t="s">
@@ -6372,10 +6401,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="23">
+      <c r="B12" s="22">
         <v>44470</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="26">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D12" s="11" t="s">
@@ -6383,10 +6412,10 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="23">
+      <c r="B13" s="22">
         <v>44472</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="27">
         <v>6.25E-2</v>
       </c>
       <c r="D13" s="11" t="s">
@@ -6394,10 +6423,10 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="23">
+      <c r="B14" s="22">
         <v>44472</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="27">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D14" s="11" t="s">
@@ -6405,10 +6434,10 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="23">
+      <c r="B15" s="22">
         <v>44472</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="28">
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="D15" s="11" t="s">
@@ -6416,10 +6445,10 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="23">
+      <c r="B16" s="22">
         <v>44477</v>
       </c>
-      <c r="C16" s="30">
+      <c r="C16" s="29">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D16" s="11" t="s">
@@ -6427,10 +6456,10 @@
       </c>
     </row>
     <row r="17" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="23">
+      <c r="B17" s="22">
         <v>44477</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="23">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D17" s="11" t="s">
@@ -6438,10 +6467,10 @@
       </c>
     </row>
     <row r="18" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="23">
+      <c r="B18" s="22">
         <v>44477</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="23">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D18" s="11" t="s">
@@ -6449,10 +6478,10 @@
       </c>
     </row>
     <row r="19" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="23">
+      <c r="B19" s="22">
         <v>44480</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="23">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D19" s="11" t="s">
@@ -6460,10 +6489,10 @@
       </c>
     </row>
     <row r="20" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="23">
+      <c r="B20" s="22">
         <v>44480</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="23">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D20" s="11" t="s">
@@ -6471,10 +6500,10 @@
       </c>
     </row>
     <row r="21" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="23">
+      <c r="B21" s="22">
         <v>44483</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="23">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D21" s="11" t="s">
@@ -6482,10 +6511,10 @@
       </c>
     </row>
     <row r="22" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="23">
+      <c r="B22" s="22">
         <v>44483</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="25">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D22" s="11" t="s">
@@ -6493,10 +6522,10 @@
       </c>
     </row>
     <row r="23" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="23">
+      <c r="B23" s="22">
         <v>44483</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="26">
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D23" s="11" t="s">
@@ -6504,10 +6533,10 @@
       </c>
     </row>
     <row r="24" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="23">
+      <c r="B24" s="22">
         <v>44483</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="27">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D24" s="11" t="s">
@@ -6515,21 +6544,21 @@
       </c>
     </row>
     <row r="25" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="23">
+      <c r="B25" s="22">
         <v>44484</v>
       </c>
-      <c r="C25" s="28">
+      <c r="C25" s="27">
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="23">
+    <row r="26" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="22">
         <v>44485</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="23">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D26" s="11" t="s">
@@ -6537,10 +6566,10 @@
       </c>
     </row>
     <row r="27" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="23">
+      <c r="B27" s="22">
         <v>44485</v>
       </c>
-      <c r="C27" s="28">
+      <c r="C27" s="27">
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D27" s="11" t="s">
@@ -6548,175 +6577,175 @@
       </c>
     </row>
     <row r="28" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="23">
+      <c r="B28" s="22">
         <v>44485</v>
       </c>
-      <c r="C28" s="28">
+      <c r="C28" s="27">
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="23">
+    <row r="29" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="22">
         <v>44485</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="23">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="23">
+    <row r="30" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="22">
         <v>44485</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="23">
         <v>3.125E-2</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="23">
+    <row r="31" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="22">
         <v>44486</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="23">
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="23">
+    <row r="32" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="22">
         <v>44486</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="23">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="53">
+    <row r="33" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="52">
         <v>44487</v>
       </c>
-      <c r="C33" s="54">
+      <c r="C33" s="53">
         <v>3.125E-2</v>
       </c>
-      <c r="D33" s="40" t="s">
+      <c r="D33" s="39" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="23">
+    <row r="34" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="22">
         <v>44490</v>
       </c>
-      <c r="C34" s="24">
+      <c r="C34" s="23">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D34" s="42" t="s">
+      <c r="D34" s="41" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="23">
+    <row r="35" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="22">
         <v>44493</v>
       </c>
-      <c r="C35" s="24">
+      <c r="C35" s="23">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="23">
+    <row r="36" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="22">
         <v>44494</v>
       </c>
-      <c r="C36" s="24">
+      <c r="C36" s="23">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="23">
+    <row r="37" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="22">
         <v>44497</v>
       </c>
-      <c r="C37" s="24">
+      <c r="C37" s="23">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D37" s="37" t="s">
+      <c r="D37" s="36" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="23">
+    <row r="38" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="22">
         <v>44497</v>
       </c>
-      <c r="C38" s="24">
+      <c r="C38" s="23">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D38" s="37" t="s">
+      <c r="D38" s="36" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="23">
+    <row r="39" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="22">
         <v>44501</v>
       </c>
-      <c r="C39" s="24">
+      <c r="C39" s="23">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D39" s="37" t="s">
+      <c r="D39" s="36" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="23">
+    <row r="40" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="22">
         <v>44501</v>
       </c>
-      <c r="C40" s="24">
+      <c r="C40" s="23">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="23">
+    <row r="41" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="22">
         <v>44501</v>
       </c>
-      <c r="C41" s="24">
+      <c r="C41" s="23">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="23">
+    <row r="42" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="22">
         <v>44504</v>
       </c>
-      <c r="C42" s="24">
+      <c r="C42" s="23">
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="23">
+    <row r="43" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="22">
         <v>44504</v>
       </c>
-      <c r="C43" s="24">
+      <c r="C43" s="23">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D43" s="11" t="s">
@@ -6724,145 +6753,145 @@
       </c>
     </row>
     <row r="44" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="23">
+      <c r="B44" s="22">
         <v>44506</v>
       </c>
-      <c r="C44" s="28">
+      <c r="C44" s="27">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D44" s="31" t="s">
+      <c r="D44" s="30" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="23">
+    <row r="45" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="22">
         <v>44475</v>
       </c>
-      <c r="C45" s="24">
+      <c r="C45" s="23">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="23">
+    <row r="46" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="22">
         <v>44515</v>
       </c>
-      <c r="C46" s="24">
+      <c r="C46" s="23">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="23">
+    <row r="47" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="22">
         <v>44515</v>
       </c>
-      <c r="C47" s="24">
+      <c r="C47" s="23">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="23">
+    <row r="48" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="22">
         <v>44518</v>
       </c>
-      <c r="C48" s="24">
+      <c r="C48" s="23">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="23">
+    <row r="49" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="22">
         <v>44519</v>
       </c>
-      <c r="C49" s="24">
+      <c r="C49" s="23">
         <v>6.25E-2</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="68">
+    <row r="50" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="67">
         <v>44520</v>
       </c>
-      <c r="C50" s="24">
+      <c r="C50" s="23">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D50" s="67" t="s">
+      <c r="D50" s="66" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="68">
+    <row r="51" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="67">
         <v>44524</v>
       </c>
-      <c r="C51" s="24">
+      <c r="C51" s="23">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D51" s="67" t="s">
+      <c r="D51" s="66" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="68">
+    <row r="52" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="67">
         <v>44525</v>
       </c>
-      <c r="C52" s="24">
+      <c r="C52" s="23">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="D52" s="67" t="s">
+      <c r="D52" s="66" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="53" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="75">
+    <row r="53" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="91">
         <v>44526</v>
       </c>
-      <c r="C53" s="76">
+      <c r="C53" s="53">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D53" s="77" t="s">
+      <c r="D53" s="90" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="75">
+    <row r="54" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="67">
         <v>44527</v>
       </c>
-      <c r="C54" s="76">
+      <c r="C54" s="23">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D54" s="77" t="s">
+      <c r="D54" s="66" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="75">
+    <row r="55" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="67">
         <v>44529</v>
       </c>
-      <c r="C55" s="76">
+      <c r="C55" s="23">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="D55" s="77" t="s">
+      <c r="D55" s="66" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="72"/>
-      <c r="C56" s="73"/>
-      <c r="D56" s="74"/>
+    <row r="56" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="71"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="73"/>
     </row>
     <row r="57" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="23"/>
-      <c r="C57" s="28"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="27"/>
       <c r="D57" s="11"/>
     </row>
     <row r="58" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7854,8 +7883,8 @@
   </sheetPr>
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7869,11 +7898,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -7898,7 +7927,7 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22"/>
+      <c r="A2" s="21"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -7908,34 +7937,34 @@
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
     </row>
     <row r="3" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="32">
+      <c r="B3" s="31">
         <v>44459</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="32">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -7943,10 +7972,10 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="32">
+      <c r="B4" s="31">
         <v>44463</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="32">
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="D4" s="11" t="s">
@@ -7954,10 +7983,10 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="32">
+      <c r="B5" s="31">
         <v>44463</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="32">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D5" s="11" t="s">
@@ -7965,21 +7994,21 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="32">
+      <c r="B6" s="31">
         <v>44468</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="32">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="24" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="32">
+      <c r="B7" s="31">
         <v>44477</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="32">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D7" s="11" t="s">
@@ -7987,10 +8016,10 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="32">
+      <c r="B8" s="31">
         <v>44479</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="32">
         <v>6.25E-2</v>
       </c>
       <c r="D8" s="11" t="s">
@@ -7998,10 +8027,10 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="32">
+      <c r="B9" s="31">
         <v>44485</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="32">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D9" s="11" t="s">
@@ -8009,172 +8038,172 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="51">
+      <c r="B10" s="50">
         <v>44488</v>
       </c>
-      <c r="C10" s="52">
+      <c r="C10" s="51">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="39" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="32">
+      <c r="B11" s="31">
         <v>44494</v>
       </c>
-      <c r="C11" s="50">
+      <c r="C11" s="49">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="41" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="32">
+      <c r="B12" s="31">
         <v>44494</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="32">
         <v>3.125E-2</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:26" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="34">
+    <row r="13" spans="1:26" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="33">
         <v>44494</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="34">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="30" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:26" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="34">
+    <row r="14" spans="1:26" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="33">
         <v>44502</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="34">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="30" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="34">
+    <row r="15" spans="1:26" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="33">
         <v>44506</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="34">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="30" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="34">
+    <row r="16" spans="1:26" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="33">
         <v>44508</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="34">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="30" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="69">
+    <row r="17" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="68">
         <v>44520</v>
       </c>
-      <c r="C17" s="70">
+      <c r="C17" s="69">
         <v>6.25E-2</v>
       </c>
-      <c r="D17" s="71" t="s">
+      <c r="D17" s="70" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="69">
+    <row r="18" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="68">
         <v>44520</v>
       </c>
-      <c r="C18" s="70">
+      <c r="C18" s="69">
         <v>3.125E-2</v>
       </c>
-      <c r="D18" s="71" t="s">
+      <c r="D18" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="69">
+    <row r="19" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="68">
         <v>44521</v>
       </c>
-      <c r="C19" s="64">
+      <c r="C19" s="63">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D19" s="67" t="s">
+      <c r="D19" s="66" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="69">
+    <row r="20" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="68">
         <v>44522</v>
       </c>
-      <c r="C20" s="70">
+      <c r="C20" s="69">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D20" s="71" t="s">
+      <c r="D20" s="70" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="69">
+    <row r="21" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="68">
         <v>44522</v>
       </c>
-      <c r="C21" s="70">
+      <c r="C21" s="69">
         <v>6.25E-2</v>
       </c>
-      <c r="D21" s="71" t="s">
+      <c r="D21" s="70" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="69">
+    <row r="22" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="68">
         <v>44523</v>
       </c>
-      <c r="C22" s="70">
+      <c r="C22" s="69">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D22" s="71" t="s">
+      <c r="D22" s="70" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="69">
+    <row r="23" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="94">
         <v>44523</v>
       </c>
-      <c r="C23" s="70">
+      <c r="C23" s="95">
         <v>6.25E-2</v>
       </c>
-      <c r="D23" s="71" t="s">
+      <c r="D23" s="90" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="32"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="11"/>
-    </row>
-    <row r="25" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="32"/>
-      <c r="C25" s="33"/>
+    <row r="24" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="31"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="41"/>
+    </row>
+    <row r="25" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
       <c r="D25" s="11"/>
     </row>
-    <row r="26" spans="2:4" s="17" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="32"/>
-      <c r="C26" s="33"/>
+    <row r="26" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
       <c r="D26" s="11"/>
     </row>
     <row r="27" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aurelie/Documents/GitHub/WavContact/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3D94C8-DD9B-3F44-A301-E9AF382991B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CCBAAE-08B6-8546-BA44-53DF8EFBC3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10000" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="158">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -504,6 +504,12 @@
   </si>
   <si>
     <t>Envoie du mail pour la réservation de la salle</t>
+  </si>
+  <si>
+    <t>Mise a jour du BurnDownChart</t>
+  </si>
+  <si>
+    <t>Mise a jour du planning (reformatage des sprint + automatisation des dates)</t>
   </si>
 </sst>
 </file>
@@ -1191,17 +1197,17 @@
     <xf numFmtId="165" fontId="15" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="15" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2059,7 +2065,7 @@
   </sheetPr>
   <dimension ref="A1:Z1008"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -2074,11 +2080,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3342,11 +3348,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4818,8 +4824,8 @@
   </sheetPr>
   <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4833,11 +4839,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -5203,14 +5209,26 @@
       </c>
     </row>
     <row r="33" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="76"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="74"/>
+      <c r="B33" s="76">
+        <v>44533</v>
+      </c>
+      <c r="C33" s="77">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D33" s="74" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="34" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="76"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="74"/>
+      <c r="B34" s="76">
+        <v>44533</v>
+      </c>
+      <c r="C34" s="77">
+        <v>3.125E-2</v>
+      </c>
+      <c r="D34" s="74" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="35" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="76"/>
@@ -6239,11 +6257,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -7898,11 +7916,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -8181,10 +8199,10 @@
       </c>
     </row>
     <row r="23" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="94">
+      <c r="B23" s="92">
         <v>44523</v>
       </c>
-      <c r="C23" s="95">
+      <c r="C23" s="93">
         <v>6.25E-2</v>
       </c>
       <c r="D23" s="90" t="s">

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aurelie/Documents/GitHub/WavContact/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CCBAAE-08B6-8546-BA44-53DF8EFBC3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C5029F-EDAC-834E-88F4-3E3118EEFB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="158">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -2065,8 +2065,8 @@
   </sheetPr>
   <dimension ref="A1:Z1008"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2318,9 +2318,15 @@
       </c>
     </row>
     <row r="21" spans="2:4" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="75"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="84"/>
+      <c r="B21" s="75">
+        <v>44536</v>
+      </c>
+      <c r="C21" s="83">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D21" s="84" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="22" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="85"/>
@@ -4824,7 +4830,7 @@
   </sheetPr>
   <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aurelie/Documents/GitHub/WavContact/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C5029F-EDAC-834E-88F4-3E3118EEFB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40DA0E1-30E2-0C47-B104-1AC077FAF6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="159">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -510,6 +510,9 @@
   </si>
   <si>
     <t>Mise a jour du planning (reformatage des sprint + automatisation des dates)</t>
+  </si>
+  <si>
+    <t>Mise a jour du Trello</t>
   </si>
 </sst>
 </file>
@@ -2065,7 +2068,7 @@
   </sheetPr>
   <dimension ref="A1:Z1008"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -4830,8 +4833,8 @@
   </sheetPr>
   <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5237,9 +5240,15 @@
       </c>
     </row>
     <row r="35" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="76"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="74"/>
+      <c r="B35" s="76">
+        <v>44536</v>
+      </c>
+      <c r="C35" s="77">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D35" s="74" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="36" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="76"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aurelie/Documents/GitHub/WavContact/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4BF55B-CC4B-DA4D-BFA6-44DFCBFE53FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A83E525-2A28-4445-AC35-0C6B08F751CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10000" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -541,7 +541,7 @@
     <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
     <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF504A3B"/>
@@ -597,13 +597,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF94497A"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -677,12 +670,6 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -982,58 +969,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1078,148 +1062,133 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1227,12 +1196,133 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <name val="Bookman Old Style"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEE1AE"/>
+          <bgColor rgb="FFFEE1AE"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1338,39 +1428,6 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
@@ -1402,40 +1459,6 @@
         <b/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FFE39202"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
@@ -1459,32 +1482,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Bookman Old Style"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEE1AE"/>
-          <bgColor rgb="FFFEE1AE"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1806,9 +1803,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau5" displayName="Tableau5" ref="B2:D22">
   <autoFilter ref="B2:D22" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATE" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DURÉE" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ÉVÉNEMENT" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATE" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DURÉE" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ÉVÉNEMENT" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1818,9 +1815,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:D43">
   <autoFilter ref="B2:D43" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DATE" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="DURÉE" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ÉVÉNEMENT" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DATE" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="DURÉE" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ÉVÉNEMENT" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1833,21 +1830,21 @@
     <sortCondition ref="B2:B26"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="DURÉE" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="ÉVÉNEMENT" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="DURÉE" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="ÉVÉNEMENT" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D61" totalsRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D61" totalsRowCount="1" totalsRowDxfId="0">
   <autoFilter ref="B2:D60" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ÉVÉNEMENT" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="9" totalsRowDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="8" totalsRowDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ÉVÉNEMENT" dataDxfId="7" totalsRowDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1857,9 +1854,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tableau2" displayName="Tableau2" ref="B2:D23">
   <autoFilter ref="B2:D23" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="DATE" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DURÉE" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ÉVÉNEMENT" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="DATE" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DURÉE" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ÉVÉNEMENT" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2081,8 +2078,8 @@
   </sheetPr>
   <dimension ref="A1:Z1008"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2096,11 +2093,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2136,13 +2133,13 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="37">
+      <c r="B3" s="36">
         <v>44384</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="37">
         <v>6.25E-2</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="38" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2246,13 +2243,13 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="42">
+      <c r="B13" s="41">
         <v>44488</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="42">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="38" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2260,10 +2257,10 @@
       <c r="B14" s="5">
         <v>44505</v>
       </c>
-      <c r="C14" s="40">
+      <c r="C14" s="39">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="40" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2282,7 +2279,7 @@
       <c r="B16" s="5">
         <v>44508</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="34">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -2290,64 +2287,64 @@
       </c>
     </row>
     <row r="17" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="60">
+      <c r="B17" s="59">
         <v>44522</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17" s="34">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D17" s="61" t="s">
+      <c r="D17" s="60" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="18" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="60">
+      <c r="B18" s="59">
         <v>44526</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="34">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D18" s="61" t="s">
+      <c r="D18" s="60" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="19" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="60">
+      <c r="B19" s="59">
         <v>44526</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="34">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D19" s="61" t="s">
+      <c r="D19" s="60" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="20" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="77">
+      <c r="B20" s="75">
         <v>44526</v>
       </c>
-      <c r="C20" s="78">
+      <c r="C20" s="76">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D20" s="79" t="s">
+      <c r="D20" s="77" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="72">
+      <c r="B21" s="59">
         <v>44536</v>
       </c>
-      <c r="C21" s="80">
+      <c r="C21" s="97">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D21" s="81" t="s">
+      <c r="D21" s="98" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="82"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="71"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="70"/>
     </row>
     <row r="23" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="24" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3355,8 +3352,8 @@
   </sheetPr>
   <dimension ref="A1:Z1036"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40:D42"/>
+    <sheetView showGridLines="0" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43:D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3370,11 +3367,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3471,7 +3468,7 @@
       <c r="C8" s="14">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="38" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3482,7 +3479,7 @@
       <c r="C9" s="14">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="47" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3587,13 +3584,13 @@
       </c>
     </row>
     <row r="19" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="46">
+      <c r="B19" s="45">
         <v>44487</v>
       </c>
-      <c r="C19" s="47">
+      <c r="C19" s="46">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="D19" s="57" t="s">
+      <c r="D19" s="56" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3601,10 +3598,10 @@
       <c r="B20" s="13">
         <v>44491</v>
       </c>
-      <c r="C20" s="44">
+      <c r="C20" s="43">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D20" s="45" t="s">
+      <c r="D20" s="44" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3615,7 +3612,7 @@
       <c r="C21" s="14">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="35" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3626,7 +3623,7 @@
       <c r="C22" s="14">
         <v>3.125E-2</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="35" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3637,7 +3634,7 @@
       <c r="C23" s="14">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="35" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3648,7 +3645,7 @@
       <c r="C24" s="14">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="35" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3659,7 +3656,7 @@
       <c r="C25" s="14">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="35" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3670,7 +3667,7 @@
       <c r="C26" s="14">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="35" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3681,7 +3678,7 @@
       <c r="C27" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="35" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3692,18 +3689,18 @@
       <c r="C28" s="14">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="D28" s="36" t="s">
+      <c r="D28" s="35" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="29" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="58">
+      <c r="B29" s="57">
         <v>44505</v>
       </c>
-      <c r="C29" s="59">
+      <c r="C29" s="58">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="35" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3714,7 +3711,7 @@
       <c r="C30" s="14">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="35" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3725,7 +3722,7 @@
       <c r="C31" s="14">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D31" s="36" t="s">
+      <c r="D31" s="35" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3736,7 +3733,7 @@
       <c r="C32" s="14">
         <v>0.1875</v>
       </c>
-      <c r="D32" s="36" t="s">
+      <c r="D32" s="35" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3747,113 +3744,113 @@
       <c r="C33" s="14">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D33" s="36" t="s">
+      <c r="D33" s="35" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="34" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="58">
+      <c r="B34" s="57">
         <v>44519</v>
       </c>
-      <c r="C34" s="59">
+      <c r="C34" s="58">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D34" s="36" t="s">
+      <c r="D34" s="35" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="35" spans="2:4" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="58">
+      <c r="B35" s="57">
         <v>44519</v>
       </c>
-      <c r="C35" s="59">
+      <c r="C35" s="58">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D35" s="36" t="s">
+      <c r="D35" s="35" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="36" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="62">
+      <c r="B36" s="61">
         <v>44521</v>
       </c>
-      <c r="C36" s="59">
+      <c r="C36" s="58">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D36" s="64" t="s">
+      <c r="D36" s="63" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="37" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="62">
+      <c r="B37" s="61">
         <v>44524</v>
       </c>
-      <c r="C37" s="59">
+      <c r="C37" s="58">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D37" s="64" t="s">
+      <c r="D37" s="63" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="38" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="62">
+      <c r="B38" s="61">
         <v>44525</v>
       </c>
-      <c r="C38" s="59">
+      <c r="C38" s="58">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D38" s="64" t="s">
+      <c r="D38" s="63" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="39" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="83">
+      <c r="B39" s="81">
         <v>44525</v>
       </c>
-      <c r="C39" s="84">
+      <c r="C39" s="82">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D39" s="85" t="s">
+      <c r="D39" s="83" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="40" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="95">
+      <c r="B40" s="61">
         <v>44528</v>
       </c>
-      <c r="C40" s="74">
+      <c r="C40" s="62">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D40" s="96" t="s">
+      <c r="D40" s="63" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="41" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="95">
+      <c r="B41" s="61">
         <v>44543</v>
       </c>
-      <c r="C41" s="74">
+      <c r="C41" s="62">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D41" s="96" t="s">
+      <c r="D41" s="63" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="42" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="95">
+      <c r="B42" s="61">
         <v>44543</v>
       </c>
-      <c r="C42" s="74">
+      <c r="C42" s="62">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D42" s="96" t="s">
+      <c r="D42" s="63" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="13"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="11"/>
+      <c r="B43" s="90"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="70"/>
     </row>
     <row r="44" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="45" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4868,8 +4865,8 @@
   </sheetPr>
   <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4883,11 +4880,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4923,10 +4920,10 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="18">
+      <c r="B3" s="17">
         <v>44323</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="18">
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -4934,10 +4931,10 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="20">
+      <c r="B4" s="19">
         <v>44460</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="18">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D4" s="11" t="s">
@@ -4945,10 +4942,10 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="20">
+      <c r="B5" s="19">
         <v>44461</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="18">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D5" s="11" t="s">
@@ -4956,10 +4953,10 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="20">
+      <c r="B6" s="19">
         <v>44463</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="18">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="D6" s="11" t="s">
@@ -4967,10 +4964,10 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="20">
+      <c r="B7" s="19">
         <v>44465</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D7" s="11" t="s">
@@ -4978,10 +4975,10 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="20">
+      <c r="B8" s="19">
         <v>44468</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="18">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D8" s="11" t="s">
@@ -4989,10 +4986,10 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="20">
+      <c r="B9" s="19">
         <v>44472</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="18">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D9" s="11" t="s">
@@ -5000,10 +4997,10 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="20">
+      <c r="B10" s="19">
         <v>44472</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="18">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D10" s="11" t="s">
@@ -5011,10 +5008,10 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="20">
+      <c r="B11" s="19">
         <v>44472</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="18">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D11" s="11" t="s">
@@ -5022,10 +5019,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="20">
+      <c r="B12" s="19">
         <v>44477</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="18">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D12" s="11" t="s">
@@ -5033,10 +5030,10 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="20">
+      <c r="B13" s="19">
         <v>44479</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="18">
         <v>0.125</v>
       </c>
       <c r="D13" s="11" t="s">
@@ -5044,10 +5041,10 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="20">
+      <c r="B14" s="19">
         <v>44479</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="18">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D14" s="11" t="s">
@@ -5055,10 +5052,10 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="20">
+      <c r="B15" s="19">
         <v>44479</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="18">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D15" s="11" t="s">
@@ -5066,32 +5063,32 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="55">
+      <c r="B16" s="54">
         <v>44483</v>
       </c>
-      <c r="C16" s="56">
+      <c r="C16" s="55">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="38" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="20">
+      <c r="B17" s="19">
         <v>44497</v>
       </c>
-      <c r="C17" s="54">
+      <c r="C17" s="53">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="40" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="2:4" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="20">
+      <c r="B18" s="19">
         <v>44504</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="18">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D18" s="11" t="s">
@@ -5099,10 +5096,10 @@
       </c>
     </row>
     <row r="19" spans="2:4" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="20">
+      <c r="B19" s="19">
         <v>44505</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="18">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D19" s="11" t="s">
@@ -5110,10 +5107,10 @@
       </c>
     </row>
     <row r="20" spans="2:4" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="20">
+      <c r="B20" s="19">
         <v>44505</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="18">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D20" s="11" t="s">
@@ -5121,10 +5118,10 @@
       </c>
     </row>
     <row r="21" spans="2:4" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="20">
+      <c r="B21" s="19">
         <v>44515</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="18">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D21" s="11" t="s">
@@ -5132,10 +5129,10 @@
       </c>
     </row>
     <row r="22" spans="2:4" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="20">
+      <c r="B22" s="19">
         <v>44518</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="18">
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="D22" s="11" t="s">
@@ -5143,10 +5140,10 @@
       </c>
     </row>
     <row r="23" spans="2:4" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="20">
+      <c r="B23" s="19">
         <v>44519</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="18">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D23" s="11" t="s">
@@ -5154,10 +5151,10 @@
       </c>
     </row>
     <row r="24" spans="2:4" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="20">
+      <c r="B24" s="19">
         <v>44519</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="18">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D24" s="11" t="s">
@@ -5165,10 +5162,10 @@
       </c>
     </row>
     <row r="25" spans="2:4" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="20">
+      <c r="B25" s="19">
         <v>44519</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="18">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D25" s="11" t="s">
@@ -5176,141 +5173,141 @@
       </c>
     </row>
     <row r="26" spans="2:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="65">
+      <c r="B26" s="64">
         <v>44524</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="18">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D26" s="66" t="s">
+      <c r="D26" s="65" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="65">
+      <c r="B27" s="64">
         <v>44524</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="18">
         <v>3.125E-2</v>
       </c>
-      <c r="D27" s="66" t="s">
+      <c r="D27" s="65" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="65">
+      <c r="B28" s="64">
         <v>44525</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="18">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D28" s="66" t="s">
+      <c r="D28" s="65" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="86">
+      <c r="B29" s="84">
         <v>44525</v>
       </c>
-      <c r="C29" s="56">
+      <c r="C29" s="55">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D29" s="87" t="s">
+      <c r="D29" s="85" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="65">
+      <c r="B30" s="64">
         <v>44532</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="18">
         <v>3.125E-2</v>
       </c>
-      <c r="D30" s="66" t="s">
+      <c r="D30" s="65" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="65">
+      <c r="B31" s="64">
         <v>44533</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="18">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="D31" s="66" t="s">
+      <c r="D31" s="65" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="65">
+      <c r="B32" s="64">
         <v>44533</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="18">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="D32" s="66" t="s">
+      <c r="D32" s="65" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="73">
+      <c r="B33" s="64">
         <v>44533</v>
       </c>
-      <c r="C33" s="74">
+      <c r="C33" s="62">
         <v>6.25E-2</v>
       </c>
-      <c r="D33" s="71" t="s">
+      <c r="D33" s="65" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="73">
+      <c r="B34" s="64">
         <v>44533</v>
       </c>
-      <c r="C34" s="74">
+      <c r="C34" s="62">
         <v>3.125E-2</v>
       </c>
-      <c r="D34" s="71" t="s">
+      <c r="D34" s="65" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="73">
+      <c r="B35" s="64">
         <v>44536</v>
       </c>
-      <c r="C35" s="74">
+      <c r="C35" s="62">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D35" s="71" t="s">
+      <c r="D35" s="65" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="73">
+      <c r="B36" s="64">
         <v>44543</v>
       </c>
-      <c r="C36" s="74">
+      <c r="C36" s="62">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D36" s="71" t="s">
+      <c r="D36" s="65" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="73">
+      <c r="B37" s="64">
         <v>44543</v>
       </c>
-      <c r="C37" s="74">
+      <c r="C37" s="62">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D37" s="71" t="s">
+      <c r="D37" s="65" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="73"/>
-      <c r="C38" s="75"/>
-      <c r="D38" s="76"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="74"/>
     </row>
     <row r="39" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="40" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6304,8 +6301,8 @@
   </sheetPr>
   <dimension ref="A1:Z1029"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60:D60"/>
+    <sheetView showGridLines="0" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6319,11 +6316,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -6348,7 +6345,7 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21"/>
+      <c r="A2" s="20"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -6358,34 +6355,34 @@
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
     </row>
     <row r="3" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="22">
+      <c r="B3" s="21">
         <v>44459</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="22">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -6393,10 +6390,10 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="22">
+      <c r="B4" s="21">
         <v>44459</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="22">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D4" s="11" t="s">
@@ -6404,10 +6401,10 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="22">
+      <c r="B5" s="21">
         <v>44461</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="22">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D5" s="11" t="s">
@@ -6415,10 +6412,10 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="22">
+      <c r="B6" s="21">
         <v>44465</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="22">
         <v>0.125</v>
       </c>
       <c r="D6" s="11" t="s">
@@ -6426,10 +6423,10 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="22">
+      <c r="B7" s="21">
         <v>44465</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="22">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D7" s="11" t="s">
@@ -6437,21 +6434,21 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="22">
+      <c r="B8" s="21">
         <v>44466</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="22">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="22">
+      <c r="B9" s="21">
         <v>44467</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="22">
         <v>3.125E-2</v>
       </c>
       <c r="D9" s="11" t="s">
@@ -6459,10 +6456,10 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="22">
+      <c r="B10" s="21">
         <v>44467</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="22">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D10" s="11" t="s">
@@ -6470,10 +6467,10 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="22">
+      <c r="B11" s="21">
         <v>44467</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="24">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D11" s="11" t="s">
@@ -6481,10 +6478,10 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="22">
+      <c r="B12" s="21">
         <v>44470</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="25">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D12" s="11" t="s">
@@ -6492,10 +6489,10 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="22">
+      <c r="B13" s="21">
         <v>44472</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="26">
         <v>6.25E-2</v>
       </c>
       <c r="D13" s="11" t="s">
@@ -6503,10 +6500,10 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="22">
+      <c r="B14" s="21">
         <v>44472</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="26">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D14" s="11" t="s">
@@ -6514,10 +6511,10 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="22">
+      <c r="B15" s="21">
         <v>44472</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="27">
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="D15" s="11" t="s">
@@ -6525,10 +6522,10 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="22">
+      <c r="B16" s="21">
         <v>44477</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="28">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D16" s="11" t="s">
@@ -6536,10 +6533,10 @@
       </c>
     </row>
     <row r="17" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="22">
+      <c r="B17" s="21">
         <v>44477</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="22">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D17" s="11" t="s">
@@ -6547,10 +6544,10 @@
       </c>
     </row>
     <row r="18" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="22">
+      <c r="B18" s="21">
         <v>44477</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="22">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D18" s="11" t="s">
@@ -6558,10 +6555,10 @@
       </c>
     </row>
     <row r="19" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="22">
+      <c r="B19" s="21">
         <v>44480</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="22">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D19" s="11" t="s">
@@ -6569,10 +6566,10 @@
       </c>
     </row>
     <row r="20" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="22">
+      <c r="B20" s="21">
         <v>44480</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="22">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D20" s="11" t="s">
@@ -6580,10 +6577,10 @@
       </c>
     </row>
     <row r="21" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="22">
+      <c r="B21" s="21">
         <v>44483</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="22">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D21" s="11" t="s">
@@ -6591,10 +6588,10 @@
       </c>
     </row>
     <row r="22" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="22">
+      <c r="B22" s="21">
         <v>44483</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="24">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D22" s="11" t="s">
@@ -6602,10 +6599,10 @@
       </c>
     </row>
     <row r="23" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="22">
+      <c r="B23" s="21">
         <v>44483</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="25">
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D23" s="11" t="s">
@@ -6613,10 +6610,10 @@
       </c>
     </row>
     <row r="24" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="22">
+      <c r="B24" s="21">
         <v>44483</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="26">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D24" s="11" t="s">
@@ -6624,10 +6621,10 @@
       </c>
     </row>
     <row r="25" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="22">
+      <c r="B25" s="21">
         <v>44484</v>
       </c>
-      <c r="C25" s="27">
+      <c r="C25" s="26">
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="D25" s="11" t="s">
@@ -6635,10 +6632,10 @@
       </c>
     </row>
     <row r="26" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="22">
+      <c r="B26" s="21">
         <v>44485</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="22">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D26" s="11" t="s">
@@ -6646,10 +6643,10 @@
       </c>
     </row>
     <row r="27" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="22">
+      <c r="B27" s="21">
         <v>44485</v>
       </c>
-      <c r="C27" s="27">
+      <c r="C27" s="26">
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D27" s="11" t="s">
@@ -6657,10 +6654,10 @@
       </c>
     </row>
     <row r="28" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="22">
+      <c r="B28" s="21">
         <v>44485</v>
       </c>
-      <c r="C28" s="27">
+      <c r="C28" s="26">
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="D28" s="11" t="s">
@@ -6668,10 +6665,10 @@
       </c>
     </row>
     <row r="29" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="22">
+      <c r="B29" s="21">
         <v>44485</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="22">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D29" s="11" t="s">
@@ -6679,10 +6676,10 @@
       </c>
     </row>
     <row r="30" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="22">
+      <c r="B30" s="21">
         <v>44485</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="22">
         <v>3.125E-2</v>
       </c>
       <c r="D30" s="11" t="s">
@@ -6690,10 +6687,10 @@
       </c>
     </row>
     <row r="31" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="22">
+      <c r="B31" s="21">
         <v>44486</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="22">
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="D31" s="11" t="s">
@@ -6701,10 +6698,10 @@
       </c>
     </row>
     <row r="32" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="22">
+      <c r="B32" s="21">
         <v>44486</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32" s="22">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D32" s="11" t="s">
@@ -6712,32 +6709,32 @@
       </c>
     </row>
     <row r="33" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="52">
+      <c r="B33" s="51">
         <v>44487</v>
       </c>
-      <c r="C33" s="53">
+      <c r="C33" s="52">
         <v>3.125E-2</v>
       </c>
-      <c r="D33" s="39" t="s">
+      <c r="D33" s="38" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="34" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="22">
+      <c r="B34" s="21">
         <v>44490</v>
       </c>
-      <c r="C34" s="23">
+      <c r="C34" s="22">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D34" s="41" t="s">
+      <c r="D34" s="40" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="35" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="22">
+      <c r="B35" s="21">
         <v>44493</v>
       </c>
-      <c r="C35" s="23">
+      <c r="C35" s="22">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="D35" s="11" t="s">
@@ -6745,10 +6742,10 @@
       </c>
     </row>
     <row r="36" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="22">
+      <c r="B36" s="21">
         <v>44494</v>
       </c>
-      <c r="C36" s="23">
+      <c r="C36" s="22">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D36" s="11" t="s">
@@ -6756,43 +6753,43 @@
       </c>
     </row>
     <row r="37" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="22">
+      <c r="B37" s="21">
         <v>44497</v>
       </c>
-      <c r="C37" s="23">
+      <c r="C37" s="22">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D37" s="36" t="s">
+      <c r="D37" s="35" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="38" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="22">
+      <c r="B38" s="21">
         <v>44497</v>
       </c>
-      <c r="C38" s="23">
+      <c r="C38" s="22">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="D38" s="35" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="39" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="22">
+      <c r="B39" s="21">
         <v>44501</v>
       </c>
-      <c r="C39" s="23">
+      <c r="C39" s="22">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D39" s="36" t="s">
+      <c r="D39" s="35" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="40" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="22">
+      <c r="B40" s="21">
         <v>44501</v>
       </c>
-      <c r="C40" s="23">
+      <c r="C40" s="22">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D40" s="11" t="s">
@@ -6800,10 +6797,10 @@
       </c>
     </row>
     <row r="41" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="22">
+      <c r="B41" s="21">
         <v>44501</v>
       </c>
-      <c r="C41" s="23">
+      <c r="C41" s="22">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D41" s="11" t="s">
@@ -6811,10 +6808,10 @@
       </c>
     </row>
     <row r="42" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="22">
+      <c r="B42" s="21">
         <v>44504</v>
       </c>
-      <c r="C42" s="23">
+      <c r="C42" s="22">
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="D42" s="11" t="s">
@@ -6822,10 +6819,10 @@
       </c>
     </row>
     <row r="43" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="22">
+      <c r="B43" s="21">
         <v>44504</v>
       </c>
-      <c r="C43" s="23">
+      <c r="C43" s="22">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D43" s="11" t="s">
@@ -6833,21 +6830,21 @@
       </c>
     </row>
     <row r="44" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="22">
+      <c r="B44" s="21">
         <v>44506</v>
       </c>
-      <c r="C44" s="27">
+      <c r="C44" s="26">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D44" s="30" t="s">
+      <c r="D44" s="29" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="45" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="22">
+      <c r="B45" s="21">
         <v>44475</v>
       </c>
-      <c r="C45" s="23">
+      <c r="C45" s="22">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D45" s="11" t="s">
@@ -6855,10 +6852,10 @@
       </c>
     </row>
     <row r="46" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="22">
+      <c r="B46" s="21">
         <v>44515</v>
       </c>
-      <c r="C46" s="23">
+      <c r="C46" s="22">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D46" s="11" t="s">
@@ -6866,10 +6863,10 @@
       </c>
     </row>
     <row r="47" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="22">
+      <c r="B47" s="21">
         <v>44515</v>
       </c>
-      <c r="C47" s="23">
+      <c r="C47" s="22">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D47" s="11" t="s">
@@ -6877,10 +6874,10 @@
       </c>
     </row>
     <row r="48" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="22">
+      <c r="B48" s="21">
         <v>44518</v>
       </c>
-      <c r="C48" s="23">
+      <c r="C48" s="22">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D48" s="11" t="s">
@@ -6888,10 +6885,10 @@
       </c>
     </row>
     <row r="49" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="22">
+      <c r="B49" s="21">
         <v>44519</v>
       </c>
-      <c r="C49" s="23">
+      <c r="C49" s="22">
         <v>6.25E-2</v>
       </c>
       <c r="D49" s="11" t="s">
@@ -6899,130 +6896,130 @@
       </c>
     </row>
     <row r="50" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="67">
+      <c r="B50" s="66">
         <v>44520</v>
       </c>
-      <c r="C50" s="23">
+      <c r="C50" s="22">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D50" s="66" t="s">
+      <c r="D50" s="65" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="51" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="67">
+      <c r="B51" s="66">
         <v>44524</v>
       </c>
-      <c r="C51" s="23">
+      <c r="C51" s="22">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D51" s="66" t="s">
+      <c r="D51" s="65" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="52" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="67">
+      <c r="B52" s="66">
         <v>44525</v>
       </c>
-      <c r="C52" s="23">
+      <c r="C52" s="22">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="D52" s="66" t="s">
+      <c r="D52" s="65" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="53" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="88">
+      <c r="B53" s="86">
         <v>44526</v>
       </c>
-      <c r="C53" s="53">
+      <c r="C53" s="52">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D53" s="87" t="s">
+      <c r="D53" s="85" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="54" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="67">
+      <c r="B54" s="66">
         <v>44527</v>
       </c>
-      <c r="C54" s="23">
+      <c r="C54" s="22">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D54" s="66" t="s">
+      <c r="D54" s="65" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="55" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="67">
+      <c r="B55" s="66">
         <v>44529</v>
       </c>
-      <c r="C55" s="23">
+      <c r="C55" s="22">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="D55" s="66" t="s">
+      <c r="D55" s="65" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="56" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="91">
+      <c r="B56" s="66">
         <v>44539</v>
       </c>
-      <c r="C56" s="92">
+      <c r="C56" s="93">
         <v>6.25E-2</v>
       </c>
-      <c r="D56" s="71" t="s">
+      <c r="D56" s="65" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="57" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="91">
+      <c r="B57" s="66">
         <v>44541</v>
       </c>
-      <c r="C57" s="92">
+      <c r="C57" s="93">
         <v>0.125</v>
       </c>
-      <c r="D57" s="71" t="s">
+      <c r="D57" s="65" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="58" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="91">
+      <c r="B58" s="66">
         <v>44541</v>
       </c>
-      <c r="C58" s="92">
+      <c r="C58" s="93">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="D58" s="71" t="s">
+      <c r="D58" s="65" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="59" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="91">
+      <c r="B59" s="66">
         <v>44543</v>
       </c>
-      <c r="C59" s="92">
+      <c r="C59" s="93">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D59" s="71" t="s">
+      <c r="D59" s="65" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="60" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="93">
+      <c r="B60" s="94">
         <v>44543</v>
       </c>
-      <c r="C60" s="94">
+      <c r="C60" s="95">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D60" s="76" t="s">
+      <c r="D60" s="69" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="61" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="22"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="66"/>
+      <c r="B61" s="89"/>
+      <c r="C61" s="72"/>
+      <c r="D61" s="70"/>
     </row>
     <row r="62" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="63" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8012,8 +8009,8 @@
   </sheetPr>
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView showGridLines="0" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8027,11 +8024,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -8056,7 +8053,7 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21"/>
+      <c r="A2" s="20"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -8066,34 +8063,34 @@
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
     </row>
     <row r="3" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="31">
+      <c r="B3" s="30">
         <v>44459</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="31">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -8101,10 +8098,10 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="31">
+      <c r="B4" s="30">
         <v>44463</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="31">
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="D4" s="11" t="s">
@@ -8112,10 +8109,10 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="31">
+      <c r="B5" s="30">
         <v>44463</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="31">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D5" s="11" t="s">
@@ -8123,21 +8120,21 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="31">
+      <c r="B6" s="30">
         <v>44468</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="31">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="23" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="31">
+      <c r="B7" s="30">
         <v>44477</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="31">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D7" s="11" t="s">
@@ -8145,10 +8142,10 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="31">
+      <c r="B8" s="30">
         <v>44479</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="31">
         <v>6.25E-2</v>
       </c>
       <c r="D8" s="11" t="s">
@@ -8156,10 +8153,10 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="31">
+      <c r="B9" s="30">
         <v>44485</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="31">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D9" s="11" t="s">
@@ -8167,32 +8164,32 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="50">
+      <c r="B10" s="49">
         <v>44488</v>
       </c>
-      <c r="C10" s="51">
+      <c r="C10" s="50">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="38" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="31">
+      <c r="B11" s="30">
         <v>44494</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11" s="48">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="40" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="31">
+      <c r="B12" s="30">
         <v>44494</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="31">
         <v>3.125E-2</v>
       </c>
       <c r="D12" s="11" t="s">
@@ -8200,140 +8197,140 @@
       </c>
     </row>
     <row r="13" spans="1:26" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="33">
+      <c r="B13" s="32">
         <v>44494</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="29" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:26" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="33">
+      <c r="B14" s="32">
         <v>44502</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="33">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="29" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="33">
+      <c r="B15" s="32">
         <v>44506</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="29" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:26" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="33">
+      <c r="B16" s="32">
         <v>44508</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="33">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="29" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="17" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="68">
+      <c r="B17" s="67">
         <v>44520</v>
       </c>
-      <c r="C17" s="69">
+      <c r="C17" s="68">
         <v>6.25E-2</v>
       </c>
-      <c r="D17" s="70" t="s">
+      <c r="D17" s="69" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="18" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="68">
+      <c r="B18" s="67">
         <v>44520</v>
       </c>
-      <c r="C18" s="69">
+      <c r="C18" s="68">
         <v>3.125E-2</v>
       </c>
-      <c r="D18" s="70" t="s">
+      <c r="D18" s="69" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="19" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="68">
+      <c r="B19" s="67">
         <v>44521</v>
       </c>
-      <c r="C19" s="63">
+      <c r="C19" s="62">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D19" s="66" t="s">
+      <c r="D19" s="65" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="20" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="68">
+      <c r="B20" s="67">
         <v>44522</v>
       </c>
-      <c r="C20" s="69">
+      <c r="C20" s="68">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D20" s="70" t="s">
+      <c r="D20" s="69" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="21" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="68">
+      <c r="B21" s="67">
         <v>44522</v>
       </c>
-      <c r="C21" s="69">
+      <c r="C21" s="68">
         <v>6.25E-2</v>
       </c>
-      <c r="D21" s="70" t="s">
+      <c r="D21" s="69" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="22" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="68">
+      <c r="B22" s="67">
         <v>44523</v>
       </c>
-      <c r="C22" s="69">
+      <c r="C22" s="68">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D22" s="70" t="s">
+      <c r="D22" s="69" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="23" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="89">
+      <c r="B23" s="87">
         <v>44523</v>
       </c>
-      <c r="C23" s="90">
+      <c r="C23" s="88">
         <v>6.25E-2</v>
       </c>
-      <c r="D23" s="87" t="s">
+      <c r="D23" s="85" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="24" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="31"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="41"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="79"/>
     </row>
     <row r="25" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="11"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="70"/>
     </row>
     <row r="26" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="11"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="70"/>
     </row>
     <row r="27" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="28" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9304,7 +9301,7 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.45000000000000007" right="0.45000000000000007" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7CAAB0-3765-4AE3-9A13-7E78F101B050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083263BA-AB73-4D74-B440-2CC244290659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="166">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -533,7 +533,7 @@
     <t>Création de la BDD sur WinDesign (MCD et MLR)</t>
   </si>
   <si>
-    <t>Suite des Forms sur Visual Studio</t>
+    <t>Suite Forms sur Visual Studio</t>
   </si>
 </sst>
 </file>
@@ -1209,122 +1209,29 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <name val="Bookman Old Style"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEE1AE"/>
-          <bgColor rgb="FFFEE1AE"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1430,6 +1337,39 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
@@ -1461,6 +1401,40 @@
         <b/>
         <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
@@ -1484,6 +1458,32 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <name val="Bookman Old Style"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEE1AE"/>
+          <bgColor rgb="FFFEE1AE"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1824,8 +1824,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:D44">
-  <autoFilter ref="B2:D44" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:D45">
+  <autoFilter ref="B2:D45" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DATE" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="DURÉE" dataDxfId="14"/>
@@ -1854,9 +1854,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D61" totalsRowCount="1" totalsRowDxfId="9">
   <autoFilter ref="B2:D60" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="8" totalsRowDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="7" totalsRowDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ÉVÉNEMENT" dataDxfId="6" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ÉVÉNEMENT" dataDxfId="4" totalsRowDxfId="3"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1866,9 +1866,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tableau2" displayName="Tableau2" ref="B2:D23">
   <autoFilter ref="B2:D23" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="DATE" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DURÉE" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ÉVÉNEMENT" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="DATE" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DURÉE" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ÉVÉNEMENT" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2105,11 +2105,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3362,10 +3362,10 @@
     <tabColor rgb="FFD8B1CB"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1037"/>
+  <dimension ref="A1:Z1038"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="B44" sqref="B44:D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3379,11 +3379,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3833,7 +3833,7 @@
       <c r="C40" s="72">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D40" s="96" t="s">
+      <c r="D40" s="94" t="s">
         <v>153</v>
       </c>
     </row>
@@ -3844,7 +3844,7 @@
       <c r="C41" s="72">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D41" s="96" t="s">
+      <c r="D41" s="94" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3855,7 +3855,7 @@
       <c r="C42" s="72">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D42" s="96" t="s">
+      <c r="D42" s="94" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3866,16 +3866,26 @@
       <c r="C43" s="72">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D43" s="96" t="s">
+      <c r="D43" s="94" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="90"/>
-      <c r="C44" s="72"/>
-      <c r="D44" s="70"/>
-    </row>
-    <row r="45" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="90">
+        <v>44544</v>
+      </c>
+      <c r="C44" s="72">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D44" s="94" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="90"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="70"/>
+    </row>
     <row r="46" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4868,6 +4878,7 @@
     <row r="1035" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1036" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1037" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1038" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
@@ -4903,11 +4914,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -6339,11 +6350,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -6966,7 +6977,7 @@
       <c r="B54" s="89">
         <v>44527</v>
       </c>
-      <c r="C54" s="97">
+      <c r="C54" s="95">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D54" s="70" t="s">
@@ -6977,7 +6988,7 @@
       <c r="B55" s="89">
         <v>44529</v>
       </c>
-      <c r="C55" s="97">
+      <c r="C55" s="95">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D55" s="70" t="s">
@@ -6988,7 +6999,7 @@
       <c r="B56" s="89">
         <v>44539</v>
       </c>
-      <c r="C56" s="97">
+      <c r="C56" s="95">
         <v>6.25E-2</v>
       </c>
       <c r="D56" s="70" t="s">
@@ -6999,7 +7010,7 @@
       <c r="B57" s="89">
         <v>44541</v>
       </c>
-      <c r="C57" s="97">
+      <c r="C57" s="95">
         <v>0.125</v>
       </c>
       <c r="D57" s="70" t="s">
@@ -7010,7 +7021,7 @@
       <c r="B58" s="89">
         <v>44541</v>
       </c>
-      <c r="C58" s="97">
+      <c r="C58" s="95">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D58" s="70" t="s">
@@ -7021,7 +7032,7 @@
       <c r="B59" s="89">
         <v>44543</v>
       </c>
-      <c r="C59" s="97">
+      <c r="C59" s="95">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D59" s="70" t="s">
@@ -7029,10 +7040,10 @@
       </c>
     </row>
     <row r="60" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="98">
+      <c r="B60" s="96">
         <v>44543</v>
       </c>
-      <c r="C60" s="99">
+      <c r="C60" s="97">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D60" s="74" t="s">
@@ -8047,11 +8058,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083263BA-AB73-4D74-B440-2CC244290659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60079506-7322-4870-BD87-0CA9A44C0DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="168">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -534,6 +534,12 @@
   </si>
   <si>
     <t>Suite Forms sur Visual Studio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Création du sprint 4 </t>
+  </si>
+  <si>
+    <t>Mise à jour du product bqckolg</t>
   </si>
 </sst>
 </file>
@@ -1824,8 +1830,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:D45">
-  <autoFilter ref="B2:D45" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:D48">
+  <autoFilter ref="B2:D48" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DATE" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="DURÉE" dataDxfId="14"/>
@@ -3362,10 +3368,10 @@
     <tabColor rgb="FFD8B1CB"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1038"/>
+  <dimension ref="A1:Z1041"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:D44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3881,14 +3887,44 @@
         <v>165</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="90"/>
-      <c r="C45" s="72"/>
-      <c r="D45" s="70"/>
-    </row>
-    <row r="46" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="90">
+        <v>44545</v>
+      </c>
+      <c r="C45" s="72">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D45" s="94" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="90">
+        <v>44545</v>
+      </c>
+      <c r="C46" s="72">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D46" s="94" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="90">
+        <v>44545</v>
+      </c>
+      <c r="C47" s="72">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D47" s="94" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="90"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="70"/>
+    </row>
     <row r="49" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="50" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="51" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4879,6 +4915,9 @@
     <row r="1036" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1037" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1038" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1039" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1040" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1041" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60079506-7322-4870-BD87-0CA9A44C0DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC4A4F4-C3FF-4757-893E-09925F443F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="173">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -533,13 +533,28 @@
     <t>Création de la BDD sur WinDesign (MCD et MLR)</t>
   </si>
   <si>
-    <t>Suite Forms sur Visual Studio</t>
-  </si>
-  <si>
     <t xml:space="preserve">Création du sprint 4 </t>
   </si>
   <si>
     <t>Mise à jour du product bqckolg</t>
+  </si>
+  <si>
+    <t>Création présentation réunion A2-2</t>
+  </si>
+  <si>
+    <t>Mise à jour ordre du jour réunion A2-2</t>
+  </si>
+  <si>
+    <t>Création ordre du jour réunion A2_2</t>
+  </si>
+  <si>
+    <t>Suite Forms sur Visual Studio partie client</t>
+  </si>
+  <si>
+    <t>Suite Forms sur Visual Studio partie commun</t>
+  </si>
+  <si>
+    <t>Mise à jour Forms sur Visual Studio client et commun</t>
   </si>
 </sst>
 </file>
@@ -1224,20 +1239,113 @@
     <xf numFmtId="165" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <name val="Bookman Old Style"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEE1AE"/>
+          <bgColor rgb="FFFEE1AE"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1343,39 +1451,6 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
@@ -1407,40 +1482,6 @@
         <b/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
@@ -1464,32 +1505,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <name val="Bookman Old Style"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEE1AE"/>
-          <bgColor rgb="FFFEE1AE"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1830,8 +1845,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:D48">
-  <autoFilter ref="B2:D48" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:D50">
+  <autoFilter ref="B2:D50" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DATE" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="DURÉE" dataDxfId="14"/>
@@ -1857,12 +1872,12 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D61" totalsRowCount="1" totalsRowDxfId="9">
-  <autoFilter ref="B2:D60" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D62" totalsRowCount="1" totalsRowDxfId="9">
+  <autoFilter ref="B2:D61" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ÉVÉNEMENT" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="8" totalsRowDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="7" totalsRowDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ÉVÉNEMENT" dataDxfId="6" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1872,9 +1887,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tableau2" displayName="Tableau2" ref="B2:D23">
   <autoFilter ref="B2:D23" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="DATE" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DURÉE" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ÉVÉNEMENT" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="DATE" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DURÉE" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ÉVÉNEMENT" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2096,8 +2111,8 @@
   </sheetPr>
   <dimension ref="A1:Z1008"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2111,11 +2126,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3368,10 +3383,10 @@
     <tabColor rgb="FFD8B1CB"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1041"/>
+  <dimension ref="A1:Z1043"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView showGridLines="0" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3385,11 +3400,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3862,7 +3877,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D42" s="94" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3873,7 +3888,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D43" s="94" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3884,7 +3899,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="D44" s="94" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3895,7 +3910,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D45" s="94" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3906,7 +3921,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D46" s="94" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3917,30 +3932,50 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D47" s="94" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="90"/>
-      <c r="C48" s="72"/>
-      <c r="D48" s="70"/>
-    </row>
-    <row r="49" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="90">
+        <v>44546</v>
+      </c>
+      <c r="C48" s="72">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D48" s="94" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="90">
+        <v>44546</v>
+      </c>
+      <c r="C49" s="72">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="D49" s="94" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="90"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="70"/>
+    </row>
+    <row r="51" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="65" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="66" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="67" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4918,6 +4953,8 @@
     <row r="1039" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1040" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1041" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1042" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1043" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
@@ -4938,8 +4975,8 @@
   </sheetPr>
   <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:D38"/>
+    <sheetView showGridLines="0" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4953,11 +4990,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -5356,24 +5393,24 @@
       </c>
     </row>
     <row r="36" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="64">
+      <c r="B36" s="71">
         <v>44543</v>
       </c>
-      <c r="C36" s="62">
+      <c r="C36" s="72">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D36" s="65" t="s">
+      <c r="D36" s="70" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="64">
+      <c r="B37" s="71">
         <v>44543</v>
       </c>
-      <c r="C37" s="62">
+      <c r="C37" s="72">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D37" s="65" t="s">
+      <c r="D37" s="70" t="s">
         <v>118</v>
       </c>
     </row>
@@ -6372,10 +6409,10 @@
     <tabColor rgb="FFFEE1AE"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1029"/>
+  <dimension ref="A1:Z1030"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A57" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView showGridLines="0" topLeftCell="A54" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:XFD61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6389,11 +6426,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -7082,19 +7119,29 @@
       <c r="B60" s="96">
         <v>44543</v>
       </c>
-      <c r="C60" s="97">
+      <c r="C60" s="99">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D60" s="74" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="61" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="89"/>
-      <c r="C61" s="72"/>
-      <c r="D61" s="70"/>
-    </row>
-    <row r="62" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="96">
+        <v>44546</v>
+      </c>
+      <c r="C61" s="95">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D61" s="70" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="89"/>
+      <c r="C62" s="72"/>
+      <c r="D62" s="70"/>
+    </row>
     <row r="63" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="64" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="65" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8062,6 +8109,7 @@
     <row r="1027" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1028" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1029" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1030" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
@@ -8082,7 +8130,7 @@
   </sheetPr>
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B24" sqref="B24:D26"/>
     </sheetView>
   </sheetViews>
@@ -8097,11 +8145,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\WavContact\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coral\OneDrive\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC4A4F4-C3FF-4757-893E-09925F443F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F42C13-B6F9-4EE0-BBA5-51CA9FB45E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -1239,14 +1239,14 @@
     <xf numFmtId="165" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2111,7 +2111,7 @@
   </sheetPr>
   <dimension ref="A1:Z1008"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
@@ -2126,11 +2126,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3385,7 +3385,7 @@
   </sheetPr>
   <dimension ref="A1:Z1043"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A41" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A42" workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
@@ -3400,11 +3400,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4990,11 +4990,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -6411,8 +6411,8 @@
   </sheetPr>
   <dimension ref="A1:Z1030"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A54" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:XFD61"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A54" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6426,11 +6426,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -7119,7 +7119,7 @@
       <c r="B60" s="96">
         <v>44543</v>
       </c>
-      <c r="C60" s="99">
+      <c r="C60" s="97">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D60" s="74" t="s">
@@ -7131,7 +7131,7 @@
         <v>44546</v>
       </c>
       <c r="C61" s="95">
-        <v>0.16666666666666666</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="D61" s="70" t="s">
         <v>160</v>
@@ -8145,11 +8145,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aurelie/Documents/GitHub/WavContact/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90EA8E7-04EE-B54F-A61C-7965FC536F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7B2F81-DFA8-9648-AA8D-A9D67B90A254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10000" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aurelie/Documents/GitHub/WavContact/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7B2F81-DFA8-9648-AA8D-A9D67B90A254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D0B057-71D2-9E42-AE6E-5ABB372C90B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10000" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -557,13 +557,13 @@
     <t>Mise à jour Forms sur Visual Studio client et commun</t>
   </si>
   <si>
-    <t>Création de la BDD dans One.com (génération du script)</t>
-  </si>
-  <si>
-    <t>Mise a jour du journal de bord et du planning</t>
-  </si>
-  <si>
-    <t>Modification du PowerPoint</t>
+    <t>Modification de PowerPoint</t>
+  </si>
+  <si>
+    <t>Modification du planning et remplissage du journal de bord</t>
+  </si>
+  <si>
+    <t>Création de la BDD sur One.com (avec génération de script)</t>
   </si>
 </sst>
 </file>
@@ -574,7 +574,7 @@
     <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
     <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF504A3B"/>
@@ -704,29 +704,6 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Bookman Old Style"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF3F835B"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF504A3B"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="7">
@@ -973,7 +950,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1256,16 +1233,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1273,21 +1247,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="21" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1898,8 +1857,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau3" displayName="Tableau3" ref="B2:D45">
-  <autoFilter ref="B2:D45" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau3" displayName="Tableau3" ref="B2:D42">
+  <autoFilter ref="B2:D42" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D26">
     <sortCondition ref="B2:B26"/>
   </sortState>
@@ -2152,7 +2111,7 @@
   </sheetPr>
   <dimension ref="A1:Z1008"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
@@ -2167,11 +2126,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3426,8 +3385,8 @@
   </sheetPr>
   <dimension ref="A1:Z1043"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView showGridLines="0" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3441,11 +3400,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3889,112 +3848,112 @@
       </c>
     </row>
     <row r="40" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="90">
+      <c r="B40" s="61">
         <v>44528</v>
       </c>
-      <c r="C40" s="72">
+      <c r="C40" s="62">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D40" s="94" t="s">
+      <c r="D40" s="63" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="41" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="90">
+      <c r="B41" s="61">
         <v>44543</v>
       </c>
-      <c r="C41" s="72">
+      <c r="C41" s="62">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D41" s="94" t="s">
+      <c r="D41" s="63" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="42" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="90">
+      <c r="B42" s="61">
         <v>44543</v>
       </c>
-      <c r="C42" s="72">
+      <c r="C42" s="62">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D42" s="94" t="s">
+      <c r="D42" s="63" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="43" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="90">
+      <c r="B43" s="61">
         <v>44543</v>
       </c>
-      <c r="C43" s="72">
+      <c r="C43" s="62">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D43" s="94" t="s">
+      <c r="D43" s="63" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="44" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="90">
+      <c r="B44" s="61">
         <v>44544</v>
       </c>
-      <c r="C44" s="72">
+      <c r="C44" s="62">
         <v>6.25E-2</v>
       </c>
-      <c r="D44" s="94" t="s">
+      <c r="D44" s="63" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="45" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="90">
+      <c r="B45" s="61">
         <v>44545</v>
       </c>
-      <c r="C45" s="72">
+      <c r="C45" s="62">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D45" s="94" t="s">
+      <c r="D45" s="63" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="46" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="90">
+      <c r="B46" s="61">
         <v>44545</v>
       </c>
-      <c r="C46" s="72">
+      <c r="C46" s="62">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D46" s="94" t="s">
+      <c r="D46" s="63" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="47" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="90">
+      <c r="B47" s="61">
         <v>44545</v>
       </c>
-      <c r="C47" s="72">
+      <c r="C47" s="62">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D47" s="94" t="s">
+      <c r="D47" s="63" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="48" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="90">
+      <c r="B48" s="61">
         <v>44546</v>
       </c>
-      <c r="C48" s="72">
+      <c r="C48" s="62">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D48" s="94" t="s">
+      <c r="D48" s="63" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="49" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="90">
+      <c r="B49" s="61">
         <v>44546</v>
       </c>
-      <c r="C49" s="72">
+      <c r="C49" s="62">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="D49" s="94" t="s">
+      <c r="D49" s="63" t="s">
         <v>168</v>
       </c>
     </row>
@@ -5016,8 +4975,8 @@
   </sheetPr>
   <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5031,11 +4990,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -5434,91 +5393,79 @@
       </c>
     </row>
     <row r="36" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="71">
+      <c r="B36" s="64">
         <v>44543</v>
       </c>
-      <c r="C36" s="72">
+      <c r="C36" s="62">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D36" s="70" t="s">
+      <c r="D36" s="65" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="71">
+      <c r="B37" s="64">
         <v>44543</v>
       </c>
-      <c r="C37" s="72">
+      <c r="C37" s="62">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D37" s="70" t="s">
+      <c r="D37" s="65" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="71">
+      <c r="B38" s="64">
         <v>44546</v>
       </c>
-      <c r="C38" s="73">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="D38" s="74" t="s">
+      <c r="C38" s="68">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D38" s="69" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="64">
+        <v>44546</v>
+      </c>
+      <c r="C39" s="62">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="D39" s="65" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="64">
+        <v>44546</v>
+      </c>
+      <c r="C40" s="62">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="D40" s="65" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="64">
+        <v>44546</v>
+      </c>
+      <c r="C41" s="62">
+        <v>3.125E-2</v>
+      </c>
+      <c r="D41" s="65" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="39" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="100">
-        <v>44546</v>
-      </c>
-      <c r="C39" s="101">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D39" s="102" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="100">
-        <v>44546</v>
-      </c>
-      <c r="C40" s="101">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="D40" s="102" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="100">
-        <v>44546</v>
-      </c>
-      <c r="C41" s="103">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="D41" s="104" t="s">
-        <v>175</v>
-      </c>
-    </row>
     <row r="42" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="100"/>
-      <c r="C42" s="101"/>
-      <c r="D42" s="102"/>
-    </row>
-    <row r="43" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="100"/>
-      <c r="C43" s="101"/>
-      <c r="D43" s="102"/>
-    </row>
-    <row r="44" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="100"/>
-      <c r="C44" s="101"/>
-      <c r="D44" s="102"/>
-    </row>
-    <row r="45" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="100"/>
-      <c r="C45" s="103"/>
-      <c r="D45" s="104"/>
-    </row>
+      <c r="B42" s="71"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="74"/>
+    </row>
+    <row r="43" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="46" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="47" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="48" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6504,7 +6451,7 @@
   </sheetPr>
   <dimension ref="A1:Z1030"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A47" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A45" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
@@ -6519,11 +6466,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -7143,90 +7090,90 @@
       </c>
     </row>
     <row r="54" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="89">
+      <c r="B54" s="66">
         <v>44527</v>
       </c>
-      <c r="C54" s="95">
+      <c r="C54" s="94">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D54" s="70" t="s">
+      <c r="D54" s="65" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="55" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="89">
+      <c r="B55" s="66">
         <v>44529</v>
       </c>
-      <c r="C55" s="95">
+      <c r="C55" s="94">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="D55" s="70" t="s">
+      <c r="D55" s="65" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="56" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="89">
+      <c r="B56" s="66">
         <v>44539</v>
       </c>
-      <c r="C56" s="95">
+      <c r="C56" s="94">
         <v>6.25E-2</v>
       </c>
-      <c r="D56" s="70" t="s">
+      <c r="D56" s="65" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="57" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="89">
+      <c r="B57" s="66">
         <v>44541</v>
       </c>
-      <c r="C57" s="95">
+      <c r="C57" s="94">
         <v>0.125</v>
       </c>
-      <c r="D57" s="70" t="s">
+      <c r="D57" s="65" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="58" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="89">
+      <c r="B58" s="66">
         <v>44541</v>
       </c>
-      <c r="C58" s="95">
+      <c r="C58" s="94">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="D58" s="70" t="s">
+      <c r="D58" s="65" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="59" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="89">
+      <c r="B59" s="66">
         <v>44543</v>
       </c>
-      <c r="C59" s="95">
+      <c r="C59" s="94">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D59" s="70" t="s">
+      <c r="D59" s="65" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="60" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="96">
+      <c r="B60" s="95">
         <v>44543</v>
       </c>
-      <c r="C60" s="97">
+      <c r="C60" s="96">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D60" s="74" t="s">
+      <c r="D60" s="69" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="61" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="96">
+      <c r="B61" s="95">
         <v>44546</v>
       </c>
-      <c r="C61" s="95">
-        <v>0.22916666666666666</v>
-      </c>
-      <c r="D61" s="70" t="s">
+      <c r="C61" s="94">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D61" s="65" t="s">
         <v>160</v>
       </c>
     </row>
@@ -8223,8 +8170,8 @@
   </sheetPr>
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:D26"/>
+    <sheetView showGridLines="0" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8238,11 +8185,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aurelie/Documents/GitHub/WavContact/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D0B057-71D2-9E42-AE6E-5ABB372C90B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E10D157-203E-9840-861B-5E367946A9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10000" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10000" windowHeight="18000" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="179">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -564,6 +564,15 @@
   </si>
   <si>
     <t>Création de la BDD sur One.com (avec génération de script)</t>
+  </si>
+  <si>
+    <t>Création du VisualStudio</t>
+  </si>
+  <si>
+    <t>Création utilisateur sur l'API</t>
+  </si>
+  <si>
+    <t>Création application console (création utilisateur)</t>
   </si>
 </sst>
 </file>
@@ -574,7 +583,7 @@
     <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
     <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF504A3B"/>
@@ -704,6 +713,23 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Bookman Old Style"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF504A3B"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF504A3B"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="7">
@@ -950,7 +976,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1185,12 +1211,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="17" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1224,9 +1244,6 @@
     <xf numFmtId="165" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1247,12 +1264,120 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <name val="Bookman Old Style"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEE1AE"/>
+          <bgColor rgb="FFFEE1AE"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1358,39 +1483,6 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
@@ -1422,40 +1514,6 @@
         <b/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
@@ -1479,32 +1537,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <name val="Bookman Old Style"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEE1AE"/>
-          <bgColor rgb="FFFEE1AE"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1875,21 +1907,21 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D62" totalsRowCount="1" totalsRowDxfId="9">
   <autoFilter ref="B2:D61" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ÉVÉNEMENT" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="8" totalsRowDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="7" totalsRowDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ÉVÉNEMENT" dataDxfId="6" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tableau2" displayName="Tableau2" ref="B2:D23">
-  <autoFilter ref="B2:D23" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tableau2" displayName="Tableau2" ref="B2:D29">
+  <autoFilter ref="B2:D29" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="DATE" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DURÉE" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ÉVÉNEMENT" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="DATE" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DURÉE" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ÉVÉNEMENT" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2126,11 +2158,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2367,15 +2399,15 @@
       <c r="B21" s="59">
         <v>44536</v>
       </c>
-      <c r="C21" s="92">
+      <c r="C21" s="89">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D21" s="93" t="s">
+      <c r="D21" s="90" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="80"/>
+      <c r="B22" s="78"/>
       <c r="C22" s="72"/>
       <c r="D22" s="70"/>
     </row>
@@ -3400,11 +3432,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3837,13 +3869,13 @@
       </c>
     </row>
     <row r="39" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="81">
+      <c r="B39" s="79">
         <v>44525</v>
       </c>
-      <c r="C39" s="82">
+      <c r="C39" s="80">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D39" s="83" t="s">
+      <c r="D39" s="81" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3958,7 +3990,7 @@
       </c>
     </row>
     <row r="50" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="90"/>
+      <c r="B50" s="88"/>
       <c r="C50" s="72"/>
       <c r="D50" s="70"/>
     </row>
@@ -4975,7 +5007,7 @@
   </sheetPr>
   <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
@@ -4990,11 +5022,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -5316,13 +5348,13 @@
       </c>
     </row>
     <row r="29" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="84">
+      <c r="B29" s="82">
         <v>44525</v>
       </c>
       <c r="C29" s="55">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D29" s="85" t="s">
+      <c r="D29" s="83" t="s">
         <v>147</v>
       </c>
     </row>
@@ -6451,8 +6483,8 @@
   </sheetPr>
   <dimension ref="A1:Z1030"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A45" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView showGridLines="0" topLeftCell="A47" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6466,11 +6498,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -7079,13 +7111,13 @@
       </c>
     </row>
     <row r="53" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="86">
+      <c r="B53" s="84">
         <v>44526</v>
       </c>
       <c r="C53" s="52">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D53" s="85" t="s">
+      <c r="D53" s="83" t="s">
         <v>149</v>
       </c>
     </row>
@@ -7093,7 +7125,7 @@
       <c r="B54" s="66">
         <v>44527</v>
       </c>
-      <c r="C54" s="94">
+      <c r="C54" s="91">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D54" s="65" t="s">
@@ -7104,7 +7136,7 @@
       <c r="B55" s="66">
         <v>44529</v>
       </c>
-      <c r="C55" s="94">
+      <c r="C55" s="91">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D55" s="65" t="s">
@@ -7115,7 +7147,7 @@
       <c r="B56" s="66">
         <v>44539</v>
       </c>
-      <c r="C56" s="94">
+      <c r="C56" s="91">
         <v>6.25E-2</v>
       </c>
       <c r="D56" s="65" t="s">
@@ -7126,7 +7158,7 @@
       <c r="B57" s="66">
         <v>44541</v>
       </c>
-      <c r="C57" s="94">
+      <c r="C57" s="91">
         <v>0.125</v>
       </c>
       <c r="D57" s="65" t="s">
@@ -7137,7 +7169,7 @@
       <c r="B58" s="66">
         <v>44541</v>
       </c>
-      <c r="C58" s="94">
+      <c r="C58" s="91">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D58" s="65" t="s">
@@ -7148,7 +7180,7 @@
       <c r="B59" s="66">
         <v>44543</v>
       </c>
-      <c r="C59" s="94">
+      <c r="C59" s="91">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D59" s="65" t="s">
@@ -7156,10 +7188,10 @@
       </c>
     </row>
     <row r="60" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="95">
+      <c r="B60" s="92">
         <v>44543</v>
       </c>
-      <c r="C60" s="96">
+      <c r="C60" s="93">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D60" s="69" t="s">
@@ -7167,18 +7199,18 @@
       </c>
     </row>
     <row r="61" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="95">
+      <c r="B61" s="92">
         <v>44546</v>
       </c>
-      <c r="C61" s="94">
-        <v>0.16666666666666666</v>
+      <c r="C61" s="91">
+        <v>0.22916666666666666</v>
       </c>
       <c r="D61" s="65" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="62" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="89"/>
+      <c r="B62" s="87"/>
       <c r="C62" s="72"/>
       <c r="D62" s="70"/>
     </row>
@@ -8170,8 +8202,8 @@
   </sheetPr>
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8185,11 +8217,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -8468,34 +8500,64 @@
       </c>
     </row>
     <row r="23" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="87">
+      <c r="B23" s="85">
         <v>44523</v>
       </c>
-      <c r="C23" s="88">
+      <c r="C23" s="86">
         <v>6.25E-2</v>
       </c>
-      <c r="D23" s="85" t="s">
+      <c r="D23" s="83" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="24" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="91"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="79"/>
+      <c r="B24" s="96">
+        <v>44546</v>
+      </c>
+      <c r="C24" s="99">
+        <v>0.125</v>
+      </c>
+      <c r="D24" s="100" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="25" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="91"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="70"/>
+      <c r="B25" s="96">
+        <v>44546</v>
+      </c>
+      <c r="C25" s="99">
+        <v>3.125E-2</v>
+      </c>
+      <c r="D25" s="100" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="26" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="91"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="70"/>
-    </row>
-    <row r="27" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="B26" s="96">
+        <v>44546</v>
+      </c>
+      <c r="C26" s="99">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D26" s="100" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="96"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="98"/>
+    </row>
+    <row r="28" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="96"/>
+      <c r="C28" s="97"/>
+      <c r="D28" s="98"/>
+    </row>
+    <row r="29" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="96"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="100"/>
+    </row>
     <row r="30" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="31" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="32" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\WavContact\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coral\OneDrive\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4561F391-D3AF-440A-ADE3-27D398335F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDFF227-26F1-4869-84EB-B9940DD1CDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="181">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -576,6 +576,9 @@
   </si>
   <si>
     <t>Création du PV de la réunion A2-2</t>
+  </si>
+  <si>
+    <t>Correction du PV de A2_2</t>
   </si>
 </sst>
 </file>
@@ -985,7 +988,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1283,20 +1286,119 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <name val="Bookman Old Style"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEE1AE"/>
+          <bgColor rgb="FFFEE1AE"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1402,39 +1504,6 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
@@ -1466,40 +1535,6 @@
         <b/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
@@ -1523,32 +1558,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <name val="Bookman Old Style"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEE1AE"/>
-          <bgColor rgb="FFFEE1AE"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1916,12 +1925,12 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D62" totalsRowCount="1" totalsRowDxfId="9">
-  <autoFilter ref="B2:D61" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D64" totalsRowCount="1" totalsRowDxfId="9">
+  <autoFilter ref="B2:D63" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ÉVÉNEMENT" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="8" totalsRowDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="7" totalsRowDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ÉVÉNEMENT" dataDxfId="6" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1931,9 +1940,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tableau2" displayName="Tableau2" ref="B2:D29">
   <autoFilter ref="B2:D29" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="DATE" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DURÉE" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ÉVÉNEMENT" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="DATE" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DURÉE" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ÉVÉNEMENT" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2170,11 +2179,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3429,8 +3438,8 @@
   </sheetPr>
   <dimension ref="A1:Z1045"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51:D51"/>
+    <sheetView showGridLines="0" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3444,11 +3453,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4008,7 +4017,7 @@
       <c r="C50" s="72">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D50" s="101" t="s">
+      <c r="D50" s="99" t="s">
         <v>179</v>
       </c>
     </row>
@@ -4019,7 +4028,7 @@
       <c r="C51" s="72">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D51" s="101" t="s">
+      <c r="D51" s="99" t="s">
         <v>153</v>
       </c>
     </row>
@@ -5056,11 +5065,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -6515,10 +6524,10 @@
     <tabColor rgb="FFFEE1AE"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1030"/>
+  <dimension ref="A1:Z1032"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A47" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A56" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6532,11 +6541,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -7243,13 +7252,33 @@
         <v>160</v>
       </c>
     </row>
-    <row r="62" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="87"/>
-      <c r="C62" s="72"/>
-      <c r="D62" s="70"/>
-    </row>
-    <row r="63" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="102">
+        <v>44548</v>
+      </c>
+      <c r="C62" s="103">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D62" s="70" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="102">
+        <v>44550</v>
+      </c>
+      <c r="C63" s="103">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="D63" s="70" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="87"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="70"/>
+    </row>
     <row r="65" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="66" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="67" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8216,6 +8245,8 @@
     <row r="1028" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1029" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1030" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1031" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1032" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
@@ -8251,11 +8282,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aurelie/Documents/GitHub/WavContact/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2404C53-84FE-5A4B-ACCB-243222E67319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C97FDF7-EB65-ED4A-9E39-0C59EBF3A13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="182">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -1301,14 +1301,14 @@
     <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2188,11 +2188,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3447,7 +3447,7 @@
   </sheetPr>
   <dimension ref="A1:Z1045"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A44" workbookViewId="0">
       <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
@@ -3462,11 +3462,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -5059,8 +5059,8 @@
   </sheetPr>
   <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5074,11 +5074,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -5554,13 +5554,19 @@
       </c>
     </row>
     <row r="43" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="19"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="11"/>
+      <c r="B43" s="71">
+        <v>44574</v>
+      </c>
+      <c r="C43" s="72">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D43" s="70" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="44" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="19"/>
-      <c r="C44" s="104"/>
+      <c r="C44" s="102"/>
       <c r="D44" s="29"/>
     </row>
     <row r="45" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5575,7 +5581,7 @@
     </row>
     <row r="47" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="19"/>
-      <c r="C47" s="104"/>
+      <c r="C47" s="102"/>
       <c r="D47" s="29"/>
     </row>
     <row r="48" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6576,11 +6582,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -8317,11 +8323,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coral\OneDrive\Documents\GitHub\WavContact\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ausau\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAF105B-D52C-4AD0-AF9D-C3DF42B2177E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B41782C-45E9-445A-BB7B-68C8A3EC1D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11805" yWindow="2040" windowWidth="18870" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="201">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -636,6 +636,9 @@
   </si>
   <si>
     <t>Prise de note des tâches et ajout du sprint 5 dans le planning</t>
+  </si>
+  <si>
+    <t>Création finale modélisation</t>
   </si>
 </sst>
 </file>
@@ -1377,99 +1380,6 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <name val="Bookman Old Style"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEE1AE"/>
-          <bgColor rgb="FFFEE1AE"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
@@ -1570,6 +1480,39 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
@@ -1601,6 +1544,40 @@
         <b/>
         <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
@@ -1624,6 +1601,32 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <name val="Bookman Old Style"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEE1AE"/>
+          <bgColor rgb="FFFEE1AE"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1994,9 +1997,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D71" totalsRowCount="1" totalsRowDxfId="9">
   <autoFilter ref="B2:D70" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="8" totalsRowDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="7" totalsRowDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ÉVÉNEMENT" dataDxfId="6" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ÉVÉNEMENT" dataDxfId="4" totalsRowDxfId="3"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2006,9 +2009,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tableau2" displayName="Tableau2" ref="B2:D33">
   <autoFilter ref="B2:D33" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="DATE" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DURÉE" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ÉVÉNEMENT" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="DATE" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DURÉE" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ÉVÉNEMENT" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3553,7 +3556,7 @@
   </sheetPr>
   <dimension ref="A1:Z1046"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A42" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A45" workbookViewId="0">
       <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
@@ -5220,8 +5223,8 @@
   </sheetPr>
   <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5781,9 +5784,15 @@
       </c>
     </row>
     <row r="49" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="71"/>
-      <c r="C49" s="72"/>
-      <c r="D49" s="70"/>
+      <c r="B49" s="71">
+        <v>44587</v>
+      </c>
+      <c r="C49" s="72">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D49" s="70" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="50" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="71"/>
@@ -6770,7 +6779,7 @@
   </sheetPr>
   <dimension ref="A1:Z1039"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A55" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A58" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
@@ -8582,7 +8591,7 @@
   </sheetPr>
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aurelie/Documents/GitHub/WavContact/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E391EDF8-69F0-FC48-BD61-6360C9A3E6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CEABB6-7F26-7940-93FA-0C3D98D771A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="200">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -1035,7 +1035,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1330,68 +1330,74 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2002,8 +2008,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau3" displayName="Tableau3" ref="B2:D49">
-  <autoFilter ref="B2:D49" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau3" displayName="Tableau3" ref="B2:D53">
+  <autoFilter ref="B2:D53" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D25">
     <sortCondition ref="B2:B25"/>
   </sortState>
@@ -2256,7 +2262,7 @@
   </sheetPr>
   <dimension ref="A1:Z1008"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -2271,11 +2277,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2303,15 +2309,15 @@
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="110" t="s">
+      <c r="D2" s="108" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="108">
+      <c r="B3" s="106">
         <v>44384</v>
       </c>
       <c r="C3" s="12">
@@ -3589,11 +3595,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3701,7 +3707,7 @@
       <c r="C9" s="43">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D9" s="111" t="s">
+      <c r="D9" s="109" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3916,7 +3922,7 @@
       </c>
     </row>
     <row r="29" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="116">
+      <c r="B29" s="114">
         <v>44505</v>
       </c>
       <c r="C29" s="76">
@@ -4161,10 +4167,10 @@
       <c r="B51" s="58">
         <v>44548</v>
       </c>
-      <c r="C51" s="100">
+      <c r="C51" s="98">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D51" s="101" t="s">
+      <c r="D51" s="99" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4205,10 +4211,10 @@
       <c r="B55" s="58">
         <v>44587</v>
       </c>
-      <c r="C55" s="100">
+      <c r="C55" s="98">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D55" s="101" t="s">
+      <c r="D55" s="99" t="s">
         <v>193</v>
       </c>
     </row>
@@ -5241,8 +5247,8 @@
   </sheetPr>
   <dimension ref="A1:Z1009"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D48" sqref="B3:D48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5256,11 +5262,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -5720,7 +5726,7 @@
       <c r="C41" s="50">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D41" s="102" t="s">
+      <c r="D41" s="100" t="s">
         <v>180</v>
       </c>
     </row>
@@ -5797,20 +5803,46 @@
       <c r="C48" s="50">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D48" s="102" t="s">
+      <c r="D48" s="100" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="68"/>
-      <c r="C49" s="70"/>
-      <c r="D49" s="71"/>
-    </row>
-    <row r="50" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="B49" s="61">
+        <v>44587</v>
+      </c>
+      <c r="C49" s="17">
+        <v>0.125</v>
+      </c>
+      <c r="D49" s="66" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="68"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="67"/>
+    </row>
+    <row r="51" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="68"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="67"/>
+    </row>
+    <row r="52" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="68"/>
+      <c r="C52" s="69"/>
+      <c r="D52" s="67"/>
+    </row>
+    <row r="53" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="68"/>
+      <c r="C53" s="70"/>
+      <c r="D53" s="71"/>
+    </row>
+    <row r="54" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="119"/>
+      <c r="C54" s="120"/>
+      <c r="D54" s="119"/>
+    </row>
     <row r="55" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="56" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="57" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6801,11 +6833,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -7318,10 +7350,10 @@
       <c r="B44" s="20">
         <v>44506</v>
       </c>
-      <c r="C44" s="115">
+      <c r="C44" s="113">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D44" s="113" t="s">
+      <c r="D44" s="111" t="s">
         <v>113</v>
       </c>
     </row>
@@ -7519,7 +7551,7 @@
       <c r="C62" s="21">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D62" s="102" t="s">
+      <c r="D62" s="100" t="s">
         <v>179</v>
       </c>
     </row>
@@ -7596,7 +7628,7 @@
       <c r="C69" s="21">
         <v>0.125</v>
       </c>
-      <c r="D69" s="102" t="s">
+      <c r="D69" s="100" t="s">
         <v>195</v>
       </c>
     </row>
@@ -8598,7 +8630,7 @@
   </sheetPr>
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -8613,11 +8645,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -8797,7 +8829,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" s="16" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="114">
+      <c r="B14" s="112">
         <v>44502</v>
       </c>
       <c r="C14" s="47">
@@ -8811,10 +8843,10 @@
       <c r="B15" s="31">
         <v>44506</v>
       </c>
-      <c r="C15" s="112">
+      <c r="C15" s="110">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D15" s="113" t="s">
+      <c r="D15" s="111" t="s">
         <v>110</v>
       </c>
     </row>
@@ -8929,13 +8961,13 @@
       </c>
     </row>
     <row r="26" spans="2:4" s="16" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="105">
+      <c r="B26" s="103">
         <v>44546</v>
       </c>
-      <c r="C26" s="106">
+      <c r="C26" s="104">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D26" s="107" t="s">
+      <c r="D26" s="105" t="s">
         <v>177</v>
       </c>
     </row>
@@ -8943,28 +8975,28 @@
       <c r="B27" s="87">
         <v>44573</v>
       </c>
-      <c r="C27" s="117">
+      <c r="C27" s="115">
         <v>0.125</v>
       </c>
-      <c r="D27" s="118" t="s">
+      <c r="D27" s="116" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="105">
+      <c r="B28" s="103">
         <v>44585</v>
       </c>
-      <c r="C28" s="106">
+      <c r="C28" s="104">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D28" s="107" t="s">
+      <c r="D28" s="105" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B29" s="93"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="104"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="102"/>
     </row>
     <row r="30" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="93"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coral\OneDrive\Documents\GitHub\WavContact\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEE42DF-E722-4B7F-AE1A-816E127C822D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E308D540-8EC6-4912-BEF1-303012613BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="205">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -648,6 +648,9 @@
   </si>
   <si>
     <t>Vérification de la modélisation BDD</t>
+  </si>
+  <si>
+    <t>Renommage des documents et gestion des documents</t>
   </si>
 </sst>
 </file>
@@ -1404,216 +1407,116 @@
     <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="17" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF504A3B"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" shrinkToFit="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF504A3B"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" shrinkToFit="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Bookman Old Style"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD3CFC3"/>
-          <bgColor rgb="FFD3CFC3"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" shrinkToFit="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1716,7 +1619,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color rgb="FF504A3B"/>
-        <name val="Arial"/>
+        <name val="Calibri"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" shrinkToFit="0"/>
@@ -1724,7 +1627,9 @@
         <left style="thin">
           <color auto="1"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
         <top style="thin">
           <color auto="1"/>
         </top>
@@ -1747,7 +1652,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color rgb="FF94497A"/>
+        <color rgb="FF504A3B"/>
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
@@ -1789,26 +1694,20 @@
       <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFD8B1CB"/>
-          <bgColor rgb="FFD8B1CB"/>
+          <fgColor rgb="FFD3CFC3"/>
+          <bgColor rgb="FFD3CFC3"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
+        <left/>
         <right style="thin">
           <color auto="1"/>
         </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2013,6 +1912,110 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color rgb="FF504A3B"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" shrinkToFit="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF94497A"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" shrinkToFit="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Bookman Old Style"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD8B1CB"/>
+          <bgColor rgb="FFD8B1CB"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF504A3B"/>
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
@@ -2120,12 +2123,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:D59" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:D59" tableBorderDxfId="16">
   <autoFilter ref="B2:D59" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DATE" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="DURÉE" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ÉVÉNEMENT" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DATE" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="DURÉE" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ÉVÉNEMENT" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2138,21 +2141,21 @@
     <sortCondition ref="B2:B25"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="DURÉE" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="ÉVÉNEMENT" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="DURÉE" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="ÉVÉNEMENT" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D73" totalsRowCount="1" totalsRowDxfId="13">
-  <autoFilter ref="B2:D72" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D75" totalsRowCount="1" totalsRowDxfId="9">
+  <autoFilter ref="B2:D74" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="12" totalsRowDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="11" totalsRowDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ÉVÉNEMENT" dataDxfId="10" totalsRowDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="8" totalsRowDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="7" totalsRowDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ÉVÉNEMENT" dataDxfId="6" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2162,9 +2165,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tableau2" displayName="Tableau2" ref="B2:D33">
   <autoFilter ref="B2:D33" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="DATE" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DURÉE" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ÉVÉNEMENT" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="DATE" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DURÉE" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ÉVÉNEMENT" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2386,7 +2389,7 @@
   </sheetPr>
   <dimension ref="A1:Z1008"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -2401,11 +2404,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3704,7 +3707,7 @@
   </sheetPr>
   <dimension ref="A1:Y1047"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A47" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -3719,11 +3722,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3747,79 +3750,79 @@
       <c r="Y1" s="2"/>
     </row>
     <row r="2" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="99" t="s">
+      <c r="C2" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="100" t="s">
+      <c r="D2" s="98" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="101">
+      <c r="B3" s="99">
         <v>44459</v>
       </c>
       <c r="C3" s="13">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D3" s="102" t="s">
+      <c r="D3" s="100" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="101">
+      <c r="B4" s="99">
         <v>44462</v>
       </c>
       <c r="C4" s="13">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="D4" s="102" t="s">
+      <c r="D4" s="100" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="101">
+      <c r="B5" s="99">
         <v>44463</v>
       </c>
       <c r="C5" s="13">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="D5" s="102" t="s">
+      <c r="D5" s="100" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="101">
+      <c r="B6" s="99">
         <v>44464</v>
       </c>
       <c r="C6" s="13">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D6" s="102" t="s">
+      <c r="D6" s="100" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="101">
+      <c r="B7" s="99">
         <v>44466</v>
       </c>
       <c r="C7" s="13">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D7" s="102" t="s">
+      <c r="D7" s="100" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="101">
+      <c r="B8" s="99">
         <v>44467</v>
       </c>
       <c r="C8" s="13">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D8" s="103" t="s">
+      <c r="D8" s="101" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3830,217 +3833,217 @@
       <c r="C9" s="38">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="102" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="101">
+      <c r="B10" s="99">
         <v>44479</v>
       </c>
       <c r="C10" s="36">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D10" s="105" t="s">
+      <c r="D10" s="103" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="101">
+      <c r="B11" s="99">
         <v>44480</v>
       </c>
       <c r="C11" s="13">
         <v>3.125E-2</v>
       </c>
-      <c r="D11" s="102" t="s">
+      <c r="D11" s="100" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="101">
+      <c r="B12" s="99">
         <v>44480</v>
       </c>
       <c r="C12" s="13">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D12" s="102" t="s">
+      <c r="D12" s="100" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
-      <c r="B13" s="101">
+      <c r="B13" s="99">
         <v>44482</v>
       </c>
       <c r="C13" s="13">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D13" s="102" t="s">
+      <c r="D13" s="100" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="101">
+      <c r="B14" s="99">
         <v>44482</v>
       </c>
       <c r="C14" s="13">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D14" s="102" t="s">
+      <c r="D14" s="100" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:25" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="101">
+      <c r="B15" s="99">
         <v>44482</v>
       </c>
       <c r="C15" s="13">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D15" s="102" t="s">
+      <c r="D15" s="100" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:25" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="101">
+      <c r="B16" s="99">
         <v>44484</v>
       </c>
       <c r="C16" s="13">
         <v>0.125</v>
       </c>
-      <c r="D16" s="102" t="s">
+      <c r="D16" s="100" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="101">
+      <c r="B17" s="99">
         <v>44484</v>
       </c>
       <c r="C17" s="13">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D17" s="102" t="s">
+      <c r="D17" s="100" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="101">
+      <c r="B18" s="99">
         <v>44485</v>
       </c>
       <c r="C18" s="13">
         <v>0.10416666666666667</v>
       </c>
-      <c r="D18" s="102" t="s">
+      <c r="D18" s="100" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="101">
+      <c r="B19" s="99">
         <v>44487</v>
       </c>
       <c r="C19" s="13">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="D19" s="102" t="s">
+      <c r="D19" s="100" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="20" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="101">
+      <c r="B20" s="99">
         <v>44491</v>
       </c>
       <c r="C20" s="36">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D20" s="106" t="s">
+      <c r="D20" s="104" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="21" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="101">
+      <c r="B21" s="99">
         <v>44493</v>
       </c>
       <c r="C21" s="13">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="D21" s="107" t="s">
+      <c r="D21" s="105" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="101">
+      <c r="B22" s="99">
         <v>44494</v>
       </c>
       <c r="C22" s="13">
         <v>3.125E-2</v>
       </c>
-      <c r="D22" s="107" t="s">
+      <c r="D22" s="105" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="23" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="101">
+      <c r="B23" s="99">
         <v>44494</v>
       </c>
       <c r="C23" s="13">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D23" s="107" t="s">
+      <c r="D23" s="105" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="101">
+      <c r="B24" s="99">
         <v>44497</v>
       </c>
       <c r="C24" s="13">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D24" s="107" t="s">
+      <c r="D24" s="105" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="25" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="101">
+      <c r="B25" s="99">
         <v>44497</v>
       </c>
       <c r="C25" s="13">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D25" s="107" t="s">
+      <c r="D25" s="105" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="26" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="101">
+      <c r="B26" s="99">
         <v>44497</v>
       </c>
       <c r="C26" s="13">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D26" s="107" t="s">
+      <c r="D26" s="105" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="27" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="101">
+      <c r="B27" s="99">
         <v>44501</v>
       </c>
       <c r="C27" s="13">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D27" s="107" t="s">
+      <c r="D27" s="105" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="28" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="101">
+      <c r="B28" s="99">
         <v>44504</v>
       </c>
       <c r="C28" s="13">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="D28" s="107" t="s">
+      <c r="D28" s="105" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4051,106 +4054,106 @@
       <c r="C29" s="63">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D29" s="108" t="s">
+      <c r="D29" s="106" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="30" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="101">
+      <c r="B30" s="99">
         <v>44506</v>
       </c>
       <c r="C30" s="36">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D30" s="106" t="s">
+      <c r="D30" s="104" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="31" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="101">
+      <c r="B31" s="99">
         <v>44515</v>
       </c>
       <c r="C31" s="13">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D31" s="107" t="s">
+      <c r="D31" s="105" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="32" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="101">
+      <c r="B32" s="99">
         <v>44517</v>
       </c>
       <c r="C32" s="13">
         <v>0.1875</v>
       </c>
-      <c r="D32" s="107" t="s">
+      <c r="D32" s="105" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="33" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="101">
+      <c r="B33" s="99">
         <v>44518</v>
       </c>
       <c r="C33" s="13">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D33" s="107" t="s">
+      <c r="D33" s="105" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="34" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="109">
+      <c r="B34" s="107">
         <v>44519</v>
       </c>
       <c r="C34" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D34" s="107" t="s">
+      <c r="D34" s="105" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="35" spans="2:4" s="14" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="109">
+      <c r="B35" s="107">
         <v>44519</v>
       </c>
       <c r="C35" s="46">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D35" s="107" t="s">
+      <c r="D35" s="105" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="36" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="110">
+      <c r="B36" s="108">
         <v>44521</v>
       </c>
       <c r="C36" s="46">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D36" s="111" t="s">
+      <c r="D36" s="109" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="37" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="110">
+      <c r="B37" s="108">
         <v>44524</v>
       </c>
       <c r="C37" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D37" s="111" t="s">
+      <c r="D37" s="109" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="38" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="110">
+      <c r="B38" s="108">
         <v>44525</v>
       </c>
       <c r="C38" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D38" s="111" t="s">
+      <c r="D38" s="109" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4161,117 +4164,117 @@
       <c r="C39" s="63">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D39" s="112" t="s">
+      <c r="D39" s="110" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="40" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="110">
+      <c r="B40" s="108">
         <v>44528</v>
       </c>
       <c r="C40" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D40" s="111" t="s">
+      <c r="D40" s="109" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="41" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="110">
+      <c r="B41" s="108">
         <v>44543</v>
       </c>
       <c r="C41" s="46">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D41" s="111" t="s">
+      <c r="D41" s="109" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="42" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="110">
+      <c r="B42" s="108">
         <v>44543</v>
       </c>
       <c r="C42" s="46">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D42" s="111" t="s">
+      <c r="D42" s="109" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="43" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="110">
+      <c r="B43" s="108">
         <v>44543</v>
       </c>
       <c r="C43" s="46">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D43" s="111" t="s">
+      <c r="D43" s="109" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="44" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="110">
+      <c r="B44" s="108">
         <v>44544</v>
       </c>
       <c r="C44" s="46">
         <v>6.25E-2</v>
       </c>
-      <c r="D44" s="111" t="s">
+      <c r="D44" s="109" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="45" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="110">
+      <c r="B45" s="108">
         <v>44545</v>
       </c>
       <c r="C45" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D45" s="111" t="s">
+      <c r="D45" s="109" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="46" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="110">
+      <c r="B46" s="108">
         <v>44545</v>
       </c>
       <c r="C46" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D46" s="111" t="s">
+      <c r="D46" s="109" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="47" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="110">
+      <c r="B47" s="108">
         <v>44545</v>
       </c>
       <c r="C47" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D47" s="111" t="s">
+      <c r="D47" s="109" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="48" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="110">
+      <c r="B48" s="108">
         <v>44546</v>
       </c>
       <c r="C48" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D48" s="111" t="s">
+      <c r="D48" s="109" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="49" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="110">
+      <c r="B49" s="108">
         <v>44546</v>
       </c>
       <c r="C49" s="46">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="D49" s="111" t="s">
+      <c r="D49" s="109" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4282,40 +4285,40 @@
       <c r="C50" s="63">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D50" s="112" t="s">
+      <c r="D50" s="110" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="51" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="110">
+      <c r="B51" s="108">
         <v>44548</v>
       </c>
       <c r="C51" s="78">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D51" s="113" t="s">
+      <c r="D51" s="111" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="110">
+      <c r="B52" s="108">
         <v>44585</v>
       </c>
       <c r="C52" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D52" s="111" t="s">
+      <c r="D52" s="109" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="110">
+      <c r="B53" s="108">
         <v>44585</v>
       </c>
       <c r="C53" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D53" s="111" t="s">
+      <c r="D53" s="109" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4326,29 +4329,29 @@
       <c r="C54" s="63">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D54" s="112" t="s">
+      <c r="D54" s="110" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="110">
+      <c r="B55" s="108">
         <v>44587</v>
       </c>
       <c r="C55" s="78">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D55" s="113" t="s">
+      <c r="D55" s="111" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="56" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="110">
+      <c r="B56" s="108">
         <v>44587</v>
       </c>
       <c r="C56" s="46">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="D56" s="111" t="s">
+      <c r="D56" s="109" t="s">
         <v>194</v>
       </c>
     </row>
@@ -4359,7 +4362,7 @@
       <c r="C57" s="57">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D57" s="114" t="s">
+      <c r="D57" s="112" t="s">
         <v>203</v>
       </c>
     </row>
@@ -4370,14 +4373,14 @@
       <c r="C58" s="57">
         <v>6.25E-2</v>
       </c>
-      <c r="D58" s="114" t="s">
+      <c r="D58" s="112" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="59" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="77"/>
       <c r="C59" s="58"/>
-      <c r="D59" s="115"/>
+      <c r="D59" s="113"/>
     </row>
     <row r="60" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="61" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5402,11 +5405,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -5973,7 +5976,7 @@
       <c r="D52" s="55"/>
     </row>
     <row r="53" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="97"/>
+      <c r="B53" s="95"/>
       <c r="C53" s="57"/>
       <c r="D53" s="55"/>
     </row>
@@ -6955,10 +6958,10 @@
     <tabColor rgb="FFFEE1AE"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1041"/>
+  <dimension ref="A1:Z1043"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView showGridLines="0" topLeftCell="A60" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6972,11 +6975,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -7771,10 +7774,10 @@
       </c>
     </row>
     <row r="70" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="117">
+      <c r="B70" s="115">
         <v>44587</v>
       </c>
-      <c r="C70" s="118">
+      <c r="C70" s="116">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D70" s="51" t="s">
@@ -7782,10 +7785,10 @@
       </c>
     </row>
     <row r="71" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="117">
+      <c r="B71" s="115">
         <v>44587</v>
       </c>
-      <c r="C71" s="118">
+      <c r="C71" s="116">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D71" s="51" t="s">
@@ -7803,16 +7806,30 @@
         <v>201</v>
       </c>
     </row>
-    <row r="73" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="68"/>
-      <c r="C73" s="57"/>
-      <c r="D73" s="55"/>
-    </row>
-    <row r="74" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="73">
+        <v>44600</v>
+      </c>
+      <c r="C73" s="74">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D73" s="55" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="115"/>
       <c r="C74" s="116"/>
-    </row>
-    <row r="75" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="D74" s="51"/>
+    </row>
+    <row r="75" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="68"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="55"/>
+    </row>
+    <row r="76" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C76" s="114"/>
+    </row>
     <row r="77" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="78" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="79" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8778,6 +8795,8 @@
     <row r="1039" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1040" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1041" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1042" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1043" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
@@ -8798,7 +8817,7 @@
   </sheetPr>
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -8813,11 +8832,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="128" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -8875,7 +8894,7 @@
       <c r="Y2" s="17"/>
     </row>
     <row r="3" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="119">
+      <c r="B3" s="117">
         <v>44459</v>
       </c>
       <c r="C3" s="27">
@@ -8886,7 +8905,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="120">
+      <c r="B4" s="118">
         <v>44463</v>
       </c>
       <c r="C4" s="27">
@@ -8897,7 +8916,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="120">
+      <c r="B5" s="118">
         <v>44463</v>
       </c>
       <c r="C5" s="27">
@@ -8908,7 +8927,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="120">
+      <c r="B6" s="118">
         <v>44468</v>
       </c>
       <c r="C6" s="27">
@@ -8919,7 +8938,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="121">
+      <c r="B7" s="119">
         <v>44477</v>
       </c>
       <c r="C7" s="40">
@@ -8930,7 +8949,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="120">
+      <c r="B8" s="118">
         <v>44479</v>
       </c>
       <c r="C8" s="39">
@@ -8941,7 +8960,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="120">
+      <c r="B9" s="118">
         <v>44485</v>
       </c>
       <c r="C9" s="28">
@@ -8952,7 +8971,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="120">
+      <c r="B10" s="118">
         <v>44488</v>
       </c>
       <c r="C10" s="27">
@@ -8963,7 +8982,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="120">
+      <c r="B11" s="118">
         <v>44494</v>
       </c>
       <c r="C11" s="39">
@@ -8974,7 +8993,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="120">
+      <c r="B12" s="118">
         <v>44494</v>
       </c>
       <c r="C12" s="27">
@@ -8985,7 +9004,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="122">
+      <c r="B13" s="120">
         <v>44494</v>
       </c>
       <c r="C13" s="28">
@@ -8996,7 +9015,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="123">
+      <c r="B14" s="121">
         <v>44502</v>
       </c>
       <c r="C14" s="40">
@@ -9007,7 +9026,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="122">
+      <c r="B15" s="120">
         <v>44506</v>
       </c>
       <c r="C15" s="87">
@@ -9018,7 +9037,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="122">
+      <c r="B16" s="120">
         <v>44508</v>
       </c>
       <c r="C16" s="28">
@@ -9029,7 +9048,7 @@
       </c>
     </row>
     <row r="17" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="124">
+      <c r="B17" s="122">
         <v>44520</v>
       </c>
       <c r="C17" s="53">
@@ -9040,7 +9059,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="124">
+      <c r="B18" s="122">
         <v>44520</v>
       </c>
       <c r="C18" s="53">
@@ -9051,7 +9070,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="124">
+      <c r="B19" s="122">
         <v>44521</v>
       </c>
       <c r="C19" s="49">
@@ -9062,7 +9081,7 @@
       </c>
     </row>
     <row r="20" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="124">
+      <c r="B20" s="122">
         <v>44522</v>
       </c>
       <c r="C20" s="53">
@@ -9073,7 +9092,7 @@
       </c>
     </row>
     <row r="21" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="124">
+      <c r="B21" s="122">
         <v>44522</v>
       </c>
       <c r="C21" s="53">
@@ -9084,7 +9103,7 @@
       </c>
     </row>
     <row r="22" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="124">
+      <c r="B22" s="122">
         <v>44523</v>
       </c>
       <c r="C22" s="53">
@@ -9095,7 +9114,7 @@
       </c>
     </row>
     <row r="23" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="125">
+      <c r="B23" s="123">
         <v>44523</v>
       </c>
       <c r="C23" s="67">
@@ -9106,7 +9125,7 @@
       </c>
     </row>
     <row r="24" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="126">
+      <c r="B24" s="124">
         <v>44546</v>
       </c>
       <c r="C24" s="71">
@@ -9117,7 +9136,7 @@
       </c>
     </row>
     <row r="25" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="126">
+      <c r="B25" s="124">
         <v>44546</v>
       </c>
       <c r="C25" s="71">
@@ -9128,7 +9147,7 @@
       </c>
     </row>
     <row r="26" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="127">
+      <c r="B26" s="125">
         <v>44546</v>
       </c>
       <c r="C26" s="82">
@@ -9139,7 +9158,7 @@
       </c>
     </row>
     <row r="27" spans="2:4" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="126">
+      <c r="B27" s="124">
         <v>44573</v>
       </c>
       <c r="C27" s="91">
@@ -9150,7 +9169,7 @@
       </c>
     </row>
     <row r="28" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="127">
+      <c r="B28" s="125">
         <v>44585</v>
       </c>
       <c r="C28" s="82">
@@ -9161,27 +9180,27 @@
       </c>
     </row>
     <row r="29" spans="2:4" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="128"/>
+      <c r="B29" s="126"/>
       <c r="C29" s="80"/>
       <c r="D29" s="81"/>
     </row>
     <row r="30" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="128"/>
+      <c r="B30" s="126"/>
       <c r="C30" s="57"/>
       <c r="D30" s="55"/>
     </row>
     <row r="31" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="128"/>
+      <c r="B31" s="126"/>
       <c r="C31" s="57"/>
       <c r="D31" s="55"/>
     </row>
     <row r="32" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="128"/>
+      <c r="B32" s="126"/>
       <c r="C32" s="57"/>
       <c r="D32" s="55"/>
     </row>
     <row r="33" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="129"/>
+      <c r="B33" s="127"/>
       <c r="C33" s="57"/>
       <c r="D33" s="55"/>
     </row>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E308D540-8EC6-4912-BEF1-303012613BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0B8475-F77E-4B81-A37F-7858C6026D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="205">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -2389,7 +2389,7 @@
   </sheetPr>
   <dimension ref="A1:Z1008"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -6960,7 +6960,7 @@
   </sheetPr>
   <dimension ref="A1:Z1043"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A60" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A60" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
@@ -7818,9 +7818,15 @@
       </c>
     </row>
     <row r="74" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="115"/>
-      <c r="C74" s="116"/>
-      <c r="D74" s="51"/>
+      <c r="B74" s="73">
+        <v>44600</v>
+      </c>
+      <c r="C74" s="74">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="D74" s="55" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="75" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="68"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0B8475-F77E-4B81-A37F-7858C6026D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A7658E-05A1-41D9-98FA-C3BE097EE05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="206">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -651,6 +651,9 @@
   </si>
   <si>
     <t>Renommage des documents et gestion des documents</t>
+  </si>
+  <si>
+    <t>Mise à jour de l'étude d'opportunité</t>
   </si>
 </sst>
 </file>
@@ -2150,8 +2153,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D75" totalsRowCount="1" totalsRowDxfId="9">
-  <autoFilter ref="B2:D74" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D76" totalsRowCount="1" totalsRowDxfId="9">
+  <autoFilter ref="B2:D75" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="8" totalsRowDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="7" totalsRowDxfId="1"/>
@@ -6958,10 +6961,10 @@
     <tabColor rgb="FFFEE1AE"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1043"/>
+  <dimension ref="A1:Z1044"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A60" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7828,15 +7831,25 @@
         <v>115</v>
       </c>
     </row>
-    <row r="75" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="68"/>
-      <c r="C75" s="57"/>
-      <c r="D75" s="55"/>
+    <row r="75" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="73">
+        <v>44600</v>
+      </c>
+      <c r="C75" s="74">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="D75" s="55" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="76" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C76" s="114"/>
-    </row>
-    <row r="77" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="B76" s="68"/>
+      <c r="C76" s="57"/>
+      <c r="D76" s="55"/>
+    </row>
+    <row r="77" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C77" s="114"/>
+    </row>
     <row r="78" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="79" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="80" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8803,6 +8816,7 @@
     <row r="1041" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1042" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1043" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1044" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aurelie/Documents/GitHub/WavContact/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA1919A-9C9D-A441-924D-BF8B003BC848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5D7224-EA1D-6746-9BCD-2B525E445029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="207">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -654,6 +654,9 @@
   </si>
   <si>
     <t>Mise à jour de l'étude d'opportunité</t>
+  </si>
+  <si>
+    <t>Mise en place du CRUD pour la table Materiel + READ pour toutes les tables dans l'API</t>
   </si>
 </sst>
 </file>
@@ -826,12 +829,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Bookman Old Style"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFE39202"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1494,20 +1499,20 @@
     <xf numFmtId="165" fontId="17" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="17" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2386,7 +2391,7 @@
   </sheetPr>
   <dimension ref="A1:Z1008"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -2401,11 +2406,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2697,7 +2702,7 @@
       <c r="B26" s="47">
         <v>44602</v>
       </c>
-      <c r="C26" s="127">
+      <c r="C26" s="125">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D26" s="48" t="s">
@@ -2705,9 +2710,9 @@
       </c>
     </row>
     <row r="27" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="125"/>
+      <c r="B27" s="123"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="126"/>
+      <c r="D27" s="124"/>
     </row>
     <row r="28" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="29" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3725,11 +3730,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -5393,8 +5398,8 @@
   </sheetPr>
   <dimension ref="A1:Y1009"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5408,11 +5413,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -5964,9 +5969,15 @@
       </c>
     </row>
     <row r="50" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="56"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="55"/>
+      <c r="B50" s="50">
+        <v>44602</v>
+      </c>
+      <c r="C50" s="15">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D50" s="54" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="51" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="56"/>
@@ -6978,11 +6989,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -8852,11 +8863,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="126" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aurelie/Documents/GitHub/WavContact/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5D7224-EA1D-6746-9BCD-2B525E445029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24961D1A-727A-C64F-870D-6A4C8298ED21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Coralie" sheetId="4" r:id="rId4"/>
     <sheet name="Constantin" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="208">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -657,6 +657,9 @@
   </si>
   <si>
     <t>Mise en place du CRUD pour la table Materiel + READ pour toutes les tables dans l'API</t>
+  </si>
+  <si>
+    <t>Mise en place du CRUD pour les table simples</t>
   </si>
 </sst>
 </file>
@@ -5398,8 +5401,8 @@
   </sheetPr>
   <dimension ref="A1:Y1009"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51:D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5980,9 +5983,15 @@
       </c>
     </row>
     <row r="51" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="56"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="55"/>
+      <c r="B51" s="50">
+        <v>44603</v>
+      </c>
+      <c r="C51" s="15">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D51" s="54" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="52" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="56"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aurelie/Documents/GitHub/WavContact/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24961D1A-727A-C64F-870D-6A4C8298ED21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B851F13-CEA8-FD48-B5F1-EC9EC5FEE2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Coralie" sheetId="4" r:id="rId4"/>
     <sheet name="Constantin" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -3718,8 +3719,8 @@
   </sheetPr>
   <dimension ref="A1:Y1047"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57:D58"/>
+    <sheetView showGridLines="0" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5401,7 +5402,7 @@
   </sheetPr>
   <dimension ref="A1:Y1009"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="B51" sqref="B51:D51"/>
     </sheetView>
   </sheetViews>
@@ -6983,8 +6984,8 @@
   </sheetPr>
   <dimension ref="A1:Z1044"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A60" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72:D75"/>
+    <sheetView showGridLines="0" topLeftCell="A62" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8857,7 +8858,7 @@
   </sheetPr>
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coral\OneDrive\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EE1771-2776-4696-9262-CDC761279B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C4AA23-8ACB-4E59-B608-D7E298A5B21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="214">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -676,6 +676,9 @@
   </si>
   <si>
     <t>Modification du script BDD et de sa modélisation  pour WavMap</t>
+  </si>
+  <si>
+    <t>Mise à jour du document d'assurance qualité et renommage des documents</t>
   </si>
 </sst>
 </file>
@@ -686,7 +689,7 @@
     <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
     <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF504A3B"/>
@@ -856,18 +859,6 @@
       <color rgb="FFE39202"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Bookman Old Style"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFE39202"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1160,7 +1151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1536,10 +1527,10 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="26" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1547,12 +1538,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2192,8 +2177,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D81" totalsRowCount="1" totalsRowDxfId="9">
-  <autoFilter ref="B2:D80" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D82" totalsRowCount="1" totalsRowDxfId="9">
+  <autoFilter ref="B2:D81" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="8" totalsRowDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="7" totalsRowDxfId="1"/>
@@ -7024,10 +7009,10 @@
     <tabColor rgb="FFFEE1AE"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1049"/>
+  <dimension ref="A1:Z1050"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A74" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78:D79"/>
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7928,10 +7913,10 @@
       </c>
     </row>
     <row r="78" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="129">
+      <c r="B78" s="125">
         <v>44613</v>
       </c>
-      <c r="C78" s="130">
+      <c r="C78" s="126">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D78" s="55" t="s">
@@ -7939,10 +7924,10 @@
       </c>
     </row>
     <row r="79" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="129">
+      <c r="B79" s="125">
         <v>44613</v>
       </c>
-      <c r="C79" s="130">
+      <c r="C79" s="126">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D79" s="55" t="s">
@@ -7950,19 +7935,35 @@
       </c>
     </row>
     <row r="80" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="125"/>
-      <c r="C80" s="126"/>
-      <c r="D80" s="51"/>
-    </row>
-    <row r="81" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="67"/>
-      <c r="C81" s="56"/>
-      <c r="D81" s="55"/>
+      <c r="B80" s="125">
+        <v>44613</v>
+      </c>
+      <c r="C80" s="126">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D80" s="55" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="125">
+        <v>44614</v>
+      </c>
+      <c r="C81" s="126">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D81" s="55" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="82" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C82" s="108"/>
-    </row>
-    <row r="83" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="B82" s="67"/>
+      <c r="C82" s="56"/>
+      <c r="D82" s="55"/>
+    </row>
+    <row r="83" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C83" s="108"/>
+    </row>
     <row r="84" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="85" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="86" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8929,6 +8930,7 @@
     <row r="1047" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1048" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1049" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1050" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coral\OneDrive\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C4AA23-8ACB-4E59-B608-D7E298A5B21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B923337-8C63-45DA-9F48-102A19DDA22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="215">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -679,6 +679,9 @@
   </si>
   <si>
     <t>Mise à jour du document d'assurance qualité et renommage des documents</t>
+  </si>
+  <si>
+    <t>Ajout des mails dans le dossier Mails</t>
   </si>
 </sst>
 </file>
@@ -2177,8 +2180,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D82" totalsRowCount="1" totalsRowDxfId="9">
-  <autoFilter ref="B2:D81" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D84" totalsRowCount="1" totalsRowDxfId="9">
+  <autoFilter ref="B2:D83" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="8" totalsRowDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="7" totalsRowDxfId="1"/>
@@ -7009,10 +7012,10 @@
     <tabColor rgb="FFFEE1AE"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1050"/>
+  <dimension ref="A1:Z1052"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A74" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A77" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83:D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7956,16 +7959,36 @@
         <v>213</v>
       </c>
     </row>
-    <row r="82" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="67"/>
-      <c r="C82" s="56"/>
-      <c r="D82" s="55"/>
-    </row>
-    <row r="83" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C83" s="108"/>
-    </row>
-    <row r="84" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="125">
+        <v>44614</v>
+      </c>
+      <c r="C82" s="126">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D82" s="55" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="125">
+        <v>44614</v>
+      </c>
+      <c r="C83" s="126">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="D83" s="55" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="67"/>
+      <c r="C84" s="56"/>
+      <c r="D84" s="55"/>
+    </row>
+    <row r="85" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C85" s="108"/>
+    </row>
     <row r="86" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="87" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="88" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8931,6 +8954,8 @@
     <row r="1048" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1049" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1050" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1051" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1052" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coral\OneDrive\Documents\GitHub\WavContact\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B923337-8C63-45DA-9F48-102A19DDA22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F715ACF-1F19-4995-93B1-BDD8E4964E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="216">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -682,6 +682,9 @@
   </si>
   <si>
     <t>Ajout des mails dans le dossier Mails</t>
+  </si>
+  <si>
+    <t>Mise à jour du sprint backlog</t>
   </si>
 </sst>
 </file>
@@ -1154,7 +1157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1541,105 +1544,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <name val="Bookman Old Style"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEE1AE"/>
-          <bgColor rgb="FFFEE1AE"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1745,6 +1658,39 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
@@ -1776,6 +1722,40 @@
         <b/>
         <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
@@ -1799,6 +1779,32 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <name val="Bookman Old Style"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEE1AE"/>
+          <bgColor rgb="FFFEE1AE"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2153,8 +2159,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:D59" tableBorderDxfId="16">
-  <autoFilter ref="B2:D59" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:D61" tableBorderDxfId="16">
+  <autoFilter ref="B2:D61" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DATE" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="DURÉE" dataDxfId="14"/>
@@ -2183,9 +2189,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D84" totalsRowCount="1" totalsRowDxfId="9">
   <autoFilter ref="B2:D83" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="8" totalsRowDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="7" totalsRowDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ÉVÉNEMENT" dataDxfId="6" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ÉVÉNEMENT" dataDxfId="4" totalsRowDxfId="3"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2195,9 +2201,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tableau2" displayName="Tableau2" ref="B2:D33">
   <autoFilter ref="B2:D33" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="DATE" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DURÉE" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ÉVÉNEMENT" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="DATE" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DURÉE" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ÉVÉNEMENT" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3743,8 +3749,8 @@
   </sheetPr>
   <dimension ref="A1:Y1047"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4414,12 +4420,32 @@
       </c>
     </row>
     <row r="59" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="72"/>
-      <c r="C59" s="57"/>
-      <c r="D59" s="107"/>
-    </row>
-    <row r="60" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="B59" s="72">
+        <v>44614</v>
+      </c>
+      <c r="C59" s="57">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D59" s="107" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="72">
+        <v>44614</v>
+      </c>
+      <c r="C60" s="56">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D60" s="129" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="72"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="107"/>
+    </row>
     <row r="62" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="63" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="64" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7014,7 +7040,7 @@
   </sheetPr>
   <dimension ref="A1:Z1052"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A77" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A77" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B83" sqref="B83:D83"/>
     </sheetView>
   </sheetViews>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F715ACF-1F19-4995-93B1-BDD8E4964E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF74665F-F43C-4BD1-8111-1427012184B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="218">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -685,6 +685,12 @@
   </si>
   <si>
     <t>Mise à jour du sprint backlog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Création dossier liste des risques </t>
+  </si>
+  <si>
+    <t>Création du dossier scénario de l'application</t>
   </si>
 </sst>
 </file>
@@ -1539,14 +1545,14 @@
     <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2159,8 +2165,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:D61" tableBorderDxfId="16">
-  <autoFilter ref="B2:D61" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:D63" tableBorderDxfId="16">
+  <autoFilter ref="B2:D63" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DATE" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="DURÉE" dataDxfId="14"/>
@@ -2440,11 +2446,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3747,10 +3753,10 @@
     <tabColor rgb="FFD8B1CB"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y1047"/>
+  <dimension ref="A1:Y1049"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3764,11 +3770,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4424,7 +4430,7 @@
         <v>44614</v>
       </c>
       <c r="C59" s="57">
-        <v>8.3333333333333329E-2</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="D59" s="107" t="s">
         <v>102</v>
@@ -4437,17 +4443,37 @@
       <c r="C60" s="56">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D60" s="129" t="s">
+      <c r="D60" s="127" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="61" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="72"/>
-      <c r="C61" s="57"/>
-      <c r="D61" s="107"/>
-    </row>
-    <row r="62" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="72">
+        <v>44614</v>
+      </c>
+      <c r="C61" s="56">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D61" s="127" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="72">
+        <v>44615</v>
+      </c>
+      <c r="C62" s="56">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D62" s="127" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="72"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="107"/>
+    </row>
     <row r="64" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="65" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="66" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5432,6 +5458,8 @@
     <row r="1045" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1046" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1047" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1048" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1049" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
@@ -5452,7 +5480,7 @@
   </sheetPr>
   <dimension ref="A1:Y1009"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A38" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A47" workbookViewId="0">
       <selection activeCell="B52" sqref="B52:D52"/>
     </sheetView>
   </sheetViews>
@@ -5467,11 +5495,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -7055,11 +7083,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -9002,7 +9030,7 @@
   </sheetPr>
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -9017,11 +9045,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="128" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luxra/Documents/GitHub/WavContact/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aurelie/Documents/GitHub/WavContact/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21E262F-6494-F34B-ABDB-D6B71AA54D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC26E065-1DDB-C240-B0E7-E5834EA751DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="14620" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="221">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -693,19 +693,10 @@
     <t>Création du dossier scénario de l'application</t>
   </si>
   <si>
-    <t>10h</t>
-  </si>
-  <si>
     <t>API V2</t>
   </si>
   <si>
-    <t>3h</t>
-  </si>
-  <si>
     <t xml:space="preserve">Visual studio </t>
-  </si>
-  <si>
-    <t>1h30</t>
   </si>
   <si>
     <t>Tests de l'api</t>
@@ -1181,7 +1172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1407,12 +1398,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1556,15 +1541,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2449,7 +2425,7 @@
   </sheetPr>
   <dimension ref="A1:Z1008"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -2464,11 +2440,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2496,15 +2472,15 @@
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="81" t="s">
+      <c r="D2" s="79" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="79">
+      <c r="B3" s="77">
         <v>44384</v>
       </c>
       <c r="C3" s="12">
@@ -2760,7 +2736,7 @@
       <c r="B26" s="47">
         <v>44602</v>
       </c>
-      <c r="C26" s="124">
+      <c r="C26" s="122">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D26" s="48" t="s">
@@ -2768,9 +2744,9 @@
       </c>
     </row>
     <row r="27" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="122"/>
+      <c r="B27" s="120"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="123"/>
+      <c r="D27" s="121"/>
     </row>
     <row r="28" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="29" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3773,8 +3749,8 @@
   </sheetPr>
   <dimension ref="A1:Y1049"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView showGridLines="0" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3788,11 +3764,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3816,79 +3792,79 @@
       <c r="Y1" s="2"/>
     </row>
     <row r="2" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="91" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="94">
+      <c r="B3" s="92">
         <v>44459</v>
       </c>
       <c r="C3" s="13">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D3" s="95" t="s">
+      <c r="D3" s="93" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="94">
+      <c r="B4" s="92">
         <v>44462</v>
       </c>
       <c r="C4" s="13">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="D4" s="95" t="s">
+      <c r="D4" s="93" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="94">
+      <c r="B5" s="92">
         <v>44463</v>
       </c>
       <c r="C5" s="13">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="D5" s="95" t="s">
+      <c r="D5" s="93" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="94">
+      <c r="B6" s="92">
         <v>44464</v>
       </c>
       <c r="C6" s="13">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D6" s="95" t="s">
+      <c r="D6" s="93" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="94">
+      <c r="B7" s="92">
         <v>44466</v>
       </c>
       <c r="C7" s="13">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="D7" s="93" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="94">
+      <c r="B8" s="92">
         <v>44467</v>
       </c>
       <c r="C8" s="13">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D8" s="96" t="s">
+      <c r="D8" s="94" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3899,327 +3875,327 @@
       <c r="C9" s="38">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D9" s="97" t="s">
+      <c r="D9" s="95" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="94">
+      <c r="B10" s="92">
         <v>44479</v>
       </c>
       <c r="C10" s="36">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D10" s="98" t="s">
+      <c r="D10" s="96" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="94">
+      <c r="B11" s="92">
         <v>44480</v>
       </c>
       <c r="C11" s="13">
         <v>3.125E-2</v>
       </c>
-      <c r="D11" s="95" t="s">
+      <c r="D11" s="93" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="94">
+      <c r="B12" s="92">
         <v>44480</v>
       </c>
       <c r="C12" s="13">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D12" s="95" t="s">
+      <c r="D12" s="93" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
-      <c r="B13" s="94">
+      <c r="B13" s="92">
         <v>44482</v>
       </c>
       <c r="C13" s="13">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D13" s="95" t="s">
+      <c r="D13" s="93" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="94">
+      <c r="B14" s="92">
         <v>44482</v>
       </c>
       <c r="C14" s="13">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D14" s="95" t="s">
+      <c r="D14" s="93" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:25" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="94">
+      <c r="B15" s="92">
         <v>44482</v>
       </c>
       <c r="C15" s="13">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D15" s="95" t="s">
+      <c r="D15" s="93" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:25" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="94">
+      <c r="B16" s="92">
         <v>44484</v>
       </c>
       <c r="C16" s="13">
         <v>0.125</v>
       </c>
-      <c r="D16" s="95" t="s">
+      <c r="D16" s="93" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="94">
+      <c r="B17" s="92">
         <v>44484</v>
       </c>
       <c r="C17" s="13">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D17" s="95" t="s">
+      <c r="D17" s="93" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="94">
+      <c r="B18" s="92">
         <v>44485</v>
       </c>
       <c r="C18" s="13">
         <v>0.10416666666666667</v>
       </c>
-      <c r="D18" s="95" t="s">
+      <c r="D18" s="93" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="94">
+      <c r="B19" s="92">
         <v>44487</v>
       </c>
       <c r="C19" s="13">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="D19" s="95" t="s">
+      <c r="D19" s="93" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="20" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="94">
+      <c r="B20" s="92">
         <v>44491</v>
       </c>
       <c r="C20" s="36">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D20" s="99" t="s">
+      <c r="D20" s="97" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="21" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="94">
+      <c r="B21" s="92">
         <v>44493</v>
       </c>
       <c r="C21" s="13">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="D21" s="100" t="s">
+      <c r="D21" s="98" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="94">
+      <c r="B22" s="92">
         <v>44494</v>
       </c>
       <c r="C22" s="13">
         <v>3.125E-2</v>
       </c>
-      <c r="D22" s="100" t="s">
+      <c r="D22" s="98" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="23" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="94">
+      <c r="B23" s="92">
         <v>44494</v>
       </c>
       <c r="C23" s="13">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D23" s="100" t="s">
+      <c r="D23" s="98" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="94">
+      <c r="B24" s="92">
         <v>44497</v>
       </c>
       <c r="C24" s="13">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D24" s="100" t="s">
+      <c r="D24" s="98" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="25" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="94">
+      <c r="B25" s="92">
         <v>44497</v>
       </c>
       <c r="C25" s="13">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D25" s="100" t="s">
+      <c r="D25" s="98" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="26" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="94">
+      <c r="B26" s="92">
         <v>44497</v>
       </c>
       <c r="C26" s="13">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D26" s="100" t="s">
+      <c r="D26" s="98" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="27" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="94">
+      <c r="B27" s="92">
         <v>44501</v>
       </c>
       <c r="C27" s="13">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D27" s="100" t="s">
+      <c r="D27" s="98" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="28" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="94">
+      <c r="B28" s="92">
         <v>44504</v>
       </c>
       <c r="C28" s="13">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="D28" s="100" t="s">
+      <c r="D28" s="98" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="29" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="85">
+      <c r="B29" s="83">
         <v>44505</v>
       </c>
       <c r="C29" s="62">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D29" s="101" t="s">
+      <c r="D29" s="99" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="30" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="94">
+      <c r="B30" s="92">
         <v>44506</v>
       </c>
       <c r="C30" s="36">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D30" s="99" t="s">
+      <c r="D30" s="97" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="31" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="94">
+      <c r="B31" s="92">
         <v>44515</v>
       </c>
       <c r="C31" s="13">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D31" s="100" t="s">
+      <c r="D31" s="98" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="32" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="94">
+      <c r="B32" s="92">
         <v>44517</v>
       </c>
       <c r="C32" s="13">
         <v>0.1875</v>
       </c>
-      <c r="D32" s="100" t="s">
+      <c r="D32" s="98" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="33" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="94">
+      <c r="B33" s="92">
         <v>44518</v>
       </c>
       <c r="C33" s="13">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D33" s="100" t="s">
+      <c r="D33" s="98" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="34" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="102">
+      <c r="B34" s="100">
         <v>44519</v>
       </c>
       <c r="C34" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D34" s="100" t="s">
+      <c r="D34" s="98" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="35" spans="2:4" s="14" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="102">
+      <c r="B35" s="100">
         <v>44519</v>
       </c>
       <c r="C35" s="46">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D35" s="100" t="s">
+      <c r="D35" s="98" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="36" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="103">
+      <c r="B36" s="101">
         <v>44521</v>
       </c>
       <c r="C36" s="46">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D36" s="104" t="s">
+      <c r="D36" s="102" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="37" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="103">
+      <c r="B37" s="101">
         <v>44524</v>
       </c>
       <c r="C37" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D37" s="104" t="s">
+      <c r="D37" s="102" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="38" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="103">
+      <c r="B38" s="101">
         <v>44525</v>
       </c>
       <c r="C38" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D38" s="104" t="s">
+      <c r="D38" s="102" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4230,117 +4206,117 @@
       <c r="C39" s="62">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D39" s="105" t="s">
+      <c r="D39" s="103" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="40" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="103">
+      <c r="B40" s="101">
         <v>44528</v>
       </c>
       <c r="C40" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D40" s="104" t="s">
+      <c r="D40" s="102" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="41" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="103">
+      <c r="B41" s="101">
         <v>44543</v>
       </c>
       <c r="C41" s="46">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D41" s="104" t="s">
+      <c r="D41" s="102" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="42" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="103">
+      <c r="B42" s="101">
         <v>44543</v>
       </c>
       <c r="C42" s="46">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D42" s="104" t="s">
+      <c r="D42" s="102" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="43" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="103">
+      <c r="B43" s="101">
         <v>44543</v>
       </c>
       <c r="C43" s="46">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D43" s="104" t="s">
+      <c r="D43" s="102" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="44" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="103">
+      <c r="B44" s="101">
         <v>44544</v>
       </c>
       <c r="C44" s="46">
         <v>6.25E-2</v>
       </c>
-      <c r="D44" s="104" t="s">
+      <c r="D44" s="102" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="45" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="103">
+      <c r="B45" s="101">
         <v>44545</v>
       </c>
       <c r="C45" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D45" s="104" t="s">
+      <c r="D45" s="102" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="46" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="103">
+      <c r="B46" s="101">
         <v>44545</v>
       </c>
       <c r="C46" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D46" s="104" t="s">
+      <c r="D46" s="102" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="47" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="103">
+      <c r="B47" s="101">
         <v>44545</v>
       </c>
       <c r="C47" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D47" s="104" t="s">
+      <c r="D47" s="102" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="48" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="103">
+      <c r="B48" s="101">
         <v>44546</v>
       </c>
       <c r="C48" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D48" s="104" t="s">
+      <c r="D48" s="102" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="49" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="103">
+      <c r="B49" s="101">
         <v>44546</v>
       </c>
       <c r="C49" s="46">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="D49" s="104" t="s">
+      <c r="D49" s="102" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4351,40 +4327,40 @@
       <c r="C50" s="62">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D50" s="105" t="s">
+      <c r="D50" s="103" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="51" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="103">
+      <c r="B51" s="101">
         <v>44548</v>
       </c>
       <c r="C51" s="73">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D51" s="106" t="s">
+      <c r="D51" s="104" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="103">
+      <c r="B52" s="101">
         <v>44585</v>
       </c>
       <c r="C52" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D52" s="104" t="s">
+      <c r="D52" s="102" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="103">
+      <c r="B53" s="101">
         <v>44585</v>
       </c>
       <c r="C53" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D53" s="104" t="s">
+      <c r="D53" s="102" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4395,102 +4371,102 @@
       <c r="C54" s="62">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D54" s="105" t="s">
+      <c r="D54" s="103" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="103">
+      <c r="B55" s="101">
         <v>44587</v>
       </c>
       <c r="C55" s="73">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D55" s="106" t="s">
+      <c r="D55" s="104" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="56" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="103">
+      <c r="B56" s="101">
         <v>44587</v>
       </c>
       <c r="C56" s="46">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="D56" s="104" t="s">
+      <c r="D56" s="102" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="57" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="103">
+      <c r="B57" s="101">
         <v>44587</v>
       </c>
       <c r="C57" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D57" s="104" t="s">
+      <c r="D57" s="102" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="58" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="103">
+      <c r="B58" s="101">
         <v>44590</v>
       </c>
       <c r="C58" s="46">
         <v>6.25E-2</v>
       </c>
-      <c r="D58" s="104" t="s">
+      <c r="D58" s="102" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="59" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="72">
+      <c r="B59" s="101">
         <v>44614</v>
       </c>
-      <c r="C59" s="57">
+      <c r="C59" s="46">
         <v>0.10416666666666667</v>
       </c>
-      <c r="D59" s="107" t="s">
+      <c r="D59" s="102" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="60" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="72">
+      <c r="B60" s="101">
         <v>44614</v>
       </c>
-      <c r="C60" s="56">
+      <c r="C60" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D60" s="127" t="s">
+      <c r="D60" s="102" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="61" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="72">
+      <c r="B61" s="101">
         <v>44614</v>
       </c>
-      <c r="C61" s="56">
+      <c r="C61" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D61" s="127" t="s">
+      <c r="D61" s="102" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="62" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="72">
+      <c r="B62" s="101">
         <v>44615</v>
       </c>
-      <c r="C62" s="56">
+      <c r="C62" s="46">
         <v>6.25E-2</v>
       </c>
-      <c r="D62" s="127" t="s">
+      <c r="D62" s="102" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="63" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="72"/>
       <c r="C63" s="57"/>
-      <c r="D63" s="107"/>
+      <c r="D63" s="105"/>
     </row>
     <row r="64" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="65" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5513,11 +5489,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -6102,14 +6078,14 @@
       </c>
     </row>
     <row r="53" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="90"/>
+      <c r="B53" s="88"/>
       <c r="C53" s="56"/>
       <c r="D53" s="55"/>
     </row>
     <row r="54" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="88"/>
-      <c r="C54" s="89"/>
-      <c r="D54" s="88"/>
+      <c r="B54" s="86"/>
+      <c r="C54" s="87"/>
+      <c r="D54" s="86"/>
     </row>
     <row r="55" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="56" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7086,8 +7062,8 @@
   </sheetPr>
   <dimension ref="A1:Z1052"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A77" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83:D83"/>
+    <sheetView showGridLines="0" topLeftCell="A71" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78:D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7101,11 +7077,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -7617,10 +7593,10 @@
       <c r="B44" s="18">
         <v>44506</v>
       </c>
-      <c r="C44" s="84">
+      <c r="C44" s="82">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D44" s="83" t="s">
+      <c r="D44" s="81" t="s">
         <v>113</v>
       </c>
     </row>
@@ -7900,10 +7876,10 @@
       </c>
     </row>
     <row r="70" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="109">
+      <c r="B70" s="107">
         <v>44587</v>
       </c>
-      <c r="C70" s="110">
+      <c r="C70" s="108">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D70" s="51" t="s">
@@ -7911,10 +7887,10 @@
       </c>
     </row>
     <row r="71" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="109">
+      <c r="B71" s="107">
         <v>44587</v>
       </c>
-      <c r="C71" s="110">
+      <c r="C71" s="108">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D71" s="51" t="s">
@@ -7922,10 +7898,10 @@
       </c>
     </row>
     <row r="72" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="109">
+      <c r="B72" s="107">
         <v>44590</v>
       </c>
-      <c r="C72" s="110">
+      <c r="C72" s="108">
         <v>6.25E-2</v>
       </c>
       <c r="D72" s="51" t="s">
@@ -7933,10 +7909,10 @@
       </c>
     </row>
     <row r="73" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="109">
+      <c r="B73" s="107">
         <v>44600</v>
       </c>
-      <c r="C73" s="110">
+      <c r="C73" s="108">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D73" s="51" t="s">
@@ -7944,10 +7920,10 @@
       </c>
     </row>
     <row r="74" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="109">
+      <c r="B74" s="107">
         <v>44600</v>
       </c>
-      <c r="C74" s="110">
+      <c r="C74" s="108">
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="D74" s="51" t="s">
@@ -7955,10 +7931,10 @@
       </c>
     </row>
     <row r="75" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="109">
+      <c r="B75" s="107">
         <v>44600</v>
       </c>
-      <c r="C75" s="110">
+      <c r="C75" s="108">
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="D75" s="51" t="s">
@@ -7966,10 +7942,10 @@
       </c>
     </row>
     <row r="76" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="109">
+      <c r="B76" s="107">
         <v>44611</v>
       </c>
-      <c r="C76" s="110">
+      <c r="C76" s="108">
         <v>0.10416666666666667</v>
       </c>
       <c r="D76" s="51" t="s">
@@ -7977,10 +7953,10 @@
       </c>
     </row>
     <row r="77" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="109">
+      <c r="B77" s="107">
         <v>44611</v>
       </c>
-      <c r="C77" s="110">
+      <c r="C77" s="108">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D77" s="51" t="s">
@@ -7988,68 +7964,68 @@
       </c>
     </row>
     <row r="78" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="125">
+      <c r="B78" s="107">
         <v>44613</v>
       </c>
-      <c r="C78" s="126">
+      <c r="C78" s="108">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="D78" s="55" t="s">
+      <c r="D78" s="51" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="79" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="125">
+      <c r="B79" s="107">
         <v>44613</v>
       </c>
-      <c r="C79" s="126">
+      <c r="C79" s="108">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D79" s="55" t="s">
+      <c r="D79" s="51" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="80" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="125">
+      <c r="B80" s="107">
         <v>44613</v>
       </c>
-      <c r="C80" s="126">
+      <c r="C80" s="108">
         <v>6.25E-2</v>
       </c>
-      <c r="D80" s="55" t="s">
+      <c r="D80" s="51" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="81" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="125">
+      <c r="B81" s="107">
         <v>44614</v>
       </c>
-      <c r="C81" s="126">
+      <c r="C81" s="108">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D81" s="55" t="s">
+      <c r="D81" s="51" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="82" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="125">
+      <c r="B82" s="107">
         <v>44614</v>
       </c>
-      <c r="C82" s="126">
+      <c r="C82" s="108">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D82" s="55" t="s">
+      <c r="D82" s="51" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="83" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="125">
+      <c r="B83" s="107">
         <v>44614</v>
       </c>
-      <c r="C83" s="126">
+      <c r="C83" s="108">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="D83" s="55" t="s">
+      <c r="D83" s="51" t="s">
         <v>214</v>
       </c>
     </row>
@@ -8059,7 +8035,7 @@
       <c r="D84" s="55"/>
     </row>
     <row r="85" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C85" s="108"/>
+      <c r="C85" s="106"/>
     </row>
     <row r="86" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="87" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9048,8 +9024,8 @@
   </sheetPr>
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView showGridLines="0" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9063,11 +9039,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="123" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -9125,7 +9101,7 @@
       <c r="Y2" s="17"/>
     </row>
     <row r="3" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="111">
+      <c r="B3" s="109">
         <v>44459</v>
       </c>
       <c r="C3" s="27">
@@ -9136,7 +9112,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="112">
+      <c r="B4" s="110">
         <v>44463</v>
       </c>
       <c r="C4" s="27">
@@ -9147,7 +9123,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="112">
+      <c r="B5" s="110">
         <v>44463</v>
       </c>
       <c r="C5" s="27">
@@ -9158,7 +9134,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="112">
+      <c r="B6" s="110">
         <v>44468</v>
       </c>
       <c r="C6" s="27">
@@ -9169,7 +9145,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="113">
+      <c r="B7" s="111">
         <v>44477</v>
       </c>
       <c r="C7" s="40">
@@ -9180,7 +9156,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="112">
+      <c r="B8" s="110">
         <v>44479</v>
       </c>
       <c r="C8" s="39">
@@ -9191,7 +9167,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="112">
+      <c r="B9" s="110">
         <v>44485</v>
       </c>
       <c r="C9" s="28">
@@ -9202,7 +9178,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="112">
+      <c r="B10" s="110">
         <v>44488</v>
       </c>
       <c r="C10" s="27">
@@ -9213,7 +9189,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="112">
+      <c r="B11" s="110">
         <v>44494</v>
       </c>
       <c r="C11" s="39">
@@ -9224,7 +9200,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="112">
+      <c r="B12" s="110">
         <v>44494</v>
       </c>
       <c r="C12" s="27">
@@ -9235,7 +9211,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="114">
+      <c r="B13" s="112">
         <v>44494</v>
       </c>
       <c r="C13" s="28">
@@ -9246,7 +9222,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="115">
+      <c r="B14" s="113">
         <v>44502</v>
       </c>
       <c r="C14" s="40">
@@ -9257,18 +9233,18 @@
       </c>
     </row>
     <row r="15" spans="1:26" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="114">
+      <c r="B15" s="112">
         <v>44506</v>
       </c>
-      <c r="C15" s="82">
+      <c r="C15" s="80">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D15" s="83" t="s">
+      <c r="D15" s="81" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:26" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="114">
+      <c r="B16" s="112">
         <v>44508</v>
       </c>
       <c r="C16" s="28">
@@ -9279,7 +9255,7 @@
       </c>
     </row>
     <row r="17" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="116">
+      <c r="B17" s="114">
         <v>44520</v>
       </c>
       <c r="C17" s="53">
@@ -9290,7 +9266,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="116">
+      <c r="B18" s="114">
         <v>44520</v>
       </c>
       <c r="C18" s="53">
@@ -9301,7 +9277,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="116">
+      <c r="B19" s="114">
         <v>44521</v>
       </c>
       <c r="C19" s="49">
@@ -9312,7 +9288,7 @@
       </c>
     </row>
     <row r="20" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="116">
+      <c r="B20" s="114">
         <v>44522</v>
       </c>
       <c r="C20" s="53">
@@ -9323,7 +9299,7 @@
       </c>
     </row>
     <row r="21" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="116">
+      <c r="B21" s="114">
         <v>44522</v>
       </c>
       <c r="C21" s="53">
@@ -9334,7 +9310,7 @@
       </c>
     </row>
     <row r="22" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="116">
+      <c r="B22" s="114">
         <v>44523</v>
       </c>
       <c r="C22" s="53">
@@ -9345,7 +9321,7 @@
       </c>
     </row>
     <row r="23" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="117">
+      <c r="B23" s="115">
         <v>44523</v>
       </c>
       <c r="C23" s="66">
@@ -9356,7 +9332,7 @@
       </c>
     </row>
     <row r="24" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="118">
+      <c r="B24" s="116">
         <v>44546</v>
       </c>
       <c r="C24" s="70">
@@ -9367,7 +9343,7 @@
       </c>
     </row>
     <row r="25" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="118">
+      <c r="B25" s="116">
         <v>44546</v>
       </c>
       <c r="C25" s="70">
@@ -9378,72 +9354,78 @@
       </c>
     </row>
     <row r="26" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="119">
+      <c r="B26" s="117">
         <v>44546</v>
       </c>
-      <c r="C26" s="77">
+      <c r="C26" s="75">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D26" s="78" t="s">
+      <c r="D26" s="76" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="118">
+      <c r="B27" s="116">
         <v>44573</v>
       </c>
-      <c r="C27" s="86">
+      <c r="C27" s="84">
         <v>0.125</v>
       </c>
-      <c r="D27" s="87" t="s">
+      <c r="D27" s="85" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="119">
+      <c r="B28" s="117">
         <v>44585</v>
       </c>
-      <c r="C28" s="77">
+      <c r="C28" s="75">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D28" s="78" t="s">
+      <c r="D28" s="76" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="120"/>
-      <c r="C29" s="75" t="s">
+      <c r="B29" s="114">
+        <v>44607</v>
+      </c>
+      <c r="C29" s="53">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D29" s="54" t="s">
         <v>218</v>
       </c>
-      <c r="D29" s="76" t="s">
+    </row>
+    <row r="30" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="114">
+        <v>44609</v>
+      </c>
+      <c r="C30" s="53">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D30" s="54" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="114">
+        <v>44614</v>
+      </c>
+      <c r="C31" s="53">
+        <v>0.125</v>
+      </c>
+      <c r="D31" s="54" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="120"/>
-      <c r="C30" s="56" t="s">
-        <v>220</v>
-      </c>
-      <c r="D30" s="55" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="120"/>
-      <c r="C31" s="56" t="s">
-        <v>222</v>
-      </c>
-      <c r="D31" s="55" t="s">
-        <v>223</v>
-      </c>
-    </row>
     <row r="32" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="120"/>
+      <c r="B32" s="118"/>
       <c r="C32" s="56"/>
       <c r="D32" s="55"/>
     </row>
     <row r="33" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="121"/>
+      <c r="B33" s="119"/>
       <c r="C33" s="56"/>
       <c r="D33" s="55"/>
     </row>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2003B8-5E03-409F-9E83-17A41EA90413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0049572-DC8C-45C5-A283-5E99C4D34867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1554,17 +1554,17 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2458,11 +2458,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3782,11 +3782,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -5507,11 +5507,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -7080,8 +7080,8 @@
   </sheetPr>
   <dimension ref="A1:Z1055"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A71" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A74" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7095,11 +7095,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -8048,10 +8048,10 @@
       </c>
     </row>
     <row r="84" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="125">
+      <c r="B84" s="123">
         <v>44620</v>
       </c>
-      <c r="C84" s="126">
+      <c r="C84" s="124">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D84" s="55" t="s">
@@ -8059,19 +8059,23 @@
       </c>
     </row>
     <row r="85" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="125">
+      <c r="B85" s="123">
         <v>44620</v>
       </c>
-      <c r="C85" s="126"/>
+      <c r="C85" s="124">
+        <v>0.14583333333333334</v>
+      </c>
       <c r="D85" s="55" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="86" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="125">
+      <c r="B86" s="123">
         <v>44620</v>
       </c>
-      <c r="C86" s="126"/>
+      <c r="C86" s="124">
+        <v>3.125E-2</v>
+      </c>
       <c r="D86" s="55" t="s">
         <v>224</v>
       </c>
@@ -9086,11 +9090,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="125" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coral\OneDrive\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB32883-3E8E-4495-B1D1-8256FB246580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C72DDC-3AF8-4C8C-B454-8CC5989B8053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="229">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -708,16 +708,22 @@
     <t>Mise à jour des styles de texte dans le document d'assurance qualité et mise à jour du template Word</t>
   </si>
   <si>
-    <t>Recherches diverse pour WavMap (Normal que j'ai pas encore mis j'ai pas fini de regarder)</t>
-  </si>
-  <si>
-    <t>Création du fichier sur API Google Map (Normal que j'ai pas encore mis j'ai pas fini de regarder)</t>
-  </si>
-  <si>
     <t>Correction du script WavMap et ajout de celui-ci sur One.com</t>
   </si>
   <si>
     <t>Finalisation de l'écriture des recherches pour WavMap</t>
+  </si>
+  <si>
+    <t>Recherches diverse pour WavMap</t>
+  </si>
+  <si>
+    <t>Création du fichier sur API Google Map</t>
+  </si>
+  <si>
+    <t>Source et finalisation du dossier de recherches WavMap avec Coralie</t>
+  </si>
+  <si>
+    <t>Source et modification conclusion pour les recherches WavMap avec Angela</t>
   </si>
 </sst>
 </file>
@@ -1190,7 +1196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1557,17 +1563,20 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2180,8 +2189,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:D63" tableBorderDxfId="16">
-  <autoFilter ref="B2:D63" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:D64" tableBorderDxfId="16">
+  <autoFilter ref="B2:D64" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DATE" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="DURÉE" dataDxfId="14"/>
@@ -2207,8 +2216,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D89" totalsRowCount="1" totalsRowDxfId="9">
-  <autoFilter ref="B2:D88" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D90" totalsRowCount="1" totalsRowDxfId="9">
+  <autoFilter ref="B2:D89" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="8" totalsRowDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="7" totalsRowDxfId="1"/>
@@ -2461,11 +2470,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3768,10 +3777,10 @@
     <tabColor rgb="FFD8B1CB"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y1049"/>
+  <dimension ref="A1:Y1050"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59:D62"/>
+    <sheetView showGridLines="0" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3785,11 +3794,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4484,12 +4493,22 @@
         <v>216</v>
       </c>
     </row>
-    <row r="63" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="72"/>
-      <c r="C63" s="57"/>
-      <c r="D63" s="105"/>
-    </row>
-    <row r="64" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="72">
+        <v>44621</v>
+      </c>
+      <c r="C63" s="56">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D63" s="126" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="72"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="105"/>
+    </row>
     <row r="65" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="66" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="67" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5475,6 +5494,7 @@
     <row r="1047" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1048" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1049" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1050" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
@@ -5510,11 +5530,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -7081,9 +7101,9 @@
     <tabColor rgb="FFFEE1AE"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1057"/>
+  <dimension ref="A1:Z1058"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A81" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A84" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
@@ -7098,11 +7118,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -8069,18 +8089,18 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="D85" s="51" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="86" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="107">
         <v>44620</v>
       </c>
-      <c r="C86" s="125">
+      <c r="C86" s="123">
         <v>6.25E-2</v>
       </c>
       <c r="D86" s="51" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="87" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8091,29 +8111,39 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D87" s="51" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="88" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="124">
+      <c r="B88" s="122">
         <v>44621</v>
       </c>
-      <c r="C88" s="125">
+      <c r="C88" s="123">
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D88" s="55" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="67"/>
-      <c r="C89" s="56"/>
-      <c r="D89" s="55"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="122">
+        <v>44621</v>
+      </c>
+      <c r="C89" s="123">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D89" s="55" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="90" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C90" s="106"/>
-    </row>
-    <row r="91" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="B90" s="67"/>
+      <c r="C90" s="56"/>
+      <c r="D90" s="55"/>
+    </row>
+    <row r="91" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C91" s="106"/>
+    </row>
     <row r="92" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="93" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="94" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9080,6 +9110,7 @@
     <row r="1055" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1056" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1057" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1058" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
@@ -9115,11 +9146,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="124" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coral\OneDrive\Documents\GitHub\WavContact\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C72DDC-3AF8-4C8C-B454-8CC5989B8053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3409521D-791F-41FE-9B2F-CCAF50521059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="231">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -724,6 +724,12 @@
   </si>
   <si>
     <t>Source et modification conclusion pour les recherches WavMap avec Angela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise à jour du Trello </t>
+  </si>
+  <si>
+    <t>Mise à jour du sprint backlog (sprint 5 et 6)</t>
   </si>
 </sst>
 </file>
@@ -1569,14 +1575,14 @@
     <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2189,8 +2195,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:D64" tableBorderDxfId="16">
-  <autoFilter ref="B2:D64" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:D65" tableBorderDxfId="16">
+  <autoFilter ref="B2:D65" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DATE" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="DURÉE" dataDxfId="14"/>
@@ -2216,8 +2222,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D90" totalsRowCount="1" totalsRowDxfId="9">
-  <autoFilter ref="B2:D89" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D92" totalsRowCount="1" totalsRowDxfId="9">
+  <autoFilter ref="B2:D91" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="8" totalsRowDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="7" totalsRowDxfId="1"/>
@@ -2455,7 +2461,7 @@
   </sheetPr>
   <dimension ref="A1:Z1008"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -2470,11 +2476,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3777,10 +3783,10 @@
     <tabColor rgb="FFD8B1CB"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y1050"/>
+  <dimension ref="A1:Y1051"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3794,11 +3800,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4500,31 +4506,41 @@
       <c r="C63" s="56">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D63" s="126" t="s">
+      <c r="D63" s="124" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="64" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="72"/>
-      <c r="C64" s="57"/>
-      <c r="D64" s="105"/>
-    </row>
-    <row r="65" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="72">
+        <v>44621</v>
+      </c>
+      <c r="C64" s="56">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D64" s="124" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="72"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="105"/>
+    </row>
+    <row r="66" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="81" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="82" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="83" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5495,6 +5511,7 @@
     <row r="1048" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1049" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1050" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1051" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
@@ -5530,11 +5547,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -7101,9 +7118,9 @@
     <tabColor rgb="FFFEE1AE"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1058"/>
+  <dimension ref="A1:Z1060"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A84" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A83" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
@@ -7118,11 +7135,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -8136,16 +8153,36 @@
         <v>228</v>
       </c>
     </row>
-    <row r="90" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="67"/>
-      <c r="C90" s="56"/>
-      <c r="D90" s="55"/>
-    </row>
-    <row r="91" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C91" s="106"/>
-    </row>
-    <row r="92" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="122">
+        <v>44621</v>
+      </c>
+      <c r="C90" s="123">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="D90" s="55" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="122">
+        <v>44621</v>
+      </c>
+      <c r="C91" s="123">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D91" s="55" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="67"/>
+      <c r="C92" s="56"/>
+      <c r="D92" s="55"/>
+    </row>
+    <row r="93" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C93" s="106"/>
+    </row>
     <row r="94" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="95" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="96" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9111,6 +9148,8 @@
     <row r="1056" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1057" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1058" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1059" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1060" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
@@ -9146,11 +9185,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="125" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Constantin\Documents\GitHub\WavContact\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE5C8F1-A2BD-427B-BD7C-6F2912D0F268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF92451-3F28-4FF6-A07A-07CEA053B025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="2140" windowWidth="30720" windowHeight="16540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="235">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -736,6 +736,12 @@
   </si>
   <si>
     <t>Ajout des Tests unitaires + Envoie email</t>
+  </si>
+  <si>
+    <t>Création PV réunion A3_1</t>
+  </si>
+  <si>
+    <t>Réunion A3_1</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1577,6 +1583,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2177,8 +2195,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau5" displayName="Tableau5" ref="B2:D27">
-  <autoFilter ref="B2:D27" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau5" displayName="Tableau5" ref="B2:D28">
+  <autoFilter ref="B2:D28" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATE" dataDxfId="19"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DURÉE" dataDxfId="18"/>
@@ -2189,8 +2207,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:D65" tableBorderDxfId="16">
-  <autoFilter ref="B2:D65" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:D66" tableBorderDxfId="16">
+  <autoFilter ref="B2:D66" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DATE" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="DURÉE" dataDxfId="14"/>
@@ -2453,10 +2471,10 @@
     <tabColor rgb="FF84E1FF"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1008"/>
+  <dimension ref="A1:Z1009"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2773,12 +2791,22 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="118"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="119"/>
-    </row>
-    <row r="28" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="124">
+        <v>44624</v>
+      </c>
+      <c r="C27" s="125">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D27" s="126" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="118"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="119"/>
+    </row>
     <row r="29" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3759,6 +3787,7 @@
     <row r="1006" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1007" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1008" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1009" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
@@ -3777,10 +3806,10 @@
     <tabColor rgb="FFD8B1CB"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y1051"/>
+  <dimension ref="A1:Y1052"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63:D64"/>
+    <sheetView showGridLines="0" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4515,12 +4544,22 @@
         <v>230</v>
       </c>
     </row>
-    <row r="65" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="72"/>
-      <c r="C65" s="57"/>
-      <c r="D65" s="104"/>
-    </row>
-    <row r="66" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="72">
+        <v>44625</v>
+      </c>
+      <c r="C65" s="56">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D65" s="123" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="72"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="104"/>
+    </row>
     <row r="67" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="68" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="69" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5506,6 +5545,7 @@
     <row r="1049" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1050" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1051" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1052" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
@@ -7120,7 +7160,7 @@
   </sheetPr>
   <dimension ref="A1:Z1060"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A80" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A85" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B85" sqref="B85:D91"/>
     </sheetView>
   </sheetViews>
@@ -9170,7 +9210,7 @@
   </sheetPr>
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\WavContact\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coral\OneDrive\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF92451-3F28-4FF6-A07A-07CEA053B025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C75E4C-9B6D-4216-9DC5-3CE1F7B58E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="236">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -742,6 +742,9 @@
   </si>
   <si>
     <t>Réunion A3_1</t>
+  </si>
+  <si>
+    <t>Envoi mail à Waview pour le travail de recherches</t>
   </si>
 </sst>
 </file>
@@ -752,7 +755,7 @@
     <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
     <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF504A3B"/>
@@ -922,6 +925,18 @@
       <color rgb="FFE39202"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Bookman Old Style"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFE39202"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1214,7 +1229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1530,9 +1545,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="24" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1578,29 +1590,131 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="26" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <name val="Bookman Old Style"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEE1AE"/>
+          <bgColor rgb="FFFEE1AE"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1706,39 +1820,6 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
@@ -1770,40 +1851,6 @@
         <b/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
@@ -1827,32 +1874,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <name val="Bookman Old Style"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEE1AE"/>
-          <bgColor rgb="FFFEE1AE"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2234,12 +2255,12 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D92" totalsRowCount="1" totalsRowDxfId="9">
-  <autoFilter ref="B2:D91" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D94" totalsRowCount="1" totalsRowDxfId="9">
+  <autoFilter ref="B2:D93" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ÉVÉNEMENT" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="8" totalsRowDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="7" totalsRowDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ÉVÉNEMENT" dataDxfId="6" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2249,9 +2270,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tableau2" displayName="Tableau2" ref="B2:D40">
   <autoFilter ref="B2:D40" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="DATE" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DURÉE" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ÉVÉNEMENT" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="DATE" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DURÉE" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ÉVÉNEMENT" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2474,7 +2495,7 @@
   <dimension ref="A1:Z1009"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:D27"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2488,11 +2509,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2784,7 +2805,7 @@
       <c r="B26" s="47">
         <v>44602</v>
       </c>
-      <c r="C26" s="120">
+      <c r="C26" s="119">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D26" s="48" t="s">
@@ -2792,20 +2813,20 @@
       </c>
     </row>
     <row r="27" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="124">
+      <c r="B27" s="121">
         <v>44624</v>
       </c>
-      <c r="C27" s="125">
+      <c r="C27" s="122">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D27" s="126" t="s">
+      <c r="D27" s="123" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="118"/>
+      <c r="B28" s="117"/>
       <c r="C28" s="12"/>
-      <c r="D28" s="119"/>
+      <c r="D28" s="118"/>
     </row>
     <row r="29" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3823,11 +3844,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4551,7 +4572,7 @@
       <c r="C65" s="56">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D65" s="123" t="s">
+      <c r="D65" s="120" t="s">
         <v>233</v>
       </c>
     </row>
@@ -5581,11 +5602,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -7158,10 +7179,10 @@
     <tabColor rgb="FFFEE1AE"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1060"/>
+  <dimension ref="A1:Z1061"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85:D91"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A88" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7175,11 +7196,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -7974,10 +7995,10 @@
       </c>
     </row>
     <row r="70" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="106">
+      <c r="B70" s="105">
         <v>44587</v>
       </c>
-      <c r="C70" s="107">
+      <c r="C70" s="106">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D70" s="51" t="s">
@@ -7985,10 +8006,10 @@
       </c>
     </row>
     <row r="71" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="106">
+      <c r="B71" s="105">
         <v>44587</v>
       </c>
-      <c r="C71" s="107">
+      <c r="C71" s="106">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D71" s="51" t="s">
@@ -7996,10 +8017,10 @@
       </c>
     </row>
     <row r="72" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="106">
+      <c r="B72" s="105">
         <v>44590</v>
       </c>
-      <c r="C72" s="107">
+      <c r="C72" s="106">
         <v>6.25E-2</v>
       </c>
       <c r="D72" s="51" t="s">
@@ -8007,10 +8028,10 @@
       </c>
     </row>
     <row r="73" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="106">
+      <c r="B73" s="105">
         <v>44600</v>
       </c>
-      <c r="C73" s="107">
+      <c r="C73" s="106">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D73" s="51" t="s">
@@ -8018,10 +8039,10 @@
       </c>
     </row>
     <row r="74" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="106">
+      <c r="B74" s="105">
         <v>44600</v>
       </c>
-      <c r="C74" s="107">
+      <c r="C74" s="106">
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="D74" s="51" t="s">
@@ -8029,10 +8050,10 @@
       </c>
     </row>
     <row r="75" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="106">
+      <c r="B75" s="105">
         <v>44600</v>
       </c>
-      <c r="C75" s="107">
+      <c r="C75" s="106">
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="D75" s="51" t="s">
@@ -8040,10 +8061,10 @@
       </c>
     </row>
     <row r="76" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="106">
+      <c r="B76" s="105">
         <v>44611</v>
       </c>
-      <c r="C76" s="107">
+      <c r="C76" s="106">
         <v>0.10416666666666667</v>
       </c>
       <c r="D76" s="51" t="s">
@@ -8051,10 +8072,10 @@
       </c>
     </row>
     <row r="77" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="106">
+      <c r="B77" s="105">
         <v>44611</v>
       </c>
-      <c r="C77" s="107">
+      <c r="C77" s="106">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D77" s="51" t="s">
@@ -8062,10 +8083,10 @@
       </c>
     </row>
     <row r="78" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="106">
+      <c r="B78" s="105">
         <v>44613</v>
       </c>
-      <c r="C78" s="107">
+      <c r="C78" s="106">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D78" s="51" t="s">
@@ -8073,10 +8094,10 @@
       </c>
     </row>
     <row r="79" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="106">
+      <c r="B79" s="105">
         <v>44613</v>
       </c>
-      <c r="C79" s="107">
+      <c r="C79" s="106">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D79" s="51" t="s">
@@ -8084,10 +8105,10 @@
       </c>
     </row>
     <row r="80" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="106">
+      <c r="B80" s="105">
         <v>44613</v>
       </c>
-      <c r="C80" s="107">
+      <c r="C80" s="106">
         <v>6.25E-2</v>
       </c>
       <c r="D80" s="51" t="s">
@@ -8095,10 +8116,10 @@
       </c>
     </row>
     <row r="81" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="106">
+      <c r="B81" s="105">
         <v>44614</v>
       </c>
-      <c r="C81" s="107">
+      <c r="C81" s="106">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D81" s="51" t="s">
@@ -8106,10 +8127,10 @@
       </c>
     </row>
     <row r="82" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="106">
+      <c r="B82" s="105">
         <v>44614</v>
       </c>
-      <c r="C82" s="107">
+      <c r="C82" s="106">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D82" s="51" t="s">
@@ -8117,10 +8138,10 @@
       </c>
     </row>
     <row r="83" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="106">
+      <c r="B83" s="105">
         <v>44614</v>
       </c>
-      <c r="C83" s="107">
+      <c r="C83" s="106">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D83" s="51" t="s">
@@ -8128,10 +8149,10 @@
       </c>
     </row>
     <row r="84" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="106">
+      <c r="B84" s="105">
         <v>44620</v>
       </c>
-      <c r="C84" s="107">
+      <c r="C84" s="106">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D84" s="51" t="s">
@@ -8139,10 +8160,10 @@
       </c>
     </row>
     <row r="85" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="106">
+      <c r="B85" s="105">
         <v>44620</v>
       </c>
-      <c r="C85" s="107">
+      <c r="C85" s="106">
         <v>0.14583333333333334</v>
       </c>
       <c r="D85" s="51" t="s">
@@ -8150,10 +8171,10 @@
       </c>
     </row>
     <row r="86" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="106">
+      <c r="B86" s="105">
         <v>44620</v>
       </c>
-      <c r="C86" s="107">
+      <c r="C86" s="106">
         <v>6.25E-2</v>
       </c>
       <c r="D86" s="51" t="s">
@@ -8161,10 +8182,10 @@
       </c>
     </row>
     <row r="87" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="106">
+      <c r="B87" s="105">
         <v>44620</v>
       </c>
-      <c r="C87" s="107">
+      <c r="C87" s="106">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D87" s="51" t="s">
@@ -8172,10 +8193,10 @@
       </c>
     </row>
     <row r="88" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="106">
+      <c r="B88" s="105">
         <v>44621</v>
       </c>
-      <c r="C88" s="107">
+      <c r="C88" s="106">
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D88" s="51" t="s">
@@ -8183,10 +8204,10 @@
       </c>
     </row>
     <row r="89" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="106">
+      <c r="B89" s="105">
         <v>44621</v>
       </c>
-      <c r="C89" s="107">
+      <c r="C89" s="106">
         <v>6.25E-2</v>
       </c>
       <c r="D89" s="51" t="s">
@@ -8194,10 +8215,10 @@
       </c>
     </row>
     <row r="90" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="106">
+      <c r="B90" s="105">
         <v>44621</v>
       </c>
-      <c r="C90" s="107">
+      <c r="C90" s="106">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D90" s="51" t="s">
@@ -8205,25 +8226,37 @@
       </c>
     </row>
     <row r="91" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="106">
+      <c r="B91" s="105">
         <v>44621</v>
       </c>
-      <c r="C91" s="107">
+      <c r="C91" s="106">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D91" s="51" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="92" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="67"/>
-      <c r="C92" s="56"/>
-      <c r="D92" s="55"/>
+    <row r="92" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="126">
+        <v>44627</v>
+      </c>
+      <c r="C92" s="127">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="D92" s="51" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="93" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C93" s="105"/>
-    </row>
-    <row r="94" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="B93" s="126"/>
+      <c r="C93" s="128"/>
+      <c r="D93" s="54"/>
+    </row>
+    <row r="94" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="67"/>
+      <c r="C94" s="56"/>
+      <c r="D94" s="55"/>
+    </row>
     <row r="95" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="96" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="97" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9190,6 +9223,7 @@
     <row r="1058" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1059" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1060" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1061" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
@@ -9210,7 +9244,7 @@
   </sheetPr>
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
@@ -9225,11 +9259,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="124" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -9287,7 +9321,7 @@
       <c r="Y2" s="17"/>
     </row>
     <row r="3" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="108">
+      <c r="B3" s="107">
         <v>44459</v>
       </c>
       <c r="C3" s="27">
@@ -9298,7 +9332,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="109">
+      <c r="B4" s="108">
         <v>44463</v>
       </c>
       <c r="C4" s="27">
@@ -9309,7 +9343,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="109">
+      <c r="B5" s="108">
         <v>44463</v>
       </c>
       <c r="C5" s="27">
@@ -9320,7 +9354,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="109">
+      <c r="B6" s="108">
         <v>44468</v>
       </c>
       <c r="C6" s="27">
@@ -9331,7 +9365,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="110">
+      <c r="B7" s="109">
         <v>44477</v>
       </c>
       <c r="C7" s="40">
@@ -9342,7 +9376,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="109">
+      <c r="B8" s="108">
         <v>44479</v>
       </c>
       <c r="C8" s="39">
@@ -9353,7 +9387,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="109">
+      <c r="B9" s="108">
         <v>44485</v>
       </c>
       <c r="C9" s="28">
@@ -9364,7 +9398,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="109">
+      <c r="B10" s="108">
         <v>44488</v>
       </c>
       <c r="C10" s="27">
@@ -9375,7 +9409,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="109">
+      <c r="B11" s="108">
         <v>44494</v>
       </c>
       <c r="C11" s="39">
@@ -9386,7 +9420,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="109">
+      <c r="B12" s="108">
         <v>44494</v>
       </c>
       <c r="C12" s="27">
@@ -9397,7 +9431,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="111">
+      <c r="B13" s="110">
         <v>44494</v>
       </c>
       <c r="C13" s="28">
@@ -9408,7 +9442,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="112">
+      <c r="B14" s="111">
         <v>44502</v>
       </c>
       <c r="C14" s="40">
@@ -9419,7 +9453,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="111">
+      <c r="B15" s="110">
         <v>44506</v>
       </c>
       <c r="C15" s="80">
@@ -9430,7 +9464,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="111">
+      <c r="B16" s="110">
         <v>44508</v>
       </c>
       <c r="C16" s="28">
@@ -9441,7 +9475,7 @@
       </c>
     </row>
     <row r="17" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="113">
+      <c r="B17" s="112">
         <v>44520</v>
       </c>
       <c r="C17" s="53">
@@ -9452,7 +9486,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="113">
+      <c r="B18" s="112">
         <v>44520</v>
       </c>
       <c r="C18" s="53">
@@ -9463,7 +9497,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="113">
+      <c r="B19" s="112">
         <v>44521</v>
       </c>
       <c r="C19" s="49">
@@ -9474,7 +9508,7 @@
       </c>
     </row>
     <row r="20" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="113">
+      <c r="B20" s="112">
         <v>44522</v>
       </c>
       <c r="C20" s="53">
@@ -9485,7 +9519,7 @@
       </c>
     </row>
     <row r="21" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="113">
+      <c r="B21" s="112">
         <v>44522</v>
       </c>
       <c r="C21" s="53">
@@ -9496,7 +9530,7 @@
       </c>
     </row>
     <row r="22" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="113">
+      <c r="B22" s="112">
         <v>44523</v>
       </c>
       <c r="C22" s="53">
@@ -9507,7 +9541,7 @@
       </c>
     </row>
     <row r="23" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="114">
+      <c r="B23" s="113">
         <v>44523</v>
       </c>
       <c r="C23" s="66">
@@ -9518,7 +9552,7 @@
       </c>
     </row>
     <row r="24" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="115">
+      <c r="B24" s="114">
         <v>44546</v>
       </c>
       <c r="C24" s="70">
@@ -9529,7 +9563,7 @@
       </c>
     </row>
     <row r="25" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="115">
+      <c r="B25" s="114">
         <v>44546</v>
       </c>
       <c r="C25" s="70">
@@ -9540,7 +9574,7 @@
       </c>
     </row>
     <row r="26" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="116">
+      <c r="B26" s="115">
         <v>44546</v>
       </c>
       <c r="C26" s="75">
@@ -9551,7 +9585,7 @@
       </c>
     </row>
     <row r="27" spans="2:4" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="115">
+      <c r="B27" s="114">
         <v>44573</v>
       </c>
       <c r="C27" s="84">
@@ -9562,7 +9596,7 @@
       </c>
     </row>
     <row r="28" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="116">
+      <c r="B28" s="115">
         <v>44585</v>
       </c>
       <c r="C28" s="75">
@@ -9573,7 +9607,7 @@
       </c>
     </row>
     <row r="29" spans="2:4" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="113">
+      <c r="B29" s="112">
         <v>44607</v>
       </c>
       <c r="C29" s="53">
@@ -9584,7 +9618,7 @@
       </c>
     </row>
     <row r="30" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="113">
+      <c r="B30" s="112">
         <v>44609</v>
       </c>
       <c r="C30" s="53">
@@ -9595,7 +9629,7 @@
       </c>
     </row>
     <row r="31" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="113">
+      <c r="B31" s="112">
         <v>44614</v>
       </c>
       <c r="C31" s="53">
@@ -9606,7 +9640,7 @@
       </c>
     </row>
     <row r="32" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="113">
+      <c r="B32" s="112">
         <v>44619</v>
       </c>
       <c r="C32" s="53">
@@ -9617,7 +9651,7 @@
       </c>
     </row>
     <row r="33" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="117">
+      <c r="B33" s="116">
         <v>44598</v>
       </c>
       <c r="C33" s="56">
@@ -9628,37 +9662,37 @@
       </c>
     </row>
     <row r="34" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="117"/>
+      <c r="B34" s="116"/>
       <c r="C34" s="56"/>
       <c r="D34" s="55"/>
     </row>
     <row r="35" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="117"/>
+      <c r="B35" s="116"/>
       <c r="C35" s="56"/>
       <c r="D35" s="55"/>
     </row>
     <row r="36" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="117"/>
+      <c r="B36" s="116"/>
       <c r="C36" s="56"/>
       <c r="D36" s="55"/>
     </row>
     <row r="37" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="117"/>
+      <c r="B37" s="116"/>
       <c r="C37" s="56"/>
       <c r="D37" s="55"/>
     </row>
     <row r="38" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="117"/>
+      <c r="B38" s="116"/>
       <c r="C38" s="56"/>
       <c r="D38" s="55"/>
     </row>
     <row r="39" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="117"/>
+      <c r="B39" s="116"/>
       <c r="C39" s="56"/>
       <c r="D39" s="55"/>
     </row>
     <row r="40" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="117"/>
+      <c r="B40" s="116"/>
       <c r="C40" s="56"/>
       <c r="D40" s="55"/>
     </row>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coral\OneDrive\Documents\GitHub\WavContact\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C75E4C-9B6D-4216-9DC5-3CE1F7B58E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAF0C8C-BEE1-4854-BFA7-05AEE75CCCDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="237">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -745,6 +745,9 @@
   </si>
   <si>
     <t>Envoi mail à Waview pour le travail de recherches</t>
+  </si>
+  <si>
+    <t>Mise à jour document sprint backlog partie sprint 6</t>
   </si>
 </sst>
 </file>
@@ -1602,119 +1605,26 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="26" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="26" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <name val="Bookman Old Style"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEE1AE"/>
-          <bgColor rgb="FFFEE1AE"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1820,6 +1730,39 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
@@ -1851,6 +1794,40 @@
         <b/>
         <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
@@ -1874,6 +1851,32 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <name val="Bookman Old Style"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEE1AE"/>
+          <bgColor rgb="FFFEE1AE"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2228,8 +2231,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:D66" tableBorderDxfId="16">
-  <autoFilter ref="B2:D66" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:D67" tableBorderDxfId="16">
+  <autoFilter ref="B2:D67" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DATE" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="DURÉE" dataDxfId="14"/>
@@ -2258,9 +2261,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D94" totalsRowCount="1" totalsRowDxfId="9">
   <autoFilter ref="B2:D93" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="8" totalsRowDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="7" totalsRowDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ÉVÉNEMENT" dataDxfId="6" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ÉVÉNEMENT" dataDxfId="4" totalsRowDxfId="3"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2270,9 +2273,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tableau2" displayName="Tableau2" ref="B2:D40">
   <autoFilter ref="B2:D40" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="DATE" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DURÉE" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ÉVÉNEMENT" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="DATE" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DURÉE" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ÉVÉNEMENT" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2509,11 +2512,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3827,10 +3830,10 @@
     <tabColor rgb="FFD8B1CB"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y1052"/>
+  <dimension ref="A1:Y1053"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66:D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3844,11 +3847,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4576,12 +4579,22 @@
         <v>233</v>
       </c>
     </row>
-    <row r="66" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="72"/>
-      <c r="C66" s="57"/>
-      <c r="D66" s="104"/>
-    </row>
-    <row r="67" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="72">
+        <v>44629</v>
+      </c>
+      <c r="C66" s="56">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D66" s="120" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="72"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="104"/>
+    </row>
     <row r="68" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="69" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="70" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5567,6 +5580,7 @@
     <row r="1050" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1051" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1052" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1053" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
@@ -5602,11 +5616,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -7181,7 +7195,7 @@
   </sheetPr>
   <dimension ref="A1:Z1061"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A88" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A88" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
@@ -7196,11 +7210,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -8237,10 +8251,10 @@
       </c>
     </row>
     <row r="92" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="126">
+      <c r="B92" s="124">
         <v>44627</v>
       </c>
-      <c r="C92" s="127">
+      <c r="C92" s="125">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D92" s="51" t="s">
@@ -8248,8 +8262,8 @@
       </c>
     </row>
     <row r="93" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="126"/>
-      <c r="C93" s="128"/>
+      <c r="B93" s="124"/>
+      <c r="C93" s="126"/>
       <c r="D93" s="54"/>
     </row>
     <row r="94" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -9259,11 +9273,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="127" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aurelie/Documents/GitHub/WavContact/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E32B08D-8E7D-C647-9B18-5937A9AF335B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C15B6F-8021-3C4C-A8AD-A4D3C6AB034B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="238">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -748,6 +748,9 @@
   </si>
   <si>
     <t>Mise à jour document sprint backlog partie sprint 6</t>
+  </si>
+  <si>
+    <t>Création de index.html pour WavMap</t>
   </si>
 </sst>
 </file>
@@ -934,12 +937,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Bookman Old Style"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFE39202"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1506,12 +1511,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1611,26 +1610,32 @@
     <xf numFmtId="164" fontId="27" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2255,8 +2260,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau3" displayName="Tableau3" ref="B2:D53">
-  <autoFilter ref="B2:D53" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau3" displayName="Tableau3" ref="B2:D56">
+  <autoFilter ref="B2:D56" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D25">
     <sortCondition ref="B2:B25"/>
   </sortState>
@@ -2524,11 +2529,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2817,13 +2822,13 @@
       </c>
     </row>
     <row r="26" spans="2:4" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="123">
+      <c r="B26" s="119">
         <v>44602</v>
       </c>
-      <c r="C26" s="124">
+      <c r="C26" s="120">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D26" s="125" t="s">
+      <c r="D26" s="121" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2839,9 +2844,9 @@
       </c>
     </row>
     <row r="28" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="116"/>
+      <c r="B28" s="114"/>
       <c r="C28" s="12"/>
-      <c r="D28" s="117"/>
+      <c r="D28" s="115"/>
     </row>
     <row r="29" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3859,11 +3864,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3887,79 +3892,79 @@
       <c r="Y1" s="2"/>
     </row>
     <row r="2" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="90" t="s">
+      <c r="D2" s="88" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="91">
+      <c r="B3" s="89">
         <v>44459</v>
       </c>
       <c r="C3" s="13">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D3" s="92" t="s">
+      <c r="D3" s="90" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="91">
+      <c r="B4" s="89">
         <v>44462</v>
       </c>
       <c r="C4" s="13">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="D4" s="92" t="s">
+      <c r="D4" s="90" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="91">
+      <c r="B5" s="89">
         <v>44463</v>
       </c>
       <c r="C5" s="13">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="D5" s="92" t="s">
+      <c r="D5" s="90" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="91">
+      <c r="B6" s="89">
         <v>44464</v>
       </c>
       <c r="C6" s="13">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D6" s="92" t="s">
+      <c r="D6" s="90" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="91">
+      <c r="B7" s="89">
         <v>44466</v>
       </c>
       <c r="C7" s="13">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D7" s="92" t="s">
+      <c r="D7" s="90" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="91">
+      <c r="B8" s="89">
         <v>44467</v>
       </c>
       <c r="C8" s="13">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D8" s="93" t="s">
+      <c r="D8" s="91" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3970,217 +3975,217 @@
       <c r="C9" s="38">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D9" s="94" t="s">
+      <c r="D9" s="92" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="91">
+      <c r="B10" s="89">
         <v>44479</v>
       </c>
       <c r="C10" s="36">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D10" s="95" t="s">
+      <c r="D10" s="93" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="91">
+      <c r="B11" s="89">
         <v>44480</v>
       </c>
       <c r="C11" s="13">
         <v>3.125E-2</v>
       </c>
-      <c r="D11" s="92" t="s">
+      <c r="D11" s="90" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="91">
+      <c r="B12" s="89">
         <v>44480</v>
       </c>
       <c r="C12" s="13">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D12" s="92" t="s">
+      <c r="D12" s="90" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
-      <c r="B13" s="91">
+      <c r="B13" s="89">
         <v>44482</v>
       </c>
       <c r="C13" s="13">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D13" s="92" t="s">
+      <c r="D13" s="90" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="91">
+      <c r="B14" s="89">
         <v>44482</v>
       </c>
       <c r="C14" s="13">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D14" s="92" t="s">
+      <c r="D14" s="90" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:25" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="91">
+      <c r="B15" s="89">
         <v>44482</v>
       </c>
       <c r="C15" s="13">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D15" s="92" t="s">
+      <c r="D15" s="90" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:25" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="91">
+      <c r="B16" s="89">
         <v>44484</v>
       </c>
       <c r="C16" s="13">
         <v>0.125</v>
       </c>
-      <c r="D16" s="92" t="s">
+      <c r="D16" s="90" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="91">
+      <c r="B17" s="89">
         <v>44484</v>
       </c>
       <c r="C17" s="13">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D17" s="92" t="s">
+      <c r="D17" s="90" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="91">
+      <c r="B18" s="89">
         <v>44485</v>
       </c>
       <c r="C18" s="13">
         <v>0.10416666666666667</v>
       </c>
-      <c r="D18" s="92" t="s">
+      <c r="D18" s="90" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="91">
+      <c r="B19" s="89">
         <v>44487</v>
       </c>
       <c r="C19" s="13">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="D19" s="92" t="s">
+      <c r="D19" s="90" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="20" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="91">
+      <c r="B20" s="89">
         <v>44491</v>
       </c>
       <c r="C20" s="36">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D20" s="96" t="s">
+      <c r="D20" s="94" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="21" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="91">
+      <c r="B21" s="89">
         <v>44493</v>
       </c>
       <c r="C21" s="13">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="D21" s="97" t="s">
+      <c r="D21" s="95" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="91">
+      <c r="B22" s="89">
         <v>44494</v>
       </c>
       <c r="C22" s="13">
         <v>3.125E-2</v>
       </c>
-      <c r="D22" s="97" t="s">
+      <c r="D22" s="95" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="23" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="91">
+      <c r="B23" s="89">
         <v>44494</v>
       </c>
       <c r="C23" s="13">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D23" s="97" t="s">
+      <c r="D23" s="95" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="91">
+      <c r="B24" s="89">
         <v>44497</v>
       </c>
       <c r="C24" s="13">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D24" s="97" t="s">
+      <c r="D24" s="95" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="25" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="91">
+      <c r="B25" s="89">
         <v>44497</v>
       </c>
       <c r="C25" s="13">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D25" s="97" t="s">
+      <c r="D25" s="95" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="26" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="91">
+      <c r="B26" s="89">
         <v>44497</v>
       </c>
       <c r="C26" s="13">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D26" s="97" t="s">
+      <c r="D26" s="95" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="27" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="91">
+      <c r="B27" s="89">
         <v>44501</v>
       </c>
       <c r="C27" s="13">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D27" s="97" t="s">
+      <c r="D27" s="95" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="28" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="91">
+      <c r="B28" s="89">
         <v>44504</v>
       </c>
       <c r="C28" s="13">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="D28" s="97" t="s">
+      <c r="D28" s="95" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4191,106 +4196,106 @@
       <c r="C29" s="62">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D29" s="98" t="s">
+      <c r="D29" s="96" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="30" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="91">
+      <c r="B30" s="89">
         <v>44506</v>
       </c>
       <c r="C30" s="36">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D30" s="96" t="s">
+      <c r="D30" s="94" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="31" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="91">
+      <c r="B31" s="89">
         <v>44515</v>
       </c>
       <c r="C31" s="13">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D31" s="97" t="s">
+      <c r="D31" s="95" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="32" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="91">
+      <c r="B32" s="89">
         <v>44517</v>
       </c>
       <c r="C32" s="13">
         <v>0.1875</v>
       </c>
-      <c r="D32" s="97" t="s">
+      <c r="D32" s="95" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="33" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="91">
+      <c r="B33" s="89">
         <v>44518</v>
       </c>
       <c r="C33" s="13">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D33" s="97" t="s">
+      <c r="D33" s="95" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="34" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="99">
+      <c r="B34" s="97">
         <v>44519</v>
       </c>
       <c r="C34" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D34" s="97" t="s">
+      <c r="D34" s="95" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="35" spans="2:4" s="14" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="99">
+      <c r="B35" s="97">
         <v>44519</v>
       </c>
       <c r="C35" s="46">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D35" s="97" t="s">
+      <c r="D35" s="95" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="36" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="100">
+      <c r="B36" s="98">
         <v>44521</v>
       </c>
       <c r="C36" s="46">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D36" s="101" t="s">
+      <c r="D36" s="99" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="37" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="100">
+      <c r="B37" s="98">
         <v>44524</v>
       </c>
       <c r="C37" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D37" s="101" t="s">
+      <c r="D37" s="99" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="38" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="100">
+      <c r="B38" s="98">
         <v>44525</v>
       </c>
       <c r="C38" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D38" s="101" t="s">
+      <c r="D38" s="99" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4301,117 +4306,117 @@
       <c r="C39" s="62">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D39" s="102" t="s">
+      <c r="D39" s="100" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="40" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="100">
+      <c r="B40" s="98">
         <v>44528</v>
       </c>
       <c r="C40" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D40" s="101" t="s">
+      <c r="D40" s="99" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="41" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="100">
+      <c r="B41" s="98">
         <v>44543</v>
       </c>
       <c r="C41" s="46">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D41" s="101" t="s">
+      <c r="D41" s="99" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="42" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="100">
+      <c r="B42" s="98">
         <v>44543</v>
       </c>
       <c r="C42" s="46">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D42" s="101" t="s">
+      <c r="D42" s="99" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="43" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="100">
+      <c r="B43" s="98">
         <v>44543</v>
       </c>
       <c r="C43" s="46">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D43" s="101" t="s">
+      <c r="D43" s="99" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="44" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="100">
+      <c r="B44" s="98">
         <v>44544</v>
       </c>
       <c r="C44" s="46">
         <v>6.25E-2</v>
       </c>
-      <c r="D44" s="101" t="s">
+      <c r="D44" s="99" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="45" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="100">
+      <c r="B45" s="98">
         <v>44545</v>
       </c>
       <c r="C45" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D45" s="101" t="s">
+      <c r="D45" s="99" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="46" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="100">
+      <c r="B46" s="98">
         <v>44545</v>
       </c>
       <c r="C46" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D46" s="101" t="s">
+      <c r="D46" s="99" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="47" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="100">
+      <c r="B47" s="98">
         <v>44545</v>
       </c>
       <c r="C47" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D47" s="101" t="s">
+      <c r="D47" s="99" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="48" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="100">
+      <c r="B48" s="98">
         <v>44546</v>
       </c>
       <c r="C48" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D48" s="101" t="s">
+      <c r="D48" s="99" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="49" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="100">
+      <c r="B49" s="98">
         <v>44546</v>
       </c>
       <c r="C49" s="46">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="D49" s="101" t="s">
+      <c r="D49" s="99" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4422,40 +4427,40 @@
       <c r="C50" s="62">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D50" s="102" t="s">
+      <c r="D50" s="100" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="51" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="100">
+      <c r="B51" s="98">
         <v>44548</v>
       </c>
       <c r="C51" s="73">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D51" s="103" t="s">
+      <c r="D51" s="101" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="100">
+      <c r="B52" s="98">
         <v>44585</v>
       </c>
       <c r="C52" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D52" s="101" t="s">
+      <c r="D52" s="99" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="100">
+      <c r="B53" s="98">
         <v>44585</v>
       </c>
       <c r="C53" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D53" s="101" t="s">
+      <c r="D53" s="99" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4466,106 +4471,106 @@
       <c r="C54" s="62">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D54" s="102" t="s">
+      <c r="D54" s="100" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="100">
+      <c r="B55" s="98">
         <v>44587</v>
       </c>
       <c r="C55" s="73">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D55" s="103" t="s">
+      <c r="D55" s="101" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="56" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="100">
+      <c r="B56" s="98">
         <v>44587</v>
       </c>
       <c r="C56" s="46">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="D56" s="101" t="s">
+      <c r="D56" s="99" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="57" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="100">
+      <c r="B57" s="98">
         <v>44587</v>
       </c>
       <c r="C57" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D57" s="101" t="s">
+      <c r="D57" s="99" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="58" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="100">
+      <c r="B58" s="98">
         <v>44590</v>
       </c>
       <c r="C58" s="46">
         <v>6.25E-2</v>
       </c>
-      <c r="D58" s="101" t="s">
+      <c r="D58" s="99" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="59" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="100">
+      <c r="B59" s="98">
         <v>44614</v>
       </c>
       <c r="C59" s="46">
         <v>0.10416666666666667</v>
       </c>
-      <c r="D59" s="101" t="s">
+      <c r="D59" s="99" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="60" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="100">
+      <c r="B60" s="98">
         <v>44614</v>
       </c>
       <c r="C60" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D60" s="101" t="s">
+      <c r="D60" s="99" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="61" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="100">
+      <c r="B61" s="98">
         <v>44614</v>
       </c>
       <c r="C61" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D61" s="101" t="s">
+      <c r="D61" s="99" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="62" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="100">
+      <c r="B62" s="98">
         <v>44615</v>
       </c>
       <c r="C62" s="46">
         <v>6.25E-2</v>
       </c>
-      <c r="D62" s="101" t="s">
+      <c r="D62" s="99" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="63" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="100">
+      <c r="B63" s="98">
         <v>44621</v>
       </c>
       <c r="C63" s="46">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D63" s="101" t="s">
+      <c r="D63" s="99" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4576,36 +4581,36 @@
       <c r="C64" s="62">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D64" s="102" t="s">
+      <c r="D64" s="100" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="65" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="100">
+      <c r="B65" s="98">
         <v>44625</v>
       </c>
       <c r="C65" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D65" s="101" t="s">
+      <c r="D65" s="99" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="66" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="100">
+      <c r="B66" s="98">
         <v>44629</v>
       </c>
       <c r="C66" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D66" s="101" t="s">
+      <c r="D66" s="99" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="67" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="72"/>
       <c r="C67" s="57"/>
-      <c r="D67" s="104"/>
+      <c r="D67" s="102"/>
     </row>
     <row r="68" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="69" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5613,8 +5618,8 @@
   </sheetPr>
   <dimension ref="A1:Y1009"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54:D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5628,11 +5633,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -6228,12 +6233,26 @@
       </c>
     </row>
     <row r="54" spans="2:4" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="86"/>
-      <c r="C54" s="87"/>
-      <c r="D54" s="86"/>
-    </row>
-    <row r="55" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="B54" s="127">
+        <v>44629</v>
+      </c>
+      <c r="C54" s="56">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D54" s="55" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="16"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="11"/>
+    </row>
+    <row r="56" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="16"/>
+      <c r="C56" s="124"/>
+      <c r="D56" s="26"/>
+    </row>
     <row r="57" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="58" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="59" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7207,7 +7226,7 @@
   </sheetPr>
   <dimension ref="A1:Z1061"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A87" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A87" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
@@ -7222,11 +7241,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -8021,10 +8040,10 @@
       </c>
     </row>
     <row r="70" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="105">
+      <c r="B70" s="103">
         <v>44587</v>
       </c>
-      <c r="C70" s="106">
+      <c r="C70" s="104">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D70" s="51" t="s">
@@ -8032,10 +8051,10 @@
       </c>
     </row>
     <row r="71" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="105">
+      <c r="B71" s="103">
         <v>44587</v>
       </c>
-      <c r="C71" s="106">
+      <c r="C71" s="104">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D71" s="51" t="s">
@@ -8043,10 +8062,10 @@
       </c>
     </row>
     <row r="72" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="105">
+      <c r="B72" s="103">
         <v>44590</v>
       </c>
-      <c r="C72" s="106">
+      <c r="C72" s="104">
         <v>6.25E-2</v>
       </c>
       <c r="D72" s="51" t="s">
@@ -8054,10 +8073,10 @@
       </c>
     </row>
     <row r="73" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="105">
+      <c r="B73" s="103">
         <v>44600</v>
       </c>
-      <c r="C73" s="106">
+      <c r="C73" s="104">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D73" s="51" t="s">
@@ -8065,10 +8084,10 @@
       </c>
     </row>
     <row r="74" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="105">
+      <c r="B74" s="103">
         <v>44600</v>
       </c>
-      <c r="C74" s="106">
+      <c r="C74" s="104">
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="D74" s="51" t="s">
@@ -8076,10 +8095,10 @@
       </c>
     </row>
     <row r="75" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="105">
+      <c r="B75" s="103">
         <v>44600</v>
       </c>
-      <c r="C75" s="106">
+      <c r="C75" s="104">
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="D75" s="51" t="s">
@@ -8087,10 +8106,10 @@
       </c>
     </row>
     <row r="76" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="105">
+      <c r="B76" s="103">
         <v>44611</v>
       </c>
-      <c r="C76" s="106">
+      <c r="C76" s="104">
         <v>0.10416666666666667</v>
       </c>
       <c r="D76" s="51" t="s">
@@ -8098,10 +8117,10 @@
       </c>
     </row>
     <row r="77" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="105">
+      <c r="B77" s="103">
         <v>44611</v>
       </c>
-      <c r="C77" s="106">
+      <c r="C77" s="104">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D77" s="51" t="s">
@@ -8109,10 +8128,10 @@
       </c>
     </row>
     <row r="78" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="105">
+      <c r="B78" s="103">
         <v>44613</v>
       </c>
-      <c r="C78" s="106">
+      <c r="C78" s="104">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D78" s="51" t="s">
@@ -8120,10 +8139,10 @@
       </c>
     </row>
     <row r="79" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="105">
+      <c r="B79" s="103">
         <v>44613</v>
       </c>
-      <c r="C79" s="106">
+      <c r="C79" s="104">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D79" s="51" t="s">
@@ -8131,10 +8150,10 @@
       </c>
     </row>
     <row r="80" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="105">
+      <c r="B80" s="103">
         <v>44613</v>
       </c>
-      <c r="C80" s="106">
+      <c r="C80" s="104">
         <v>6.25E-2</v>
       </c>
       <c r="D80" s="51" t="s">
@@ -8142,10 +8161,10 @@
       </c>
     </row>
     <row r="81" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="105">
+      <c r="B81" s="103">
         <v>44614</v>
       </c>
-      <c r="C81" s="106">
+      <c r="C81" s="104">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D81" s="51" t="s">
@@ -8153,10 +8172,10 @@
       </c>
     </row>
     <row r="82" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="105">
+      <c r="B82" s="103">
         <v>44614</v>
       </c>
-      <c r="C82" s="106">
+      <c r="C82" s="104">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D82" s="51" t="s">
@@ -8164,10 +8183,10 @@
       </c>
     </row>
     <row r="83" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="105">
+      <c r="B83" s="103">
         <v>44614</v>
       </c>
-      <c r="C83" s="106">
+      <c r="C83" s="104">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D83" s="51" t="s">
@@ -8175,10 +8194,10 @@
       </c>
     </row>
     <row r="84" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="105">
+      <c r="B84" s="103">
         <v>44620</v>
       </c>
-      <c r="C84" s="106">
+      <c r="C84" s="104">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D84" s="51" t="s">
@@ -8186,10 +8205,10 @@
       </c>
     </row>
     <row r="85" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="105">
+      <c r="B85" s="103">
         <v>44620</v>
       </c>
-      <c r="C85" s="106">
+      <c r="C85" s="104">
         <v>0.14583333333333334</v>
       </c>
       <c r="D85" s="51" t="s">
@@ -8197,10 +8216,10 @@
       </c>
     </row>
     <row r="86" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="105">
+      <c r="B86" s="103">
         <v>44620</v>
       </c>
-      <c r="C86" s="106">
+      <c r="C86" s="104">
         <v>6.25E-2</v>
       </c>
       <c r="D86" s="51" t="s">
@@ -8208,10 +8227,10 @@
       </c>
     </row>
     <row r="87" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="105">
+      <c r="B87" s="103">
         <v>44620</v>
       </c>
-      <c r="C87" s="106">
+      <c r="C87" s="104">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D87" s="51" t="s">
@@ -8219,10 +8238,10 @@
       </c>
     </row>
     <row r="88" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="105">
+      <c r="B88" s="103">
         <v>44621</v>
       </c>
-      <c r="C88" s="106">
+      <c r="C88" s="104">
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D88" s="51" t="s">
@@ -8230,10 +8249,10 @@
       </c>
     </row>
     <row r="89" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="105">
+      <c r="B89" s="103">
         <v>44621</v>
       </c>
-      <c r="C89" s="106">
+      <c r="C89" s="104">
         <v>6.25E-2</v>
       </c>
       <c r="D89" s="51" t="s">
@@ -8241,10 +8260,10 @@
       </c>
     </row>
     <row r="90" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="105">
+      <c r="B90" s="103">
         <v>44621</v>
       </c>
-      <c r="C90" s="106">
+      <c r="C90" s="104">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D90" s="51" t="s">
@@ -8252,10 +8271,10 @@
       </c>
     </row>
     <row r="91" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="126">
+      <c r="B91" s="122">
         <v>44621</v>
       </c>
-      <c r="C91" s="127">
+      <c r="C91" s="123">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D91" s="64" t="s">
@@ -8263,10 +8282,10 @@
       </c>
     </row>
     <row r="92" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="118">
+      <c r="B92" s="116">
         <v>44627</v>
       </c>
-      <c r="C92" s="119">
+      <c r="C92" s="117">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D92" s="68" t="s">
@@ -8274,8 +8293,8 @@
       </c>
     </row>
     <row r="93" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="118"/>
-      <c r="C93" s="120"/>
+      <c r="B93" s="116"/>
+      <c r="C93" s="118"/>
       <c r="D93" s="54"/>
     </row>
     <row r="94" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9285,11 +9304,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="125" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -9347,7 +9366,7 @@
       <c r="Y2" s="17"/>
     </row>
     <row r="3" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="107">
+      <c r="B3" s="105">
         <v>44459</v>
       </c>
       <c r="C3" s="27">
@@ -9358,7 +9377,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="108">
+      <c r="B4" s="106">
         <v>44463</v>
       </c>
       <c r="C4" s="27">
@@ -9369,7 +9388,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="108">
+      <c r="B5" s="106">
         <v>44463</v>
       </c>
       <c r="C5" s="27">
@@ -9380,7 +9399,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="108">
+      <c r="B6" s="106">
         <v>44468</v>
       </c>
       <c r="C6" s="27">
@@ -9391,7 +9410,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="109">
+      <c r="B7" s="107">
         <v>44477</v>
       </c>
       <c r="C7" s="40">
@@ -9402,7 +9421,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="108">
+      <c r="B8" s="106">
         <v>44479</v>
       </c>
       <c r="C8" s="39">
@@ -9413,7 +9432,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="108">
+      <c r="B9" s="106">
         <v>44485</v>
       </c>
       <c r="C9" s="28">
@@ -9424,7 +9443,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="108">
+      <c r="B10" s="106">
         <v>44488</v>
       </c>
       <c r="C10" s="27">
@@ -9435,7 +9454,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="108">
+      <c r="B11" s="106">
         <v>44494</v>
       </c>
       <c r="C11" s="39">
@@ -9446,7 +9465,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="108">
+      <c r="B12" s="106">
         <v>44494</v>
       </c>
       <c r="C12" s="27">
@@ -9457,7 +9476,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="110">
+      <c r="B13" s="108">
         <v>44494</v>
       </c>
       <c r="C13" s="28">
@@ -9468,7 +9487,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="111">
+      <c r="B14" s="109">
         <v>44502</v>
       </c>
       <c r="C14" s="40">
@@ -9479,7 +9498,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="110">
+      <c r="B15" s="108">
         <v>44506</v>
       </c>
       <c r="C15" s="80">
@@ -9490,7 +9509,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="110">
+      <c r="B16" s="108">
         <v>44508</v>
       </c>
       <c r="C16" s="28">
@@ -9501,7 +9520,7 @@
       </c>
     </row>
     <row r="17" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="112">
+      <c r="B17" s="110">
         <v>44520</v>
       </c>
       <c r="C17" s="53">
@@ -9512,7 +9531,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="112">
+      <c r="B18" s="110">
         <v>44520</v>
       </c>
       <c r="C18" s="53">
@@ -9523,7 +9542,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="112">
+      <c r="B19" s="110">
         <v>44521</v>
       </c>
       <c r="C19" s="49">
@@ -9534,7 +9553,7 @@
       </c>
     </row>
     <row r="20" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="112">
+      <c r="B20" s="110">
         <v>44522</v>
       </c>
       <c r="C20" s="53">
@@ -9545,7 +9564,7 @@
       </c>
     </row>
     <row r="21" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="112">
+      <c r="B21" s="110">
         <v>44522</v>
       </c>
       <c r="C21" s="53">
@@ -9556,7 +9575,7 @@
       </c>
     </row>
     <row r="22" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="112">
+      <c r="B22" s="110">
         <v>44523</v>
       </c>
       <c r="C22" s="53">
@@ -9567,7 +9586,7 @@
       </c>
     </row>
     <row r="23" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="113">
+      <c r="B23" s="111">
         <v>44523</v>
       </c>
       <c r="C23" s="66">
@@ -9578,7 +9597,7 @@
       </c>
     </row>
     <row r="24" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="114">
+      <c r="B24" s="112">
         <v>44546</v>
       </c>
       <c r="C24" s="70">
@@ -9589,7 +9608,7 @@
       </c>
     </row>
     <row r="25" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="114">
+      <c r="B25" s="112">
         <v>44546</v>
       </c>
       <c r="C25" s="70">
@@ -9600,7 +9619,7 @@
       </c>
     </row>
     <row r="26" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="115">
+      <c r="B26" s="113">
         <v>44546</v>
       </c>
       <c r="C26" s="75">
@@ -9611,7 +9630,7 @@
       </c>
     </row>
     <row r="27" spans="2:4" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="114">
+      <c r="B27" s="112">
         <v>44573</v>
       </c>
       <c r="C27" s="84">
@@ -9622,7 +9641,7 @@
       </c>
     </row>
     <row r="28" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="115">
+      <c r="B28" s="113">
         <v>44585</v>
       </c>
       <c r="C28" s="75">
@@ -9633,7 +9652,7 @@
       </c>
     </row>
     <row r="29" spans="2:4" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="112">
+      <c r="B29" s="110">
         <v>44607</v>
       </c>
       <c r="C29" s="53">
@@ -9644,7 +9663,7 @@
       </c>
     </row>
     <row r="30" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="112">
+      <c r="B30" s="110">
         <v>44609</v>
       </c>
       <c r="C30" s="53">
@@ -9655,7 +9674,7 @@
       </c>
     </row>
     <row r="31" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="112">
+      <c r="B31" s="110">
         <v>44614</v>
       </c>
       <c r="C31" s="53">
@@ -9666,7 +9685,7 @@
       </c>
     </row>
     <row r="32" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="113">
+      <c r="B32" s="111">
         <v>44619</v>
       </c>
       <c r="C32" s="66">
@@ -9677,7 +9696,7 @@
       </c>
     </row>
     <row r="33" spans="2:4" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="112">
+      <c r="B33" s="110">
         <v>44626</v>
       </c>
       <c r="C33" s="53">
@@ -9688,37 +9707,37 @@
       </c>
     </row>
     <row r="34" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="112"/>
+      <c r="B34" s="110"/>
       <c r="C34" s="53"/>
       <c r="D34" s="54"/>
     </row>
     <row r="35" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="112"/>
+      <c r="B35" s="110"/>
       <c r="C35" s="53"/>
       <c r="D35" s="54"/>
     </row>
     <row r="36" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="112"/>
+      <c r="B36" s="110"/>
       <c r="C36" s="53"/>
       <c r="D36" s="54"/>
     </row>
     <row r="37" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="112"/>
+      <c r="B37" s="110"/>
       <c r="C37" s="53"/>
       <c r="D37" s="54"/>
     </row>
     <row r="38" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="112"/>
+      <c r="B38" s="110"/>
       <c r="C38" s="53"/>
       <c r="D38" s="54"/>
     </row>
     <row r="39" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="112"/>
+      <c r="B39" s="110"/>
       <c r="C39" s="53"/>
       <c r="D39" s="54"/>
     </row>
     <row r="40" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="112"/>
+      <c r="B40" s="110"/>
       <c r="C40" s="53"/>
       <c r="D40" s="54"/>
     </row>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F094E682-6655-45F3-8DA0-54556200F3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1135C9-D232-4BA9-B09F-6DF8FBF1C09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="249">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -781,6 +781,9 @@
   </si>
   <si>
     <t>Modification document scénario (partie introduction)</t>
+  </si>
+  <si>
+    <t>Création manuel utilisation utilisateur V1</t>
   </si>
 </sst>
 </file>
@@ -1664,143 +1667,35 @@
     <xf numFmtId="165" fontId="17" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF504A3B"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <name val="Bookman Old Style"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEE1AE"/>
-          <bgColor rgb="FFFEE1AE"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1903,6 +1798,88 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF504A3B"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1929,6 +1906,32 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <name val="Bookman Old Style"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEE1AE"/>
+          <bgColor rgb="FFFEE1AE"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2283,8 +2286,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:D73" tableBorderDxfId="16">
-  <autoFilter ref="B2:D73" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:D74" tableBorderDxfId="16">
+  <autoFilter ref="B2:D74" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DATE" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="DURÉE" dataDxfId="14"/>
@@ -2313,9 +2316,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D99" totalsRowCount="1" totalsRowDxfId="9">
   <autoFilter ref="B2:D98" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="8" totalsRowDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="7" totalsRowDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ÉVÉNEMENT" dataDxfId="3" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ÉVÉNEMENT" dataDxfId="4" totalsRowDxfId="3"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2325,9 +2328,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tableau2" displayName="Tableau2" ref="B2:D40">
   <autoFilter ref="B2:D40" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="DATE" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DURÉE" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ÉVÉNEMENT" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="DATE" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DURÉE" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ÉVÉNEMENT" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2564,11 +2567,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="125" t="s">
+      <c r="B1" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3882,10 +3885,10 @@
     <tabColor rgb="FFD8B1CB"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y1059"/>
+  <dimension ref="A1:Y1060"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3899,11 +3902,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="125" t="s">
+      <c r="B1" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4646,10 +4649,10 @@
       <c r="B67" s="72">
         <v>44633</v>
       </c>
-      <c r="C67" s="128">
+      <c r="C67" s="126">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D67" s="129" t="s">
+      <c r="D67" s="127" t="s">
         <v>200</v>
       </c>
     </row>
@@ -4657,7 +4660,7 @@
       <c r="B68" s="72">
         <v>44633</v>
       </c>
-      <c r="C68" s="128">
+      <c r="C68" s="126">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D68" s="55" t="s">
@@ -4671,7 +4674,7 @@
       <c r="C69" s="56">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D69" s="132" t="s">
+      <c r="D69" s="130" t="s">
         <v>244</v>
       </c>
     </row>
@@ -4682,7 +4685,7 @@
       <c r="C70" s="56">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D70" s="132" t="s">
+      <c r="D70" s="130" t="s">
         <v>245</v>
       </c>
     </row>
@@ -4690,8 +4693,10 @@
       <c r="B71" s="72">
         <v>44634</v>
       </c>
-      <c r="C71" s="56"/>
-      <c r="D71" s="132" t="s">
+      <c r="C71" s="56">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="D71" s="130" t="s">
         <v>246</v>
       </c>
     </row>
@@ -4699,17 +4704,27 @@
       <c r="B72" s="72">
         <v>44634</v>
       </c>
-      <c r="C72" s="56"/>
-      <c r="D72" s="132" t="s">
+      <c r="C72" s="56">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="D72" s="130" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="73" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="72"/>
-      <c r="C73" s="57"/>
-      <c r="D73" s="102"/>
-    </row>
-    <row r="74" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="72">
+        <v>44635</v>
+      </c>
+      <c r="C73" s="56"/>
+      <c r="D73" s="130" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="72"/>
+      <c r="C74" s="57"/>
+      <c r="D74" s="102"/>
+    </row>
     <row r="75" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="76" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="77" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5695,6 +5710,7 @@
     <row r="1057" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1058" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1059" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1060" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
@@ -5730,11 +5746,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="125" t="s">
+      <c r="B1" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -7338,11 +7354,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="125" t="s">
+      <c r="B1" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -8390,10 +8406,10 @@
       </c>
     </row>
     <row r="93" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="127">
+      <c r="B93" s="125">
         <v>44630</v>
       </c>
-      <c r="C93" s="128">
+      <c r="C93" s="126">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D93" s="55" t="s">
@@ -8401,21 +8417,21 @@
       </c>
     </row>
     <row r="94" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="127">
+      <c r="B94" s="125">
         <v>44633</v>
       </c>
-      <c r="C94" s="130">
+      <c r="C94" s="128">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D94" s="129" t="s">
+      <c r="D94" s="127" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="95" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="127">
+      <c r="B95" s="125">
         <v>44633</v>
       </c>
-      <c r="C95" s="128">
+      <c r="C95" s="126">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D95" s="55" t="s">
@@ -8426,7 +8442,7 @@
       <c r="B96" s="67">
         <v>44633</v>
       </c>
-      <c r="C96" s="128">
+      <c r="C96" s="126">
         <v>3.125E-2</v>
       </c>
       <c r="D96" s="55" t="s">
@@ -8437,10 +8453,10 @@
       <c r="B97" s="67">
         <v>44633</v>
       </c>
-      <c r="C97" s="128">
+      <c r="C97" s="126">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D97" s="129" t="s">
+      <c r="D97" s="127" t="s">
         <v>201</v>
       </c>
     </row>
@@ -8448,7 +8464,7 @@
       <c r="B98" s="67">
         <v>44633</v>
       </c>
-      <c r="C98" s="128">
+      <c r="C98" s="126">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D98" s="55" t="s">
@@ -8458,7 +8474,7 @@
     <row r="99" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="67"/>
       <c r="C99" s="56"/>
-      <c r="D99" s="131"/>
+      <c r="D99" s="129"/>
     </row>
     <row r="100" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="101" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9461,11 +9477,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="125" t="s">
+      <c r="B1" s="131" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E632B9-3D72-41E9-9433-539FB3427C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43C2DD6-BB0D-48E0-821D-79F8EB71CBE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1350" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="254">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -790,6 +790,15 @@
   </si>
   <si>
     <t>Modification du script BDD pour WavMap (ajout de la categorie)</t>
+  </si>
+  <si>
+    <t>Modification de la modélisation de WavMap (ajout du statut)</t>
+  </si>
+  <si>
+    <t>Modification du script BDD pour WavMap (ajout du statut)</t>
+  </si>
+  <si>
+    <t>Modification dans la base de donnée nom du LIEU_STATUT en FK_LIEU_STATUT</t>
   </si>
 </sst>
 </file>
@@ -2312,8 +2321,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D101" totalsRowCount="1">
-  <autoFilter ref="B2:D100" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D104" totalsRowCount="1">
+  <autoFilter ref="B2:D103" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="8" totalsRowDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="7" totalsRowDxfId="1"/>
@@ -7336,10 +7345,10 @@
     <tabColor rgb="FFFEE1AE"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1067"/>
+  <dimension ref="A1:Z1070"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A93" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+      <selection activeCell="B103" sqref="B103:D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8492,14 +8501,44 @@
         <v>250</v>
       </c>
     </row>
-    <row r="101" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="18"/>
-      <c r="C101" s="19"/>
-      <c r="D101" s="55"/>
-    </row>
-    <row r="102" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="67">
+        <v>44639</v>
+      </c>
+      <c r="C101" s="126">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="D101" s="127" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B102" s="67">
+        <v>44639</v>
+      </c>
+      <c r="C102" s="126">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="D102" s="127" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B103" s="67">
+        <v>44639</v>
+      </c>
+      <c r="C103" s="126">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="D103" s="127" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B104" s="18"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="55"/>
+    </row>
     <row r="105" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="106" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="107" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9463,6 +9502,9 @@
     <row r="1065" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1066" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1067" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1068" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1069" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1070" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43C2DD6-BB0D-48E0-821D-79F8EB71CBE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBD1EF2-A8CA-4EA9-81CB-A7E3D0891123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="255">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -799,6 +799,9 @@
   </si>
   <si>
     <t>Modification dans la base de donnée nom du LIEU_STATUT en FK_LIEU_STATUT</t>
+  </si>
+  <si>
+    <t>Modification et ajout des données dans la base de donnée One.com</t>
   </si>
 </sst>
 </file>
@@ -2321,8 +2324,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D104" totalsRowCount="1">
-  <autoFilter ref="B2:D103" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D105" totalsRowCount="1">
+  <autoFilter ref="B2:D104" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="8" totalsRowDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="7" totalsRowDxfId="1"/>
@@ -7345,10 +7348,10 @@
     <tabColor rgb="FFFEE1AE"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1070"/>
+  <dimension ref="A1:Z1071"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A93" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103:D103"/>
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8534,12 +8537,22 @@
         <v>253</v>
       </c>
     </row>
-    <row r="104" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="18"/>
-      <c r="C104" s="19"/>
-      <c r="D104" s="55"/>
-    </row>
-    <row r="105" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B104" s="67">
+        <v>44639</v>
+      </c>
+      <c r="C104" s="126">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="D104" s="127" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B105" s="18"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="55"/>
+    </row>
     <row r="106" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="107" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="108" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9505,6 +9518,7 @@
     <row r="1068" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1069" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1070" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1071" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E326409C-4E2A-41A7-A46F-DC81789F84AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC84044-ABED-40F5-8EE4-042BAE512A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="264">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -826,6 +826,9 @@
   </si>
   <si>
     <t>Création manuel utilisation administrateur V1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correction erreur d'interface sur Visual Studio </t>
   </si>
 </sst>
 </file>
@@ -836,7 +839,7 @@
     <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
     <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF504A3B"/>
@@ -1019,24 +1022,6 @@
       <sz val="12"/>
       <color rgb="FFE39202"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Bookman Old Style"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF94497A"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF504A3B"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1345,7 +1330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1741,112 +1726,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FFE39202"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color rgb="FF746B55"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Bookman Old Style"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEE1AE"/>
-          <bgColor rgb="FFFEE1AE"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1952,6 +1837,39 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
@@ -1974,6 +1892,38 @@
         <bottom/>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFE39202"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FF746B55"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2004,6 +1954,32 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Bookman Old Style"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEE1AE"/>
+          <bgColor rgb="FFFEE1AE"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2348,8 +2324,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:D79" tableBorderDxfId="15">
-  <autoFilter ref="B2:D79" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:D80" tableBorderDxfId="15">
+  <autoFilter ref="B2:D80" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DATE" dataDxfId="14"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="DURÉE" dataDxfId="13"/>
@@ -2378,9 +2354,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D108" totalsRowCount="1">
   <autoFilter ref="B2:D107" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="8" totalsRowDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="7" totalsRowDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ÉVÉNEMENT" dataDxfId="6" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ÉVÉNEMENT" dataDxfId="4" totalsRowDxfId="3"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2390,9 +2366,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tableau2" displayName="Tableau2" ref="B2:D40">
   <autoFilter ref="B2:D40" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="DATE" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DURÉE" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ÉVÉNEMENT" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="DATE" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DURÉE" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ÉVÉNEMENT" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3947,10 +3923,10 @@
     <tabColor rgb="FFD8B1CB"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y1065"/>
+  <dimension ref="A1:Y1066"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4829,18 +4805,32 @@
       </c>
     </row>
     <row r="78" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="132"/>
-      <c r="C78" s="133"/>
-      <c r="D78" s="134" t="s">
+      <c r="B78" s="72">
+        <v>44642</v>
+      </c>
+      <c r="C78" s="56">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="D78" s="129" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="79" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="72"/>
-      <c r="C79" s="57"/>
-      <c r="D79" s="102"/>
-    </row>
-    <row r="80" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="72">
+        <v>44642</v>
+      </c>
+      <c r="C79" s="56">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D79" s="129" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="72"/>
+      <c r="C80" s="57"/>
+      <c r="D80" s="102"/>
+    </row>
     <row r="81" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="82" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="83" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5826,6 +5816,7 @@
     <row r="1063" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1064" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1065" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1066" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aurelie/Documents/GitHub/WavContact/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08798DE1-3C4B-044E-AF3D-EA3A29DC0BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D011CD-F5B8-9647-97F4-9FE619520AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="265">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -842,7 +842,7 @@
     <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
     <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF504A3B"/>
@@ -1025,6 +1025,12 @@
       <sz val="12"/>
       <color rgb="FFE39202"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF504A3B"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1330,10 +1336,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1502,9 +1509,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1535,9 +1539,6 @@
     <xf numFmtId="164" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1703,23 +1704,8 @@
     <xf numFmtId="164" fontId="25" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1728,8 +1714,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{461571AD-B2FA-134B-8EC0-6D2CD2052B7C}"/>
   </cellStyles>
   <dxfs count="19">
     <dxf>
@@ -2336,8 +2323,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau3" displayName="Tableau3" ref="B2:D56">
-  <autoFilter ref="B2:D56" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau3" displayName="Tableau3" ref="B2:D60">
+  <autoFilter ref="B2:D60" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D25">
     <sortCondition ref="B2:B25"/>
   </sortState>
@@ -2590,7 +2577,7 @@
   </sheetPr>
   <dimension ref="A1:Z1009"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
@@ -2605,11 +2592,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2637,15 +2624,15 @@
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="77" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="77">
+      <c r="B3" s="75">
         <v>44384</v>
       </c>
       <c r="C3" s="12">
@@ -2832,13 +2819,13 @@
       </c>
     </row>
     <row r="20" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="58">
+      <c r="B20" s="57">
         <v>44526</v>
       </c>
-      <c r="C20" s="59">
+      <c r="C20" s="58">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D20" s="60" t="s">
+      <c r="D20" s="59" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2849,18 +2836,18 @@
       <c r="C21" s="29">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D21" s="68" t="s">
+      <c r="D21" s="66" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="22" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="58">
+      <c r="B22" s="57">
         <v>44547</v>
       </c>
-      <c r="C22" s="59">
+      <c r="C22" s="58">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D22" s="60" t="s">
+      <c r="D22" s="59" t="s">
         <v>188</v>
       </c>
     </row>
@@ -2887,24 +2874,24 @@
       </c>
     </row>
     <row r="25" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="58">
+      <c r="B25" s="57">
         <v>44586</v>
       </c>
-      <c r="C25" s="59">
+      <c r="C25" s="58">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="D25" s="60" t="s">
+      <c r="D25" s="59" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="118">
+      <c r="B26" s="116">
         <v>44602</v>
       </c>
-      <c r="C26" s="119">
+      <c r="C26" s="117">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D26" s="120" t="s">
+      <c r="D26" s="118" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2920,9 +2907,9 @@
       </c>
     </row>
     <row r="28" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="114"/>
+      <c r="B28" s="112"/>
       <c r="C28" s="12"/>
-      <c r="D28" s="115"/>
+      <c r="D28" s="113"/>
     </row>
     <row r="29" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3926,7 +3913,7 @@
   <dimension ref="A1:Y1066"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3940,11 +3927,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3968,79 +3955,79 @@
       <c r="Y1" s="2"/>
     </row>
     <row r="2" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="88" t="s">
+      <c r="D2" s="86" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="89">
+      <c r="B3" s="87">
         <v>44459</v>
       </c>
       <c r="C3" s="13">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D3" s="90" t="s">
+      <c r="D3" s="88" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="89">
+      <c r="B4" s="87">
         <v>44462</v>
       </c>
       <c r="C4" s="13">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="D4" s="90" t="s">
+      <c r="D4" s="88" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="89">
+      <c r="B5" s="87">
         <v>44463</v>
       </c>
       <c r="C5" s="13">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="D5" s="90" t="s">
+      <c r="D5" s="88" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="89">
+      <c r="B6" s="87">
         <v>44464</v>
       </c>
       <c r="C6" s="13">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D6" s="90" t="s">
+      <c r="D6" s="88" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="89">
+      <c r="B7" s="87">
         <v>44466</v>
       </c>
       <c r="C7" s="13">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D7" s="90" t="s">
+      <c r="D7" s="88" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="89">
+      <c r="B8" s="87">
         <v>44467</v>
       </c>
       <c r="C8" s="13">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="89" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4051,785 +4038,785 @@
       <c r="C9" s="38">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D9" s="92" t="s">
+      <c r="D9" s="90" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="89">
+      <c r="B10" s="87">
         <v>44479</v>
       </c>
       <c r="C10" s="36">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D10" s="93" t="s">
+      <c r="D10" s="91" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="89">
+      <c r="B11" s="87">
         <v>44480</v>
       </c>
       <c r="C11" s="13">
         <v>3.125E-2</v>
       </c>
-      <c r="D11" s="90" t="s">
+      <c r="D11" s="88" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="89">
+      <c r="B12" s="87">
         <v>44480</v>
       </c>
       <c r="C12" s="13">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D12" s="90" t="s">
+      <c r="D12" s="88" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
-      <c r="B13" s="89">
+      <c r="B13" s="87">
         <v>44482</v>
       </c>
       <c r="C13" s="13">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D13" s="90" t="s">
+      <c r="D13" s="88" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="89">
+      <c r="B14" s="87">
         <v>44482</v>
       </c>
       <c r="C14" s="13">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D14" s="90" t="s">
+      <c r="D14" s="88" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:25" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="89">
+      <c r="B15" s="87">
         <v>44482</v>
       </c>
       <c r="C15" s="13">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D15" s="90" t="s">
+      <c r="D15" s="88" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:25" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="89">
+      <c r="B16" s="87">
         <v>44484</v>
       </c>
       <c r="C16" s="13">
         <v>0.125</v>
       </c>
-      <c r="D16" s="90" t="s">
+      <c r="D16" s="88" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="89">
+      <c r="B17" s="87">
         <v>44484</v>
       </c>
       <c r="C17" s="13">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D17" s="90" t="s">
+      <c r="D17" s="88" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="89">
+      <c r="B18" s="87">
         <v>44485</v>
       </c>
       <c r="C18" s="13">
         <v>0.10416666666666667</v>
       </c>
-      <c r="D18" s="90" t="s">
+      <c r="D18" s="88" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="89">
+      <c r="B19" s="87">
         <v>44487</v>
       </c>
       <c r="C19" s="13">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="D19" s="90" t="s">
+      <c r="D19" s="88" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="20" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="89">
+      <c r="B20" s="87">
         <v>44491</v>
       </c>
       <c r="C20" s="36">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D20" s="94" t="s">
+      <c r="D20" s="92" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="21" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="89">
+      <c r="B21" s="87">
         <v>44493</v>
       </c>
       <c r="C21" s="13">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="D21" s="95" t="s">
+      <c r="D21" s="93" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="89">
+      <c r="B22" s="87">
         <v>44494</v>
       </c>
       <c r="C22" s="13">
         <v>3.125E-2</v>
       </c>
-      <c r="D22" s="95" t="s">
+      <c r="D22" s="93" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="23" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="89">
+      <c r="B23" s="87">
         <v>44494</v>
       </c>
       <c r="C23" s="13">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D23" s="95" t="s">
+      <c r="D23" s="93" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="89">
+      <c r="B24" s="87">
         <v>44497</v>
       </c>
       <c r="C24" s="13">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D24" s="95" t="s">
+      <c r="D24" s="93" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="25" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="89">
+      <c r="B25" s="87">
         <v>44497</v>
       </c>
       <c r="C25" s="13">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D25" s="95" t="s">
+      <c r="D25" s="93" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="26" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="89">
+      <c r="B26" s="87">
         <v>44497</v>
       </c>
       <c r="C26" s="13">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D26" s="95" t="s">
+      <c r="D26" s="93" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="27" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="89">
+      <c r="B27" s="87">
         <v>44501</v>
       </c>
       <c r="C27" s="13">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D27" s="95" t="s">
+      <c r="D27" s="93" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="28" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="89">
+      <c r="B28" s="87">
         <v>44504</v>
       </c>
       <c r="C28" s="13">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="D28" s="95" t="s">
+      <c r="D28" s="93" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="29" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="83">
+      <c r="B29" s="81">
         <v>44505</v>
       </c>
-      <c r="C29" s="62">
+      <c r="C29" s="61">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D29" s="96" t="s">
+      <c r="D29" s="94" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="30" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="89">
+      <c r="B30" s="87">
         <v>44506</v>
       </c>
       <c r="C30" s="36">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D30" s="94" t="s">
+      <c r="D30" s="92" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="31" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="89">
+      <c r="B31" s="87">
         <v>44515</v>
       </c>
       <c r="C31" s="13">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D31" s="95" t="s">
+      <c r="D31" s="93" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="32" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="89">
+      <c r="B32" s="87">
         <v>44517</v>
       </c>
       <c r="C32" s="13">
         <v>0.1875</v>
       </c>
-      <c r="D32" s="95" t="s">
+      <c r="D32" s="93" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="33" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="89">
+      <c r="B33" s="87">
         <v>44518</v>
       </c>
       <c r="C33" s="13">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D33" s="95" t="s">
+      <c r="D33" s="93" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="34" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="97">
+      <c r="B34" s="95">
         <v>44519</v>
       </c>
       <c r="C34" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D34" s="95" t="s">
+      <c r="D34" s="93" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="35" spans="2:4" s="14" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="97">
+      <c r="B35" s="95">
         <v>44519</v>
       </c>
       <c r="C35" s="46">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D35" s="95" t="s">
+      <c r="D35" s="93" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="36" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="98">
+      <c r="B36" s="96">
         <v>44521</v>
       </c>
       <c r="C36" s="46">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D36" s="99" t="s">
+      <c r="D36" s="97" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="37" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="98">
+      <c r="B37" s="96">
         <v>44524</v>
       </c>
       <c r="C37" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D37" s="99" t="s">
+      <c r="D37" s="97" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="38" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="98">
+      <c r="B38" s="96">
         <v>44525</v>
       </c>
       <c r="C38" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D38" s="99" t="s">
+      <c r="D38" s="97" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="39" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="61">
+      <c r="B39" s="60">
         <v>44525</v>
       </c>
-      <c r="C39" s="62">
+      <c r="C39" s="61">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D39" s="100" t="s">
+      <c r="D39" s="98" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="40" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="98">
+      <c r="B40" s="96">
         <v>44528</v>
       </c>
       <c r="C40" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D40" s="99" t="s">
+      <c r="D40" s="97" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="41" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="98">
+      <c r="B41" s="96">
         <v>44543</v>
       </c>
       <c r="C41" s="46">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D41" s="99" t="s">
+      <c r="D41" s="97" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="42" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="98">
+      <c r="B42" s="96">
         <v>44543</v>
       </c>
       <c r="C42" s="46">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D42" s="99" t="s">
+      <c r="D42" s="97" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="43" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="98">
+      <c r="B43" s="96">
         <v>44543</v>
       </c>
       <c r="C43" s="46">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D43" s="99" t="s">
+      <c r="D43" s="97" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="44" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="98">
+      <c r="B44" s="96">
         <v>44544</v>
       </c>
       <c r="C44" s="46">
         <v>6.25E-2</v>
       </c>
-      <c r="D44" s="99" t="s">
+      <c r="D44" s="97" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="45" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="98">
+      <c r="B45" s="96">
         <v>44545</v>
       </c>
       <c r="C45" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D45" s="99" t="s">
+      <c r="D45" s="97" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="46" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="98">
+      <c r="B46" s="96">
         <v>44545</v>
       </c>
       <c r="C46" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D46" s="99" t="s">
+      <c r="D46" s="97" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="47" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="98">
+      <c r="B47" s="96">
         <v>44545</v>
       </c>
       <c r="C47" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D47" s="99" t="s">
+      <c r="D47" s="97" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="48" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="98">
+      <c r="B48" s="96">
         <v>44546</v>
       </c>
       <c r="C48" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D48" s="99" t="s">
+      <c r="D48" s="97" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="49" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="98">
+      <c r="B49" s="96">
         <v>44546</v>
       </c>
       <c r="C49" s="46">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="D49" s="99" t="s">
+      <c r="D49" s="97" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="50" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="61">
+      <c r="B50" s="60">
         <v>44547</v>
       </c>
-      <c r="C50" s="62">
+      <c r="C50" s="61">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D50" s="100" t="s">
+      <c r="D50" s="98" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="51" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="98">
+      <c r="B51" s="96">
         <v>44548</v>
       </c>
-      <c r="C51" s="73">
+      <c r="C51" s="71">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D51" s="101" t="s">
+      <c r="D51" s="99" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="98">
+      <c r="B52" s="96">
         <v>44585</v>
       </c>
       <c r="C52" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D52" s="99" t="s">
+      <c r="D52" s="97" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="98">
+      <c r="B53" s="96">
         <v>44585</v>
       </c>
       <c r="C53" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D53" s="99" t="s">
+      <c r="D53" s="97" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="54" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="61">
+      <c r="B54" s="60">
         <v>44586</v>
       </c>
-      <c r="C54" s="62">
+      <c r="C54" s="61">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D54" s="100" t="s">
+      <c r="D54" s="98" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="98">
+      <c r="B55" s="96">
         <v>44587</v>
       </c>
-      <c r="C55" s="73">
+      <c r="C55" s="71">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D55" s="101" t="s">
+      <c r="D55" s="99" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="56" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="98">
+      <c r="B56" s="96">
         <v>44587</v>
       </c>
       <c r="C56" s="46">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="D56" s="99" t="s">
+      <c r="D56" s="97" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="57" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="98">
+      <c r="B57" s="96">
         <v>44587</v>
       </c>
       <c r="C57" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D57" s="99" t="s">
+      <c r="D57" s="97" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="58" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="98">
+      <c r="B58" s="96">
         <v>44590</v>
       </c>
       <c r="C58" s="46">
         <v>6.25E-2</v>
       </c>
-      <c r="D58" s="99" t="s">
+      <c r="D58" s="97" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="59" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="98">
+      <c r="B59" s="96">
         <v>44614</v>
       </c>
       <c r="C59" s="46">
         <v>0.10416666666666667</v>
       </c>
-      <c r="D59" s="99" t="s">
+      <c r="D59" s="97" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="60" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="98">
+      <c r="B60" s="96">
         <v>44614</v>
       </c>
       <c r="C60" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D60" s="99" t="s">
+      <c r="D60" s="97" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="61" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="98">
+      <c r="B61" s="96">
         <v>44614</v>
       </c>
       <c r="C61" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D61" s="99" t="s">
+      <c r="D61" s="97" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="62" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="98">
+      <c r="B62" s="96">
         <v>44615</v>
       </c>
       <c r="C62" s="46">
         <v>6.25E-2</v>
       </c>
-      <c r="D62" s="99" t="s">
+      <c r="D62" s="97" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="63" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="98">
+      <c r="B63" s="96">
         <v>44621</v>
       </c>
       <c r="C63" s="46">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D63" s="99" t="s">
+      <c r="D63" s="97" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="64" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="61">
+      <c r="B64" s="60">
         <v>44621</v>
       </c>
-      <c r="C64" s="62">
+      <c r="C64" s="61">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D64" s="100" t="s">
+      <c r="D64" s="98" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="65" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="98">
+      <c r="B65" s="96">
         <v>44625</v>
       </c>
       <c r="C65" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D65" s="99" t="s">
+      <c r="D65" s="97" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="66" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="98">
+      <c r="B66" s="96">
         <v>44629</v>
       </c>
       <c r="C66" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D66" s="99" t="s">
+      <c r="D66" s="97" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="67" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="72">
+      <c r="B67" s="96">
         <v>44633</v>
       </c>
-      <c r="C67" s="125">
+      <c r="C67" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D67" s="126" t="s">
+      <c r="D67" s="97" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="68" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="72">
+      <c r="B68" s="96">
         <v>44633</v>
       </c>
-      <c r="C68" s="125">
+      <c r="C68" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D68" s="55" t="s">
+      <c r="D68" s="97" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="69" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="72">
+      <c r="B69" s="96">
         <v>44633</v>
       </c>
-      <c r="C69" s="56">
+      <c r="C69" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D69" s="128" t="s">
+      <c r="D69" s="97" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="70" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="72">
+      <c r="B70" s="96">
         <v>44633</v>
       </c>
-      <c r="C70" s="56">
+      <c r="C70" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D70" s="128" t="s">
+      <c r="D70" s="97" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="71" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="72">
+      <c r="B71" s="96">
         <v>44634</v>
       </c>
-      <c r="C71" s="56">
+      <c r="C71" s="46">
         <v>0.10416666666666667</v>
       </c>
-      <c r="D71" s="128" t="s">
+      <c r="D71" s="97" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="72" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="72">
+      <c r="B72" s="96">
         <v>44634</v>
       </c>
-      <c r="C72" s="56">
+      <c r="C72" s="46">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D72" s="128" t="s">
+      <c r="D72" s="97" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="73" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="72">
+      <c r="B73" s="96">
         <v>44642</v>
       </c>
-      <c r="C73" s="56">
+      <c r="C73" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D73" s="128" t="s">
+      <c r="D73" s="97" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="74" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="72">
+      <c r="B74" s="96">
         <v>44642</v>
       </c>
-      <c r="C74" s="56">
+      <c r="C74" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D74" s="128" t="s">
+      <c r="D74" s="97" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="75" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="72">
+      <c r="B75" s="96">
         <v>44642</v>
       </c>
-      <c r="C75" s="56">
+      <c r="C75" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D75" s="128" t="s">
+      <c r="D75" s="97" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="76" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="72">
+      <c r="B76" s="96">
         <v>44642</v>
       </c>
-      <c r="C76" s="56">
+      <c r="C76" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D76" s="128" t="s">
+      <c r="D76" s="97" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="77" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="72">
+      <c r="B77" s="96">
         <v>44642</v>
       </c>
-      <c r="C77" s="56">
+      <c r="C77" s="46">
         <v>6.25E-2</v>
       </c>
-      <c r="D77" s="128" t="s">
+      <c r="D77" s="97" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="78" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="72">
+      <c r="B78" s="96">
         <v>44642</v>
       </c>
-      <c r="C78" s="56">
+      <c r="C78" s="46">
         <v>0.10416666666666667</v>
       </c>
-      <c r="D78" s="128" t="s">
+      <c r="D78" s="97" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="79" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="72">
+      <c r="B79" s="96">
         <v>44642</v>
       </c>
-      <c r="C79" s="56">
+      <c r="C79" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D79" s="128" t="s">
+      <c r="D79" s="97" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="80" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="72"/>
-      <c r="C80" s="57"/>
-      <c r="D80" s="102"/>
+      <c r="B80" s="70"/>
+      <c r="C80" s="56"/>
+      <c r="D80" s="100"/>
     </row>
     <row r="81" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="82" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5837,8 +5824,8 @@
   </sheetPr>
   <dimension ref="A1:Y1009"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView showGridLines="0" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5852,11 +5839,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -6166,13 +6153,13 @@
       </c>
     </row>
     <row r="28" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="63">
+      <c r="B28" s="62">
         <v>44525</v>
       </c>
       <c r="C28" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D28" s="64" t="s">
+      <c r="D28" s="63" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6298,13 +6285,13 @@
       </c>
     </row>
     <row r="40" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="63">
+      <c r="B40" s="62">
         <v>44546</v>
       </c>
       <c r="C40" s="45">
         <v>3.125E-2</v>
       </c>
-      <c r="D40" s="64" t="s">
+      <c r="D40" s="63" t="s">
         <v>155</v>
       </c>
     </row>
@@ -6315,7 +6302,7 @@
       <c r="C41" s="43">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D41" s="74" t="s">
+      <c r="D41" s="72" t="s">
         <v>179</v>
       </c>
     </row>
@@ -6375,13 +6362,13 @@
       </c>
     </row>
     <row r="47" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="63">
+      <c r="B47" s="62">
         <v>44586</v>
       </c>
       <c r="C47" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D47" s="64" t="s">
+      <c r="D47" s="63" t="s">
         <v>197</v>
       </c>
     </row>
@@ -6392,7 +6379,7 @@
       <c r="C48" s="43">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D48" s="74" t="s">
+      <c r="D48" s="72" t="s">
         <v>198</v>
       </c>
     </row>
@@ -6441,53 +6428,75 @@
       </c>
     </row>
     <row r="53" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="63">
+      <c r="B53" s="62">
         <v>44621</v>
       </c>
       <c r="C53" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D53" s="64" t="s">
+      <c r="D53" s="63" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="54" spans="2:4" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="123">
+      <c r="B54" s="16">
         <v>44629</v>
       </c>
-      <c r="C54" s="56">
+      <c r="C54" s="15">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D54" s="55" t="s">
+      <c r="D54" s="11" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="123">
+      <c r="B55" s="16">
+        <v>44629</v>
+      </c>
+      <c r="C55" s="15">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="16">
         <v>44639</v>
       </c>
-      <c r="C55" s="56">
+      <c r="C56" s="15">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D55" s="55" t="s">
+      <c r="D56" s="11" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="56" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="123">
+    <row r="57" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="16">
         <v>44642</v>
       </c>
-      <c r="C56" s="57">
+      <c r="C57" s="15">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D56" s="126" t="s">
+      <c r="D57" s="11" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="57" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="16"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="11"/>
+    </row>
+    <row r="59" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="16"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="11"/>
+    </row>
+    <row r="60" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="16"/>
+      <c r="C60" s="121"/>
+      <c r="D60" s="26"/>
+    </row>
     <row r="61" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="62" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="63" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7458,7 +7467,7 @@
   <dimension ref="A1:Z1074"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A90" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+      <selection activeCell="B93" sqref="B93:D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7472,11 +7481,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -7988,10 +7997,10 @@
       <c r="B44" s="18">
         <v>44506</v>
       </c>
-      <c r="C44" s="82">
+      <c r="C44" s="80">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D44" s="81" t="s">
+      <c r="D44" s="79" t="s">
         <v>113</v>
       </c>
     </row>
@@ -8084,13 +8093,13 @@
       </c>
     </row>
     <row r="53" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="65">
+      <c r="B53" s="64">
         <v>44526</v>
       </c>
       <c r="C53" s="42">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D53" s="64" t="s">
+      <c r="D53" s="63" t="s">
         <v>148</v>
       </c>
     </row>
@@ -8161,7 +8170,7 @@
       </c>
     </row>
     <row r="60" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="69">
+      <c r="B60" s="67">
         <v>44543</v>
       </c>
       <c r="C60" s="19">
@@ -8172,29 +8181,29 @@
       </c>
     </row>
     <row r="61" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="65">
+      <c r="B61" s="64">
         <v>44546</v>
       </c>
       <c r="C61" s="42">
         <v>0.22916666666666666</v>
       </c>
-      <c r="D61" s="64" t="s">
+      <c r="D61" s="63" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="62" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="69">
+      <c r="B62" s="67">
         <v>44548</v>
       </c>
       <c r="C62" s="19">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D62" s="74" t="s">
+      <c r="D62" s="72" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="63" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="69">
+      <c r="B63" s="67">
         <v>44550</v>
       </c>
       <c r="C63" s="19">
@@ -8205,7 +8214,7 @@
       </c>
     </row>
     <row r="64" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="69">
+      <c r="B64" s="67">
         <v>44553</v>
       </c>
       <c r="C64" s="19">
@@ -8216,7 +8225,7 @@
       </c>
     </row>
     <row r="65" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="69">
+      <c r="B65" s="67">
         <v>44573</v>
       </c>
       <c r="C65" s="19">
@@ -8227,7 +8236,7 @@
       </c>
     </row>
     <row r="66" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="69">
+      <c r="B66" s="67">
         <v>44573</v>
       </c>
       <c r="C66" s="19">
@@ -8238,7 +8247,7 @@
       </c>
     </row>
     <row r="67" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="69">
+      <c r="B67" s="67">
         <v>44574</v>
       </c>
       <c r="C67" s="19">
@@ -8249,32 +8258,32 @@
       </c>
     </row>
     <row r="68" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="65">
+      <c r="B68" s="64">
         <v>44586</v>
       </c>
       <c r="C68" s="42">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="D68" s="64" t="s">
+      <c r="D68" s="63" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="69" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="69">
+      <c r="B69" s="67">
         <v>44587</v>
       </c>
       <c r="C69" s="19">
         <v>0.125</v>
       </c>
-      <c r="D69" s="74" t="s">
+      <c r="D69" s="72" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="70" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="103">
+      <c r="B70" s="101">
         <v>44587</v>
       </c>
-      <c r="C70" s="104">
+      <c r="C70" s="102">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D70" s="51" t="s">
@@ -8282,10 +8291,10 @@
       </c>
     </row>
     <row r="71" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="103">
+      <c r="B71" s="101">
         <v>44587</v>
       </c>
-      <c r="C71" s="104">
+      <c r="C71" s="102">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D71" s="51" t="s">
@@ -8293,10 +8302,10 @@
       </c>
     </row>
     <row r="72" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="103">
+      <c r="B72" s="101">
         <v>44590</v>
       </c>
-      <c r="C72" s="104">
+      <c r="C72" s="102">
         <v>6.25E-2</v>
       </c>
       <c r="D72" s="51" t="s">
@@ -8304,10 +8313,10 @@
       </c>
     </row>
     <row r="73" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="103">
+      <c r="B73" s="101">
         <v>44600</v>
       </c>
-      <c r="C73" s="104">
+      <c r="C73" s="102">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D73" s="51" t="s">
@@ -8315,10 +8324,10 @@
       </c>
     </row>
     <row r="74" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="103">
+      <c r="B74" s="101">
         <v>44600</v>
       </c>
-      <c r="C74" s="104">
+      <c r="C74" s="102">
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="D74" s="51" t="s">
@@ -8326,10 +8335,10 @@
       </c>
     </row>
     <row r="75" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="103">
+      <c r="B75" s="101">
         <v>44600</v>
       </c>
-      <c r="C75" s="104">
+      <c r="C75" s="102">
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="D75" s="51" t="s">
@@ -8337,10 +8346,10 @@
       </c>
     </row>
     <row r="76" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="103">
+      <c r="B76" s="101">
         <v>44611</v>
       </c>
-      <c r="C76" s="104">
+      <c r="C76" s="102">
         <v>0.10416666666666667</v>
       </c>
       <c r="D76" s="51" t="s">
@@ -8348,10 +8357,10 @@
       </c>
     </row>
     <row r="77" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="103">
+      <c r="B77" s="101">
         <v>44611</v>
       </c>
-      <c r="C77" s="104">
+      <c r="C77" s="102">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D77" s="51" t="s">
@@ -8359,10 +8368,10 @@
       </c>
     </row>
     <row r="78" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="103">
+      <c r="B78" s="101">
         <v>44613</v>
       </c>
-      <c r="C78" s="104">
+      <c r="C78" s="102">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D78" s="51" t="s">
@@ -8370,10 +8379,10 @@
       </c>
     </row>
     <row r="79" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="103">
+      <c r="B79" s="101">
         <v>44613</v>
       </c>
-      <c r="C79" s="104">
+      <c r="C79" s="102">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D79" s="51" t="s">
@@ -8381,10 +8390,10 @@
       </c>
     </row>
     <row r="80" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="103">
+      <c r="B80" s="101">
         <v>44613</v>
       </c>
-      <c r="C80" s="104">
+      <c r="C80" s="102">
         <v>6.25E-2</v>
       </c>
       <c r="D80" s="51" t="s">
@@ -8392,10 +8401,10 @@
       </c>
     </row>
     <row r="81" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="103">
+      <c r="B81" s="101">
         <v>44614</v>
       </c>
-      <c r="C81" s="104">
+      <c r="C81" s="102">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D81" s="51" t="s">
@@ -8403,10 +8412,10 @@
       </c>
     </row>
     <row r="82" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="103">
+      <c r="B82" s="101">
         <v>44614</v>
       </c>
-      <c r="C82" s="104">
+      <c r="C82" s="102">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D82" s="51" t="s">
@@ -8414,10 +8423,10 @@
       </c>
     </row>
     <row r="83" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="103">
+      <c r="B83" s="101">
         <v>44614</v>
       </c>
-      <c r="C83" s="104">
+      <c r="C83" s="102">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D83" s="51" t="s">
@@ -8425,10 +8434,10 @@
       </c>
     </row>
     <row r="84" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="103">
+      <c r="B84" s="101">
         <v>44620</v>
       </c>
-      <c r="C84" s="104">
+      <c r="C84" s="102">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D84" s="51" t="s">
@@ -8436,10 +8445,10 @@
       </c>
     </row>
     <row r="85" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="103">
+      <c r="B85" s="101">
         <v>44620</v>
       </c>
-      <c r="C85" s="104">
+      <c r="C85" s="102">
         <v>0.14583333333333334</v>
       </c>
       <c r="D85" s="51" t="s">
@@ -8447,10 +8456,10 @@
       </c>
     </row>
     <row r="86" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="103">
+      <c r="B86" s="101">
         <v>44620</v>
       </c>
-      <c r="C86" s="104">
+      <c r="C86" s="102">
         <v>6.25E-2</v>
       </c>
       <c r="D86" s="51" t="s">
@@ -8458,10 +8467,10 @@
       </c>
     </row>
     <row r="87" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="103">
+      <c r="B87" s="101">
         <v>44620</v>
       </c>
-      <c r="C87" s="104">
+      <c r="C87" s="102">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D87" s="51" t="s">
@@ -8469,10 +8478,10 @@
       </c>
     </row>
     <row r="88" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="103">
+      <c r="B88" s="101">
         <v>44621</v>
       </c>
-      <c r="C88" s="104">
+      <c r="C88" s="102">
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D88" s="51" t="s">
@@ -8480,10 +8489,10 @@
       </c>
     </row>
     <row r="89" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="103">
+      <c r="B89" s="101">
         <v>44621</v>
       </c>
-      <c r="C89" s="104">
+      <c r="C89" s="102">
         <v>6.25E-2</v>
       </c>
       <c r="D89" s="51" t="s">
@@ -8491,10 +8500,10 @@
       </c>
     </row>
     <row r="90" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="103">
+      <c r="B90" s="101">
         <v>44621</v>
       </c>
-      <c r="C90" s="104">
+      <c r="C90" s="102">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D90" s="51" t="s">
@@ -8502,189 +8511,189 @@
       </c>
     </row>
     <row r="91" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="121">
+      <c r="B91" s="119">
         <v>44621</v>
       </c>
-      <c r="C91" s="122">
+      <c r="C91" s="120">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D91" s="64" t="s">
+      <c r="D91" s="63" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="92" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="116">
+      <c r="B92" s="114">
         <v>44627</v>
       </c>
-      <c r="C92" s="117">
+      <c r="C92" s="115">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="D92" s="68" t="s">
+      <c r="D92" s="66" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="93" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="124">
+      <c r="B93" s="101">
         <v>44630</v>
       </c>
-      <c r="C93" s="125">
+      <c r="C93" s="102">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D93" s="55" t="s">
+      <c r="D93" s="51" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="94" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B94" s="124">
+      <c r="B94" s="101">
         <v>44633</v>
       </c>
-      <c r="C94" s="127">
+      <c r="C94" s="102">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D94" s="126" t="s">
+      <c r="D94" s="51" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="95" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B95" s="124">
+      <c r="B95" s="101">
         <v>44633</v>
       </c>
-      <c r="C95" s="125">
+      <c r="C95" s="102">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D95" s="55" t="s">
+      <c r="D95" s="51" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="96" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B96" s="67">
+      <c r="B96" s="101">
         <v>44633</v>
       </c>
-      <c r="C96" s="125">
+      <c r="C96" s="102">
         <v>3.125E-2</v>
       </c>
-      <c r="D96" s="55" t="s">
+      <c r="D96" s="51" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="97" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B97" s="67">
+      <c r="B97" s="101">
         <v>44633</v>
       </c>
-      <c r="C97" s="125">
+      <c r="C97" s="102">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D97" s="126" t="s">
+      <c r="D97" s="51" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="98" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="67">
+      <c r="B98" s="101">
         <v>44633</v>
       </c>
-      <c r="C98" s="125">
+      <c r="C98" s="102">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D98" s="55" t="s">
+      <c r="D98" s="51" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="99" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="67">
+      <c r="B99" s="101">
         <v>44639</v>
       </c>
-      <c r="C99" s="125">
+      <c r="C99" s="102">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="D99" s="126" t="s">
+      <c r="D99" s="51" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="100" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B100" s="67">
+      <c r="B100" s="101">
         <v>44639</v>
       </c>
-      <c r="C100" s="125">
+      <c r="C100" s="102">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="D100" s="126" t="s">
+      <c r="D100" s="51" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="101" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B101" s="67">
+      <c r="B101" s="101">
         <v>44639</v>
       </c>
-      <c r="C101" s="125">
+      <c r="C101" s="102">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="D101" s="126" t="s">
+      <c r="D101" s="51" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="102" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B102" s="67">
+      <c r="B102" s="101">
         <v>44639</v>
       </c>
-      <c r="C102" s="125">
+      <c r="C102" s="102">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="D102" s="126" t="s">
+      <c r="D102" s="51" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="103" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B103" s="67">
+      <c r="B103" s="101">
         <v>44639</v>
       </c>
-      <c r="C103" s="125">
+      <c r="C103" s="102">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="D103" s="126" t="s">
+      <c r="D103" s="51" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="104" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="67">
+      <c r="B104" s="101">
         <v>44639</v>
       </c>
-      <c r="C104" s="125">
+      <c r="C104" s="102">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="D104" s="126" t="s">
+      <c r="D104" s="51" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="105" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B105" s="67">
+      <c r="B105" s="101">
         <v>44642</v>
       </c>
-      <c r="C105" s="125">
+      <c r="C105" s="102">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D105" s="126" t="s">
+      <c r="D105" s="51" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="106" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B106" s="67">
+      <c r="B106" s="101">
         <v>44642</v>
       </c>
-      <c r="C106" s="125">
+      <c r="C106" s="102">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D106" s="126" t="s">
+      <c r="D106" s="51" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="107" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B107" s="67">
+      <c r="B107" s="101">
         <v>44642</v>
       </c>
-      <c r="C107" s="125">
+      <c r="C107" s="102">
         <v>6.25E-2</v>
       </c>
-      <c r="D107" s="126" t="s">
+      <c r="D107" s="51" t="s">
         <v>260</v>
       </c>
     </row>
@@ -9679,7 +9688,7 @@
   </sheetPr>
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
@@ -9694,11 +9703,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="122" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -9756,7 +9765,7 @@
       <c r="Y2" s="17"/>
     </row>
     <row r="3" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="105">
+      <c r="B3" s="103">
         <v>44459</v>
       </c>
       <c r="C3" s="27">
@@ -9767,7 +9776,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="106">
+      <c r="B4" s="104">
         <v>44463</v>
       </c>
       <c r="C4" s="27">
@@ -9778,7 +9787,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="106">
+      <c r="B5" s="104">
         <v>44463</v>
       </c>
       <c r="C5" s="27">
@@ -9789,7 +9798,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="106">
+      <c r="B6" s="104">
         <v>44468</v>
       </c>
       <c r="C6" s="27">
@@ -9800,7 +9809,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="107">
+      <c r="B7" s="105">
         <v>44477</v>
       </c>
       <c r="C7" s="40">
@@ -9811,7 +9820,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="106">
+      <c r="B8" s="104">
         <v>44479</v>
       </c>
       <c r="C8" s="39">
@@ -9822,7 +9831,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="106">
+      <c r="B9" s="104">
         <v>44485</v>
       </c>
       <c r="C9" s="28">
@@ -9833,7 +9842,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="106">
+      <c r="B10" s="104">
         <v>44488</v>
       </c>
       <c r="C10" s="27">
@@ -9844,7 +9853,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="106">
+      <c r="B11" s="104">
         <v>44494</v>
       </c>
       <c r="C11" s="39">
@@ -9855,7 +9864,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="106">
+      <c r="B12" s="104">
         <v>44494</v>
       </c>
       <c r="C12" s="27">
@@ -9866,7 +9875,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="108">
+      <c r="B13" s="106">
         <v>44494</v>
       </c>
       <c r="C13" s="28">
@@ -9877,7 +9886,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="109">
+      <c r="B14" s="107">
         <v>44502</v>
       </c>
       <c r="C14" s="40">
@@ -9888,18 +9897,18 @@
       </c>
     </row>
     <row r="15" spans="1:26" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="108">
+      <c r="B15" s="106">
         <v>44506</v>
       </c>
-      <c r="C15" s="80">
+      <c r="C15" s="78">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D15" s="81" t="s">
+      <c r="D15" s="79" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:26" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="108">
+      <c r="B16" s="106">
         <v>44508</v>
       </c>
       <c r="C16" s="28">
@@ -9910,7 +9919,7 @@
       </c>
     </row>
     <row r="17" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="110">
+      <c r="B17" s="108">
         <v>44520</v>
       </c>
       <c r="C17" s="53">
@@ -9921,7 +9930,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="110">
+      <c r="B18" s="108">
         <v>44520</v>
       </c>
       <c r="C18" s="53">
@@ -9932,7 +9941,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="110">
+      <c r="B19" s="108">
         <v>44521</v>
       </c>
       <c r="C19" s="49">
@@ -9943,7 +9952,7 @@
       </c>
     </row>
     <row r="20" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="110">
+      <c r="B20" s="108">
         <v>44522</v>
       </c>
       <c r="C20" s="53">
@@ -9954,7 +9963,7 @@
       </c>
     </row>
     <row r="21" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="110">
+      <c r="B21" s="108">
         <v>44522</v>
       </c>
       <c r="C21" s="53">
@@ -9965,7 +9974,7 @@
       </c>
     </row>
     <row r="22" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="110">
+      <c r="B22" s="108">
         <v>44523</v>
       </c>
       <c r="C22" s="53">
@@ -9976,73 +9985,73 @@
       </c>
     </row>
     <row r="23" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="111">
+      <c r="B23" s="109">
         <v>44523</v>
       </c>
-      <c r="C23" s="66">
+      <c r="C23" s="65">
         <v>6.25E-2</v>
       </c>
-      <c r="D23" s="64" t="s">
+      <c r="D23" s="63" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="24" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="112">
+      <c r="B24" s="110">
         <v>44546</v>
       </c>
-      <c r="C24" s="70">
+      <c r="C24" s="68">
         <v>0.125</v>
       </c>
-      <c r="D24" s="71" t="s">
+      <c r="D24" s="69" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="25" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="112">
+      <c r="B25" s="110">
         <v>44546</v>
       </c>
-      <c r="C25" s="70">
+      <c r="C25" s="68">
         <v>3.125E-2</v>
       </c>
-      <c r="D25" s="71" t="s">
+      <c r="D25" s="69" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="26" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="113">
+      <c r="B26" s="111">
         <v>44546</v>
       </c>
-      <c r="C26" s="75">
+      <c r="C26" s="73">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D26" s="76" t="s">
+      <c r="D26" s="74" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="112">
+      <c r="B27" s="110">
         <v>44573</v>
       </c>
-      <c r="C27" s="84">
+      <c r="C27" s="82">
         <v>0.125</v>
       </c>
-      <c r="D27" s="85" t="s">
+      <c r="D27" s="83" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="113">
+      <c r="B28" s="111">
         <v>44585</v>
       </c>
-      <c r="C28" s="75">
+      <c r="C28" s="73">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D28" s="76" t="s">
+      <c r="D28" s="74" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="110">
+      <c r="B29" s="108">
         <v>44607</v>
       </c>
       <c r="C29" s="53">
@@ -10053,7 +10062,7 @@
       </c>
     </row>
     <row r="30" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="110">
+      <c r="B30" s="108">
         <v>44609</v>
       </c>
       <c r="C30" s="53">
@@ -10064,7 +10073,7 @@
       </c>
     </row>
     <row r="31" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="110">
+      <c r="B31" s="108">
         <v>44614</v>
       </c>
       <c r="C31" s="53">
@@ -10075,18 +10084,18 @@
       </c>
     </row>
     <row r="32" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="111">
+      <c r="B32" s="109">
         <v>44619</v>
       </c>
-      <c r="C32" s="66">
+      <c r="C32" s="65">
         <v>0.14583333333333334</v>
       </c>
-      <c r="D32" s="64" t="s">
+      <c r="D32" s="63" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="110">
+      <c r="B33" s="108">
         <v>44626</v>
       </c>
       <c r="C33" s="53">
@@ -10097,37 +10106,37 @@
       </c>
     </row>
     <row r="34" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="110"/>
+      <c r="B34" s="108"/>
       <c r="C34" s="53"/>
       <c r="D34" s="54"/>
     </row>
     <row r="35" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="110"/>
+      <c r="B35" s="108"/>
       <c r="C35" s="53"/>
       <c r="D35" s="54"/>
     </row>
     <row r="36" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="110"/>
+      <c r="B36" s="108"/>
       <c r="C36" s="53"/>
       <c r="D36" s="54"/>
     </row>
     <row r="37" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="110"/>
+      <c r="B37" s="108"/>
       <c r="C37" s="53"/>
       <c r="D37" s="54"/>
     </row>
     <row r="38" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="110"/>
+      <c r="B38" s="108"/>
       <c r="C38" s="53"/>
       <c r="D38" s="54"/>
     </row>
     <row r="39" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="110"/>
+      <c r="B39" s="108"/>
       <c r="C39" s="53"/>
       <c r="D39" s="54"/>
     </row>
     <row r="40" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="110"/>
+      <c r="B40" s="108"/>
       <c r="C40" s="53"/>
       <c r="D40" s="54"/>
     </row>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aurelie/Documents/GitHub/WavContact/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D011CD-F5B8-9647-97F4-9FE619520AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5E48CC-8DB9-4347-ABCF-C328417F1178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="265">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -1340,7 +1340,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1712,6 +1712,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3912,7 +3918,7 @@
   </sheetPr>
   <dimension ref="A1:Y1066"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A61" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
@@ -5824,8 +5830,8 @@
   </sheetPr>
   <dimension ref="A1:Y1009"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView showGridLines="0" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58:D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6483,9 +6489,15 @@
       </c>
     </row>
     <row r="58" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="16"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="11"/>
+      <c r="B58" s="124">
+        <v>44642</v>
+      </c>
+      <c r="C58" s="125">
+        <v>3.125E-2</v>
+      </c>
+      <c r="D58" s="55" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="59" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="16"/>
@@ -9688,7 +9700,7 @@
   </sheetPr>
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aurelie/Documents/GitHub/WavContact/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luxra/Documents/GitHub/WavContact/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CB6964-A55A-E74B-89DD-B077F9BB72BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152FBAF5-2024-C64A-88EC-31A06F88AE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="270">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -841,6 +841,12 @@
   </si>
   <si>
     <t>Avancement WavMap (Ajout catégorie 1er plan maps)</t>
+  </si>
+  <si>
+    <t>Avancement du Visual Studio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Régler les problèmes des autres </t>
   </si>
 </sst>
 </file>
@@ -1349,7 +1355,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1739,6 +1745,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5855,7 +5864,7 @@
   </sheetPr>
   <dimension ref="A1:Y1009"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A44" workbookViewId="0">
       <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
@@ -9756,8 +9765,8 @@
   </sheetPr>
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10174,19 +10183,37 @@
       </c>
     </row>
     <row r="34" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="108"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="54"/>
+      <c r="B34" s="130">
+        <v>44632</v>
+      </c>
+      <c r="C34" s="56">
+        <v>0.125</v>
+      </c>
+      <c r="D34" s="123" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="35" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="108"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="54"/>
+      <c r="B35" s="130">
+        <v>44635</v>
+      </c>
+      <c r="C35" s="56">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D35" s="123" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="36" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="108"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="54"/>
+      <c r="B36" s="130">
+        <v>44643</v>
+      </c>
+      <c r="C36" s="56">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D36" s="123" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="37" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="108"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ausau\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD8A2A6-91B2-4521-9CDC-54E34A837878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2335DE7-E9CA-462E-8FFA-7EF2CADD2325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15210" yWindow="-30" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -1357,7 +1357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1718,31 +1718,10 @@
     <xf numFmtId="164" fontId="25" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2620,7 +2599,7 @@
   <dimension ref="A1:Z1009"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2634,11 +2613,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2941,7 +2920,7 @@
       <c r="B27" s="47">
         <v>44624</v>
       </c>
-      <c r="C27" s="126">
+      <c r="C27" s="120">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D27" s="48" t="s">
@@ -2949,7 +2928,7 @@
       </c>
     </row>
     <row r="28" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="127"/>
+      <c r="B28" s="121"/>
       <c r="C28" s="12"/>
       <c r="D28" s="112"/>
     </row>
@@ -3954,8 +3933,8 @@
   </sheetPr>
   <dimension ref="A1:Y1066"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3969,11 +3948,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -5866,8 +5845,8 @@
   </sheetPr>
   <dimension ref="A1:Y1009"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView showGridLines="0" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58:D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5881,11 +5860,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -6525,24 +6504,24 @@
       </c>
     </row>
     <row r="58" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="121">
+      <c r="B58" s="16">
         <v>44642</v>
       </c>
-      <c r="C58" s="122">
+      <c r="C58" s="15">
         <v>3.125E-2</v>
       </c>
-      <c r="D58" s="55" t="s">
+      <c r="D58" s="11" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="59" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="121">
+      <c r="B59" s="16">
         <v>44643</v>
       </c>
-      <c r="C59" s="122">
+      <c r="C59" s="15">
         <v>0.125</v>
       </c>
-      <c r="D59" s="55" t="s">
+      <c r="D59" s="11" t="s">
         <v>267</v>
       </c>
     </row>
@@ -6550,10 +6529,10 @@
       <c r="B60" s="16">
         <v>44646</v>
       </c>
-      <c r="C60" s="120">
+      <c r="C60" s="15">
         <v>0.1875</v>
       </c>
-      <c r="D60" s="55" t="s">
+      <c r="D60" s="11" t="s">
         <v>270</v>
       </c>
     </row>
@@ -7526,8 +7505,8 @@
   </sheetPr>
   <dimension ref="A1:Z1076"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A97" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+    <sheetView showGridLines="0" topLeftCell="A100" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7541,11 +7520,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -8760,24 +8739,24 @@
       </c>
     </row>
     <row r="108" spans="2:5" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="124">
+      <c r="B108" s="101">
         <v>44642</v>
       </c>
-      <c r="C108" s="125">
+      <c r="C108" s="102">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D108" s="123" t="s">
+      <c r="D108" s="51" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="109" spans="2:5" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="124">
+      <c r="B109" s="101">
         <v>44643</v>
       </c>
-      <c r="C109" s="125">
+      <c r="C109" s="102">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D109" s="123" t="s">
+      <c r="D109" s="51" t="s">
         <v>265</v>
       </c>
       <c r="E109" s="1"/>
@@ -9774,7 +9753,7 @@
   <dimension ref="A1:Z990"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="B34" sqref="B34:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9788,11 +9767,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="122" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -10191,35 +10170,35 @@
       </c>
     </row>
     <row r="34" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="128">
+      <c r="B34" s="108">
         <v>44632</v>
       </c>
-      <c r="C34" s="56">
+      <c r="C34" s="53">
         <v>0.125</v>
       </c>
-      <c r="D34" s="123" t="s">
+      <c r="D34" s="54" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="128">
+      <c r="B35" s="108">
         <v>44635</v>
       </c>
-      <c r="C35" s="56">
+      <c r="C35" s="53">
         <v>6.25E-2</v>
       </c>
-      <c r="D35" s="123" t="s">
+      <c r="D35" s="54" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="128">
+      <c r="B36" s="108">
         <v>44643</v>
       </c>
-      <c r="C36" s="56">
+      <c r="C36" s="53">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D36" s="123" t="s">
+      <c r="D36" s="54" t="s">
         <v>269</v>
       </c>
     </row>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ausau\Documents\GitHub\WavContact\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2335DE7-E9CA-462E-8FFA-7EF2CADD2325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC00743E-19C0-4A52-92F0-E7574DA72297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15210" yWindow="-30" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="273">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -849,6 +849,12 @@
   </si>
   <si>
     <t>Avancement WavMap (Amélioration visuel)</t>
+  </si>
+  <si>
+    <t>Mise à jour manuel d'utilisation client</t>
+  </si>
+  <si>
+    <t>Mise à jour manuel d'utilisation administrateur</t>
   </si>
 </sst>
 </file>
@@ -1357,7 +1363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1729,6 +1735,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2331,8 +2343,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:D80" tableBorderDxfId="16">
-  <autoFilter ref="B2:D80" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:D82" tableBorderDxfId="16">
+  <autoFilter ref="B2:D82" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DATE" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="DURÉE" dataDxfId="14"/>
@@ -2598,7 +2610,7 @@
   </sheetPr>
   <dimension ref="A1:Z1009"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -3931,10 +3943,10 @@
     <tabColor rgb="FFD8B1CB"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y1066"/>
+  <dimension ref="A1:Y1068"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView showGridLines="0" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80:D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4834,27 +4846,47 @@
         <v>263</v>
       </c>
     </row>
-    <row r="80" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="70"/>
-      <c r="C80" s="56"/>
-      <c r="D80" s="100"/>
-    </row>
-    <row r="81" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="70">
+        <v>44646</v>
+      </c>
+      <c r="C80" s="124">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D80" s="125" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="70">
+        <v>44647</v>
+      </c>
+      <c r="C81" s="124">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D81" s="125" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="70"/>
+      <c r="C82" s="56"/>
+      <c r="D82" s="100"/>
+    </row>
+    <row r="83" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="97" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="98" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="99" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5825,6 +5857,8 @@
     <row r="1064" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1065" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1066" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1067" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1068" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
@@ -7505,8 +7539,8 @@
   </sheetPr>
   <dimension ref="A1:Z1076"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A100" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E110"/>
+    <sheetView showGridLines="0" topLeftCell="A99" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F0A54A-6146-4365-B95A-9D39A513A4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855D597A-B296-4AA0-9DEA-FCA4DE2E1219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -1784,17 +1784,17 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2679,11 +2679,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3999,8 +3999,8 @@
   </sheetPr>
   <dimension ref="A1:Y1070"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView showGridLines="0" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4014,11 +4014,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4937,10 +4937,10 @@
       <c r="B83" s="70">
         <v>44650</v>
       </c>
-      <c r="C83" s="129">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="D83" s="130" t="s">
+      <c r="C83" s="127">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="D83" s="128" t="s">
         <v>277</v>
       </c>
     </row>
@@ -5970,11 +5970,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -7655,7 +7655,7 @@
   </sheetPr>
   <dimension ref="A1:Z1079"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A106" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A106" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B110" sqref="B110:D112"/>
     </sheetView>
   </sheetViews>
@@ -7670,11 +7670,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -9953,11 +9953,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="129" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855D597A-B296-4AA0-9DEA-FCA4DE2E1219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C90DE4F-9141-4D61-A827-18C1B4D85A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="280">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -870,6 +870,12 @@
   </si>
   <si>
     <t>Création du sprint 7</t>
+  </si>
+  <si>
+    <t>Mise à jour de tous les sprint selon le product backlog et mise à jour du product backlog (changement nom des users stories)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise à jour planning sprint 7 et 8 </t>
   </si>
 </sst>
 </file>
@@ -1402,7 +1408,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1763,9 +1769,6 @@
     <xf numFmtId="164" fontId="25" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1795,6 +1798,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2385,8 +2400,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau5" displayName="Tableau5" ref="B2:D28">
-  <autoFilter ref="B2:D28" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau5" displayName="Tableau5" ref="B2:D29">
+  <autoFilter ref="B2:D29" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATE" dataDxfId="19"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DURÉE" dataDxfId="18"/>
@@ -2397,8 +2412,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:D84" tableBorderDxfId="16">
-  <autoFilter ref="B2:D84" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:D86" tableBorderDxfId="16">
+  <autoFilter ref="B2:D86" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DATE" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="DURÉE" dataDxfId="14"/>
@@ -2662,10 +2677,10 @@
     <tabColor rgb="FF84E1FF"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1009"/>
+  <dimension ref="A1:Z1010"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2679,11 +2694,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2982,23 +2997,33 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="47">
+    <row r="27" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="115">
         <v>44624</v>
       </c>
-      <c r="C27" s="120">
+      <c r="C27" s="116">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D27" s="48" t="s">
+      <c r="D27" s="117" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="121"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="112"/>
-    </row>
-    <row r="29" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="130">
+        <v>44651</v>
+      </c>
+      <c r="C28" s="131">
+        <v>0.125</v>
+      </c>
+      <c r="D28" s="132" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="120"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="112"/>
+    </row>
     <row r="30" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3979,14 +4004,15 @@
     <row r="1007" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1008" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1009" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1010" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.45000000000000007" right="0.45000000000000007" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3997,10 +4023,10 @@
     <tabColor rgb="FFD8B1CB"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y1070"/>
+  <dimension ref="A1:Y1072"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85:D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4014,11 +4040,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4937,20 +4963,40 @@
       <c r="B83" s="70">
         <v>44650</v>
       </c>
-      <c r="C83" s="127">
+      <c r="C83" s="126">
         <v>6.9444444444444447E-4</v>
       </c>
-      <c r="D83" s="128" t="s">
+      <c r="D83" s="127" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="84" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="70"/>
-      <c r="C84" s="56"/>
-      <c r="D84" s="100"/>
-    </row>
-    <row r="85" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="70">
+        <v>44653</v>
+      </c>
+      <c r="C84" s="126">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="D84" s="133" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="70">
+        <v>44653</v>
+      </c>
+      <c r="C85" s="126">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D85" s="133" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="70"/>
+      <c r="C86" s="56"/>
+      <c r="D86" s="100"/>
+    </row>
     <row r="87" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="88" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="89" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5935,6 +5981,8 @@
     <row r="1068" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1069" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1070" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1071" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1072" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
@@ -5970,11 +6018,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -6658,35 +6706,35 @@
       </c>
     </row>
     <row r="62" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="122">
+      <c r="B62" s="121">
         <v>44648</v>
       </c>
-      <c r="C62" s="123">
+      <c r="C62" s="122">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D62" s="124" t="s">
+      <c r="D62" s="123" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="63" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="122">
+      <c r="B63" s="121">
         <v>44650</v>
       </c>
-      <c r="C63" s="123">
+      <c r="C63" s="122">
         <v>3.125E-2</v>
       </c>
-      <c r="D63" s="124" t="s">
+      <c r="D63" s="123" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="64" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="122">
+      <c r="B64" s="121">
         <v>44650</v>
       </c>
-      <c r="C64" s="125">
+      <c r="C64" s="124">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D64" s="126" t="s">
+      <c r="D64" s="125" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7655,7 +7703,7 @@
   </sheetPr>
   <dimension ref="A1:Z1079"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A106" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A106" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B110" sqref="B110:D112"/>
     </sheetView>
   </sheetViews>
@@ -7670,11 +7718,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -9953,11 +10001,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="128" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C90DE4F-9141-4D61-A827-18C1B4D85A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5D9E75-00B8-4D0B-8B41-7614FFAD914B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="281">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -824,9 +824,6 @@
     <t>Mise à jour du product backolg</t>
   </si>
   <si>
-    <t>Création manuel utilisation administrateur V1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Correction erreur d'interface sur Visual Studio </t>
   </si>
   <si>
@@ -851,12 +848,6 @@
     <t>Avancement WavMap (Amélioration visuel)</t>
   </si>
   <si>
-    <t>Mise à jour manuel d'utilisation client</t>
-  </si>
-  <si>
-    <t>Mise à jour manuel d'utilisation administrateur</t>
-  </si>
-  <si>
     <t>Mise à jour des manuels d'utilisation</t>
   </si>
   <si>
@@ -876,6 +867,18 @@
   </si>
   <si>
     <t xml:space="preserve">Mise à jour planning sprint 7 et 8 </t>
+  </si>
+  <si>
+    <t>Création manuel utilisation WavMap</t>
+  </si>
+  <si>
+    <t>Mise à jour manuel d'utilisation WavCom administrateur</t>
+  </si>
+  <si>
+    <t>Mise à jour manuel d'utilisation WavCom client</t>
+  </si>
+  <si>
+    <t>Création manuel utilisation WavCom administrateur V1</t>
   </si>
 </sst>
 </file>
@@ -1793,23 +1796,23 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="17" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2412,8 +2415,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:D86" tableBorderDxfId="16">
-  <autoFilter ref="B2:D86" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:D87" tableBorderDxfId="16">
+  <autoFilter ref="B2:D87" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DATE" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="DURÉE" dataDxfId="14"/>
@@ -2694,11 +2697,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3009,13 +3012,13 @@
       </c>
     </row>
     <row r="28" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="130">
+      <c r="B28" s="128">
         <v>44651</v>
       </c>
-      <c r="C28" s="131">
+      <c r="C28" s="129">
         <v>0.125</v>
       </c>
-      <c r="D28" s="132" t="s">
+      <c r="D28" s="130" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4023,10 +4026,10 @@
     <tabColor rgb="FFD8B1CB"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y1072"/>
+  <dimension ref="A1:Y1073"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85:D85"/>
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4040,11 +4043,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4912,7 +4915,7 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="D78" s="97" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
     </row>
     <row r="79" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4923,7 +4926,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D79" s="97" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="80" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4934,7 +4937,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="D80" s="97" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="81" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4945,7 +4948,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="D81" s="97" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="82" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4956,7 +4959,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D82" s="97" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="83" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4967,7 +4970,7 @@
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="D83" s="127" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="84" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4977,8 +4980,8 @@
       <c r="C84" s="126">
         <v>0.11458333333333333</v>
       </c>
-      <c r="D84" s="133" t="s">
-        <v>278</v>
+      <c r="D84" s="131" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="85" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4988,16 +4991,26 @@
       <c r="C85" s="126">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D85" s="133" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="70"/>
-      <c r="C86" s="56"/>
-      <c r="D86" s="100"/>
-    </row>
-    <row r="87" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D85" s="131" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="70">
+        <v>44656</v>
+      </c>
+      <c r="C86" s="126">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="D86" s="131" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="70"/>
+      <c r="C87" s="56"/>
+      <c r="D87" s="100"/>
+    </row>
     <row r="88" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="89" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="90" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5983,6 +5996,7 @@
     <row r="1070" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1071" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1072" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1073" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
@@ -6018,11 +6032,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -6647,7 +6661,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="57" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6658,7 +6672,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="58" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6680,7 +6694,7 @@
         <v>0.125</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="60" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6691,7 +6705,7 @@
         <v>0.1875</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="61" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6702,7 +6716,7 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="62" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6724,7 +6738,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="D63" s="123" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="64" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7718,11 +7732,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -7758,7 +7772,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
@@ -8944,7 +8958,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D108" s="51" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="109" spans="2:5" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8955,7 +8969,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D109" s="51" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E109" s="1"/>
     </row>
@@ -8967,7 +8981,7 @@
         <v>0.25</v>
       </c>
       <c r="D110" s="51" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E110" s="1"/>
     </row>
@@ -8979,7 +8993,7 @@
         <v>0.3125</v>
       </c>
       <c r="D111" s="51" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E111" s="1"/>
     </row>
@@ -8991,7 +9005,7 @@
         <v>0.125</v>
       </c>
       <c r="D112" s="51" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E112" s="1"/>
     </row>
@@ -10001,11 +10015,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="132" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -10411,7 +10425,7 @@
         <v>0.125</v>
       </c>
       <c r="D34" s="54" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10422,7 +10436,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="D35" s="54" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10433,7 +10447,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D36" s="54" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AB1479-3D35-4D83-9391-183861508E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7526FF36-2810-45E3-9FB3-E6332400C935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="282">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -879,6 +879,9 @@
   </si>
   <si>
     <t>Code  sur WavMap ajout des markers et externalisation des fonctions appartenant à la map</t>
+  </si>
+  <si>
+    <t>Modication script BDD, modélisation et SQL sur One.com pour l'ajout du compteur dans la table TAG</t>
   </si>
 </sst>
 </file>
@@ -1808,17 +1811,17 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2699,11 +2702,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4045,11 +4048,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -6034,11 +6037,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="134" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -7720,7 +7723,7 @@
   <dimension ref="A1:Z1081"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A109" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D115" sqref="D115"/>
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7734,11 +7737,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="134" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -9005,20 +9008,26 @@
       </c>
     </row>
     <row r="113" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="135">
+      <c r="B113" s="133">
         <v>44624</v>
       </c>
       <c r="C113" s="129">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D113" s="134" t="s">
+      <c r="D113" s="132" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="114" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="135"/>
-      <c r="C114" s="129"/>
-      <c r="D114" s="134"/>
+      <c r="B114" s="133">
+        <v>44625</v>
+      </c>
+      <c r="C114" s="129">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="D114" s="132" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="115" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="18"/>
@@ -10026,11 +10035,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7526FF36-2810-45E3-9FB3-E6332400C935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCED88E2-FA5D-4668-8A4C-DD6269037649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="283">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -878,10 +878,13 @@
     <t>Création manuel utilisation WavCom administrateur V1</t>
   </si>
   <si>
-    <t>Code  sur WavMap ajout des markers et externalisation des fonctions appartenant à la map</t>
-  </si>
-  <si>
     <t>Modication script BDD, modélisation et SQL sur One.com pour l'ajout du compteur dans la table TAG</t>
+  </si>
+  <si>
+    <t>Code et recherches sur WavMap</t>
+  </si>
+  <si>
+    <t>Code sur WavMap ajout des markers et externalisation des fonctions appartenant à la map</t>
   </si>
 </sst>
 </file>
@@ -2448,8 +2451,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D115" totalsRowCount="1">
-  <autoFilter ref="B2:D114" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D116" totalsRowCount="1">
+  <autoFilter ref="B2:D115" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="8" totalsRowDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="7" totalsRowDxfId="1"/>
@@ -7720,10 +7723,10 @@
     <tabColor rgb="FFFEE1AE"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1081"/>
+  <dimension ref="A1:Z1082"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A109" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+      <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9009,32 +9012,42 @@
     </row>
     <row r="113" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="133">
-        <v>44624</v>
+        <v>44655</v>
       </c>
       <c r="C113" s="129">
         <v>0.16666666666666666</v>
       </c>
       <c r="D113" s="132" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="114" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="133">
-        <v>44625</v>
+        <v>44656</v>
       </c>
       <c r="C114" s="129">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D114" s="132" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B115" s="133">
+        <v>44656</v>
+      </c>
+      <c r="C115" s="129">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D115" s="132" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="115" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="18"/>
-      <c r="C115" s="19"/>
-      <c r="D115" s="55"/>
-    </row>
-    <row r="116" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B116" s="18"/>
+      <c r="C116" s="19"/>
+      <c r="D116" s="55"/>
+    </row>
     <row r="117" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="118" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="119" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10000,6 +10013,7 @@
     <row r="1079" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1080" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1081" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1082" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aurelie/Documents/GitHub/WavContact/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0D1AD1-5E97-EE4A-97B8-440BF5E5ACC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D6D587-5CDC-B044-9843-F3FAE3323726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12540" yWindow="0" windowWidth="16260" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="285">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -901,7 +901,7 @@
     <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
     <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF504A3B"/>
@@ -1097,23 +1097,19 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Bookman Old Style"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF3F835B"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF504A3B"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1423,7 +1419,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1802,38 +1798,11 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2699,8 +2668,8 @@
   </sheetPr>
   <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2714,11 +2683,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3029,13 +2998,13 @@
       </c>
     </row>
     <row r="28" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="128">
+      <c r="B28" s="47">
         <v>44651</v>
       </c>
-      <c r="C28" s="129">
+      <c r="C28" s="29">
         <v>0.125</v>
       </c>
-      <c r="D28" s="130" t="s">
+      <c r="D28" s="48" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4045,8 +4014,8 @@
   </sheetPr>
   <dimension ref="A1:Y1074"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView showGridLines="0" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83:D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4060,11 +4029,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4980,57 +4949,57 @@
       </c>
     </row>
     <row r="83" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="70">
+      <c r="B83" s="96">
         <v>44650</v>
       </c>
-      <c r="C83" s="126">
+      <c r="C83" s="46">
         <v>6.9444444444444447E-4</v>
       </c>
-      <c r="D83" s="127" t="s">
+      <c r="D83" s="97" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="84" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="70">
+      <c r="B84" s="96">
         <v>44653</v>
       </c>
-      <c r="C84" s="126">
+      <c r="C84" s="46">
         <v>0.11458333333333333</v>
       </c>
-      <c r="D84" s="131" t="s">
+      <c r="D84" s="97" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="85" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="70">
+      <c r="B85" s="96">
         <v>44653</v>
       </c>
-      <c r="C85" s="126">
+      <c r="C85" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D85" s="131" t="s">
+      <c r="D85" s="97" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="86" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="70">
+      <c r="B86" s="96">
         <v>44656</v>
       </c>
-      <c r="C86" s="126">
+      <c r="C86" s="46">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="D86" s="131" t="s">
+      <c r="D86" s="97" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="87" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="70">
+      <c r="B87" s="96">
         <v>44657</v>
       </c>
-      <c r="C87" s="126">
+      <c r="C87" s="46">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D87" s="131" t="s">
+      <c r="D87" s="97" t="s">
         <v>283</v>
       </c>
     </row>
@@ -6045,8 +6014,8 @@
   </sheetPr>
   <dimension ref="A1:Y1009"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65:D65"/>
+    <sheetView showGridLines="0" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65:D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6060,11 +6029,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -6781,20 +6750,26 @@
       </c>
     </row>
     <row r="65" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="136">
+      <c r="B65" s="121">
         <v>44656</v>
       </c>
-      <c r="C65" s="126">
+      <c r="C65" s="124">
         <v>6.25E-2</v>
       </c>
-      <c r="D65" s="55" t="s">
+      <c r="D65" s="125" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="66" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="121"/>
-      <c r="C66" s="122"/>
-      <c r="D66" s="123"/>
+      <c r="B66" s="121">
+        <v>44657</v>
+      </c>
+      <c r="C66" s="124">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D66" s="125" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="67" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="121"/>
@@ -7795,8 +7770,8 @@
   </sheetPr>
   <dimension ref="A1:Z1082"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A108" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D114" sqref="D114"/>
+    <sheetView showGridLines="0" topLeftCell="A104" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113:D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7810,11 +7785,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -9081,35 +9056,35 @@
       </c>
     </row>
     <row r="113" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B113" s="133">
+      <c r="B113" s="101">
         <v>44655</v>
       </c>
-      <c r="C113" s="129">
+      <c r="C113" s="102">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D113" s="132" t="s">
+      <c r="D113" s="51" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="114" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B114" s="133">
+      <c r="B114" s="101">
         <v>44656</v>
       </c>
-      <c r="C114" s="129">
+      <c r="C114" s="102">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D114" s="132" t="s">
+      <c r="D114" s="51" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="115" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B115" s="133">
+      <c r="B115" s="101">
         <v>44656</v>
       </c>
-      <c r="C115" s="129">
+      <c r="C115" s="102">
         <v>6.25E-2</v>
       </c>
-      <c r="D115" s="132" t="s">
+      <c r="D115" s="51" t="s">
         <v>281</v>
       </c>
     </row>
@@ -10104,7 +10079,7 @@
   </sheetPr>
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
@@ -10119,11 +10094,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="126" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aurelie/Documents/GitHub/WavContact/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D6D587-5CDC-B044-9843-F3FAE3323726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F76238-4563-E446-8298-0E095E294BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12540" yWindow="0" windowWidth="16260" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="290">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -891,6 +891,21 @@
   </si>
   <si>
     <t>Avancement WavMap (Mise en place formulaire)</t>
+  </si>
+  <si>
+    <t>Réglage problème login</t>
+  </si>
+  <si>
+    <t>Restructuration de l'API WavContact</t>
+  </si>
+  <si>
+    <t>Création test unitaire</t>
+  </si>
+  <si>
+    <t>Test API</t>
+  </si>
+  <si>
+    <t>Recherche envoi fichier API depuis c#</t>
   </si>
 </sst>
 </file>
@@ -1419,7 +1434,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1756,9 +1771,6 @@
     <xf numFmtId="165" fontId="20" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="26" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1780,9 +1792,6 @@
     <xf numFmtId="164" fontId="25" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="29" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1803,6 +1812,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2441,8 +2459,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tableau2" displayName="Tableau2" ref="B2:D40">
-  <autoFilter ref="B2:D40" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tableau2" displayName="Tableau2" ref="B2:D41">
+  <autoFilter ref="B2:D41" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="DATE" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DURÉE" dataDxfId="1"/>
@@ -2668,8 +2686,8 @@
   </sheetPr>
   <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2683,11 +2701,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2976,24 +2994,24 @@
       </c>
     </row>
     <row r="26" spans="2:4" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="115">
+      <c r="B26" s="114">
         <v>44602</v>
       </c>
-      <c r="C26" s="116">
+      <c r="C26" s="115">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D26" s="117" t="s">
+      <c r="D26" s="116" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="27" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="115">
+      <c r="B27" s="114">
         <v>44624</v>
       </c>
-      <c r="C27" s="116">
+      <c r="C27" s="115">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D27" s="117" t="s">
+      <c r="D27" s="116" t="s">
         <v>233</v>
       </c>
     </row>
@@ -3009,11 +3027,15 @@
       </c>
     </row>
     <row r="29" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="120"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="112"/>
-    </row>
-    <row r="30" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="48"/>
+    </row>
+    <row r="30" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="47"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="48"/>
+    </row>
     <row r="31" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="32" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="33" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4014,8 +4036,8 @@
   </sheetPr>
   <dimension ref="A1:Y1074"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83:D87"/>
+    <sheetView showGridLines="0" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4029,11 +4051,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4904,25 +4926,25 @@
         <v>279</v>
       </c>
     </row>
-    <row r="79" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="96">
+    <row r="79" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="60">
         <v>44642</v>
       </c>
-      <c r="C79" s="46">
+      <c r="C79" s="61">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D79" s="97" t="s">
+      <c r="D79" s="98" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="80" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B80" s="96">
         <v>44646</v>
       </c>
-      <c r="C80" s="46">
+      <c r="C80" s="71">
         <v>6.25E-2</v>
       </c>
-      <c r="D80" s="97" t="s">
+      <c r="D80" s="99" t="s">
         <v>277</v>
       </c>
     </row>
@@ -4953,7 +4975,7 @@
         <v>44650</v>
       </c>
       <c r="C83" s="46">
-        <v>6.9444444444444447E-4</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D83" s="97" t="s">
         <v>273</v>
@@ -6014,8 +6036,8 @@
   </sheetPr>
   <dimension ref="A1:Y1009"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65:D66"/>
+    <sheetView showGridLines="0" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6029,11 +6051,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -6683,25 +6705,25 @@
         <v>155</v>
       </c>
     </row>
-    <row r="59" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="16">
+    <row r="59" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="44">
         <v>44643</v>
       </c>
-      <c r="C59" s="15">
+      <c r="C59" s="45">
         <v>0.125</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="31" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="60" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:4" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B60" s="16">
         <v>44646</v>
       </c>
-      <c r="C60" s="15">
+      <c r="C60" s="43">
         <v>0.1875</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="33" t="s">
         <v>268</v>
       </c>
     </row>
@@ -6717,104 +6739,110 @@
       </c>
     </row>
     <row r="62" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="121">
+      <c r="B62" s="119">
         <v>44648</v>
       </c>
-      <c r="C62" s="122">
+      <c r="C62" s="120">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D62" s="123" t="s">
+      <c r="D62" s="121" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="63" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="121">
+      <c r="B63" s="119">
         <v>44650</v>
       </c>
-      <c r="C63" s="122">
+      <c r="C63" s="120">
         <v>3.125E-2</v>
       </c>
-      <c r="D63" s="123" t="s">
+      <c r="D63" s="121" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="64" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="121">
+      <c r="B64" s="119">
         <v>44650</v>
       </c>
-      <c r="C64" s="124">
+      <c r="C64" s="122">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D64" s="125" t="s">
+      <c r="D64" s="123" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="65" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="121">
+      <c r="B65" s="119">
         <v>44656</v>
       </c>
-      <c r="C65" s="124">
+      <c r="C65" s="122">
         <v>6.25E-2</v>
       </c>
-      <c r="D65" s="125" t="s">
+      <c r="D65" s="123" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="66" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="121">
+      <c r="B66" s="119">
         <v>44657</v>
       </c>
-      <c r="C66" s="124">
+      <c r="C66" s="122">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D66" s="125" t="s">
+      <c r="D66" s="123" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="67" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="121"/>
-      <c r="C67" s="122"/>
-      <c r="D67" s="123"/>
+      <c r="B67" s="126">
+        <v>44657</v>
+      </c>
+      <c r="C67" s="127">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D67" s="128" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="68" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="121"/>
-      <c r="C68" s="122"/>
-      <c r="D68" s="123"/>
+      <c r="B68" s="119"/>
+      <c r="C68" s="120"/>
+      <c r="D68" s="121"/>
     </row>
     <row r="69" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="121"/>
-      <c r="C69" s="122"/>
-      <c r="D69" s="123"/>
+      <c r="B69" s="119"/>
+      <c r="C69" s="120"/>
+      <c r="D69" s="121"/>
     </row>
     <row r="70" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="121"/>
-      <c r="C70" s="122"/>
-      <c r="D70" s="123"/>
+      <c r="B70" s="119"/>
+      <c r="C70" s="120"/>
+      <c r="D70" s="121"/>
     </row>
     <row r="71" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="121"/>
-      <c r="C71" s="122"/>
-      <c r="D71" s="123"/>
+      <c r="B71" s="119"/>
+      <c r="C71" s="120"/>
+      <c r="D71" s="121"/>
     </row>
     <row r="72" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="121"/>
-      <c r="C72" s="122"/>
-      <c r="D72" s="123"/>
+      <c r="B72" s="119"/>
+      <c r="C72" s="120"/>
+      <c r="D72" s="121"/>
     </row>
     <row r="73" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="121"/>
-      <c r="C73" s="122"/>
-      <c r="D73" s="123"/>
+      <c r="B73" s="119"/>
+      <c r="C73" s="120"/>
+      <c r="D73" s="121"/>
     </row>
     <row r="74" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="121"/>
-      <c r="C74" s="122"/>
-      <c r="D74" s="123"/>
+      <c r="B74" s="119"/>
+      <c r="C74" s="120"/>
+      <c r="D74" s="121"/>
     </row>
     <row r="75" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="121"/>
-      <c r="C75" s="124"/>
-      <c r="D75" s="125"/>
+      <c r="B75" s="119"/>
+      <c r="C75" s="122"/>
+      <c r="D75" s="123"/>
     </row>
     <row r="76" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="77" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7770,8 +7798,8 @@
   </sheetPr>
   <dimension ref="A1:Z1082"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A104" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113:D115"/>
+    <sheetView showGridLines="0" topLeftCell="A99" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C107" sqref="C106:C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7785,11 +7813,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -8814,10 +8842,10 @@
       </c>
     </row>
     <row r="91" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="118">
+      <c r="B91" s="117">
         <v>44621</v>
       </c>
-      <c r="C91" s="119">
+      <c r="C91" s="118">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D91" s="63" t="s">
@@ -8825,10 +8853,10 @@
       </c>
     </row>
     <row r="92" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="113">
+      <c r="B92" s="112">
         <v>44627</v>
       </c>
-      <c r="C92" s="114">
+      <c r="C92" s="113">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D92" s="66" t="s">
@@ -9011,25 +9039,25 @@
         <v>264</v>
       </c>
     </row>
-    <row r="109" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B109" s="101">
+    <row r="109" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B109" s="117">
         <v>44643</v>
       </c>
-      <c r="C109" s="102">
+      <c r="C109" s="118">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D109" s="51" t="s">
+      <c r="D109" s="63" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="110" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B110" s="101">
         <v>44648</v>
       </c>
       <c r="C110" s="102">
         <v>0.25</v>
       </c>
-      <c r="D110" s="51" t="s">
+      <c r="D110" s="66" t="s">
         <v>264</v>
       </c>
     </row>
@@ -10079,8 +10107,8 @@
   </sheetPr>
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10094,11 +10122,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="124" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -10518,38 +10546,72 @@
         <v>266</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="108">
+    <row r="36" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="109">
         <v>44643</v>
       </c>
-      <c r="C36" s="53">
+      <c r="C36" s="65">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D36" s="54" t="s">
+      <c r="D36" s="63" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="108"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="54"/>
+    <row r="37" spans="2:4" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="108">
+        <v>44653</v>
+      </c>
+      <c r="C37" s="53">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D37" s="54" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="38" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="108"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="54"/>
+      <c r="B38" s="108">
+        <v>44653</v>
+      </c>
+      <c r="C38" s="53">
+        <v>0.125</v>
+      </c>
+      <c r="D38" s="54" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="39" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="108"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="54"/>
+      <c r="B39" s="108">
+        <v>44653</v>
+      </c>
+      <c r="C39" s="53">
+        <v>0.125</v>
+      </c>
+      <c r="D39" s="54" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="40" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="108"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="54"/>
-    </row>
-    <row r="41" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="B40" s="108">
+        <v>44654</v>
+      </c>
+      <c r="C40" s="53">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D40" s="54" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="108">
+        <v>44655</v>
+      </c>
+      <c r="C41" s="53">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D41" s="54" t="s">
+        <v>289</v>
+      </c>
+    </row>
     <row r="42" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="44" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coral\OneDrive\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D011F3D7-BDE5-415B-A66D-BB926870FDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6609702-2403-4500-8A41-BCF7C25794C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="305">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -948,6 +948,9 @@
   </si>
   <si>
     <t>Post-réunion A4</t>
+  </si>
+  <si>
+    <t>Vérification et modification du PV A4</t>
   </si>
 </sst>
 </file>
@@ -1476,7 +1479,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1875,6 +1878,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2387,8 +2396,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:D93" tableBorderDxfId="13">
-  <autoFilter ref="B2:D93" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:D94" tableBorderDxfId="13">
+  <autoFilter ref="B2:D94" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DATE" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="DURÉE" dataDxfId="11"/>
@@ -2414,8 +2423,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D122" totalsRowShown="0">
-  <autoFilter ref="B2:D122" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D124" totalsRowShown="0">
+  <autoFilter ref="B2:D124" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="5" totalsRowDxfId="4"/>
@@ -4007,10 +4016,10 @@
     <tabColor rgb="FFD8B1CB"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y1079"/>
+  <dimension ref="A1:Y1080"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5053,12 +5062,22 @@
         <v>298</v>
       </c>
     </row>
-    <row r="93" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="70"/>
-      <c r="C93" s="56"/>
-      <c r="D93" s="100"/>
-    </row>
-    <row r="94" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="70">
+        <v>44677</v>
+      </c>
+      <c r="C93" s="133">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="D93" s="134" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="70"/>
+      <c r="C94" s="56"/>
+      <c r="D94" s="100"/>
+    </row>
     <row r="95" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="96" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="97" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6044,6 +6063,7 @@
     <row r="1077" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1078" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1079" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1080" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
@@ -7824,10 +7844,10 @@
     <tabColor rgb="FFFEE1AE"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1088"/>
+  <dimension ref="A1:Z1090"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A116" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122"/>
+    <sheetView showGridLines="0" topLeftCell="A116" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B123" sqref="B123:C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9211,12 +9231,32 @@
       </c>
     </row>
     <row r="122" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="127"/>
-      <c r="C122" s="80"/>
-      <c r="D122" s="55"/>
-    </row>
-    <row r="123" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="B122" s="129">
+        <v>44677</v>
+      </c>
+      <c r="C122" s="130">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D122" s="128" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="129">
+        <v>44677</v>
+      </c>
+      <c r="C123" s="130">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="D123" s="128" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="127"/>
+      <c r="C124" s="80"/>
+      <c r="D124" s="55"/>
+    </row>
     <row r="125" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="126" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="127" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10181,6 +10221,8 @@
     <row r="1086" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1087" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1088" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1089" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1090" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aurelie/Documents/GitHub/WavContact/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81E63EE-6127-2E4D-ACFA-5406DB66557C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D5ADF9-8BF8-B54A-8DD7-6188D5AC3578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14680" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -1482,7 +1482,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1867,29 +1867,11 @@
     <xf numFmtId="165" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2668,7 +2650,7 @@
   </sheetPr>
   <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A18" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -2683,11 +2665,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4024,8 +4006,8 @@
   </sheetPr>
   <dimension ref="A1:Y1080"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93:D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4039,11 +4021,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -5069,13 +5051,13 @@
       </c>
     </row>
     <row r="93" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="70">
+      <c r="B93" s="96">
         <v>44677</v>
       </c>
-      <c r="C93" s="131">
+      <c r="C93" s="46">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D93" s="132" t="s">
+      <c r="D93" s="97" t="s">
         <v>113</v>
       </c>
     </row>
@@ -6091,7 +6073,7 @@
   <dimension ref="A1:Y1009"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+      <selection activeCell="B68" sqref="B68:D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6105,11 +6087,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -6859,13 +6841,13 @@
       </c>
     </row>
     <row r="68" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="135">
+      <c r="B68" s="124">
         <v>44690</v>
       </c>
-      <c r="C68" s="131">
+      <c r="C68" s="125">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D68" s="55" t="s">
+      <c r="D68" s="126" t="s">
         <v>305</v>
       </c>
     </row>
@@ -7858,8 +7840,8 @@
   </sheetPr>
   <dimension ref="A1:Z1090"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A117" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B123" sqref="B123:C123"/>
+    <sheetView showGridLines="0" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121:D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7873,11 +7855,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -9232,35 +9214,35 @@
       </c>
     </row>
     <row r="121" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B121" s="129">
+      <c r="B121" s="101">
         <v>44663</v>
       </c>
-      <c r="C121" s="130">
+      <c r="C121" s="102">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D121" s="128" t="s">
+      <c r="D121" s="51" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="122" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B122" s="129">
+      <c r="B122" s="101">
         <v>44677</v>
       </c>
-      <c r="C122" s="130">
+      <c r="C122" s="102">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D122" s="128" t="s">
+      <c r="D122" s="51" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="123" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B123" s="129">
+      <c r="B123" s="101">
         <v>44677</v>
       </c>
-      <c r="C123" s="130">
+      <c r="C123" s="102">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="D123" s="128" t="s">
+      <c r="D123" s="51" t="s">
         <v>114</v>
       </c>
     </row>
@@ -10270,11 +10252,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="128" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aurelie/Documents/GitHub/WavContact/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D5ADF9-8BF8-B54A-8DD7-6188D5AC3578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DCD71E-8D55-4242-8193-0051C058A998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14680" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14680" windowHeight="15880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="306">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -1482,7 +1482,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1855,15 +1855,6 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1872,6 +1863,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2665,11 +2659,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4006,7 +4000,7 @@
   </sheetPr>
   <dimension ref="A1:Y1080"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A85" workbookViewId="0">
       <selection activeCell="B93" sqref="B93:D93"/>
     </sheetView>
   </sheetViews>
@@ -4021,11 +4015,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -6072,8 +6066,8 @@
   </sheetPr>
   <dimension ref="A1:Y1009"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68:D68"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6087,11 +6081,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -6829,34 +6823,40 @@
         <v>284</v>
       </c>
     </row>
-    <row r="67" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="124">
+    <row r="67" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="62">
         <v>44657</v>
       </c>
-      <c r="C67" s="125">
+      <c r="C67" s="45">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D67" s="126" t="s">
+      <c r="D67" s="63" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="68" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="124">
+    <row r="68" spans="2:4" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="16">
         <v>44690</v>
       </c>
-      <c r="C68" s="125">
+      <c r="C68" s="127">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="62">
+        <v>44690</v>
+      </c>
+      <c r="C69" s="45">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D68" s="126" t="s">
+      <c r="D69" s="63" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="69" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="119"/>
-      <c r="C69" s="120"/>
-      <c r="D69" s="121"/>
-    </row>
-    <row r="70" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:4" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B70" s="119"/>
       <c r="C70" s="120"/>
       <c r="D70" s="121"/>
@@ -7855,11 +7855,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -9247,7 +9247,7 @@
       </c>
     </row>
     <row r="124" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B124" s="127"/>
+      <c r="B124" s="124"/>
       <c r="C124" s="80"/>
       <c r="D124" s="55"/>
     </row>
@@ -10252,11 +10252,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="125" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coral\OneDrive\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867CE102-A072-4D30-8056-909868177C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF637A3-C9E8-4456-B178-141A314AB650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="307">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -956,7 +956,7 @@
     <t>Mise en page du formulaire WavMap</t>
   </si>
   <si>
-    <t>Envoi mail pour reévaluation A4</t>
+    <t>Envoi mail pour réévaluation A4</t>
   </si>
 </sst>
 </file>
@@ -1864,20 +1864,20 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2417,8 +2417,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D126" totalsRowShown="0">
-  <autoFilter ref="B2:D126" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D127" totalsRowShown="0">
+  <autoFilter ref="B2:D127" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="5" totalsRowDxfId="4"/>
@@ -2671,11 +2671,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4027,11 +4027,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -6093,11 +6093,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -7850,10 +7850,10 @@
     <tabColor rgb="FFFEE1AE"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1092"/>
+  <dimension ref="A1:Z1093"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A119" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D127" sqref="D127"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A122" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7867,11 +7867,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -9259,33 +9259,43 @@
       </c>
     </row>
     <row r="124" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="129">
+      <c r="B124" s="127">
         <v>44692</v>
       </c>
-      <c r="C124" s="130">
+      <c r="C124" s="128">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="D124" s="128" t="s">
+      <c r="D124" s="126" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="125" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="129">
+      <c r="B125" s="127">
         <v>44692</v>
       </c>
-      <c r="C125" s="130">
+      <c r="C125" s="128">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="D125" s="128" t="s">
+      <c r="D125" s="126" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="126" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="124"/>
-      <c r="C126" s="80"/>
-      <c r="D126" s="55"/>
-    </row>
-    <row r="127" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="B126" s="127">
+        <v>44694</v>
+      </c>
+      <c r="C126" s="128">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="D126" s="126" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="124"/>
+      <c r="C127" s="80"/>
+      <c r="D127" s="55"/>
+    </row>
     <row r="128" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="129" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="130" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10251,6 +10261,7 @@
     <row r="1090" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1091" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1092" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1093" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
@@ -10286,11 +10297,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="129" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coral\OneDrive\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF637A3-C9E8-4456-B178-141A314AB650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5BF49E-438F-4AB7-82C8-DDBDE7AD9870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="308">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -957,6 +957,9 @@
   </si>
   <si>
     <t>Envoi mail pour réévaluation A4</t>
+  </si>
+  <si>
+    <t>Création de formulaire pour Ajout de lieu et de tag + résolution problème</t>
   </si>
 </sst>
 </file>
@@ -2417,8 +2420,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D127" totalsRowShown="0">
-  <autoFilter ref="B2:D127" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D128" totalsRowShown="0">
+  <autoFilter ref="B2:D128" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="5" totalsRowDxfId="4"/>
@@ -2656,7 +2659,7 @@
   </sheetPr>
   <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A18" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -7850,10 +7853,10 @@
     <tabColor rgb="FFFEE1AE"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1093"/>
+  <dimension ref="A1:Z1094"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A122" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D125" sqref="D125"/>
+      <selection activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9292,11 +9295,21 @@
       </c>
     </row>
     <row r="127" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="124"/>
-      <c r="C127" s="80"/>
-      <c r="D127" s="55"/>
-    </row>
-    <row r="128" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="B127" s="127">
+        <v>44697</v>
+      </c>
+      <c r="C127" s="128">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D127" s="126" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="124"/>
+      <c r="C128" s="80"/>
+      <c r="D128" s="55"/>
+    </row>
     <row r="129" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="130" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="131" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10262,6 +10275,7 @@
     <row r="1091" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1092" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1093" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1094" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luxra/Documents/GitHub/WavContact/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aurelie/Documents/GitHub/WavContact/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AC88CA-7DF0-7942-96EB-B599671D185D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8E3E6B-0678-9246-AB29-2EE56782DCC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="334">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -1048,7 +1048,7 @@
     <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
     <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF504A3B"/>
@@ -1174,12 +1174,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -1298,7 +1292,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1561,12 +1555,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1732,9 +1737,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1771,10 +1773,10 @@
     <xf numFmtId="165" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1786,10 +1788,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1813,10 +1815,10 @@
     <xf numFmtId="165" fontId="12" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1867,13 +1869,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="23" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1897,16 +1899,16 @@
     <xf numFmtId="165" fontId="14" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="26" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="25" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="14" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1918,73 +1920,46 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="23" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="28" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="28" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="23" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1996,10 +1971,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="23" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2779,7 +2754,7 @@
   </sheetPr>
   <dimension ref="A1:Z1011"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A23" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
@@ -2794,11 +2769,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2826,15 +2801,15 @@
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="76" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="75">
+      <c r="B3" s="74">
         <v>44384</v>
       </c>
       <c r="C3" s="12">
@@ -3021,13 +2996,13 @@
       </c>
     </row>
     <row r="20" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="57">
+      <c r="B20" s="56">
         <v>44526</v>
       </c>
-      <c r="C20" s="58">
+      <c r="C20" s="57">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="58" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3038,18 +3013,18 @@
       <c r="C21" s="29">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D21" s="66" t="s">
+      <c r="D21" s="65" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="22" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="57">
+      <c r="B22" s="56">
         <v>44547</v>
       </c>
-      <c r="C22" s="58">
+      <c r="C22" s="57">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D22" s="59" t="s">
+      <c r="D22" s="58" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3076,35 +3051,35 @@
       </c>
     </row>
     <row r="25" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="57">
+      <c r="B25" s="56">
         <v>44586</v>
       </c>
-      <c r="C25" s="58">
+      <c r="C25" s="57">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="58" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="114">
+      <c r="B26" s="113">
         <v>44602</v>
       </c>
-      <c r="C26" s="115">
+      <c r="C26" s="114">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D26" s="116" t="s">
+      <c r="D26" s="115" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="27" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="114">
+      <c r="B27" s="113">
         <v>44624</v>
       </c>
-      <c r="C27" s="115">
+      <c r="C27" s="114">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D27" s="116" t="s">
+      <c r="D27" s="115" t="s">
         <v>233</v>
       </c>
     </row>
@@ -3120,20 +3095,20 @@
       </c>
     </row>
     <row r="29" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="57">
+      <c r="B29" s="56">
         <v>44663</v>
       </c>
-      <c r="C29" s="58">
+      <c r="C29" s="57">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D29" s="59" t="s">
+      <c r="D29" s="58" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="30" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B30" s="47"/>
-      <c r="C30" s="140"/>
-      <c r="D30" s="72"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="71"/>
     </row>
     <row r="31" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="47"/>
@@ -4144,8 +4119,8 @@
   </sheetPr>
   <dimension ref="A1:Y1091"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104:D104"/>
+    <sheetView showGridLines="0" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99:D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4159,11 +4134,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4187,79 +4162,79 @@
       <c r="Y1" s="2"/>
     </row>
     <row r="2" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="85" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="87">
+      <c r="B3" s="86">
         <v>44459</v>
       </c>
       <c r="C3" s="13">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D3" s="88" t="s">
+      <c r="D3" s="87" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="87">
+      <c r="B4" s="86">
         <v>44462</v>
       </c>
       <c r="C4" s="13">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="87" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="87">
+      <c r="B5" s="86">
         <v>44463</v>
       </c>
       <c r="C5" s="13">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="D5" s="88" t="s">
+      <c r="D5" s="87" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="87">
+      <c r="B6" s="86">
         <v>44464</v>
       </c>
       <c r="C6" s="13">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D6" s="88" t="s">
+      <c r="D6" s="87" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="87">
+      <c r="B7" s="86">
         <v>44466</v>
       </c>
       <c r="C7" s="13">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D7" s="88" t="s">
+      <c r="D7" s="87" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="87">
+      <c r="B8" s="86">
         <v>44467</v>
       </c>
       <c r="C8" s="13">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D8" s="89" t="s">
+      <c r="D8" s="88" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4270,1060 +4245,1060 @@
       <c r="C9" s="38">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D9" s="90" t="s">
+      <c r="D9" s="89" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="87">
+      <c r="B10" s="86">
         <v>44479</v>
       </c>
       <c r="C10" s="36">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D10" s="91" t="s">
+      <c r="D10" s="90" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="87">
+      <c r="B11" s="86">
         <v>44480</v>
       </c>
       <c r="C11" s="13">
         <v>3.125E-2</v>
       </c>
-      <c r="D11" s="88" t="s">
+      <c r="D11" s="87" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="87">
+      <c r="B12" s="86">
         <v>44480</v>
       </c>
       <c r="C12" s="13">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D12" s="88" t="s">
+      <c r="D12" s="87" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
-      <c r="B13" s="87">
+      <c r="B13" s="86">
         <v>44482</v>
       </c>
       <c r="C13" s="13">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D13" s="88" t="s">
+      <c r="D13" s="87" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="87">
+      <c r="B14" s="86">
         <v>44482</v>
       </c>
       <c r="C14" s="13">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D14" s="88" t="s">
+      <c r="D14" s="87" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:25" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="87">
+      <c r="B15" s="86">
         <v>44482</v>
       </c>
       <c r="C15" s="13">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D15" s="88" t="s">
+      <c r="D15" s="87" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:25" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="87">
+      <c r="B16" s="86">
         <v>44484</v>
       </c>
       <c r="C16" s="13">
         <v>0.125</v>
       </c>
-      <c r="D16" s="88" t="s">
+      <c r="D16" s="87" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="87">
+      <c r="B17" s="86">
         <v>44484</v>
       </c>
       <c r="C17" s="13">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D17" s="88" t="s">
+      <c r="D17" s="87" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="87">
+      <c r="B18" s="86">
         <v>44485</v>
       </c>
       <c r="C18" s="13">
         <v>0.10416666666666667</v>
       </c>
-      <c r="D18" s="88" t="s">
+      <c r="D18" s="87" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="87">
+      <c r="B19" s="86">
         <v>44487</v>
       </c>
       <c r="C19" s="13">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="D19" s="88" t="s">
+      <c r="D19" s="87" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="20" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="87">
+      <c r="B20" s="86">
         <v>44491</v>
       </c>
       <c r="C20" s="36">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D20" s="92" t="s">
+      <c r="D20" s="91" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="21" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="87">
+      <c r="B21" s="86">
         <v>44493</v>
       </c>
       <c r="C21" s="13">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="D21" s="93" t="s">
+      <c r="D21" s="92" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="87">
+      <c r="B22" s="86">
         <v>44494</v>
       </c>
       <c r="C22" s="13">
         <v>3.125E-2</v>
       </c>
-      <c r="D22" s="93" t="s">
+      <c r="D22" s="92" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="23" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="87">
+      <c r="B23" s="86">
         <v>44494</v>
       </c>
       <c r="C23" s="13">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D23" s="93" t="s">
+      <c r="D23" s="92" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="87">
+      <c r="B24" s="86">
         <v>44497</v>
       </c>
       <c r="C24" s="13">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D24" s="93" t="s">
+      <c r="D24" s="92" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="25" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="87">
+      <c r="B25" s="86">
         <v>44497</v>
       </c>
       <c r="C25" s="13">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D25" s="93" t="s">
+      <c r="D25" s="92" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="26" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="87">
+      <c r="B26" s="86">
         <v>44497</v>
       </c>
       <c r="C26" s="13">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D26" s="93" t="s">
+      <c r="D26" s="92" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="27" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="87">
+      <c r="B27" s="86">
         <v>44501</v>
       </c>
       <c r="C27" s="13">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D27" s="93" t="s">
+      <c r="D27" s="92" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="28" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="87">
+      <c r="B28" s="86">
         <v>44504</v>
       </c>
       <c r="C28" s="13">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="D28" s="93" t="s">
+      <c r="D28" s="92" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="29" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="81">
+      <c r="B29" s="80">
         <v>44505</v>
       </c>
-      <c r="C29" s="61">
+      <c r="C29" s="60">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D29" s="94" t="s">
+      <c r="D29" s="93" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="30" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="87">
+      <c r="B30" s="86">
         <v>44506</v>
       </c>
       <c r="C30" s="36">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D30" s="92" t="s">
+      <c r="D30" s="91" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="31" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="87">
+      <c r="B31" s="86">
         <v>44515</v>
       </c>
       <c r="C31" s="13">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D31" s="93" t="s">
+      <c r="D31" s="92" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="32" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="87">
+      <c r="B32" s="86">
         <v>44517</v>
       </c>
       <c r="C32" s="13">
         <v>0.1875</v>
       </c>
-      <c r="D32" s="93" t="s">
+      <c r="D32" s="92" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="33" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="87">
+      <c r="B33" s="86">
         <v>44518</v>
       </c>
       <c r="C33" s="13">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D33" s="93" t="s">
+      <c r="D33" s="92" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="34" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="95">
+      <c r="B34" s="94">
         <v>44519</v>
       </c>
       <c r="C34" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D34" s="93" t="s">
+      <c r="D34" s="92" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="35" spans="2:4" s="14" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="95">
+      <c r="B35" s="94">
         <v>44519</v>
       </c>
       <c r="C35" s="46">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D35" s="93" t="s">
+      <c r="D35" s="92" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="36" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="96">
+      <c r="B36" s="95">
         <v>44521</v>
       </c>
       <c r="C36" s="46">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D36" s="97" t="s">
+      <c r="D36" s="96" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="37" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="96">
+      <c r="B37" s="95">
         <v>44524</v>
       </c>
       <c r="C37" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D37" s="97" t="s">
+      <c r="D37" s="96" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="38" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="96">
+      <c r="B38" s="95">
         <v>44525</v>
       </c>
       <c r="C38" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D38" s="97" t="s">
+      <c r="D38" s="96" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="39" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="60">
+      <c r="B39" s="59">
         <v>44525</v>
       </c>
-      <c r="C39" s="61">
+      <c r="C39" s="60">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D39" s="98" t="s">
+      <c r="D39" s="97" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="40" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="96">
+      <c r="B40" s="95">
         <v>44528</v>
       </c>
       <c r="C40" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D40" s="97" t="s">
+      <c r="D40" s="96" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="41" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="96">
+      <c r="B41" s="95">
         <v>44543</v>
       </c>
       <c r="C41" s="46">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D41" s="97" t="s">
+      <c r="D41" s="96" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="42" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="96">
+      <c r="B42" s="95">
         <v>44543</v>
       </c>
       <c r="C42" s="46">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D42" s="97" t="s">
+      <c r="D42" s="96" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="43" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="96">
+      <c r="B43" s="95">
         <v>44543</v>
       </c>
       <c r="C43" s="46">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D43" s="97" t="s">
+      <c r="D43" s="96" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="44" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="96">
+      <c r="B44" s="95">
         <v>44544</v>
       </c>
       <c r="C44" s="46">
         <v>6.25E-2</v>
       </c>
-      <c r="D44" s="97" t="s">
+      <c r="D44" s="96" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="45" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="96">
+      <c r="B45" s="95">
         <v>44545</v>
       </c>
       <c r="C45" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D45" s="97" t="s">
+      <c r="D45" s="96" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="46" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="96">
+      <c r="B46" s="95">
         <v>44545</v>
       </c>
       <c r="C46" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D46" s="97" t="s">
+      <c r="D46" s="96" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="47" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="96">
+      <c r="B47" s="95">
         <v>44545</v>
       </c>
       <c r="C47" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D47" s="97" t="s">
+      <c r="D47" s="96" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="48" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="96">
+      <c r="B48" s="95">
         <v>44546</v>
       </c>
       <c r="C48" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D48" s="97" t="s">
+      <c r="D48" s="96" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="49" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="96">
+      <c r="B49" s="95">
         <v>44546</v>
       </c>
       <c r="C49" s="46">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="D49" s="97" t="s">
+      <c r="D49" s="96" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="50" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="60">
+      <c r="B50" s="59">
         <v>44547</v>
       </c>
-      <c r="C50" s="61">
+      <c r="C50" s="60">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D50" s="98" t="s">
+      <c r="D50" s="97" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="51" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="96">
+      <c r="B51" s="95">
         <v>44548</v>
       </c>
-      <c r="C51" s="71">
+      <c r="C51" s="70">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D51" s="99" t="s">
+      <c r="D51" s="98" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="96">
+      <c r="B52" s="95">
         <v>44585</v>
       </c>
       <c r="C52" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D52" s="97" t="s">
+      <c r="D52" s="96" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="96">
+      <c r="B53" s="95">
         <v>44585</v>
       </c>
       <c r="C53" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D53" s="97" t="s">
+      <c r="D53" s="96" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="54" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="60">
+      <c r="B54" s="59">
         <v>44586</v>
       </c>
-      <c r="C54" s="61">
+      <c r="C54" s="60">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D54" s="98" t="s">
+      <c r="D54" s="97" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="96">
+      <c r="B55" s="95">
         <v>44587</v>
       </c>
-      <c r="C55" s="71">
+      <c r="C55" s="70">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D55" s="99" t="s">
+      <c r="D55" s="98" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="56" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="96">
+      <c r="B56" s="95">
         <v>44587</v>
       </c>
       <c r="C56" s="46">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="D56" s="97" t="s">
+      <c r="D56" s="96" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="57" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="96">
+      <c r="B57" s="95">
         <v>44587</v>
       </c>
       <c r="C57" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D57" s="97" t="s">
+      <c r="D57" s="96" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="58" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="96">
+      <c r="B58" s="95">
         <v>44590</v>
       </c>
       <c r="C58" s="46">
         <v>6.25E-2</v>
       </c>
-      <c r="D58" s="97" t="s">
+      <c r="D58" s="96" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="59" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="96">
+      <c r="B59" s="95">
         <v>44614</v>
       </c>
       <c r="C59" s="46">
         <v>0.10416666666666667</v>
       </c>
-      <c r="D59" s="97" t="s">
+      <c r="D59" s="96" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="60" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="96">
+      <c r="B60" s="95">
         <v>44614</v>
       </c>
       <c r="C60" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D60" s="97" t="s">
+      <c r="D60" s="96" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="61" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="96">
+      <c r="B61" s="95">
         <v>44614</v>
       </c>
       <c r="C61" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D61" s="97" t="s">
+      <c r="D61" s="96" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="62" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="96">
+      <c r="B62" s="95">
         <v>44615</v>
       </c>
       <c r="C62" s="46">
         <v>6.25E-2</v>
       </c>
-      <c r="D62" s="97" t="s">
+      <c r="D62" s="96" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="63" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="96">
+      <c r="B63" s="95">
         <v>44621</v>
       </c>
       <c r="C63" s="46">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D63" s="97" t="s">
+      <c r="D63" s="96" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="64" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="60">
+      <c r="B64" s="59">
         <v>44621</v>
       </c>
-      <c r="C64" s="61">
+      <c r="C64" s="60">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D64" s="98" t="s">
+      <c r="D64" s="97" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="65" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="96">
+      <c r="B65" s="95">
         <v>44625</v>
       </c>
       <c r="C65" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D65" s="97" t="s">
+      <c r="D65" s="96" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="66" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="96">
+      <c r="B66" s="95">
         <v>44629</v>
       </c>
       <c r="C66" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D66" s="97" t="s">
+      <c r="D66" s="96" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="67" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="96">
+      <c r="B67" s="95">
         <v>44633</v>
       </c>
       <c r="C67" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D67" s="97" t="s">
+      <c r="D67" s="96" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="68" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="96">
+      <c r="B68" s="95">
         <v>44633</v>
       </c>
       <c r="C68" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D68" s="97" t="s">
+      <c r="D68" s="96" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="69" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="96">
+      <c r="B69" s="95">
         <v>44633</v>
       </c>
       <c r="C69" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D69" s="97" t="s">
+      <c r="D69" s="96" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="70" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="96">
+      <c r="B70" s="95">
         <v>44633</v>
       </c>
       <c r="C70" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D70" s="97" t="s">
+      <c r="D70" s="96" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="71" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="96">
+      <c r="B71" s="95">
         <v>44634</v>
       </c>
       <c r="C71" s="46">
         <v>0.10416666666666667</v>
       </c>
-      <c r="D71" s="97" t="s">
+      <c r="D71" s="96" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="72" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="96">
+      <c r="B72" s="95">
         <v>44634</v>
       </c>
       <c r="C72" s="46">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D72" s="97" t="s">
+      <c r="D72" s="96" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="73" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="96">
+      <c r="B73" s="95">
         <v>44642</v>
       </c>
       <c r="C73" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D73" s="97" t="s">
+      <c r="D73" s="96" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="74" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="96">
+      <c r="B74" s="95">
         <v>44642</v>
       </c>
       <c r="C74" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D74" s="97" t="s">
+      <c r="D74" s="96" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="75" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="96">
+      <c r="B75" s="95">
         <v>44642</v>
       </c>
       <c r="C75" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D75" s="97" t="s">
+      <c r="D75" s="96" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="76" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="96">
+      <c r="B76" s="95">
         <v>44642</v>
       </c>
       <c r="C76" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D76" s="97" t="s">
+      <c r="D76" s="96" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="77" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="96">
+      <c r="B77" s="95">
         <v>44642</v>
       </c>
       <c r="C77" s="46">
         <v>6.25E-2</v>
       </c>
-      <c r="D77" s="97" t="s">
+      <c r="D77" s="96" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="78" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="96">
+      <c r="B78" s="95">
         <v>44642</v>
       </c>
       <c r="C78" s="46">
         <v>0.10416666666666667</v>
       </c>
-      <c r="D78" s="97" t="s">
+      <c r="D78" s="96" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="79" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="60">
+      <c r="B79" s="59">
         <v>44642</v>
       </c>
-      <c r="C79" s="61">
+      <c r="C79" s="60">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D79" s="98" t="s">
+      <c r="D79" s="97" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="80" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="96">
+      <c r="B80" s="95">
         <v>44646</v>
       </c>
-      <c r="C80" s="71">
+      <c r="C80" s="70">
         <v>6.25E-2</v>
       </c>
-      <c r="D80" s="99" t="s">
+      <c r="D80" s="98" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="81" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="96">
+      <c r="B81" s="95">
         <v>44647</v>
       </c>
       <c r="C81" s="46">
         <v>6.25E-2</v>
       </c>
-      <c r="D81" s="97" t="s">
+      <c r="D81" s="96" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="82" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="96">
+      <c r="B82" s="95">
         <v>44648</v>
       </c>
       <c r="C82" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D82" s="97" t="s">
+      <c r="D82" s="96" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="83" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="96">
+      <c r="B83" s="95">
         <v>44650</v>
       </c>
       <c r="C83" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D83" s="97" t="s">
+      <c r="D83" s="96" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="84" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="96">
+      <c r="B84" s="95">
         <v>44653</v>
       </c>
       <c r="C84" s="46">
         <v>0.11458333333333333</v>
       </c>
-      <c r="D84" s="97" t="s">
+      <c r="D84" s="96" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="85" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="96">
+      <c r="B85" s="95">
         <v>44653</v>
       </c>
       <c r="C85" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D85" s="97" t="s">
+      <c r="D85" s="96" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="86" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="96">
+      <c r="B86" s="95">
         <v>44656</v>
       </c>
       <c r="C86" s="46">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="D86" s="97" t="s">
+      <c r="D86" s="96" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="87" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="96">
+      <c r="B87" s="95">
         <v>44657</v>
       </c>
       <c r="C87" s="46">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D87" s="97" t="s">
+      <c r="D87" s="96" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="88" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="96">
+      <c r="B88" s="95">
         <v>44661</v>
       </c>
       <c r="C88" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D88" s="97" t="s">
+      <c r="D88" s="96" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="89" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="96">
+      <c r="B89" s="95">
         <v>44661</v>
       </c>
       <c r="C89" s="46">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="D89" s="97" t="s">
+      <c r="D89" s="96" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="90" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="96">
+      <c r="B90" s="95">
         <v>44661</v>
       </c>
       <c r="C90" s="46">
         <v>6.25E-2</v>
       </c>
-      <c r="D90" s="97" t="s">
+      <c r="D90" s="96" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="91" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="96">
+      <c r="B91" s="95">
         <v>44662</v>
       </c>
       <c r="C91" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D91" s="97" t="s">
+      <c r="D91" s="96" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="92" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="60">
+      <c r="B92" s="59">
         <v>44662</v>
       </c>
-      <c r="C92" s="61">
+      <c r="C92" s="60">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="D92" s="98" t="s">
+      <c r="D92" s="97" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="93" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="96">
+      <c r="B93" s="95">
         <v>44677</v>
       </c>
-      <c r="C93" s="71">
+      <c r="C93" s="70">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D93" s="99" t="s">
+      <c r="D93" s="98" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="94" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="60">
+      <c r="B94" s="59">
         <v>44685</v>
       </c>
-      <c r="C94" s="61" t="s">
+      <c r="C94" s="60" t="s">
         <v>310</v>
       </c>
-      <c r="D94" s="98" t="s">
+      <c r="D94" s="97" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="95" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B95" s="96">
+      <c r="B95" s="95">
         <v>44691</v>
       </c>
-      <c r="C95" s="71">
+      <c r="C95" s="70">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D95" s="99" t="s">
+      <c r="D95" s="98" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="96" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B96" s="96">
+      <c r="B96" s="95">
         <v>44692</v>
       </c>
       <c r="C96" s="46">
         <v>6.25E-2</v>
       </c>
-      <c r="D96" s="97" t="s">
+      <c r="D96" s="96" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="97" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B97" s="96">
+      <c r="B97" s="95">
         <v>44694</v>
       </c>
       <c r="C97" s="46">
         <v>6.25E-2</v>
       </c>
-      <c r="D97" s="97" t="s">
+      <c r="D97" s="96" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="98" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="96">
+      <c r="B98" s="95">
         <v>44694</v>
       </c>
       <c r="C98" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D98" s="97" t="s">
+      <c r="D98" s="96" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="99" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="70">
+      <c r="B99" s="95">
         <v>44697</v>
       </c>
-      <c r="C99" s="133">
+      <c r="C99" s="46">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D99" s="139" t="s">
+      <c r="D99" s="96" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="100" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B100" s="96">
+      <c r="B100" s="95">
         <v>44697</v>
       </c>
       <c r="C100" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D100" s="97" t="s">
+      <c r="D100" s="96" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="101" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B101" s="96">
+      <c r="B101" s="95">
         <v>44697</v>
       </c>
       <c r="C101" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D101" s="97" t="s">
+      <c r="D101" s="96" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="102" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B102" s="96">
+      <c r="B102" s="95">
         <v>44697</v>
       </c>
       <c r="C102" s="46">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D102" s="97" t="s">
+      <c r="D102" s="96" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="103" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B103" s="96">
+      <c r="B103" s="95">
         <v>44697</v>
       </c>
       <c r="C103" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D103" s="97" t="s">
+      <c r="D103" s="96" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="104" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="70">
+      <c r="B104" s="95">
         <v>44697</v>
       </c>
-      <c r="C104" s="133">
+      <c r="C104" s="46">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D104" s="139" t="s">
+      <c r="D104" s="96" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="105" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B105" s="70"/>
-      <c r="C105" s="56"/>
-      <c r="D105" s="100"/>
+      <c r="B105" s="69"/>
+      <c r="C105" s="55"/>
+      <c r="D105" s="99"/>
     </row>
     <row r="106" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="107" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6335,8 +6310,8 @@
   </sheetPr>
   <dimension ref="A1:Y1016"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView showGridLines="0" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78:D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6350,11 +6325,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -6664,13 +6639,13 @@
       </c>
     </row>
     <row r="28" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="62">
+      <c r="B28" s="61">
         <v>44525</v>
       </c>
       <c r="C28" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D28" s="63" t="s">
+      <c r="D28" s="62" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6796,13 +6771,13 @@
       </c>
     </row>
     <row r="40" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="62">
+      <c r="B40" s="61">
         <v>44546</v>
       </c>
       <c r="C40" s="45">
         <v>3.125E-2</v>
       </c>
-      <c r="D40" s="63" t="s">
+      <c r="D40" s="62" t="s">
         <v>155</v>
       </c>
     </row>
@@ -6813,7 +6788,7 @@
       <c r="C41" s="43">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D41" s="72" t="s">
+      <c r="D41" s="71" t="s">
         <v>179</v>
       </c>
     </row>
@@ -6873,13 +6848,13 @@
       </c>
     </row>
     <row r="47" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="62">
+      <c r="B47" s="61">
         <v>44586</v>
       </c>
       <c r="C47" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D47" s="63" t="s">
+      <c r="D47" s="62" t="s">
         <v>197</v>
       </c>
     </row>
@@ -6890,7 +6865,7 @@
       <c r="C48" s="43">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D48" s="72" t="s">
+      <c r="D48" s="71" t="s">
         <v>198</v>
       </c>
     </row>
@@ -6939,13 +6914,13 @@
       </c>
     </row>
     <row r="53" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="62">
+      <c r="B53" s="61">
         <v>44621</v>
       </c>
       <c r="C53" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D53" s="63" t="s">
+      <c r="D53" s="62" t="s">
         <v>230</v>
       </c>
     </row>
@@ -7038,205 +7013,211 @@
       </c>
     </row>
     <row r="62" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="119">
+      <c r="B62" s="118">
         <v>44648</v>
       </c>
-      <c r="C62" s="120">
+      <c r="C62" s="119">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D62" s="121" t="s">
+      <c r="D62" s="120" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="63" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="119">
+      <c r="B63" s="118">
         <v>44650</v>
       </c>
-      <c r="C63" s="120">
+      <c r="C63" s="119">
         <v>3.125E-2</v>
       </c>
-      <c r="D63" s="121" t="s">
+      <c r="D63" s="120" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="64" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="119">
+      <c r="B64" s="118">
         <v>44650</v>
       </c>
-      <c r="C64" s="122">
+      <c r="C64" s="121">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D64" s="123" t="s">
+      <c r="D64" s="122" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="65" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="119">
+      <c r="B65" s="118">
         <v>44656</v>
       </c>
-      <c r="C65" s="122">
+      <c r="C65" s="121">
         <v>6.25E-2</v>
       </c>
-      <c r="D65" s="123" t="s">
+      <c r="D65" s="122" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="66" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="119">
+      <c r="B66" s="118">
         <v>44657</v>
       </c>
-      <c r="C66" s="122">
+      <c r="C66" s="121">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D66" s="123" t="s">
+      <c r="D66" s="122" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="67" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="62">
+      <c r="B67" s="61">
         <v>44657</v>
       </c>
       <c r="C67" s="45">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D67" s="63" t="s">
+      <c r="D67" s="62" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="68" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="119">
+      <c r="B68" s="118">
         <v>44676</v>
       </c>
-      <c r="C68" s="122">
+      <c r="C68" s="121">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D68" s="123" t="s">
+      <c r="D68" s="122" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="69" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="119">
+      <c r="B69" s="118">
         <v>44677</v>
       </c>
-      <c r="C69" s="122">
+      <c r="C69" s="121">
         <v>9.375E-2</v>
       </c>
-      <c r="D69" s="123" t="s">
+      <c r="D69" s="122" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="70" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="119">
+      <c r="B70" s="118">
         <v>44681</v>
       </c>
-      <c r="C70" s="122">
+      <c r="C70" s="121">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D70" s="123" t="s">
+      <c r="D70" s="122" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="71" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="119">
+      <c r="B71" s="118">
         <v>44681</v>
       </c>
-      <c r="C71" s="122">
+      <c r="C71" s="121">
         <v>3.125E-2</v>
       </c>
-      <c r="D71" s="123" t="s">
+      <c r="D71" s="122" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="72" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="119">
+      <c r="B72" s="118">
         <v>44684</v>
       </c>
-      <c r="C72" s="122">
+      <c r="C72" s="121">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D72" s="123" t="s">
+      <c r="D72" s="122" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="73" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="119">
+      <c r="B73" s="118">
         <v>44687</v>
       </c>
-      <c r="C73" s="122">
+      <c r="C73" s="121">
         <v>0.125</v>
       </c>
-      <c r="D73" s="123" t="s">
+      <c r="D73" s="122" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="74" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="119">
+      <c r="B74" s="118">
         <v>44689</v>
       </c>
-      <c r="C74" s="122">
+      <c r="C74" s="121">
         <v>6.25E-2</v>
       </c>
-      <c r="D74" s="123" t="s">
+      <c r="D74" s="122" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="75" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="119">
+      <c r="B75" s="118">
         <v>44690</v>
       </c>
-      <c r="C75" s="122">
+      <c r="C75" s="121">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D75" s="123" t="s">
+      <c r="D75" s="122" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="76" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="126">
+      <c r="B76" s="125">
         <v>44690</v>
       </c>
-      <c r="C76" s="127">
+      <c r="C76" s="126">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D76" s="128" t="s">
+      <c r="D76" s="127" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="77" spans="2:4" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="119">
+      <c r="B77" s="118">
         <v>44697</v>
       </c>
-      <c r="C77" s="124">
+      <c r="C77" s="123">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D77" s="125" t="s">
+      <c r="D77" s="124" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="78" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="119"/>
-      <c r="C78" s="120"/>
-      <c r="D78" s="121"/>
+      <c r="B78" s="118">
+        <v>44697</v>
+      </c>
+      <c r="C78" s="119">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="79" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="119"/>
-      <c r="C79" s="120"/>
-      <c r="D79" s="121"/>
+      <c r="B79" s="118"/>
+      <c r="C79" s="119"/>
+      <c r="D79" s="120"/>
     </row>
     <row r="80" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="119"/>
-      <c r="C80" s="120"/>
-      <c r="D80" s="121"/>
+      <c r="B80" s="118"/>
+      <c r="C80" s="119"/>
+      <c r="D80" s="120"/>
     </row>
     <row r="81" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="119"/>
-      <c r="C81" s="120"/>
-      <c r="D81" s="121"/>
+      <c r="B81" s="118"/>
+      <c r="C81" s="119"/>
+      <c r="D81" s="120"/>
     </row>
     <row r="82" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="119"/>
-      <c r="C82" s="122"/>
-      <c r="D82" s="123"/>
+      <c r="B82" s="118"/>
+      <c r="C82" s="121"/>
+      <c r="D82" s="122"/>
     </row>
     <row r="83" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="84" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8196,8 +8177,8 @@
   </sheetPr>
   <dimension ref="A1:Z1103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A123" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D139" sqref="D139"/>
+    <sheetView showGridLines="0" topLeftCell="A119" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H138" sqref="H138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8211,11 +8192,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -8726,10 +8707,10 @@
       <c r="B44" s="18">
         <v>44506</v>
       </c>
-      <c r="C44" s="80">
+      <c r="C44" s="79">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D44" s="79" t="s">
+      <c r="D44" s="78" t="s">
         <v>113</v>
       </c>
     </row>
@@ -8822,13 +8803,13 @@
       </c>
     </row>
     <row r="53" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="64">
+      <c r="B53" s="63">
         <v>44526</v>
       </c>
       <c r="C53" s="42">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D53" s="63" t="s">
+      <c r="D53" s="62" t="s">
         <v>148</v>
       </c>
     </row>
@@ -8899,7 +8880,7 @@
       </c>
     </row>
     <row r="60" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="67">
+      <c r="B60" s="66">
         <v>44543</v>
       </c>
       <c r="C60" s="19">
@@ -8910,29 +8891,29 @@
       </c>
     </row>
     <row r="61" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="64">
+      <c r="B61" s="63">
         <v>44546</v>
       </c>
       <c r="C61" s="42">
         <v>0.22916666666666666</v>
       </c>
-      <c r="D61" s="63" t="s">
+      <c r="D61" s="62" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="62" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="67">
+      <c r="B62" s="66">
         <v>44548</v>
       </c>
       <c r="C62" s="19">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D62" s="72" t="s">
+      <c r="D62" s="71" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="63" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="67">
+      <c r="B63" s="66">
         <v>44550</v>
       </c>
       <c r="C63" s="19">
@@ -8943,7 +8924,7 @@
       </c>
     </row>
     <row r="64" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="67">
+      <c r="B64" s="66">
         <v>44553</v>
       </c>
       <c r="C64" s="19">
@@ -8954,7 +8935,7 @@
       </c>
     </row>
     <row r="65" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="67">
+      <c r="B65" s="66">
         <v>44573</v>
       </c>
       <c r="C65" s="19">
@@ -8965,7 +8946,7 @@
       </c>
     </row>
     <row r="66" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="67">
+      <c r="B66" s="66">
         <v>44573</v>
       </c>
       <c r="C66" s="19">
@@ -8976,7 +8957,7 @@
       </c>
     </row>
     <row r="67" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="67">
+      <c r="B67" s="66">
         <v>44574</v>
       </c>
       <c r="C67" s="19">
@@ -8987,32 +8968,32 @@
       </c>
     </row>
     <row r="68" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="64">
+      <c r="B68" s="63">
         <v>44586</v>
       </c>
       <c r="C68" s="42">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="D68" s="63" t="s">
+      <c r="D68" s="62" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="69" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="67">
+      <c r="B69" s="66">
         <v>44587</v>
       </c>
       <c r="C69" s="19">
         <v>0.125</v>
       </c>
-      <c r="D69" s="72" t="s">
+      <c r="D69" s="71" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="70" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="101">
+      <c r="B70" s="100">
         <v>44587</v>
       </c>
-      <c r="C70" s="102">
+      <c r="C70" s="101">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D70" s="51" t="s">
@@ -9020,10 +9001,10 @@
       </c>
     </row>
     <row r="71" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="101">
+      <c r="B71" s="100">
         <v>44587</v>
       </c>
-      <c r="C71" s="102">
+      <c r="C71" s="101">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D71" s="51" t="s">
@@ -9031,10 +9012,10 @@
       </c>
     </row>
     <row r="72" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="101">
+      <c r="B72" s="100">
         <v>44590</v>
       </c>
-      <c r="C72" s="102">
+      <c r="C72" s="101">
         <v>6.25E-2</v>
       </c>
       <c r="D72" s="51" t="s">
@@ -9042,10 +9023,10 @@
       </c>
     </row>
     <row r="73" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="101">
+      <c r="B73" s="100">
         <v>44600</v>
       </c>
-      <c r="C73" s="102">
+      <c r="C73" s="101">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D73" s="51" t="s">
@@ -9053,10 +9034,10 @@
       </c>
     </row>
     <row r="74" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="101">
+      <c r="B74" s="100">
         <v>44600</v>
       </c>
-      <c r="C74" s="102">
+      <c r="C74" s="101">
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="D74" s="51" t="s">
@@ -9064,10 +9045,10 @@
       </c>
     </row>
     <row r="75" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="101">
+      <c r="B75" s="100">
         <v>44600</v>
       </c>
-      <c r="C75" s="102">
+      <c r="C75" s="101">
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="D75" s="51" t="s">
@@ -9075,10 +9056,10 @@
       </c>
     </row>
     <row r="76" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="101">
+      <c r="B76" s="100">
         <v>44611</v>
       </c>
-      <c r="C76" s="102">
+      <c r="C76" s="101">
         <v>0.10416666666666667</v>
       </c>
       <c r="D76" s="51" t="s">
@@ -9086,10 +9067,10 @@
       </c>
     </row>
     <row r="77" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="101">
+      <c r="B77" s="100">
         <v>44611</v>
       </c>
-      <c r="C77" s="102">
+      <c r="C77" s="101">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D77" s="51" t="s">
@@ -9097,10 +9078,10 @@
       </c>
     </row>
     <row r="78" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="101">
+      <c r="B78" s="100">
         <v>44613</v>
       </c>
-      <c r="C78" s="102">
+      <c r="C78" s="101">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D78" s="51" t="s">
@@ -9108,10 +9089,10 @@
       </c>
     </row>
     <row r="79" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="101">
+      <c r="B79" s="100">
         <v>44613</v>
       </c>
-      <c r="C79" s="102">
+      <c r="C79" s="101">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D79" s="51" t="s">
@@ -9119,10 +9100,10 @@
       </c>
     </row>
     <row r="80" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="101">
+      <c r="B80" s="100">
         <v>44613</v>
       </c>
-      <c r="C80" s="102">
+      <c r="C80" s="101">
         <v>6.25E-2</v>
       </c>
       <c r="D80" s="51" t="s">
@@ -9130,10 +9111,10 @@
       </c>
     </row>
     <row r="81" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="101">
+      <c r="B81" s="100">
         <v>44614</v>
       </c>
-      <c r="C81" s="102">
+      <c r="C81" s="101">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D81" s="51" t="s">
@@ -9141,10 +9122,10 @@
       </c>
     </row>
     <row r="82" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="101">
+      <c r="B82" s="100">
         <v>44614</v>
       </c>
-      <c r="C82" s="102">
+      <c r="C82" s="101">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D82" s="51" t="s">
@@ -9152,10 +9133,10 @@
       </c>
     </row>
     <row r="83" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="101">
+      <c r="B83" s="100">
         <v>44614</v>
       </c>
-      <c r="C83" s="102">
+      <c r="C83" s="101">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D83" s="51" t="s">
@@ -9163,10 +9144,10 @@
       </c>
     </row>
     <row r="84" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="101">
+      <c r="B84" s="100">
         <v>44620</v>
       </c>
-      <c r="C84" s="102">
+      <c r="C84" s="101">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D84" s="51" t="s">
@@ -9174,10 +9155,10 @@
       </c>
     </row>
     <row r="85" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="101">
+      <c r="B85" s="100">
         <v>44620</v>
       </c>
-      <c r="C85" s="102">
+      <c r="C85" s="101">
         <v>0.14583333333333334</v>
       </c>
       <c r="D85" s="51" t="s">
@@ -9185,10 +9166,10 @@
       </c>
     </row>
     <row r="86" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="101">
+      <c r="B86" s="100">
         <v>44620</v>
       </c>
-      <c r="C86" s="102">
+      <c r="C86" s="101">
         <v>6.25E-2</v>
       </c>
       <c r="D86" s="51" t="s">
@@ -9196,10 +9177,10 @@
       </c>
     </row>
     <row r="87" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="101">
+      <c r="B87" s="100">
         <v>44620</v>
       </c>
-      <c r="C87" s="102">
+      <c r="C87" s="101">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D87" s="51" t="s">
@@ -9207,10 +9188,10 @@
       </c>
     </row>
     <row r="88" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="101">
+      <c r="B88" s="100">
         <v>44621</v>
       </c>
-      <c r="C88" s="102">
+      <c r="C88" s="101">
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D88" s="51" t="s">
@@ -9218,10 +9199,10 @@
       </c>
     </row>
     <row r="89" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="101">
+      <c r="B89" s="100">
         <v>44621</v>
       </c>
-      <c r="C89" s="102">
+      <c r="C89" s="101">
         <v>6.25E-2</v>
       </c>
       <c r="D89" s="51" t="s">
@@ -9229,10 +9210,10 @@
       </c>
     </row>
     <row r="90" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="101">
+      <c r="B90" s="100">
         <v>44621</v>
       </c>
-      <c r="C90" s="102">
+      <c r="C90" s="101">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D90" s="51" t="s">
@@ -9240,32 +9221,32 @@
       </c>
     </row>
     <row r="91" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="117">
+      <c r="B91" s="116">
         <v>44621</v>
       </c>
-      <c r="C91" s="118">
+      <c r="C91" s="117">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D91" s="63" t="s">
+      <c r="D91" s="62" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="92" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="112">
+      <c r="B92" s="111">
         <v>44627</v>
       </c>
-      <c r="C92" s="113">
+      <c r="C92" s="112">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="D92" s="66" t="s">
+      <c r="D92" s="65" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="93" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="101">
+      <c r="B93" s="100">
         <v>44630</v>
       </c>
-      <c r="C93" s="102">
+      <c r="C93" s="101">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D93" s="51" t="s">
@@ -9273,10 +9254,10 @@
       </c>
     </row>
     <row r="94" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B94" s="101">
+      <c r="B94" s="100">
         <v>44633</v>
       </c>
-      <c r="C94" s="102">
+      <c r="C94" s="101">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D94" s="51" t="s">
@@ -9284,10 +9265,10 @@
       </c>
     </row>
     <row r="95" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B95" s="101">
+      <c r="B95" s="100">
         <v>44633</v>
       </c>
-      <c r="C95" s="102">
+      <c r="C95" s="101">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D95" s="51" t="s">
@@ -9295,10 +9276,10 @@
       </c>
     </row>
     <row r="96" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B96" s="101">
+      <c r="B96" s="100">
         <v>44633</v>
       </c>
-      <c r="C96" s="102">
+      <c r="C96" s="101">
         <v>3.125E-2</v>
       </c>
       <c r="D96" s="51" t="s">
@@ -9306,10 +9287,10 @@
       </c>
     </row>
     <row r="97" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B97" s="101">
+      <c r="B97" s="100">
         <v>44633</v>
       </c>
-      <c r="C97" s="102">
+      <c r="C97" s="101">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D97" s="51" t="s">
@@ -9317,10 +9298,10 @@
       </c>
     </row>
     <row r="98" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="101">
+      <c r="B98" s="100">
         <v>44633</v>
       </c>
-      <c r="C98" s="102">
+      <c r="C98" s="101">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D98" s="51" t="s">
@@ -9328,10 +9309,10 @@
       </c>
     </row>
     <row r="99" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="101">
+      <c r="B99" s="100">
         <v>44639</v>
       </c>
-      <c r="C99" s="102">
+      <c r="C99" s="101">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D99" s="51" t="s">
@@ -9339,10 +9320,10 @@
       </c>
     </row>
     <row r="100" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B100" s="101">
+      <c r="B100" s="100">
         <v>44639</v>
       </c>
-      <c r="C100" s="102">
+      <c r="C100" s="101">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D100" s="51" t="s">
@@ -9350,10 +9331,10 @@
       </c>
     </row>
     <row r="101" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B101" s="101">
+      <c r="B101" s="100">
         <v>44639</v>
       </c>
-      <c r="C101" s="102">
+      <c r="C101" s="101">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D101" s="51" t="s">
@@ -9361,10 +9342,10 @@
       </c>
     </row>
     <row r="102" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B102" s="101">
+      <c r="B102" s="100">
         <v>44639</v>
       </c>
-      <c r="C102" s="102">
+      <c r="C102" s="101">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D102" s="51" t="s">
@@ -9372,10 +9353,10 @@
       </c>
     </row>
     <row r="103" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B103" s="101">
+      <c r="B103" s="100">
         <v>44639</v>
       </c>
-      <c r="C103" s="102">
+      <c r="C103" s="101">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D103" s="51" t="s">
@@ -9383,10 +9364,10 @@
       </c>
     </row>
     <row r="104" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="101">
+      <c r="B104" s="100">
         <v>44639</v>
       </c>
-      <c r="C104" s="102">
+      <c r="C104" s="101">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="D104" s="51" t="s">
@@ -9394,10 +9375,10 @@
       </c>
     </row>
     <row r="105" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B105" s="101">
+      <c r="B105" s="100">
         <v>44642</v>
       </c>
-      <c r="C105" s="102">
+      <c r="C105" s="101">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D105" s="51" t="s">
@@ -9405,10 +9386,10 @@
       </c>
     </row>
     <row r="106" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B106" s="101">
+      <c r="B106" s="100">
         <v>44642</v>
       </c>
-      <c r="C106" s="102">
+      <c r="C106" s="101">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D106" s="51" t="s">
@@ -9416,10 +9397,10 @@
       </c>
     </row>
     <row r="107" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B107" s="101">
+      <c r="B107" s="100">
         <v>44642</v>
       </c>
-      <c r="C107" s="102">
+      <c r="C107" s="101">
         <v>6.25E-2</v>
       </c>
       <c r="D107" s="51" t="s">
@@ -9427,10 +9408,10 @@
       </c>
     </row>
     <row r="108" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B108" s="101">
+      <c r="B108" s="100">
         <v>44642</v>
       </c>
-      <c r="C108" s="102">
+      <c r="C108" s="101">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D108" s="51" t="s">
@@ -9438,32 +9419,32 @@
       </c>
     </row>
     <row r="109" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="117">
+      <c r="B109" s="116">
         <v>44643</v>
       </c>
-      <c r="C109" s="118">
+      <c r="C109" s="117">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D109" s="63" t="s">
+      <c r="D109" s="62" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="110" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B110" s="101">
+      <c r="B110" s="100">
         <v>44648</v>
       </c>
-      <c r="C110" s="102">
+      <c r="C110" s="101">
         <v>0.25</v>
       </c>
-      <c r="D110" s="66" t="s">
+      <c r="D110" s="65" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="111" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="101">
+      <c r="B111" s="100">
         <v>44649</v>
       </c>
-      <c r="C111" s="102">
+      <c r="C111" s="101">
         <v>0.3125</v>
       </c>
       <c r="D111" s="51" t="s">
@@ -9471,10 +9452,10 @@
       </c>
     </row>
     <row r="112" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B112" s="101">
+      <c r="B112" s="100">
         <v>44650</v>
       </c>
-      <c r="C112" s="102">
+      <c r="C112" s="101">
         <v>0.125</v>
       </c>
       <c r="D112" s="51" t="s">
@@ -9482,10 +9463,10 @@
       </c>
     </row>
     <row r="113" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B113" s="101">
+      <c r="B113" s="100">
         <v>44650</v>
       </c>
-      <c r="C113" s="102">
+      <c r="C113" s="101">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D113" s="51" t="s">
@@ -9493,10 +9474,10 @@
       </c>
     </row>
     <row r="114" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B114" s="101">
+      <c r="B114" s="100">
         <v>44655</v>
       </c>
-      <c r="C114" s="102">
+      <c r="C114" s="101">
         <v>0.16666666666666666</v>
       </c>
       <c r="D114" s="51" t="s">
@@ -9504,10 +9485,10 @@
       </c>
     </row>
     <row r="115" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B115" s="101">
+      <c r="B115" s="100">
         <v>44656</v>
       </c>
-      <c r="C115" s="102">
+      <c r="C115" s="101">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D115" s="51" t="s">
@@ -9515,10 +9496,10 @@
       </c>
     </row>
     <row r="116" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B116" s="101">
+      <c r="B116" s="100">
         <v>44656</v>
       </c>
-      <c r="C116" s="102">
+      <c r="C116" s="101">
         <v>6.25E-2</v>
       </c>
       <c r="D116" s="51" t="s">
@@ -9526,10 +9507,10 @@
       </c>
     </row>
     <row r="117" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B117" s="101">
+      <c r="B117" s="100">
         <v>44657</v>
       </c>
-      <c r="C117" s="102">
+      <c r="C117" s="101">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D117" s="51" t="s">
@@ -9537,10 +9518,10 @@
       </c>
     </row>
     <row r="118" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B118" s="101">
+      <c r="B118" s="100">
         <v>44662</v>
       </c>
-      <c r="C118" s="102">
+      <c r="C118" s="101">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D118" s="51" t="s">
@@ -9548,10 +9529,10 @@
       </c>
     </row>
     <row r="119" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B119" s="101">
+      <c r="B119" s="100">
         <v>44662</v>
       </c>
-      <c r="C119" s="102">
+      <c r="C119" s="101">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D119" s="51" t="s">
@@ -9559,10 +9540,10 @@
       </c>
     </row>
     <row r="120" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B120" s="101" t="s">
+      <c r="B120" s="100" t="s">
         <v>299</v>
       </c>
-      <c r="C120" s="102" t="s">
+      <c r="C120" s="101" t="s">
         <v>300</v>
       </c>
       <c r="D120" s="51" t="s">
@@ -9570,32 +9551,32 @@
       </c>
     </row>
     <row r="121" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="117">
+      <c r="B121" s="116">
         <v>44663</v>
       </c>
-      <c r="C121" s="118">
+      <c r="C121" s="117">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D121" s="63" t="s">
+      <c r="D121" s="62" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="122" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B122" s="101">
+      <c r="B122" s="100">
         <v>44677</v>
       </c>
-      <c r="C122" s="102">
+      <c r="C122" s="101">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D122" s="66" t="s">
+      <c r="D122" s="65" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="123" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B123" s="131">
+      <c r="B123" s="129">
         <v>44677</v>
       </c>
-      <c r="C123" s="130">
+      <c r="C123" s="128">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D123" s="51" t="s">
@@ -9603,54 +9584,54 @@
       </c>
     </row>
     <row r="124" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B124" s="134">
+      <c r="B124" s="129">
         <v>44681</v>
       </c>
-      <c r="C124" s="132">
+      <c r="C124" s="128">
         <v>0.125</v>
       </c>
-      <c r="D124" s="129" t="s">
+      <c r="D124" s="51" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="125" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B125" s="134">
+      <c r="B125" s="129">
         <v>44684</v>
       </c>
-      <c r="C125" s="133">
+      <c r="C125" s="128">
         <v>0.17708333333333334</v>
       </c>
-      <c r="D125" s="129" t="s">
+      <c r="D125" s="51" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="126" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="136">
+      <c r="B126" s="133">
         <v>44685</v>
       </c>
-      <c r="C126" s="137">
+      <c r="C126" s="117">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D126" s="135" t="s">
+      <c r="D126" s="62" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="127" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B127" s="101">
+      <c r="B127" s="100">
         <v>44692</v>
       </c>
-      <c r="C127" s="102">
+      <c r="C127" s="101">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="D127" s="66" t="s">
+      <c r="D127" s="65" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="128" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B128" s="101">
+      <c r="B128" s="100">
         <v>44692</v>
       </c>
-      <c r="C128" s="102">
+      <c r="C128" s="101">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="D128" s="51" t="s">
@@ -9658,10 +9639,10 @@
       </c>
     </row>
     <row r="129" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B129" s="101">
+      <c r="B129" s="100">
         <v>44694</v>
       </c>
-      <c r="C129" s="102">
+      <c r="C129" s="101">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D129" s="51" t="s">
@@ -9669,10 +9650,10 @@
       </c>
     </row>
     <row r="130" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B130" s="101">
+      <c r="B130" s="100">
         <v>44697</v>
       </c>
-      <c r="C130" s="102">
+      <c r="C130" s="101">
         <v>6.25E-2</v>
       </c>
       <c r="D130" s="51" t="s">
@@ -9680,90 +9661,90 @@
       </c>
     </row>
     <row r="131" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B131" s="134">
+      <c r="B131" s="100">
         <v>44697</v>
       </c>
-      <c r="C131" s="138">
+      <c r="C131" s="101">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D131" s="129" t="s">
+      <c r="D131" s="51" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="132" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B132" s="134">
+      <c r="B132" s="100">
         <v>44697</v>
       </c>
-      <c r="C132" s="138">
+      <c r="C132" s="101">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D132" s="129" t="s">
+      <c r="D132" s="51" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="133" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B133" s="134">
+      <c r="B133" s="100">
         <v>44697</v>
       </c>
-      <c r="C133" s="138">
+      <c r="C133" s="101">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D133" s="129" t="s">
+      <c r="D133" s="51" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="134" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B134" s="134">
+      <c r="B134" s="100">
         <v>44697</v>
       </c>
-      <c r="C134" s="138">
+      <c r="C134" s="101">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D134" s="129" t="s">
+      <c r="D134" s="51" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="135" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B135" s="134">
+      <c r="B135" s="100">
         <v>44697</v>
       </c>
-      <c r="C135" s="138">
+      <c r="C135" s="101">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="D135" s="129" t="s">
+      <c r="D135" s="51" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="136" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B136" s="134">
+      <c r="B136" s="100">
         <v>44697</v>
       </c>
-      <c r="C136" s="138">
+      <c r="C136" s="101">
         <v>0.14930555555555555</v>
       </c>
-      <c r="D136" s="129" t="s">
+      <c r="D136" s="51" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="137" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B137" s="134">
+      <c r="B137" s="100">
         <v>44698</v>
       </c>
-      <c r="C137" s="144">
+      <c r="C137" s="101">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D137" s="55" t="s">
+      <c r="D137" s="51" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="138" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B138" s="134">
+      <c r="B138" s="100">
         <v>44698</v>
       </c>
-      <c r="C138" s="132">
+      <c r="C138" s="101">
         <v>0.10416666666666667</v>
       </c>
-      <c r="D138" s="129" t="s">
+      <c r="D138" s="51" t="s">
         <v>333</v>
       </c>
     </row>
@@ -10756,8 +10737,8 @@
   </sheetPr>
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10771,11 +10752,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="131" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -10833,7 +10814,7 @@
       <c r="Y2" s="17"/>
     </row>
     <row r="3" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="103">
+      <c r="B3" s="102">
         <v>44459</v>
       </c>
       <c r="C3" s="27">
@@ -10844,7 +10825,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="104">
+      <c r="B4" s="103">
         <v>44463</v>
       </c>
       <c r="C4" s="27">
@@ -10855,7 +10836,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="104">
+      <c r="B5" s="103">
         <v>44463</v>
       </c>
       <c r="C5" s="27">
@@ -10866,7 +10847,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="104">
+      <c r="B6" s="103">
         <v>44468</v>
       </c>
       <c r="C6" s="27">
@@ -10877,7 +10858,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="105">
+      <c r="B7" s="104">
         <v>44477</v>
       </c>
       <c r="C7" s="40">
@@ -10888,7 +10869,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="104">
+      <c r="B8" s="103">
         <v>44479</v>
       </c>
       <c r="C8" s="39">
@@ -10899,7 +10880,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="104">
+      <c r="B9" s="103">
         <v>44485</v>
       </c>
       <c r="C9" s="28">
@@ -10910,7 +10891,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="104">
+      <c r="B10" s="103">
         <v>44488</v>
       </c>
       <c r="C10" s="27">
@@ -10921,7 +10902,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="104">
+      <c r="B11" s="103">
         <v>44494</v>
       </c>
       <c r="C11" s="39">
@@ -10932,7 +10913,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="104">
+      <c r="B12" s="103">
         <v>44494</v>
       </c>
       <c r="C12" s="27">
@@ -10943,7 +10924,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="106">
+      <c r="B13" s="105">
         <v>44494</v>
       </c>
       <c r="C13" s="28">
@@ -10954,7 +10935,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="107">
+      <c r="B14" s="106">
         <v>44502</v>
       </c>
       <c r="C14" s="40">
@@ -10965,18 +10946,18 @@
       </c>
     </row>
     <row r="15" spans="1:26" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="106">
+      <c r="B15" s="105">
         <v>44506</v>
       </c>
-      <c r="C15" s="78">
+      <c r="C15" s="77">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D15" s="79" t="s">
+      <c r="D15" s="78" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:26" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="106">
+      <c r="B16" s="105">
         <v>44508</v>
       </c>
       <c r="C16" s="28">
@@ -10987,7 +10968,7 @@
       </c>
     </row>
     <row r="17" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="108">
+      <c r="B17" s="107">
         <v>44520</v>
       </c>
       <c r="C17" s="53">
@@ -10998,7 +10979,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="108">
+      <c r="B18" s="107">
         <v>44520</v>
       </c>
       <c r="C18" s="53">
@@ -11009,7 +10990,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="108">
+      <c r="B19" s="107">
         <v>44521</v>
       </c>
       <c r="C19" s="49">
@@ -11020,7 +11001,7 @@
       </c>
     </row>
     <row r="20" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="108">
+      <c r="B20" s="107">
         <v>44522</v>
       </c>
       <c r="C20" s="53">
@@ -11031,7 +11012,7 @@
       </c>
     </row>
     <row r="21" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="108">
+      <c r="B21" s="107">
         <v>44522</v>
       </c>
       <c r="C21" s="53">
@@ -11042,7 +11023,7 @@
       </c>
     </row>
     <row r="22" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="108">
+      <c r="B22" s="107">
         <v>44523</v>
       </c>
       <c r="C22" s="53">
@@ -11053,73 +11034,73 @@
       </c>
     </row>
     <row r="23" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="109">
+      <c r="B23" s="108">
         <v>44523</v>
       </c>
-      <c r="C23" s="65">
+      <c r="C23" s="64">
         <v>6.25E-2</v>
       </c>
-      <c r="D23" s="63" t="s">
+      <c r="D23" s="62" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="24" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="110">
+      <c r="B24" s="109">
         <v>44546</v>
       </c>
-      <c r="C24" s="68">
+      <c r="C24" s="67">
         <v>0.125</v>
       </c>
-      <c r="D24" s="69" t="s">
+      <c r="D24" s="68" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="25" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="110">
+      <c r="B25" s="109">
         <v>44546</v>
       </c>
-      <c r="C25" s="68">
+      <c r="C25" s="67">
         <v>3.125E-2</v>
       </c>
-      <c r="D25" s="69" t="s">
+      <c r="D25" s="68" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="26" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="111">
+      <c r="B26" s="110">
         <v>44546</v>
       </c>
-      <c r="C26" s="73">
+      <c r="C26" s="72">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D26" s="74" t="s">
+      <c r="D26" s="73" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="110">
+      <c r="B27" s="109">
         <v>44573</v>
       </c>
-      <c r="C27" s="82">
+      <c r="C27" s="81">
         <v>0.125</v>
       </c>
-      <c r="D27" s="83" t="s">
+      <c r="D27" s="82" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="111">
+      <c r="B28" s="110">
         <v>44585</v>
       </c>
-      <c r="C28" s="73">
+      <c r="C28" s="72">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D28" s="74" t="s">
+      <c r="D28" s="73" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="108">
+      <c r="B29" s="107">
         <v>44607</v>
       </c>
       <c r="C29" s="53">
@@ -11130,7 +11111,7 @@
       </c>
     </row>
     <row r="30" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="108">
+      <c r="B30" s="107">
         <v>44609</v>
       </c>
       <c r="C30" s="53">
@@ -11141,7 +11122,7 @@
       </c>
     </row>
     <row r="31" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="108">
+      <c r="B31" s="107">
         <v>44614</v>
       </c>
       <c r="C31" s="53">
@@ -11152,18 +11133,18 @@
       </c>
     </row>
     <row r="32" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="109">
+      <c r="B32" s="108">
         <v>44619</v>
       </c>
-      <c r="C32" s="65">
+      <c r="C32" s="64">
         <v>0.14583333333333334</v>
       </c>
-      <c r="D32" s="63" t="s">
+      <c r="D32" s="62" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="108">
+      <c r="B33" s="107">
         <v>44626</v>
       </c>
       <c r="C33" s="53">
@@ -11174,7 +11155,7 @@
       </c>
     </row>
     <row r="34" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="108">
+      <c r="B34" s="107">
         <v>44632</v>
       </c>
       <c r="C34" s="53">
@@ -11185,7 +11166,7 @@
       </c>
     </row>
     <row r="35" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="108">
+      <c r="B35" s="107">
         <v>44635</v>
       </c>
       <c r="C35" s="53">
@@ -11196,18 +11177,18 @@
       </c>
     </row>
     <row r="36" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="109">
+      <c r="B36" s="108">
         <v>44643</v>
       </c>
-      <c r="C36" s="65">
+      <c r="C36" s="64">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D36" s="63" t="s">
+      <c r="D36" s="62" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="108">
+      <c r="B37" s="107">
         <v>44653</v>
       </c>
       <c r="C37" s="53">
@@ -11218,7 +11199,7 @@
       </c>
     </row>
     <row r="38" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="108">
+      <c r="B38" s="107">
         <v>44653</v>
       </c>
       <c r="C38" s="53">
@@ -11229,7 +11210,7 @@
       </c>
     </row>
     <row r="39" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="108">
+      <c r="B39" s="107">
         <v>44653</v>
       </c>
       <c r="C39" s="53">
@@ -11240,7 +11221,7 @@
       </c>
     </row>
     <row r="40" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="108">
+      <c r="B40" s="107">
         <v>44654</v>
       </c>
       <c r="C40" s="53">
@@ -11250,69 +11231,69 @@
         <v>288</v>
       </c>
     </row>
-    <row r="41" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B41" s="108">
         <v>44655</v>
       </c>
-      <c r="C41" s="53">
+      <c r="C41" s="64">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D41" s="54" t="s">
+      <c r="D41" s="62" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="42" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="143">
+    <row r="42" spans="2:4" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="107">
         <v>44697</v>
       </c>
-      <c r="C42" s="133">
+      <c r="C42" s="134">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D42" s="55" t="s">
+      <c r="D42" s="71" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="143">
+      <c r="B43" s="107">
         <v>44697</v>
       </c>
-      <c r="C43" s="133">
+      <c r="C43" s="53">
         <v>0.125</v>
       </c>
-      <c r="D43" s="55" t="s">
+      <c r="D43" s="54" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="143">
+      <c r="B44" s="107">
         <v>44697</v>
       </c>
-      <c r="C44" s="56">
+      <c r="C44" s="53">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D44" s="129" t="s">
+      <c r="D44" s="54" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="143">
+      <c r="B45" s="107">
         <v>44697</v>
       </c>
-      <c r="C45" s="56">
+      <c r="C45" s="53">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D45" s="129" t="s">
+      <c r="D45" s="54" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="143">
+      <c r="B46" s="107">
         <v>44698</v>
       </c>
-      <c r="C46" s="56">
+      <c r="C46" s="53">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D46" s="129" t="s">
+      <c r="D46" s="54" t="s">
         <v>331</v>
       </c>
     </row>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aurelie/Documents/GitHub/WavContact/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D44794-0082-454A-BF44-9380BFD9950C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CB75B0-9C08-7A41-8C5F-350AD44F1FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14280" windowHeight="15880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="336">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -987,9 +987,6 @@
   </si>
   <si>
     <t>Création présentation réunion A5</t>
-  </si>
-  <si>
-    <t>Du 15 au 24 avril : Vacance</t>
   </si>
   <si>
     <t>Mise en page de WavMap</t>
@@ -1057,7 +1054,7 @@
     <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
     <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF504A3B"/>
@@ -1261,6 +1258,53 @@
       <color rgb="FF504A3B"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Bookman Old Style"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF007498"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF504A3B"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF94497A"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F835B"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFE39202"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF504A3B"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1580,7 +1624,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1982,6 +2026,84 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="31" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="31" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="31" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="31" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="31" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="31" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="31" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2482,8 +2604,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau5" displayName="Tableau5" ref="B2:D30">
-  <autoFilter ref="B2:D30" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau5" displayName="Tableau5" ref="B2:D37">
+  <autoFilter ref="B2:D37" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="DATE" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DURÉE" dataDxfId="15"/>
@@ -2494,8 +2616,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:D105" tableBorderDxfId="13">
-  <autoFilter ref="B2:D105" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:D111" tableBorderDxfId="13">
+  <autoFilter ref="B2:D111" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DATE" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="DURÉE" dataDxfId="11"/>
@@ -2506,8 +2628,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau3" displayName="Tableau3" ref="B2:D82">
-  <autoFilter ref="B2:D82" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau3" displayName="Tableau3" ref="B2:D84">
+  <autoFilter ref="B2:D84" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D25">
     <sortCondition ref="B2:B25"/>
   </sortState>
@@ -2521,8 +2643,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D138" totalsRowShown="0">
-  <autoFilter ref="B2:D138" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D147" totalsRowShown="0">
+  <autoFilter ref="B2:D147" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="5" totalsRowDxfId="4"/>
@@ -2533,8 +2655,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tableau2" displayName="Tableau2" ref="B2:D47">
-  <autoFilter ref="B2:D47" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tableau2" displayName="Tableau2" ref="B2:D52">
+  <autoFilter ref="B2:D52" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="DATE" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DURÉE" dataDxfId="1"/>
@@ -2760,8 +2882,8 @@
   </sheetPr>
   <dimension ref="A1:Z1011"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView showGridLines="0" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3119,35 +3241,55 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="47"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="48"/>
-    </row>
-    <row r="32" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" spans="2:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" spans="2:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="2:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" spans="2:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" spans="2:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" spans="2:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" spans="2:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="2:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="2:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="2:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="2:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="2:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="2:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="2:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="2:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="B31" s="134"/>
+      <c r="C31" s="135"/>
+      <c r="D31" s="137"/>
+    </row>
+    <row r="32" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="134"/>
+      <c r="C32" s="136"/>
+      <c r="D32" s="138"/>
+    </row>
+    <row r="33" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="134"/>
+      <c r="C33" s="136"/>
+      <c r="D33" s="138"/>
+    </row>
+    <row r="34" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="134"/>
+      <c r="C34" s="136"/>
+      <c r="D34" s="138"/>
+    </row>
+    <row r="35" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="134"/>
+      <c r="C35" s="136"/>
+      <c r="D35" s="138"/>
+    </row>
+    <row r="36" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="134"/>
+      <c r="C36" s="136"/>
+      <c r="D36" s="138"/>
+    </row>
+    <row r="37" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="134"/>
+      <c r="C37" s="136"/>
+      <c r="D37" s="138"/>
+    </row>
+    <row r="38" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="49" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="50" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="51" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4131,8 +4273,8 @@
   </sheetPr>
   <dimension ref="A1:Y1091"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView showGridLines="0" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5304,7 +5446,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="D104" s="96" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="105" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5312,16 +5454,36 @@
       <c r="C105" s="55"/>
       <c r="D105" s="99"/>
     </row>
-    <row r="106" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B106" s="139"/>
+      <c r="C106" s="140"/>
+      <c r="D106" s="92"/>
+    </row>
+    <row r="107" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B107" s="139"/>
+      <c r="C107" s="140"/>
+      <c r="D107" s="92"/>
+    </row>
+    <row r="108" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B108" s="139"/>
+      <c r="C108" s="140"/>
+      <c r="D108" s="92"/>
+    </row>
+    <row r="109" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B109" s="139"/>
+      <c r="C109" s="140"/>
+      <c r="D109" s="92"/>
+    </row>
     <row r="110" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B110" s="14" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="111" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="B110" s="139"/>
+      <c r="C110" s="140"/>
+      <c r="D110" s="92"/>
+    </row>
+    <row r="111" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B111" s="141"/>
+      <c r="C111" s="142"/>
+      <c r="D111" s="143"/>
+    </row>
     <row r="112" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="113" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="114" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6322,8 +6484,8 @@
   </sheetPr>
   <dimension ref="A1:Y1016"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79:D79"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7098,7 +7260,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D68" s="122" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="69" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7109,7 +7271,7 @@
         <v>9.375E-2</v>
       </c>
       <c r="D69" s="122" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="70" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7219,13 +7381,19 @@
         <v>0.125</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="80" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="118"/>
-      <c r="C80" s="119"/>
-      <c r="D80" s="120"/>
+      <c r="B80" s="157">
+        <v>44700</v>
+      </c>
+      <c r="C80" s="158">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D80" s="159" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="81" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="118"/>
@@ -7237,14 +7405,20 @@
       <c r="C82" s="121"/>
       <c r="D82" s="122"/>
     </row>
-    <row r="83" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B83" s="144"/>
+      <c r="C83" s="145"/>
+      <c r="D83" s="146"/>
+    </row>
+    <row r="84" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B84" s="144"/>
+      <c r="C84" s="147"/>
+      <c r="D84" s="148"/>
+    </row>
     <row r="85" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="86" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="87" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="14" t="s">
-        <v>317</v>
-      </c>
+      <c r="B87" s="14"/>
     </row>
     <row r="88" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="89" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8195,8 +8369,8 @@
   </sheetPr>
   <dimension ref="A1:Z1103"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H138" sqref="H138"/>
+    <sheetView showGridLines="0" topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9609,7 +9783,7 @@
         <v>0.125</v>
       </c>
       <c r="D124" s="51" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="125" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9620,7 +9794,7 @@
         <v>0.17708333333333334</v>
       </c>
       <c r="D125" s="51" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="126" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -9631,7 +9805,7 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="D126" s="62" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="127" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -9675,7 +9849,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="D130" s="51" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="131" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9686,7 +9860,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D131" s="51" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="132" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9697,7 +9871,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D132" s="51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="133" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9730,7 +9904,7 @@
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="D135" s="51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="136" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9741,7 +9915,7 @@
         <v>0.14930555555555555</v>
       </c>
       <c r="D136" s="51" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="137" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9752,7 +9926,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D137" s="51" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="138" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9763,35 +9937,67 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="D138" s="51" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="139" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B139" s="149"/>
+      <c r="C139" s="150"/>
+      <c r="D139" s="151"/>
+    </row>
+    <row r="140" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B140" s="149"/>
+      <c r="C140" s="150"/>
+      <c r="D140" s="152"/>
+    </row>
     <row r="141" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B141" s="14" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="142" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="B141" s="149"/>
+      <c r="C141" s="150"/>
+      <c r="D141" s="152"/>
+    </row>
+    <row r="142" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B142" s="149"/>
+      <c r="C142" s="150"/>
+      <c r="D142" s="152"/>
+    </row>
+    <row r="143" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B143" s="149"/>
+      <c r="C143" s="150"/>
+      <c r="D143" s="152"/>
+    </row>
+    <row r="144" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B144" s="149"/>
+      <c r="C144" s="150"/>
+      <c r="D144" s="152"/>
+    </row>
+    <row r="145" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B145" s="149"/>
+      <c r="C145" s="150"/>
+      <c r="D145" s="152"/>
+    </row>
+    <row r="146" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B146" s="149"/>
+      <c r="C146" s="150"/>
+      <c r="D146" s="152"/>
+    </row>
+    <row r="147" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B147" s="153"/>
+      <c r="C147" s="150"/>
+      <c r="D147" s="152"/>
+    </row>
+    <row r="148" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="161" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="162" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="163" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10755,7 +10961,7 @@
   </sheetPr>
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
@@ -11268,7 +11474,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D42" s="71" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11279,7 +11485,7 @@
         <v>0.125</v>
       </c>
       <c r="D43" s="54" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11290,7 +11496,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="D44" s="54" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11301,7 +11507,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D45" s="54" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11312,7 +11518,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="D46" s="54" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11323,26 +11529,46 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D47" s="54" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="154"/>
+      <c r="C48" s="155"/>
+      <c r="D48" s="146"/>
+    </row>
+    <row r="49" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="154"/>
+      <c r="C49" s="155"/>
+      <c r="D49" s="146"/>
+    </row>
+    <row r="50" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="154"/>
+      <c r="C50" s="155"/>
+      <c r="D50" s="146"/>
+    </row>
+    <row r="51" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="154"/>
+      <c r="C51" s="155"/>
+      <c r="D51" s="146"/>
+    </row>
+    <row r="52" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="154"/>
+      <c r="C52" s="156"/>
+      <c r="D52" s="148"/>
+    </row>
+    <row r="53" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="65" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="66" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="67" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coral\OneDrive\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA32A00-A1BE-4B18-9CF4-0115865E5CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08853A72-8A02-4CAE-9C2B-34757A250138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8397,7 +8397,7 @@
   <dimension ref="A1:Z1099"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A137" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D142" sqref="D142"/>
+      <selection activeCell="C142" sqref="C142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10005,7 +10005,7 @@
         <v>44701</v>
       </c>
       <c r="C142" s="157">
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D142" s="148" t="s">
         <v>343</v>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aurelie/Documents/GitHub/WavContact/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65F00CB-13B1-654E-9697-3AE648BF7732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5065D3F7-3DA2-C54B-8237-CF7169AED237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14520" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -1288,35 +1288,41 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Bookman Old Style"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF007498"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF504A3B"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF94497A"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF3F835B"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFE39202"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1329,6 +1335,7 @@
       <sz val="12"/>
       <color rgb="FF504A3B"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1648,7 +1655,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2093,21 +2100,12 @@
     <xf numFmtId="165" fontId="31" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="31" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="38" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2116,15 +2114,6 @@
     </xf>
     <xf numFmtId="164" fontId="36" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2909,7 +2898,7 @@
   </sheetPr>
   <dimension ref="A1:Z1011"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A20" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -2924,11 +2913,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="159" t="s">
+      <c r="B1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4300,8 +4289,8 @@
   </sheetPr>
   <dimension ref="A1:Y1091"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+    <sheetView showGridLines="0" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4315,11 +4304,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="159" t="s">
+      <c r="B1" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -6512,7 +6501,7 @@
   <dimension ref="A1:Y1016"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+      <selection activeCell="B80" sqref="B80:D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6526,11 +6515,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="159" t="s">
+      <c r="B1" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -7412,31 +7401,31 @@
       </c>
     </row>
     <row r="80" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="151">
+      <c r="B80" s="118">
         <v>44700</v>
       </c>
-      <c r="C80" s="152">
+      <c r="C80" s="119">
         <v>6.25E-2</v>
       </c>
-      <c r="D80" s="153" t="s">
+      <c r="D80" s="11" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="81" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="151">
+      <c r="B81" s="118">
         <v>44702</v>
       </c>
-      <c r="C81" s="152">
+      <c r="C81" s="119">
         <v>0.125</v>
       </c>
-      <c r="D81" s="153" t="s">
+      <c r="D81" s="11" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="82" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="118"/>
-      <c r="C82" s="121"/>
-      <c r="D82" s="122"/>
+      <c r="C82" s="119"/>
+      <c r="D82" s="11"/>
     </row>
     <row r="83" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" s="142"/>
@@ -8402,8 +8391,8 @@
   </sheetPr>
   <dimension ref="A1:Z1099"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A123" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C142" sqref="C142"/>
+    <sheetView showGridLines="0" topLeftCell="A128" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B139" sqref="B139:D142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8417,11 +8406,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="159" t="s">
+      <c r="B1" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -9966,7 +9955,7 @@
       <c r="B138" s="100">
         <v>44698</v>
       </c>
-      <c r="C138" s="154">
+      <c r="C138" s="151">
         <v>0.10416666666666667</v>
       </c>
       <c r="D138" s="54" t="s">
@@ -9974,53 +9963,53 @@
       </c>
     </row>
     <row r="139" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B139" s="156">
+      <c r="B139" s="100">
         <v>44700</v>
       </c>
-      <c r="C139" s="152">
+      <c r="C139" s="101">
         <v>3.125E-2</v>
       </c>
-      <c r="D139" s="153" t="s">
+      <c r="D139" s="51" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="140" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B140" s="156">
+      <c r="B140" s="100">
         <v>44700</v>
       </c>
-      <c r="C140" s="157">
+      <c r="C140" s="101">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D140" s="148" t="s">
+      <c r="D140" s="51" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="141" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B141" s="156">
+      <c r="B141" s="100">
         <v>44700</v>
       </c>
-      <c r="C141" s="157">
+      <c r="C141" s="101">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D141" s="148" t="s">
+      <c r="D141" s="51" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="142" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B142" s="156">
+      <c r="B142" s="100">
         <v>44701</v>
       </c>
-      <c r="C142" s="157">
+      <c r="C142" s="101">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D142" s="148" t="s">
+      <c r="D142" s="51" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="143" spans="2:4" ht="30.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B143" s="147"/>
-      <c r="C143" s="155"/>
-      <c r="D143" s="153"/>
+      <c r="C143" s="152"/>
+      <c r="D143" s="150"/>
     </row>
     <row r="144" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="145" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10999,7 +10988,7 @@
   <dimension ref="A1:Z990"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11013,11 +11002,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="159" t="s">
+      <c r="B1" s="153" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -11570,52 +11559,52 @@
       </c>
     </row>
     <row r="48" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="158">
+      <c r="B48" s="107">
         <v>44700</v>
       </c>
-      <c r="C48" s="152">
+      <c r="C48" s="53">
         <v>0.29166666666666669</v>
       </c>
-      <c r="D48" s="153" t="s">
+      <c r="D48" s="54" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="158">
+      <c r="B49" s="107">
         <v>44700</v>
       </c>
-      <c r="C49" s="152">
+      <c r="C49" s="53">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D49" s="153" t="s">
+      <c r="D49" s="54" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="158">
+      <c r="B50" s="107">
         <v>44700</v>
       </c>
-      <c r="C50" s="152">
+      <c r="C50" s="53">
         <v>3.125E-2</v>
       </c>
-      <c r="D50" s="153" t="s">
+      <c r="D50" s="54" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="158">
+      <c r="B51" s="107">
         <v>44700</v>
       </c>
-      <c r="C51" s="152">
+      <c r="C51" s="53">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D51" s="153" t="s">
+      <c r="D51" s="54" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="149"/>
-      <c r="C52" s="150"/>
+      <c r="B52" s="148"/>
+      <c r="C52" s="149"/>
       <c r="D52" s="146"/>
     </row>
     <row r="53" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aurelie/Documents/GitHub/WavContact/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DFDA79-3A58-CD40-A745-EB1E2FAC342C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2F1250-599E-5348-BA66-10582F8B4CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12760" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="350">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -1096,7 +1096,7 @@
     <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
     <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF504A3B"/>
@@ -1210,20 +1210,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Bookman Old Style"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Bookman Old Style"/>
       <family val="1"/>
@@ -1239,12 +1225,6 @@
       <sz val="11"/>
       <color rgb="FF504A3B"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -1325,13 +1305,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF94497A"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF3F835B"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1671,9 +1644,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1839,49 +1812,43 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1890,10 +1857,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1917,10 +1884,10 @@
     <xf numFmtId="165" fontId="12" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1971,13 +1938,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="20" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2001,16 +1965,16 @@
     <xf numFmtId="165" fontId="14" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="14" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2022,115 +1986,103 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="20" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="25" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="28" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="31" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="31" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="31" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="28" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="34" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="31" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="31" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="31" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2139,10 +2091,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2668,8 +2617,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau3" displayName="Tableau3" ref="B2:D84">
-  <autoFilter ref="B2:D84" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau3" displayName="Tableau3" ref="B2:D91">
+  <autoFilter ref="B2:D91" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D25">
     <sortCondition ref="B2:B25"/>
   </sortState>
@@ -2937,11 +2886,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="153" t="s">
+      <c r="B1" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2969,15 +2918,15 @@
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="74" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="74">
+      <c r="B3" s="72">
         <v>44384</v>
       </c>
       <c r="C3" s="12">
@@ -3164,13 +3113,13 @@
       </c>
     </row>
     <row r="20" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="56">
+      <c r="B20" s="55">
         <v>44526</v>
       </c>
-      <c r="C20" s="57">
+      <c r="C20" s="56">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D20" s="58" t="s">
+      <c r="D20" s="57" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3181,18 +3130,18 @@
       <c r="C21" s="29">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D21" s="65" t="s">
+      <c r="D21" s="64" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="22" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="56">
+      <c r="B22" s="55">
         <v>44547</v>
       </c>
-      <c r="C22" s="57">
+      <c r="C22" s="56">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D22" s="58" t="s">
+      <c r="D22" s="57" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3219,35 +3168,35 @@
       </c>
     </row>
     <row r="25" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="56">
+      <c r="B25" s="55">
         <v>44586</v>
       </c>
-      <c r="C25" s="57">
+      <c r="C25" s="56">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="D25" s="58" t="s">
+      <c r="D25" s="57" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="113">
+      <c r="B26" s="110">
         <v>44602</v>
       </c>
-      <c r="C26" s="114">
+      <c r="C26" s="111">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D26" s="115" t="s">
+      <c r="D26" s="112" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="27" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="113">
+      <c r="B27" s="110">
         <v>44624</v>
       </c>
-      <c r="C27" s="114">
+      <c r="C27" s="111">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D27" s="115" t="s">
+      <c r="D27" s="112" t="s">
         <v>233</v>
       </c>
     </row>
@@ -3263,13 +3212,13 @@
       </c>
     </row>
     <row r="29" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="56">
+      <c r="B29" s="55">
         <v>44663</v>
       </c>
-      <c r="C29" s="57">
+      <c r="C29" s="56">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D29" s="58" t="s">
+      <c r="D29" s="57" t="s">
         <v>303</v>
       </c>
     </row>
@@ -3285,39 +3234,39 @@
       </c>
     </row>
     <row r="31" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="132"/>
-      <c r="C31" s="133"/>
-      <c r="D31" s="135"/>
+      <c r="B31" s="129"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="132"/>
     </row>
     <row r="32" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="132"/>
-      <c r="C32" s="134"/>
-      <c r="D32" s="136"/>
+      <c r="B32" s="129"/>
+      <c r="C32" s="131"/>
+      <c r="D32" s="133"/>
     </row>
     <row r="33" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="132"/>
-      <c r="C33" s="134"/>
-      <c r="D33" s="136"/>
+      <c r="B33" s="129"/>
+      <c r="C33" s="131"/>
+      <c r="D33" s="133"/>
     </row>
     <row r="34" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="132"/>
-      <c r="C34" s="134"/>
-      <c r="D34" s="136"/>
+      <c r="B34" s="129"/>
+      <c r="C34" s="131"/>
+      <c r="D34" s="133"/>
     </row>
     <row r="35" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="132"/>
-      <c r="C35" s="134"/>
-      <c r="D35" s="136"/>
+      <c r="B35" s="129"/>
+      <c r="C35" s="131"/>
+      <c r="D35" s="133"/>
     </row>
     <row r="36" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="132"/>
-      <c r="C36" s="134"/>
-      <c r="D36" s="136"/>
+      <c r="B36" s="129"/>
+      <c r="C36" s="131"/>
+      <c r="D36" s="133"/>
     </row>
     <row r="37" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="132"/>
-      <c r="C37" s="134"/>
-      <c r="D37" s="136"/>
+      <c r="B37" s="129"/>
+      <c r="C37" s="131"/>
+      <c r="D37" s="133"/>
     </row>
     <row r="38" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="39" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4313,8 +4262,8 @@
   </sheetPr>
   <dimension ref="A1:Y1091"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView showGridLines="0" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105:D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4328,11 +4277,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="153" t="s">
+      <c r="B1" s="146" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4356,79 +4305,79 @@
       <c r="Y1" s="2"/>
     </row>
     <row r="2" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="83" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="86">
+      <c r="B3" s="84">
         <v>44459</v>
       </c>
       <c r="C3" s="13">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D3" s="87" t="s">
+      <c r="D3" s="85" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="86">
+      <c r="B4" s="84">
         <v>44462</v>
       </c>
       <c r="C4" s="13">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="85" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="86">
+      <c r="B5" s="84">
         <v>44463</v>
       </c>
       <c r="C5" s="13">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="D5" s="87" t="s">
+      <c r="D5" s="85" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="86">
+      <c r="B6" s="84">
         <v>44464</v>
       </c>
       <c r="C6" s="13">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D6" s="87" t="s">
+      <c r="D6" s="85" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="86">
+      <c r="B7" s="84">
         <v>44466</v>
       </c>
       <c r="C7" s="13">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D7" s="87" t="s">
+      <c r="D7" s="85" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="86">
+      <c r="B8" s="84">
         <v>44467</v>
       </c>
       <c r="C8" s="13">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D8" s="88" t="s">
+      <c r="D8" s="86" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4439,1120 +4388,1120 @@
       <c r="C9" s="38">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D9" s="89" t="s">
+      <c r="D9" s="87" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="86">
+      <c r="B10" s="84">
         <v>44479</v>
       </c>
       <c r="C10" s="36">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D10" s="90" t="s">
+      <c r="D10" s="88" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="86">
+      <c r="B11" s="84">
         <v>44480</v>
       </c>
       <c r="C11" s="13">
         <v>3.125E-2</v>
       </c>
-      <c r="D11" s="87" t="s">
+      <c r="D11" s="85" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="86">
+      <c r="B12" s="84">
         <v>44480</v>
       </c>
       <c r="C12" s="13">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D12" s="87" t="s">
+      <c r="D12" s="85" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
-      <c r="B13" s="86">
+      <c r="B13" s="84">
         <v>44482</v>
       </c>
       <c r="C13" s="13">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D13" s="87" t="s">
+      <c r="D13" s="85" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="86">
+      <c r="B14" s="84">
         <v>44482</v>
       </c>
       <c r="C14" s="13">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D14" s="87" t="s">
+      <c r="D14" s="85" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:25" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="86">
+      <c r="B15" s="84">
         <v>44482</v>
       </c>
       <c r="C15" s="13">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D15" s="87" t="s">
+      <c r="D15" s="85" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:25" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="86">
+      <c r="B16" s="84">
         <v>44484</v>
       </c>
       <c r="C16" s="13">
         <v>0.125</v>
       </c>
-      <c r="D16" s="87" t="s">
+      <c r="D16" s="85" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="86">
+      <c r="B17" s="84">
         <v>44484</v>
       </c>
       <c r="C17" s="13">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D17" s="87" t="s">
+      <c r="D17" s="85" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="86">
+      <c r="B18" s="84">
         <v>44485</v>
       </c>
       <c r="C18" s="13">
         <v>0.10416666666666667</v>
       </c>
-      <c r="D18" s="87" t="s">
+      <c r="D18" s="85" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="86">
+      <c r="B19" s="84">
         <v>44487</v>
       </c>
       <c r="C19" s="13">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="D19" s="87" t="s">
+      <c r="D19" s="85" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="20" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="86">
+      <c r="B20" s="84">
         <v>44491</v>
       </c>
       <c r="C20" s="36">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D20" s="91" t="s">
+      <c r="D20" s="89" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="21" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="86">
+      <c r="B21" s="84">
         <v>44493</v>
       </c>
       <c r="C21" s="13">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="D21" s="92" t="s">
+      <c r="D21" s="90" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="86">
+      <c r="B22" s="84">
         <v>44494</v>
       </c>
       <c r="C22" s="13">
         <v>3.125E-2</v>
       </c>
-      <c r="D22" s="92" t="s">
+      <c r="D22" s="90" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="23" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="86">
+      <c r="B23" s="84">
         <v>44494</v>
       </c>
       <c r="C23" s="13">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D23" s="92" t="s">
+      <c r="D23" s="90" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="86">
+      <c r="B24" s="84">
         <v>44497</v>
       </c>
       <c r="C24" s="13">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D24" s="92" t="s">
+      <c r="D24" s="90" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="25" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="86">
+      <c r="B25" s="84">
         <v>44497</v>
       </c>
       <c r="C25" s="13">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D25" s="92" t="s">
+      <c r="D25" s="90" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="26" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="86">
+      <c r="B26" s="84">
         <v>44497</v>
       </c>
       <c r="C26" s="13">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D26" s="92" t="s">
+      <c r="D26" s="90" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="27" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="86">
+      <c r="B27" s="84">
         <v>44501</v>
       </c>
       <c r="C27" s="13">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D27" s="92" t="s">
+      <c r="D27" s="90" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="28" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="86">
+      <c r="B28" s="84">
         <v>44504</v>
       </c>
       <c r="C28" s="13">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="D28" s="92" t="s">
+      <c r="D28" s="90" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="29" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="80">
+      <c r="B29" s="78">
         <v>44505</v>
       </c>
-      <c r="C29" s="60">
+      <c r="C29" s="59">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D29" s="93" t="s">
+      <c r="D29" s="91" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="30" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="86">
+      <c r="B30" s="84">
         <v>44506</v>
       </c>
       <c r="C30" s="36">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D30" s="91" t="s">
+      <c r="D30" s="89" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="31" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="86">
+      <c r="B31" s="84">
         <v>44515</v>
       </c>
       <c r="C31" s="13">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D31" s="92" t="s">
+      <c r="D31" s="90" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="32" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="86">
+      <c r="B32" s="84">
         <v>44517</v>
       </c>
       <c r="C32" s="13">
         <v>0.1875</v>
       </c>
-      <c r="D32" s="92" t="s">
+      <c r="D32" s="90" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="33" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="86">
+      <c r="B33" s="84">
         <v>44518</v>
       </c>
       <c r="C33" s="13">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D33" s="92" t="s">
+      <c r="D33" s="90" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="34" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="94">
+      <c r="B34" s="92">
         <v>44519</v>
       </c>
       <c r="C34" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D34" s="92" t="s">
+      <c r="D34" s="90" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="35" spans="2:4" s="14" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="94">
+      <c r="B35" s="92">
         <v>44519</v>
       </c>
       <c r="C35" s="46">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D35" s="92" t="s">
+      <c r="D35" s="90" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="36" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="95">
+      <c r="B36" s="93">
         <v>44521</v>
       </c>
       <c r="C36" s="46">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D36" s="96" t="s">
+      <c r="D36" s="94" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="37" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="95">
+      <c r="B37" s="93">
         <v>44524</v>
       </c>
       <c r="C37" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D37" s="96" t="s">
+      <c r="D37" s="94" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="38" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="95">
+      <c r="B38" s="93">
         <v>44525</v>
       </c>
       <c r="C38" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D38" s="96" t="s">
+      <c r="D38" s="94" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="39" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="59">
+      <c r="B39" s="58">
         <v>44525</v>
       </c>
-      <c r="C39" s="60">
+      <c r="C39" s="59">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D39" s="97" t="s">
+      <c r="D39" s="95" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="40" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="95">
+      <c r="B40" s="93">
         <v>44528</v>
       </c>
       <c r="C40" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D40" s="96" t="s">
+      <c r="D40" s="94" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="41" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="95">
+      <c r="B41" s="93">
         <v>44543</v>
       </c>
       <c r="C41" s="46">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D41" s="96" t="s">
+      <c r="D41" s="94" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="42" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="95">
+      <c r="B42" s="93">
         <v>44543</v>
       </c>
       <c r="C42" s="46">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D42" s="96" t="s">
+      <c r="D42" s="94" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="43" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="95">
+      <c r="B43" s="93">
         <v>44543</v>
       </c>
       <c r="C43" s="46">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D43" s="96" t="s">
+      <c r="D43" s="94" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="44" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="95">
+      <c r="B44" s="93">
         <v>44544</v>
       </c>
       <c r="C44" s="46">
         <v>6.25E-2</v>
       </c>
-      <c r="D44" s="96" t="s">
+      <c r="D44" s="94" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="45" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="95">
+      <c r="B45" s="93">
         <v>44545</v>
       </c>
       <c r="C45" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D45" s="96" t="s">
+      <c r="D45" s="94" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="46" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="95">
+      <c r="B46" s="93">
         <v>44545</v>
       </c>
       <c r="C46" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D46" s="96" t="s">
+      <c r="D46" s="94" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="47" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="95">
+      <c r="B47" s="93">
         <v>44545</v>
       </c>
       <c r="C47" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D47" s="96" t="s">
+      <c r="D47" s="94" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="48" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="95">
+      <c r="B48" s="93">
         <v>44546</v>
       </c>
       <c r="C48" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D48" s="96" t="s">
+      <c r="D48" s="94" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="49" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="95">
+      <c r="B49" s="93">
         <v>44546</v>
       </c>
       <c r="C49" s="46">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="D49" s="96" t="s">
+      <c r="D49" s="94" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="50" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="59">
+      <c r="B50" s="58">
         <v>44547</v>
       </c>
-      <c r="C50" s="60">
+      <c r="C50" s="59">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D50" s="97" t="s">
+      <c r="D50" s="95" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="51" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="95">
+      <c r="B51" s="93">
         <v>44548</v>
       </c>
-      <c r="C51" s="70">
+      <c r="C51" s="68">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D51" s="98" t="s">
+      <c r="D51" s="96" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="95">
+      <c r="B52" s="93">
         <v>44585</v>
       </c>
       <c r="C52" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D52" s="96" t="s">
+      <c r="D52" s="94" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="95">
+      <c r="B53" s="93">
         <v>44585</v>
       </c>
       <c r="C53" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D53" s="96" t="s">
+      <c r="D53" s="94" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="54" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="59">
+      <c r="B54" s="58">
         <v>44586</v>
       </c>
-      <c r="C54" s="60">
+      <c r="C54" s="59">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D54" s="97" t="s">
+      <c r="D54" s="95" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="95">
+      <c r="B55" s="93">
         <v>44587</v>
       </c>
-      <c r="C55" s="70">
+      <c r="C55" s="68">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D55" s="98" t="s">
+      <c r="D55" s="96" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="56" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="95">
+      <c r="B56" s="93">
         <v>44587</v>
       </c>
       <c r="C56" s="46">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="D56" s="96" t="s">
+      <c r="D56" s="94" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="57" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="95">
+      <c r="B57" s="93">
         <v>44587</v>
       </c>
       <c r="C57" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D57" s="96" t="s">
+      <c r="D57" s="94" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="58" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="95">
+      <c r="B58" s="93">
         <v>44590</v>
       </c>
       <c r="C58" s="46">
         <v>6.25E-2</v>
       </c>
-      <c r="D58" s="96" t="s">
+      <c r="D58" s="94" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="59" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="95">
+      <c r="B59" s="93">
         <v>44614</v>
       </c>
       <c r="C59" s="46">
         <v>0.10416666666666667</v>
       </c>
-      <c r="D59" s="96" t="s">
+      <c r="D59" s="94" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="60" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="95">
+      <c r="B60" s="93">
         <v>44614</v>
       </c>
       <c r="C60" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D60" s="96" t="s">
+      <c r="D60" s="94" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="61" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="95">
+      <c r="B61" s="93">
         <v>44614</v>
       </c>
       <c r="C61" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D61" s="96" t="s">
+      <c r="D61" s="94" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="62" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="95">
+      <c r="B62" s="93">
         <v>44615</v>
       </c>
       <c r="C62" s="46">
         <v>6.25E-2</v>
       </c>
-      <c r="D62" s="96" t="s">
+      <c r="D62" s="94" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="63" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="95">
+      <c r="B63" s="93">
         <v>44621</v>
       </c>
       <c r="C63" s="46">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D63" s="96" t="s">
+      <c r="D63" s="94" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="64" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="59">
+      <c r="B64" s="58">
         <v>44621</v>
       </c>
-      <c r="C64" s="60">
+      <c r="C64" s="59">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D64" s="97" t="s">
+      <c r="D64" s="95" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="65" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="95">
+      <c r="B65" s="93">
         <v>44625</v>
       </c>
       <c r="C65" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D65" s="96" t="s">
+      <c r="D65" s="94" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="66" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="95">
+      <c r="B66" s="93">
         <v>44629</v>
       </c>
       <c r="C66" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D66" s="96" t="s">
+      <c r="D66" s="94" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="67" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="95">
+      <c r="B67" s="93">
         <v>44633</v>
       </c>
       <c r="C67" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D67" s="96" t="s">
+      <c r="D67" s="94" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="68" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="95">
+      <c r="B68" s="93">
         <v>44633</v>
       </c>
       <c r="C68" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D68" s="96" t="s">
+      <c r="D68" s="94" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="69" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="95">
+      <c r="B69" s="93">
         <v>44633</v>
       </c>
       <c r="C69" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D69" s="96" t="s">
+      <c r="D69" s="94" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="70" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="95">
+      <c r="B70" s="93">
         <v>44633</v>
       </c>
       <c r="C70" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D70" s="96" t="s">
+      <c r="D70" s="94" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="71" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="95">
+      <c r="B71" s="93">
         <v>44634</v>
       </c>
       <c r="C71" s="46">
         <v>0.10416666666666667</v>
       </c>
-      <c r="D71" s="96" t="s">
+      <c r="D71" s="94" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="72" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="95">
+      <c r="B72" s="93">
         <v>44634</v>
       </c>
       <c r="C72" s="46">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D72" s="96" t="s">
+      <c r="D72" s="94" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="73" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="95">
+      <c r="B73" s="93">
         <v>44642</v>
       </c>
       <c r="C73" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D73" s="96" t="s">
+      <c r="D73" s="94" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="74" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="95">
+      <c r="B74" s="93">
         <v>44642</v>
       </c>
       <c r="C74" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D74" s="96" t="s">
+      <c r="D74" s="94" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="75" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="95">
+      <c r="B75" s="93">
         <v>44642</v>
       </c>
       <c r="C75" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D75" s="96" t="s">
+      <c r="D75" s="94" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="76" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="95">
+      <c r="B76" s="93">
         <v>44642</v>
       </c>
       <c r="C76" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D76" s="96" t="s">
+      <c r="D76" s="94" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="77" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="95">
+      <c r="B77" s="93">
         <v>44642</v>
       </c>
       <c r="C77" s="46">
         <v>6.25E-2</v>
       </c>
-      <c r="D77" s="96" t="s">
+      <c r="D77" s="94" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="78" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="95">
+      <c r="B78" s="93">
         <v>44642</v>
       </c>
       <c r="C78" s="46">
         <v>0.10416666666666667</v>
       </c>
-      <c r="D78" s="96" t="s">
+      <c r="D78" s="94" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="79" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="59">
+      <c r="B79" s="58">
         <v>44642</v>
       </c>
-      <c r="C79" s="60">
+      <c r="C79" s="59">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D79" s="97" t="s">
+      <c r="D79" s="95" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="80" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="95">
+      <c r="B80" s="93">
         <v>44646</v>
       </c>
-      <c r="C80" s="70">
+      <c r="C80" s="68">
         <v>6.25E-2</v>
       </c>
-      <c r="D80" s="98" t="s">
+      <c r="D80" s="96" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="81" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="95">
+      <c r="B81" s="93">
         <v>44647</v>
       </c>
       <c r="C81" s="46">
         <v>6.25E-2</v>
       </c>
-      <c r="D81" s="96" t="s">
+      <c r="D81" s="94" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="82" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="95">
+      <c r="B82" s="93">
         <v>44648</v>
       </c>
       <c r="C82" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D82" s="96" t="s">
+      <c r="D82" s="94" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="83" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="95">
+      <c r="B83" s="93">
         <v>44650</v>
       </c>
       <c r="C83" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D83" s="96" t="s">
+      <c r="D83" s="94" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="84" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="95">
+      <c r="B84" s="93">
         <v>44653</v>
       </c>
       <c r="C84" s="46">
         <v>0.11458333333333333</v>
       </c>
-      <c r="D84" s="96" t="s">
+      <c r="D84" s="94" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="85" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="95">
+      <c r="B85" s="93">
         <v>44653</v>
       </c>
       <c r="C85" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D85" s="96" t="s">
+      <c r="D85" s="94" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="86" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="95">
+      <c r="B86" s="93">
         <v>44656</v>
       </c>
       <c r="C86" s="46">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="D86" s="96" t="s">
+      <c r="D86" s="94" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="87" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="95">
+      <c r="B87" s="93">
         <v>44657</v>
       </c>
       <c r="C87" s="46">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D87" s="96" t="s">
+      <c r="D87" s="94" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="88" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="95">
+      <c r="B88" s="93">
         <v>44661</v>
       </c>
       <c r="C88" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D88" s="96" t="s">
+      <c r="D88" s="94" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="89" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="95">
+      <c r="B89" s="93">
         <v>44661</v>
       </c>
       <c r="C89" s="46">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="D89" s="96" t="s">
+      <c r="D89" s="94" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="90" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="95">
+      <c r="B90" s="93">
         <v>44661</v>
       </c>
       <c r="C90" s="46">
         <v>6.25E-2</v>
       </c>
-      <c r="D90" s="96" t="s">
+      <c r="D90" s="94" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="91" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="95">
+      <c r="B91" s="93">
         <v>44662</v>
       </c>
       <c r="C91" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D91" s="96" t="s">
+      <c r="D91" s="94" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="92" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="59">
+      <c r="B92" s="58">
         <v>44662</v>
       </c>
-      <c r="C92" s="60">
+      <c r="C92" s="59">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="D92" s="97" t="s">
+      <c r="D92" s="95" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="93" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="95">
+      <c r="B93" s="93">
         <v>44677</v>
       </c>
-      <c r="C93" s="70">
+      <c r="C93" s="68">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D93" s="98" t="s">
+      <c r="D93" s="96" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="94" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="59">
+      <c r="B94" s="58">
         <v>44685</v>
       </c>
-      <c r="C94" s="60" t="s">
+      <c r="C94" s="59" t="s">
         <v>310</v>
       </c>
-      <c r="D94" s="97" t="s">
+      <c r="D94" s="95" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="95" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B95" s="95">
+      <c r="B95" s="93">
         <v>44691</v>
       </c>
-      <c r="C95" s="70">
+      <c r="C95" s="68">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D95" s="98" t="s">
+      <c r="D95" s="96" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="96" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B96" s="95">
+      <c r="B96" s="93">
         <v>44692</v>
       </c>
       <c r="C96" s="46">
         <v>6.25E-2</v>
       </c>
-      <c r="D96" s="96" t="s">
+      <c r="D96" s="94" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="97" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B97" s="95">
+      <c r="B97" s="93">
         <v>44694</v>
       </c>
       <c r="C97" s="46">
         <v>6.25E-2</v>
       </c>
-      <c r="D97" s="96" t="s">
+      <c r="D97" s="94" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="98" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="95">
+      <c r="B98" s="93">
         <v>44694</v>
       </c>
       <c r="C98" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D98" s="96" t="s">
+      <c r="D98" s="94" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="99" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="95">
+      <c r="B99" s="93">
         <v>44697</v>
       </c>
       <c r="C99" s="46">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D99" s="96" t="s">
+      <c r="D99" s="94" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="100" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B100" s="95">
+      <c r="B100" s="93">
         <v>44697</v>
       </c>
       <c r="C100" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D100" s="96" t="s">
+      <c r="D100" s="94" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="101" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B101" s="95">
+      <c r="B101" s="93">
         <v>44697</v>
       </c>
       <c r="C101" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D101" s="96" t="s">
+      <c r="D101" s="94" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="102" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B102" s="95">
+      <c r="B102" s="93">
         <v>44697</v>
       </c>
       <c r="C102" s="46">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D102" s="96" t="s">
+      <c r="D102" s="94" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="103" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B103" s="95">
+      <c r="B103" s="93">
         <v>44697</v>
       </c>
       <c r="C103" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D103" s="96" t="s">
+      <c r="D103" s="94" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="104" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="95">
+      <c r="B104" s="93">
         <v>44697</v>
       </c>
       <c r="C104" s="46">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D104" s="96" t="s">
+      <c r="D104" s="94" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="105" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B105" s="69">
+      <c r="B105" s="93">
         <v>44704</v>
       </c>
-      <c r="C105" s="55">
+      <c r="C105" s="46">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D105" s="99" t="s">
+      <c r="D105" s="94" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="106" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B106" s="69">
+      <c r="B106" s="93">
         <v>44704</v>
       </c>
-      <c r="C106" s="55">
+      <c r="C106" s="46">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="D106" s="99" t="s">
+      <c r="D106" s="94" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="107" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B107" s="69">
+      <c r="B107" s="93">
         <v>44704</v>
       </c>
-      <c r="C107" s="55">
+      <c r="C107" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D107" s="99" t="s">
+      <c r="D107" s="94" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="108" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B108" s="69">
+      <c r="B108" s="93">
         <v>44704</v>
       </c>
-      <c r="C108" s="55">
+      <c r="C108" s="46">
         <v>6.25E-2</v>
       </c>
-      <c r="D108" s="99" t="s">
+      <c r="D108" s="94" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="109" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B109" s="69">
+      <c r="B109" s="93">
         <v>44704</v>
       </c>
-      <c r="C109" s="55">
+      <c r="C109" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D109" s="99" t="s">
+      <c r="D109" s="94" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="110" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B110" s="137"/>
-      <c r="C110" s="138"/>
-      <c r="D110" s="92"/>
+      <c r="B110" s="134"/>
+      <c r="C110" s="135"/>
+      <c r="D110" s="90"/>
     </row>
     <row r="111" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="139"/>
-      <c r="C111" s="140"/>
-      <c r="D111" s="141"/>
+      <c r="B111" s="136"/>
+      <c r="C111" s="137"/>
+      <c r="D111" s="138"/>
     </row>
     <row r="112" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="113" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6554,8 +6503,8 @@
   </sheetPr>
   <dimension ref="A1:Y1016"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85:D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6569,11 +6518,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="153" t="s">
+      <c r="B1" s="146" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -6883,13 +6832,13 @@
       </c>
     </row>
     <row r="28" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="61">
+      <c r="B28" s="60">
         <v>44525</v>
       </c>
       <c r="C28" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D28" s="62" t="s">
+      <c r="D28" s="61" t="s">
         <v>146</v>
       </c>
     </row>
@@ -7015,13 +6964,13 @@
       </c>
     </row>
     <row r="40" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="61">
+      <c r="B40" s="60">
         <v>44546</v>
       </c>
       <c r="C40" s="45">
         <v>3.125E-2</v>
       </c>
-      <c r="D40" s="62" t="s">
+      <c r="D40" s="61" t="s">
         <v>155</v>
       </c>
     </row>
@@ -7032,7 +6981,7 @@
       <c r="C41" s="43">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D41" s="71" t="s">
+      <c r="D41" s="69" t="s">
         <v>179</v>
       </c>
     </row>
@@ -7092,13 +7041,13 @@
       </c>
     </row>
     <row r="47" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="61">
+      <c r="B47" s="60">
         <v>44586</v>
       </c>
       <c r="C47" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D47" s="62" t="s">
+      <c r="D47" s="61" t="s">
         <v>197</v>
       </c>
     </row>
@@ -7109,7 +7058,7 @@
       <c r="C48" s="43">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D48" s="71" t="s">
+      <c r="D48" s="69" t="s">
         <v>198</v>
       </c>
     </row>
@@ -7158,13 +7107,13 @@
       </c>
     </row>
     <row r="53" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="61">
+      <c r="B53" s="60">
         <v>44621</v>
       </c>
       <c r="C53" s="45">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D53" s="62" t="s">
+      <c r="D53" s="61" t="s">
         <v>230</v>
       </c>
     </row>
@@ -7257,186 +7206,186 @@
       </c>
     </row>
     <row r="62" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="118">
+      <c r="B62" s="115">
         <v>44648</v>
       </c>
-      <c r="C62" s="119">
+      <c r="C62" s="116">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D62" s="120" t="s">
+      <c r="D62" s="117" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="63" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="118">
+      <c r="B63" s="115">
         <v>44650</v>
       </c>
-      <c r="C63" s="119">
+      <c r="C63" s="116">
         <v>3.125E-2</v>
       </c>
-      <c r="D63" s="120" t="s">
+      <c r="D63" s="117" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="64" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="118">
+      <c r="B64" s="115">
         <v>44650</v>
       </c>
-      <c r="C64" s="121">
+      <c r="C64" s="118">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D64" s="122" t="s">
+      <c r="D64" s="119" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="65" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="118">
+      <c r="B65" s="115">
         <v>44656</v>
       </c>
-      <c r="C65" s="121">
+      <c r="C65" s="118">
         <v>6.25E-2</v>
       </c>
-      <c r="D65" s="122" t="s">
+      <c r="D65" s="119" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="66" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="118">
+      <c r="B66" s="115">
         <v>44657</v>
       </c>
-      <c r="C66" s="121">
+      <c r="C66" s="118">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D66" s="122" t="s">
+      <c r="D66" s="119" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="67" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="61">
+      <c r="B67" s="60">
         <v>44657</v>
       </c>
       <c r="C67" s="45">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D67" s="62" t="s">
+      <c r="D67" s="61" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="68" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="118">
+      <c r="B68" s="115">
         <v>44676</v>
       </c>
-      <c r="C68" s="121">
+      <c r="C68" s="118">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D68" s="122" t="s">
+      <c r="D68" s="119" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="69" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="118">
+      <c r="B69" s="115">
         <v>44677</v>
       </c>
-      <c r="C69" s="121">
+      <c r="C69" s="118">
         <v>9.375E-2</v>
       </c>
-      <c r="D69" s="122" t="s">
+      <c r="D69" s="119" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="70" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="118">
+      <c r="B70" s="115">
         <v>44681</v>
       </c>
-      <c r="C70" s="121">
+      <c r="C70" s="118">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D70" s="122" t="s">
+      <c r="D70" s="119" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="71" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="118">
+      <c r="B71" s="115">
         <v>44681</v>
       </c>
-      <c r="C71" s="121">
+      <c r="C71" s="118">
         <v>3.125E-2</v>
       </c>
-      <c r="D71" s="122" t="s">
+      <c r="D71" s="119" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="72" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="118">
+      <c r="B72" s="115">
         <v>44684</v>
       </c>
-      <c r="C72" s="121">
+      <c r="C72" s="118">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D72" s="122" t="s">
+      <c r="D72" s="119" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="73" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="118">
+      <c r="B73" s="115">
         <v>44687</v>
       </c>
-      <c r="C73" s="121">
+      <c r="C73" s="118">
         <v>0.125</v>
       </c>
-      <c r="D73" s="122" t="s">
+      <c r="D73" s="119" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="74" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="118">
+      <c r="B74" s="115">
         <v>44689</v>
       </c>
-      <c r="C74" s="121">
+      <c r="C74" s="118">
         <v>6.25E-2</v>
       </c>
-      <c r="D74" s="122" t="s">
+      <c r="D74" s="119" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="75" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="118">
+      <c r="B75" s="115">
         <v>44690</v>
       </c>
-      <c r="C75" s="121">
+      <c r="C75" s="118">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D75" s="122" t="s">
+      <c r="D75" s="119" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="76" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="125">
+      <c r="B76" s="122">
         <v>44690</v>
       </c>
-      <c r="C76" s="126">
+      <c r="C76" s="123">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D76" s="127" t="s">
+      <c r="D76" s="124" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="77" spans="2:4" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="118">
+      <c r="B77" s="115">
         <v>44697</v>
       </c>
-      <c r="C77" s="123">
+      <c r="C77" s="120">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D77" s="124" t="s">
+      <c r="D77" s="121" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="78" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="118">
+      <c r="B78" s="115">
         <v>44697</v>
       </c>
-      <c r="C78" s="119">
+      <c r="C78" s="116">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D78" s="11" t="s">
@@ -7444,10 +7393,10 @@
       </c>
     </row>
     <row r="79" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="118">
+      <c r="B79" s="115">
         <v>44699</v>
       </c>
-      <c r="C79" s="119">
+      <c r="C79" s="116">
         <v>0.125</v>
       </c>
       <c r="D79" s="11" t="s">
@@ -7455,10 +7404,10 @@
       </c>
     </row>
     <row r="80" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="118">
+      <c r="B80" s="115">
         <v>44700</v>
       </c>
-      <c r="C80" s="119">
+      <c r="C80" s="116">
         <v>6.25E-2</v>
       </c>
       <c r="D80" s="11" t="s">
@@ -7466,10 +7415,10 @@
       </c>
     </row>
     <row r="81" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="118">
+      <c r="B81" s="115">
         <v>44702</v>
       </c>
-      <c r="C81" s="119">
+      <c r="C81" s="116">
         <v>0.125</v>
       </c>
       <c r="D81" s="11" t="s">
@@ -7477,41 +7426,79 @@
       </c>
     </row>
     <row r="82" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="155">
+      <c r="B82" s="115">
         <v>44703</v>
       </c>
-      <c r="C82" s="156">
+      <c r="C82" s="116">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D82" s="148" t="s">
+      <c r="D82" s="11" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="83" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="155">
+      <c r="B83" s="115">
         <v>44704</v>
       </c>
-      <c r="C83" s="156">
+      <c r="C83" s="116">
         <v>0.125</v>
       </c>
-      <c r="D83" s="148" t="s">
+      <c r="D83" s="11" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="84" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="142"/>
-      <c r="C84" s="143"/>
-      <c r="D84" s="144"/>
-    </row>
-    <row r="85" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="B84" s="115">
+        <v>44704</v>
+      </c>
+      <c r="C84" s="116">
+        <v>0.125</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B85" s="16">
+        <v>44705</v>
+      </c>
+      <c r="C85" s="15">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B86" s="16"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="11"/>
+    </row>
     <row r="87" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="14"/>
-    </row>
-    <row r="88" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="11"/>
+    </row>
+    <row r="88" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B88" s="16"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="11"/>
+    </row>
+    <row r="89" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B89" s="16"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="11"/>
+    </row>
+    <row r="90" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B90" s="16"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="11"/>
+    </row>
+    <row r="91" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B91" s="16"/>
+      <c r="C91" s="148"/>
+      <c r="D91" s="26"/>
+    </row>
     <row r="92" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="93" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="94" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8457,8 +8444,8 @@
   </sheetPr>
   <dimension ref="A1:Z1100"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A135" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D145" sqref="D145"/>
+    <sheetView showGridLines="0" topLeftCell="A132" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B143" sqref="B143:D143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8472,11 +8459,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="153" t="s">
+      <c r="B1" s="146" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -8987,10 +8974,10 @@
       <c r="B44" s="18">
         <v>44506</v>
       </c>
-      <c r="C44" s="79">
+      <c r="C44" s="77">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D44" s="78" t="s">
+      <c r="D44" s="76" t="s">
         <v>113</v>
       </c>
     </row>
@@ -9083,13 +9070,13 @@
       </c>
     </row>
     <row r="53" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="63">
+      <c r="B53" s="62">
         <v>44526</v>
       </c>
       <c r="C53" s="42">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D53" s="62" t="s">
+      <c r="D53" s="61" t="s">
         <v>148</v>
       </c>
     </row>
@@ -9160,7 +9147,7 @@
       </c>
     </row>
     <row r="60" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="66">
+      <c r="B60" s="65">
         <v>44543</v>
       </c>
       <c r="C60" s="19">
@@ -9171,29 +9158,29 @@
       </c>
     </row>
     <row r="61" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="63">
+      <c r="B61" s="62">
         <v>44546</v>
       </c>
       <c r="C61" s="42">
         <v>0.22916666666666666</v>
       </c>
-      <c r="D61" s="62" t="s">
+      <c r="D61" s="61" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="62" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="66">
+      <c r="B62" s="65">
         <v>44548</v>
       </c>
       <c r="C62" s="19">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D62" s="71" t="s">
+      <c r="D62" s="69" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="63" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="66">
+      <c r="B63" s="65">
         <v>44550</v>
       </c>
       <c r="C63" s="19">
@@ -9204,7 +9191,7 @@
       </c>
     </row>
     <row r="64" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="66">
+      <c r="B64" s="65">
         <v>44553</v>
       </c>
       <c r="C64" s="19">
@@ -9215,7 +9202,7 @@
       </c>
     </row>
     <row r="65" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="66">
+      <c r="B65" s="65">
         <v>44573</v>
       </c>
       <c r="C65" s="19">
@@ -9226,7 +9213,7 @@
       </c>
     </row>
     <row r="66" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="66">
+      <c r="B66" s="65">
         <v>44573</v>
       </c>
       <c r="C66" s="19">
@@ -9237,7 +9224,7 @@
       </c>
     </row>
     <row r="67" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="66">
+      <c r="B67" s="65">
         <v>44574</v>
       </c>
       <c r="C67" s="19">
@@ -9248,32 +9235,32 @@
       </c>
     </row>
     <row r="68" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="63">
+      <c r="B68" s="62">
         <v>44586</v>
       </c>
       <c r="C68" s="42">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="D68" s="62" t="s">
+      <c r="D68" s="61" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="69" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="66">
+      <c r="B69" s="65">
         <v>44587</v>
       </c>
       <c r="C69" s="19">
         <v>0.125</v>
       </c>
-      <c r="D69" s="71" t="s">
+      <c r="D69" s="69" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="70" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="100">
+      <c r="B70" s="97">
         <v>44587</v>
       </c>
-      <c r="C70" s="101">
+      <c r="C70" s="98">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D70" s="51" t="s">
@@ -9281,10 +9268,10 @@
       </c>
     </row>
     <row r="71" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="100">
+      <c r="B71" s="97">
         <v>44587</v>
       </c>
-      <c r="C71" s="101">
+      <c r="C71" s="98">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D71" s="51" t="s">
@@ -9292,10 +9279,10 @@
       </c>
     </row>
     <row r="72" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="100">
+      <c r="B72" s="97">
         <v>44590</v>
       </c>
-      <c r="C72" s="101">
+      <c r="C72" s="98">
         <v>6.25E-2</v>
       </c>
       <c r="D72" s="51" t="s">
@@ -9303,10 +9290,10 @@
       </c>
     </row>
     <row r="73" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="100">
+      <c r="B73" s="97">
         <v>44600</v>
       </c>
-      <c r="C73" s="101">
+      <c r="C73" s="98">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D73" s="51" t="s">
@@ -9314,10 +9301,10 @@
       </c>
     </row>
     <row r="74" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="100">
+      <c r="B74" s="97">
         <v>44600</v>
       </c>
-      <c r="C74" s="101">
+      <c r="C74" s="98">
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="D74" s="51" t="s">
@@ -9325,10 +9312,10 @@
       </c>
     </row>
     <row r="75" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="100">
+      <c r="B75" s="97">
         <v>44600</v>
       </c>
-      <c r="C75" s="101">
+      <c r="C75" s="98">
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="D75" s="51" t="s">
@@ -9336,10 +9323,10 @@
       </c>
     </row>
     <row r="76" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="100">
+      <c r="B76" s="97">
         <v>44611</v>
       </c>
-      <c r="C76" s="101">
+      <c r="C76" s="98">
         <v>0.10416666666666667</v>
       </c>
       <c r="D76" s="51" t="s">
@@ -9347,10 +9334,10 @@
       </c>
     </row>
     <row r="77" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="100">
+      <c r="B77" s="97">
         <v>44611</v>
       </c>
-      <c r="C77" s="101">
+      <c r="C77" s="98">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D77" s="51" t="s">
@@ -9358,10 +9345,10 @@
       </c>
     </row>
     <row r="78" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="100">
+      <c r="B78" s="97">
         <v>44613</v>
       </c>
-      <c r="C78" s="101">
+      <c r="C78" s="98">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D78" s="51" t="s">
@@ -9369,10 +9356,10 @@
       </c>
     </row>
     <row r="79" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="100">
+      <c r="B79" s="97">
         <v>44613</v>
       </c>
-      <c r="C79" s="101">
+      <c r="C79" s="98">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D79" s="51" t="s">
@@ -9380,10 +9367,10 @@
       </c>
     </row>
     <row r="80" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="100">
+      <c r="B80" s="97">
         <v>44613</v>
       </c>
-      <c r="C80" s="101">
+      <c r="C80" s="98">
         <v>6.25E-2</v>
       </c>
       <c r="D80" s="51" t="s">
@@ -9391,10 +9378,10 @@
       </c>
     </row>
     <row r="81" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="100">
+      <c r="B81" s="97">
         <v>44614</v>
       </c>
-      <c r="C81" s="101">
+      <c r="C81" s="98">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D81" s="51" t="s">
@@ -9402,10 +9389,10 @@
       </c>
     </row>
     <row r="82" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="100">
+      <c r="B82" s="97">
         <v>44614</v>
       </c>
-      <c r="C82" s="101">
+      <c r="C82" s="98">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D82" s="51" t="s">
@@ -9413,10 +9400,10 @@
       </c>
     </row>
     <row r="83" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="100">
+      <c r="B83" s="97">
         <v>44614</v>
       </c>
-      <c r="C83" s="101">
+      <c r="C83" s="98">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D83" s="51" t="s">
@@ -9424,10 +9411,10 @@
       </c>
     </row>
     <row r="84" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="100">
+      <c r="B84" s="97">
         <v>44620</v>
       </c>
-      <c r="C84" s="101">
+      <c r="C84" s="98">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D84" s="51" t="s">
@@ -9435,10 +9422,10 @@
       </c>
     </row>
     <row r="85" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="100">
+      <c r="B85" s="97">
         <v>44620</v>
       </c>
-      <c r="C85" s="101">
+      <c r="C85" s="98">
         <v>0.14583333333333334</v>
       </c>
       <c r="D85" s="51" t="s">
@@ -9446,10 +9433,10 @@
       </c>
     </row>
     <row r="86" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="100">
+      <c r="B86" s="97">
         <v>44620</v>
       </c>
-      <c r="C86" s="101">
+      <c r="C86" s="98">
         <v>6.25E-2</v>
       </c>
       <c r="D86" s="51" t="s">
@@ -9457,10 +9444,10 @@
       </c>
     </row>
     <row r="87" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="100">
+      <c r="B87" s="97">
         <v>44620</v>
       </c>
-      <c r="C87" s="101">
+      <c r="C87" s="98">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D87" s="51" t="s">
@@ -9468,10 +9455,10 @@
       </c>
     </row>
     <row r="88" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="100">
+      <c r="B88" s="97">
         <v>44621</v>
       </c>
-      <c r="C88" s="101">
+      <c r="C88" s="98">
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="D88" s="51" t="s">
@@ -9479,10 +9466,10 @@
       </c>
     </row>
     <row r="89" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="100">
+      <c r="B89" s="97">
         <v>44621</v>
       </c>
-      <c r="C89" s="101">
+      <c r="C89" s="98">
         <v>6.25E-2</v>
       </c>
       <c r="D89" s="51" t="s">
@@ -9490,10 +9477,10 @@
       </c>
     </row>
     <row r="90" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="100">
+      <c r="B90" s="97">
         <v>44621</v>
       </c>
-      <c r="C90" s="101">
+      <c r="C90" s="98">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D90" s="51" t="s">
@@ -9501,32 +9488,32 @@
       </c>
     </row>
     <row r="91" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="116">
+      <c r="B91" s="113">
         <v>44621</v>
       </c>
-      <c r="C91" s="117">
+      <c r="C91" s="114">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D91" s="62" t="s">
+      <c r="D91" s="61" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="92" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="111">
+      <c r="B92" s="108">
         <v>44627</v>
       </c>
-      <c r="C92" s="112">
+      <c r="C92" s="109">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="D92" s="65" t="s">
+      <c r="D92" s="64" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="93" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="100">
+      <c r="B93" s="97">
         <v>44630</v>
       </c>
-      <c r="C93" s="101">
+      <c r="C93" s="98">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D93" s="51" t="s">
@@ -9534,10 +9521,10 @@
       </c>
     </row>
     <row r="94" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B94" s="100">
+      <c r="B94" s="97">
         <v>44633</v>
       </c>
-      <c r="C94" s="101">
+      <c r="C94" s="98">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D94" s="51" t="s">
@@ -9545,10 +9532,10 @@
       </c>
     </row>
     <row r="95" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B95" s="100">
+      <c r="B95" s="97">
         <v>44633</v>
       </c>
-      <c r="C95" s="101">
+      <c r="C95" s="98">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D95" s="51" t="s">
@@ -9556,10 +9543,10 @@
       </c>
     </row>
     <row r="96" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B96" s="100">
+      <c r="B96" s="97">
         <v>44633</v>
       </c>
-      <c r="C96" s="101">
+      <c r="C96" s="98">
         <v>3.125E-2</v>
       </c>
       <c r="D96" s="51" t="s">
@@ -9567,10 +9554,10 @@
       </c>
     </row>
     <row r="97" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B97" s="100">
+      <c r="B97" s="97">
         <v>44633</v>
       </c>
-      <c r="C97" s="101">
+      <c r="C97" s="98">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D97" s="51" t="s">
@@ -9578,10 +9565,10 @@
       </c>
     </row>
     <row r="98" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="100">
+      <c r="B98" s="97">
         <v>44633</v>
       </c>
-      <c r="C98" s="101">
+      <c r="C98" s="98">
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D98" s="51" t="s">
@@ -9589,10 +9576,10 @@
       </c>
     </row>
     <row r="99" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="100">
+      <c r="B99" s="97">
         <v>44639</v>
       </c>
-      <c r="C99" s="101">
+      <c r="C99" s="98">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D99" s="51" t="s">
@@ -9600,10 +9587,10 @@
       </c>
     </row>
     <row r="100" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B100" s="100">
+      <c r="B100" s="97">
         <v>44639</v>
       </c>
-      <c r="C100" s="101">
+      <c r="C100" s="98">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D100" s="51" t="s">
@@ -9611,10 +9598,10 @@
       </c>
     </row>
     <row r="101" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B101" s="100">
+      <c r="B101" s="97">
         <v>44639</v>
       </c>
-      <c r="C101" s="101">
+      <c r="C101" s="98">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D101" s="51" t="s">
@@ -9622,10 +9609,10 @@
       </c>
     </row>
     <row r="102" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B102" s="100">
+      <c r="B102" s="97">
         <v>44639</v>
       </c>
-      <c r="C102" s="101">
+      <c r="C102" s="98">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D102" s="51" t="s">
@@ -9633,10 +9620,10 @@
       </c>
     </row>
     <row r="103" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B103" s="100">
+      <c r="B103" s="97">
         <v>44639</v>
       </c>
-      <c r="C103" s="101">
+      <c r="C103" s="98">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D103" s="51" t="s">
@@ -9644,10 +9631,10 @@
       </c>
     </row>
     <row r="104" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="100">
+      <c r="B104" s="97">
         <v>44639</v>
       </c>
-      <c r="C104" s="101">
+      <c r="C104" s="98">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="D104" s="51" t="s">
@@ -9655,10 +9642,10 @@
       </c>
     </row>
     <row r="105" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B105" s="100">
+      <c r="B105" s="97">
         <v>44642</v>
       </c>
-      <c r="C105" s="101">
+      <c r="C105" s="98">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D105" s="51" t="s">
@@ -9666,10 +9653,10 @@
       </c>
     </row>
     <row r="106" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B106" s="100">
+      <c r="B106" s="97">
         <v>44642</v>
       </c>
-      <c r="C106" s="101">
+      <c r="C106" s="98">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D106" s="51" t="s">
@@ -9677,10 +9664,10 @@
       </c>
     </row>
     <row r="107" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B107" s="100">
+      <c r="B107" s="97">
         <v>44642</v>
       </c>
-      <c r="C107" s="101">
+      <c r="C107" s="98">
         <v>6.25E-2</v>
       </c>
       <c r="D107" s="51" t="s">
@@ -9688,10 +9675,10 @@
       </c>
     </row>
     <row r="108" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B108" s="100">
+      <c r="B108" s="97">
         <v>44642</v>
       </c>
-      <c r="C108" s="101">
+      <c r="C108" s="98">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D108" s="51" t="s">
@@ -9699,32 +9686,32 @@
       </c>
     </row>
     <row r="109" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="116">
+      <c r="B109" s="113">
         <v>44643</v>
       </c>
-      <c r="C109" s="117">
+      <c r="C109" s="114">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D109" s="62" t="s">
+      <c r="D109" s="61" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="110" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B110" s="100">
+      <c r="B110" s="97">
         <v>44648</v>
       </c>
-      <c r="C110" s="101">
+      <c r="C110" s="98">
         <v>0.25</v>
       </c>
-      <c r="D110" s="65" t="s">
+      <c r="D110" s="64" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="111" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="100">
+      <c r="B111" s="97">
         <v>44649</v>
       </c>
-      <c r="C111" s="101">
+      <c r="C111" s="98">
         <v>0.3125</v>
       </c>
       <c r="D111" s="51" t="s">
@@ -9732,10 +9719,10 @@
       </c>
     </row>
     <row r="112" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B112" s="100">
+      <c r="B112" s="97">
         <v>44650</v>
       </c>
-      <c r="C112" s="101">
+      <c r="C112" s="98">
         <v>0.125</v>
       </c>
       <c r="D112" s="51" t="s">
@@ -9743,10 +9730,10 @@
       </c>
     </row>
     <row r="113" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B113" s="100">
+      <c r="B113" s="97">
         <v>44650</v>
       </c>
-      <c r="C113" s="101">
+      <c r="C113" s="98">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D113" s="51" t="s">
@@ -9754,10 +9741,10 @@
       </c>
     </row>
     <row r="114" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B114" s="100">
+      <c r="B114" s="97">
         <v>44655</v>
       </c>
-      <c r="C114" s="101">
+      <c r="C114" s="98">
         <v>0.16666666666666666</v>
       </c>
       <c r="D114" s="51" t="s">
@@ -9765,10 +9752,10 @@
       </c>
     </row>
     <row r="115" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B115" s="100">
+      <c r="B115" s="97">
         <v>44656</v>
       </c>
-      <c r="C115" s="101">
+      <c r="C115" s="98">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D115" s="51" t="s">
@@ -9776,10 +9763,10 @@
       </c>
     </row>
     <row r="116" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B116" s="100">
+      <c r="B116" s="97">
         <v>44656</v>
       </c>
-      <c r="C116" s="101">
+      <c r="C116" s="98">
         <v>6.25E-2</v>
       </c>
       <c r="D116" s="51" t="s">
@@ -9787,10 +9774,10 @@
       </c>
     </row>
     <row r="117" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B117" s="100">
+      <c r="B117" s="97">
         <v>44657</v>
       </c>
-      <c r="C117" s="101">
+      <c r="C117" s="98">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D117" s="51" t="s">
@@ -9798,10 +9785,10 @@
       </c>
     </row>
     <row r="118" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B118" s="100">
+      <c r="B118" s="97">
         <v>44662</v>
       </c>
-      <c r="C118" s="101">
+      <c r="C118" s="98">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D118" s="51" t="s">
@@ -9809,10 +9796,10 @@
       </c>
     </row>
     <row r="119" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B119" s="100">
+      <c r="B119" s="97">
         <v>44662</v>
       </c>
-      <c r="C119" s="101">
+      <c r="C119" s="98">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D119" s="51" t="s">
@@ -9820,10 +9807,10 @@
       </c>
     </row>
     <row r="120" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B120" s="100" t="s">
+      <c r="B120" s="97" t="s">
         <v>299</v>
       </c>
-      <c r="C120" s="101" t="s">
+      <c r="C120" s="98" t="s">
         <v>300</v>
       </c>
       <c r="D120" s="51" t="s">
@@ -9831,32 +9818,32 @@
       </c>
     </row>
     <row r="121" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="116">
+      <c r="B121" s="113">
         <v>44663</v>
       </c>
-      <c r="C121" s="117">
+      <c r="C121" s="114">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D121" s="62" t="s">
+      <c r="D121" s="61" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="122" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B122" s="100">
+      <c r="B122" s="97">
         <v>44677</v>
       </c>
-      <c r="C122" s="101">
+      <c r="C122" s="98">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D122" s="65" t="s">
+      <c r="D122" s="64" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="123" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B123" s="129">
+      <c r="B123" s="126">
         <v>44677</v>
       </c>
-      <c r="C123" s="128">
+      <c r="C123" s="125">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="D123" s="51" t="s">
@@ -9864,10 +9851,10 @@
       </c>
     </row>
     <row r="124" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B124" s="129">
+      <c r="B124" s="126">
         <v>44681</v>
       </c>
-      <c r="C124" s="128">
+      <c r="C124" s="125">
         <v>0.125</v>
       </c>
       <c r="D124" s="51" t="s">
@@ -9875,10 +9862,10 @@
       </c>
     </row>
     <row r="125" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B125" s="129">
+      <c r="B125" s="126">
         <v>44684</v>
       </c>
-      <c r="C125" s="128">
+      <c r="C125" s="125">
         <v>0.17708333333333334</v>
       </c>
       <c r="D125" s="51" t="s">
@@ -9886,32 +9873,32 @@
       </c>
     </row>
     <row r="126" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="130">
+      <c r="B126" s="127">
         <v>44685</v>
       </c>
-      <c r="C126" s="117">
+      <c r="C126" s="114">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D126" s="62" t="s">
+      <c r="D126" s="61" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="127" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B127" s="100">
+      <c r="B127" s="97">
         <v>44692</v>
       </c>
-      <c r="C127" s="101">
+      <c r="C127" s="98">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="D127" s="65" t="s">
+      <c r="D127" s="64" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="128" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B128" s="100">
+      <c r="B128" s="97">
         <v>44692</v>
       </c>
-      <c r="C128" s="101">
+      <c r="C128" s="98">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="D128" s="51" t="s">
@@ -9919,10 +9906,10 @@
       </c>
     </row>
     <row r="129" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B129" s="100">
+      <c r="B129" s="97">
         <v>44694</v>
       </c>
-      <c r="C129" s="101">
+      <c r="C129" s="98">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D129" s="51" t="s">
@@ -9930,10 +9917,10 @@
       </c>
     </row>
     <row r="130" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B130" s="100">
+      <c r="B130" s="97">
         <v>44697</v>
       </c>
-      <c r="C130" s="101">
+      <c r="C130" s="98">
         <v>6.25E-2</v>
       </c>
       <c r="D130" s="51" t="s">
@@ -9941,10 +9928,10 @@
       </c>
     </row>
     <row r="131" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B131" s="100">
+      <c r="B131" s="97">
         <v>44697</v>
       </c>
-      <c r="C131" s="101">
+      <c r="C131" s="98">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D131" s="51" t="s">
@@ -9952,10 +9939,10 @@
       </c>
     </row>
     <row r="132" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B132" s="100">
+      <c r="B132" s="97">
         <v>44697</v>
       </c>
-      <c r="C132" s="101">
+      <c r="C132" s="98">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D132" s="51" t="s">
@@ -9963,10 +9950,10 @@
       </c>
     </row>
     <row r="133" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B133" s="100">
+      <c r="B133" s="97">
         <v>44697</v>
       </c>
-      <c r="C133" s="101">
+      <c r="C133" s="98">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D133" s="51" t="s">
@@ -9974,10 +9961,10 @@
       </c>
     </row>
     <row r="134" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B134" s="100">
+      <c r="B134" s="97">
         <v>44697</v>
       </c>
-      <c r="C134" s="101">
+      <c r="C134" s="98">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D134" s="51" t="s">
@@ -9985,10 +9972,10 @@
       </c>
     </row>
     <row r="135" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B135" s="100">
+      <c r="B135" s="97">
         <v>44697</v>
       </c>
-      <c r="C135" s="101">
+      <c r="C135" s="98">
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="D135" s="51" t="s">
@@ -9996,10 +9983,10 @@
       </c>
     </row>
     <row r="136" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B136" s="100">
+      <c r="B136" s="97">
         <v>44697</v>
       </c>
-      <c r="C136" s="101">
+      <c r="C136" s="98">
         <v>0.14930555555555555</v>
       </c>
       <c r="D136" s="51" t="s">
@@ -10007,10 +9994,10 @@
       </c>
     </row>
     <row r="137" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B137" s="100">
+      <c r="B137" s="97">
         <v>44698</v>
       </c>
-      <c r="C137" s="101">
+      <c r="C137" s="98">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D137" s="51" t="s">
@@ -10018,10 +10005,10 @@
       </c>
     </row>
     <row r="138" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B138" s="100">
+      <c r="B138" s="97">
         <v>44698</v>
       </c>
-      <c r="C138" s="149">
+      <c r="C138" s="144">
         <v>0.10416666666666667</v>
       </c>
       <c r="D138" s="54" t="s">
@@ -10029,10 +10016,10 @@
       </c>
     </row>
     <row r="139" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B139" s="100">
+      <c r="B139" s="97">
         <v>44700</v>
       </c>
-      <c r="C139" s="101">
+      <c r="C139" s="98">
         <v>3.125E-2</v>
       </c>
       <c r="D139" s="51" t="s">
@@ -10040,10 +10027,10 @@
       </c>
     </row>
     <row r="140" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B140" s="100">
+      <c r="B140" s="97">
         <v>44700</v>
       </c>
-      <c r="C140" s="101">
+      <c r="C140" s="98">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D140" s="51" t="s">
@@ -10051,10 +10038,10 @@
       </c>
     </row>
     <row r="141" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B141" s="100">
+      <c r="B141" s="97">
         <v>44700</v>
       </c>
-      <c r="C141" s="101">
+      <c r="C141" s="98">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="D141" s="51" t="s">
@@ -10062,10 +10049,10 @@
       </c>
     </row>
     <row r="142" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B142" s="100">
+      <c r="B142" s="97">
         <v>44701</v>
       </c>
-      <c r="C142" s="101">
+      <c r="C142" s="98">
         <v>0.16666666666666666</v>
       </c>
       <c r="D142" s="51" t="s">
@@ -10073,20 +10060,20 @@
       </c>
     </row>
     <row r="143" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B143" s="151">
+      <c r="B143" s="97">
         <v>44703</v>
       </c>
-      <c r="C143" s="152" t="s">
+      <c r="C143" s="98" t="s">
         <v>344</v>
       </c>
-      <c r="D143" s="148" t="s">
+      <c r="D143" s="51" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="144" spans="2:4" ht="30.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B144" s="145"/>
-      <c r="C144" s="150"/>
-      <c r="D144" s="148"/>
+      <c r="B144" s="140"/>
+      <c r="C144" s="145"/>
+      <c r="D144" s="143"/>
     </row>
     <row r="145" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="146" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11064,7 +11051,7 @@
   </sheetPr>
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
@@ -11079,11 +11066,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="153" t="s">
+      <c r="B1" s="146" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -11141,7 +11128,7 @@
       <c r="Y2" s="17"/>
     </row>
     <row r="3" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="102">
+      <c r="B3" s="99">
         <v>44459</v>
       </c>
       <c r="C3" s="27">
@@ -11152,7 +11139,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="103">
+      <c r="B4" s="100">
         <v>44463</v>
       </c>
       <c r="C4" s="27">
@@ -11163,7 +11150,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="103">
+      <c r="B5" s="100">
         <v>44463</v>
       </c>
       <c r="C5" s="27">
@@ -11174,7 +11161,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="103">
+      <c r="B6" s="100">
         <v>44468</v>
       </c>
       <c r="C6" s="27">
@@ -11185,7 +11172,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="104">
+      <c r="B7" s="101">
         <v>44477</v>
       </c>
       <c r="C7" s="40">
@@ -11196,7 +11183,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="103">
+      <c r="B8" s="100">
         <v>44479</v>
       </c>
       <c r="C8" s="39">
@@ -11207,7 +11194,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="103">
+      <c r="B9" s="100">
         <v>44485</v>
       </c>
       <c r="C9" s="28">
@@ -11218,7 +11205,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="103">
+      <c r="B10" s="100">
         <v>44488</v>
       </c>
       <c r="C10" s="27">
@@ -11229,7 +11216,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="103">
+      <c r="B11" s="100">
         <v>44494</v>
       </c>
       <c r="C11" s="39">
@@ -11240,7 +11227,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="103">
+      <c r="B12" s="100">
         <v>44494</v>
       </c>
       <c r="C12" s="27">
@@ -11251,7 +11238,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="105">
+      <c r="B13" s="102">
         <v>44494</v>
       </c>
       <c r="C13" s="28">
@@ -11262,7 +11249,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="106">
+      <c r="B14" s="103">
         <v>44502</v>
       </c>
       <c r="C14" s="40">
@@ -11273,18 +11260,18 @@
       </c>
     </row>
     <row r="15" spans="1:26" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="105">
+      <c r="B15" s="102">
         <v>44506</v>
       </c>
-      <c r="C15" s="77">
+      <c r="C15" s="75">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D15" s="78" t="s">
+      <c r="D15" s="76" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:26" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="105">
+      <c r="B16" s="102">
         <v>44508</v>
       </c>
       <c r="C16" s="28">
@@ -11295,7 +11282,7 @@
       </c>
     </row>
     <row r="17" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="107">
+      <c r="B17" s="104">
         <v>44520</v>
       </c>
       <c r="C17" s="53">
@@ -11306,7 +11293,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="107">
+      <c r="B18" s="104">
         <v>44520</v>
       </c>
       <c r="C18" s="53">
@@ -11317,7 +11304,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="107">
+      <c r="B19" s="104">
         <v>44521</v>
       </c>
       <c r="C19" s="49">
@@ -11328,7 +11315,7 @@
       </c>
     </row>
     <row r="20" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="107">
+      <c r="B20" s="104">
         <v>44522</v>
       </c>
       <c r="C20" s="53">
@@ -11339,7 +11326,7 @@
       </c>
     </row>
     <row r="21" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="107">
+      <c r="B21" s="104">
         <v>44522</v>
       </c>
       <c r="C21" s="53">
@@ -11350,7 +11337,7 @@
       </c>
     </row>
     <row r="22" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="107">
+      <c r="B22" s="104">
         <v>44523</v>
       </c>
       <c r="C22" s="53">
@@ -11361,73 +11348,73 @@
       </c>
     </row>
     <row r="23" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="108">
+      <c r="B23" s="105">
         <v>44523</v>
       </c>
-      <c r="C23" s="64">
+      <c r="C23" s="63">
         <v>6.25E-2</v>
       </c>
-      <c r="D23" s="62" t="s">
+      <c r="D23" s="61" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="24" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="109">
+      <c r="B24" s="106">
         <v>44546</v>
       </c>
-      <c r="C24" s="67">
+      <c r="C24" s="66">
         <v>0.125</v>
       </c>
-      <c r="D24" s="68" t="s">
+      <c r="D24" s="67" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="25" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="109">
+      <c r="B25" s="106">
         <v>44546</v>
       </c>
-      <c r="C25" s="67">
+      <c r="C25" s="66">
         <v>3.125E-2</v>
       </c>
-      <c r="D25" s="68" t="s">
+      <c r="D25" s="67" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="26" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="110">
+      <c r="B26" s="107">
         <v>44546</v>
       </c>
-      <c r="C26" s="72">
+      <c r="C26" s="70">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D26" s="73" t="s">
+      <c r="D26" s="71" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="109">
+      <c r="B27" s="106">
         <v>44573</v>
       </c>
-      <c r="C27" s="81">
+      <c r="C27" s="79">
         <v>0.125</v>
       </c>
-      <c r="D27" s="82" t="s">
+      <c r="D27" s="80" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="110">
+      <c r="B28" s="107">
         <v>44585</v>
       </c>
-      <c r="C28" s="72">
+      <c r="C28" s="70">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D28" s="73" t="s">
+      <c r="D28" s="71" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="107">
+      <c r="B29" s="104">
         <v>44607</v>
       </c>
       <c r="C29" s="53">
@@ -11438,7 +11425,7 @@
       </c>
     </row>
     <row r="30" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="107">
+      <c r="B30" s="104">
         <v>44609</v>
       </c>
       <c r="C30" s="53">
@@ -11449,7 +11436,7 @@
       </c>
     </row>
     <row r="31" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="107">
+      <c r="B31" s="104">
         <v>44614</v>
       </c>
       <c r="C31" s="53">
@@ -11460,18 +11447,18 @@
       </c>
     </row>
     <row r="32" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="108">
+      <c r="B32" s="105">
         <v>44619</v>
       </c>
-      <c r="C32" s="64">
+      <c r="C32" s="63">
         <v>0.14583333333333334</v>
       </c>
-      <c r="D32" s="62" t="s">
+      <c r="D32" s="61" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="107">
+      <c r="B33" s="104">
         <v>44626</v>
       </c>
       <c r="C33" s="53">
@@ -11482,7 +11469,7 @@
       </c>
     </row>
     <row r="34" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="107">
+      <c r="B34" s="104">
         <v>44632</v>
       </c>
       <c r="C34" s="53">
@@ -11493,7 +11480,7 @@
       </c>
     </row>
     <row r="35" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="107">
+      <c r="B35" s="104">
         <v>44635</v>
       </c>
       <c r="C35" s="53">
@@ -11504,18 +11491,18 @@
       </c>
     </row>
     <row r="36" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="108">
+      <c r="B36" s="105">
         <v>44643</v>
       </c>
-      <c r="C36" s="64">
+      <c r="C36" s="63">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D36" s="62" t="s">
+      <c r="D36" s="61" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="107">
+      <c r="B37" s="104">
         <v>44653</v>
       </c>
       <c r="C37" s="53">
@@ -11526,7 +11513,7 @@
       </c>
     </row>
     <row r="38" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="107">
+      <c r="B38" s="104">
         <v>44653</v>
       </c>
       <c r="C38" s="53">
@@ -11537,7 +11524,7 @@
       </c>
     </row>
     <row r="39" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="107">
+      <c r="B39" s="104">
         <v>44653</v>
       </c>
       <c r="C39" s="53">
@@ -11548,7 +11535,7 @@
       </c>
     </row>
     <row r="40" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="107">
+      <c r="B40" s="104">
         <v>44654</v>
       </c>
       <c r="C40" s="53">
@@ -11559,29 +11546,29 @@
       </c>
     </row>
     <row r="41" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="108">
+      <c r="B41" s="105">
         <v>44655</v>
       </c>
-      <c r="C41" s="64">
+      <c r="C41" s="63">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D41" s="62" t="s">
+      <c r="D41" s="61" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="107">
+      <c r="B42" s="104">
         <v>44697</v>
       </c>
-      <c r="C42" s="131">
+      <c r="C42" s="128">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D42" s="71" t="s">
+      <c r="D42" s="69" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="107">
+      <c r="B43" s="104">
         <v>44697</v>
       </c>
       <c r="C43" s="53">
@@ -11592,7 +11579,7 @@
       </c>
     </row>
     <row r="44" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="107">
+      <c r="B44" s="104">
         <v>44697</v>
       </c>
       <c r="C44" s="53">
@@ -11603,7 +11590,7 @@
       </c>
     </row>
     <row r="45" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="107">
+      <c r="B45" s="104">
         <v>44697</v>
       </c>
       <c r="C45" s="53">
@@ -11614,7 +11601,7 @@
       </c>
     </row>
     <row r="46" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="107">
+      <c r="B46" s="104">
         <v>44698</v>
       </c>
       <c r="C46" s="53">
@@ -11625,7 +11612,7 @@
       </c>
     </row>
     <row r="47" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="107">
+      <c r="B47" s="104">
         <v>44699</v>
       </c>
       <c r="C47" s="53">
@@ -11636,7 +11623,7 @@
       </c>
     </row>
     <row r="48" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="107">
+      <c r="B48" s="104">
         <v>44700</v>
       </c>
       <c r="C48" s="53">
@@ -11647,7 +11634,7 @@
       </c>
     </row>
     <row r="49" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="107">
+      <c r="B49" s="104">
         <v>44700</v>
       </c>
       <c r="C49" s="53">
@@ -11658,7 +11645,7 @@
       </c>
     </row>
     <row r="50" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="107">
+      <c r="B50" s="104">
         <v>44700</v>
       </c>
       <c r="C50" s="53">
@@ -11669,7 +11656,7 @@
       </c>
     </row>
     <row r="51" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="107">
+      <c r="B51" s="104">
         <v>44700</v>
       </c>
       <c r="C51" s="53">
@@ -11680,9 +11667,9 @@
       </c>
     </row>
     <row r="52" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="146"/>
-      <c r="C52" s="147"/>
-      <c r="D52" s="144"/>
+      <c r="B52" s="141"/>
+      <c r="C52" s="142"/>
+      <c r="D52" s="139"/>
     </row>
     <row r="53" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="54" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ausau\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA78712-58AB-43DA-9AC8-4E2095B6E587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF8657E-87A2-4EFB-B80F-17FD61461BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6540" yWindow="-270" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -1132,7 +1132,7 @@
     <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
     <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF504A3B"/>
@@ -1345,12 +1345,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
@@ -1414,7 +1408,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1688,25 +1682,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2112,34 +2093,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="33" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="32" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="33" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="33" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2147,36 +2113,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="33" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="33" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="33" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="33" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="33" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2728,8 +2664,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tableau2" displayName="Tableau2" ref="B2:D62">
-  <autoFilter ref="B2:D62" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tableau2" displayName="Tableau2" ref="B2:D63">
+  <autoFilter ref="B2:D63" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="DATE" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="DURÉE" dataDxfId="1"/>
@@ -2955,8 +2891,8 @@
   </sheetPr>
   <dimension ref="A1:Z1011"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2970,11 +2906,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3318,13 +3254,13 @@
       </c>
     </row>
     <row r="31" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="148">
+      <c r="B31" s="47">
         <v>44707</v>
       </c>
-      <c r="C31" s="142">
+      <c r="C31" s="29">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D31" s="149" t="s">
+      <c r="D31" s="48" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4352,8 +4288,8 @@
   </sheetPr>
   <dimension ref="A1:Y1094"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView showGridLines="0" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113:D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4367,11 +4303,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -5397,14 +5333,14 @@
       </c>
     </row>
     <row r="93" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="143"/>
-      <c r="C93" s="138"/>
-      <c r="D93" s="144"/>
+      <c r="B93" s="138"/>
+      <c r="C93" s="137"/>
+      <c r="D93" s="139"/>
     </row>
     <row r="94" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="143"/>
-      <c r="C94" s="138"/>
-      <c r="D94" s="144"/>
+      <c r="B94" s="138"/>
+      <c r="C94" s="137"/>
+      <c r="D94" s="139"/>
     </row>
     <row r="95" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="93">
@@ -5605,13 +5541,13 @@
       </c>
     </row>
     <row r="113" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="143">
+      <c r="B113" s="93">
         <v>44706</v>
       </c>
-      <c r="C113" s="138">
+      <c r="C113" s="46">
         <v>0.10416666666666667</v>
       </c>
-      <c r="D113" s="144" t="s">
+      <c r="D113" s="94" t="s">
         <v>350</v>
       </c>
     </row>
@@ -6604,7 +6540,7 @@
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.45000000000000007" right="0.45000000000000007" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -6621,8 +6557,8 @@
   </sheetPr>
   <dimension ref="A1:Y1016"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView showGridLines="0" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87:D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6636,11 +6572,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -7599,13 +7535,13 @@
       </c>
     </row>
     <row r="87" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="147">
+      <c r="B87" s="16">
         <v>44706</v>
       </c>
-      <c r="C87" s="138">
+      <c r="C87" s="15">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D87" s="135" t="s">
+      <c r="D87" s="11" t="s">
         <v>263</v>
       </c>
     </row>
@@ -7626,7 +7562,7 @@
     </row>
     <row r="91" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="16"/>
-      <c r="C91" s="137"/>
+      <c r="C91" s="136"/>
       <c r="D91" s="26"/>
     </row>
     <row r="92" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8574,8 +8510,8 @@
   </sheetPr>
   <dimension ref="A1:Z1104"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D148" sqref="D148"/>
+    <sheetView showGridLines="0" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B145" sqref="B145:D149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8589,11 +8525,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -10138,7 +10074,7 @@
       <c r="B138" s="97">
         <v>44698</v>
       </c>
-      <c r="C138" s="136">
+      <c r="C138" s="135">
         <v>0.10416666666666667</v>
       </c>
       <c r="D138" s="54" t="s">
@@ -10212,57 +10148,57 @@
       </c>
     </row>
     <row r="145" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B145" s="141">
+      <c r="B145" s="97">
         <v>44705</v>
       </c>
-      <c r="C145" s="142">
+      <c r="C145" s="98">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="D145" s="140" t="s">
+      <c r="D145" s="51" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="146" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B146" s="141">
+      <c r="B146" s="97">
         <v>44705</v>
       </c>
-      <c r="C146" s="142">
+      <c r="C146" s="98">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="D146" s="140" t="s">
+      <c r="D146" s="51" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="147" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B147" s="141">
+      <c r="B147" s="97">
         <v>44706</v>
       </c>
-      <c r="C147" s="142">
+      <c r="C147" s="98">
         <v>0.10416666666666667</v>
       </c>
-      <c r="D147" s="135" t="s">
+      <c r="D147" s="51" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="148" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B148" s="139">
+      <c r="B148" s="97">
         <v>44707</v>
       </c>
-      <c r="C148" s="138">
+      <c r="C148" s="98">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="D148" s="135" t="s">
+      <c r="D148" s="51" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="149" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B149" s="139">
+      <c r="B149" s="97">
         <v>44708</v>
       </c>
-      <c r="C149" s="138">
+      <c r="C149" s="98">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="D149" s="135" t="s">
+      <c r="D149" s="51" t="s">
         <v>360</v>
       </c>
     </row>
@@ -11241,8 +11177,8 @@
   </sheetPr>
   <dimension ref="A1:Z993"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView showGridLines="0" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11256,11 +11192,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="140" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -11747,35 +11683,35 @@
       </c>
     </row>
     <row r="42" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="156">
+      <c r="B42" s="104">
         <v>44681</v>
       </c>
-      <c r="C42" s="138">
+      <c r="C42" s="53">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D42" s="135" t="s">
+      <c r="D42" s="54" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="43" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="152">
+      <c r="B43" s="104">
         <v>44688</v>
       </c>
-      <c r="C43" s="138">
+      <c r="C43" s="53">
         <v>0.10416666666666667</v>
       </c>
-      <c r="D43" s="135" t="s">
+      <c r="D43" s="54" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="44" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="153">
+      <c r="B44" s="105">
         <v>44689</v>
       </c>
-      <c r="C44" s="154">
+      <c r="C44" s="63">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D44" s="155" t="s">
+      <c r="D44" s="61" t="s">
         <v>354</v>
       </c>
     </row>
@@ -11890,57 +11826,49 @@
       </c>
     </row>
     <row r="55" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="152">
+      <c r="B55" s="104">
         <v>44704</v>
       </c>
-      <c r="C55" s="151">
+      <c r="C55" s="53">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D55" s="140" t="s">
+      <c r="D55" s="54" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="56" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="152">
+      <c r="B56" s="104">
         <v>44704</v>
       </c>
-      <c r="C56" s="138">
+      <c r="C56" s="53">
         <v>0.125</v>
       </c>
-      <c r="D56" s="135" t="s">
+      <c r="D56" s="54" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="57" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="150"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="11"/>
+      <c r="B57" s="104"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="54"/>
     </row>
     <row r="58" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="152"/>
-      <c r="C58" s="138"/>
-      <c r="D58" s="135"/>
+      <c r="B58" s="104"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="54"/>
     </row>
     <row r="59" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="152"/>
-      <c r="C59" s="138"/>
-      <c r="D59" s="135"/>
+      <c r="B59" s="104"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="54"/>
     </row>
     <row r="60" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="152"/>
-      <c r="C60" s="138"/>
-      <c r="D60" s="135"/>
-    </row>
-    <row r="61" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="152"/>
-      <c r="C61" s="138"/>
-      <c r="D61" s="135"/>
-    </row>
-    <row r="62" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="152"/>
-      <c r="C62" s="151"/>
-      <c r="D62" s="140"/>
-    </row>
+      <c r="B60" s="104"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="54"/>
+    </row>
+    <row r="61" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="63" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB96F41-5B41-4F42-8514-94DA2F54FBF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4A8EAE-BC1D-4AA6-AF5B-AFF3256CAC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="369">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -1134,6 +1134,15 @@
   </si>
   <si>
     <t xml:space="preserve">Modification du product backlog </t>
+  </si>
+  <si>
+    <t>Mise à jour document manuel_utilisation_administrateur_WavMap_V1.2</t>
+  </si>
+  <si>
+    <t>Mise à jour document manuel_utilisation_client_WavMap_V1.2</t>
+  </si>
+  <si>
+    <t>Vérification liste des risques + mise en page du document</t>
   </si>
 </sst>
 </file>
@@ -2124,20 +2133,20 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2650,8 +2659,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:D117" tableBorderDxfId="13">
-  <autoFilter ref="B2:D117" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:D120" tableBorderDxfId="13">
+  <autoFilter ref="B2:D120" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DATE" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="DURÉE" dataDxfId="11"/>
@@ -2931,11 +2940,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4311,10 +4320,10 @@
     <tabColor rgb="FFD8B1CB"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y1097"/>
+  <dimension ref="A1:Y1100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A96" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A98" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4328,11 +4337,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -5361,10 +5370,10 @@
       <c r="B93" s="138">
         <v>44677</v>
       </c>
-      <c r="C93" s="143">
+      <c r="C93" s="141">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D93" s="144" t="s">
+      <c r="D93" s="142" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5611,18 +5620,48 @@
       </c>
     </row>
     <row r="116" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="84"/>
-      <c r="C116" s="13"/>
-      <c r="D116" s="142"/>
-    </row>
-    <row r="117" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="132"/>
-      <c r="C117" s="133"/>
-      <c r="D117" s="134"/>
-    </row>
-    <row r="118" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B116" s="138">
+        <v>44709</v>
+      </c>
+      <c r="C116" s="137">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D116" s="139" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="138">
+        <v>44709</v>
+      </c>
+      <c r="C117" s="137">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D117" s="139" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="138">
+        <v>44709</v>
+      </c>
+      <c r="C118" s="137">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D118" s="139" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="84"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="140"/>
+    </row>
+    <row r="120" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="132"/>
+      <c r="C120" s="133"/>
+      <c r="D120" s="134"/>
+    </row>
     <row r="121" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="122" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="123" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6600,6 +6639,9 @@
     <row r="1095" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1096" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1097" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1098" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1099" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1100" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
@@ -6636,11 +6678,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -8601,11 +8643,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="143" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -11287,11 +11329,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="143" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\WavContact\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ausau\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3560373-E888-41D2-86C0-9E38BB347104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E3EC10-38B3-4E66-80BC-59D1461E6E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14430" yWindow="4665" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="371">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -1146,6 +1146,9 @@
   </si>
   <si>
     <t>Recherches pour les tests + installation de jest sur serveur + code commun avec Aurélie + continuation du code</t>
+  </si>
+  <si>
+    <t>Modification script SQL</t>
   </si>
 </sst>
 </file>
@@ -1156,7 +1159,7 @@
     <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
     <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF504A3B"/>
@@ -1369,27 +1372,7 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Bookman Old Style"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1715,7 +1698,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2127,22 +2110,7 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2928,7 +2896,7 @@
   </sheetPr>
   <dimension ref="A1:Z1011"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2943,11 +2911,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="143" t="s">
+      <c r="B1" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4325,8 +4293,8 @@
   </sheetPr>
   <dimension ref="A1:Y1100"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A98" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView showGridLines="0" topLeftCell="A107" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116:D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4340,11 +4308,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="143" t="s">
+      <c r="B1" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -5370,68 +5338,68 @@
       </c>
     </row>
     <row r="93" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="138">
+      <c r="B93" s="93">
         <v>44677</v>
       </c>
-      <c r="C93" s="141">
+      <c r="C93" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D93" s="142" t="s">
+      <c r="D93" s="94" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="94" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="138">
+      <c r="B94" s="93">
         <v>44679</v>
       </c>
-      <c r="C94" s="137">
+      <c r="C94" s="46">
         <v>6.25E-2</v>
       </c>
-      <c r="D94" s="139" t="s">
+      <c r="D94" s="94" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="95" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="138">
+      <c r="B95" s="93">
         <v>44680</v>
       </c>
-      <c r="C95" s="137">
+      <c r="C95" s="46">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D95" s="139" t="s">
+      <c r="D95" s="94" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="96" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="138">
+      <c r="B96" s="93">
         <v>44681</v>
       </c>
-      <c r="C96" s="137">
+      <c r="C96" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D96" s="139" t="s">
+      <c r="D96" s="94" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="97" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="138">
+      <c r="B97" s="93">
         <v>44681</v>
       </c>
-      <c r="C97" s="137">
+      <c r="C97" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D97" s="139" t="s">
+      <c r="D97" s="94" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="98" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="138">
+      <c r="B98" s="93">
         <v>44684</v>
       </c>
-      <c r="C98" s="137">
+      <c r="C98" s="46">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D98" s="139" t="s">
+      <c r="D98" s="94" t="s">
         <v>364</v>
       </c>
     </row>
@@ -5623,42 +5591,42 @@
       </c>
     </row>
     <row r="116" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="138">
+      <c r="B116" s="93">
         <v>44709</v>
       </c>
-      <c r="C116" s="137">
+      <c r="C116" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D116" s="139" t="s">
+      <c r="D116" s="94" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="117" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="138">
+      <c r="B117" s="93">
         <v>44709</v>
       </c>
-      <c r="C117" s="137">
+      <c r="C117" s="46">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D117" s="139" t="s">
+      <c r="D117" s="94" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="118" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="138">
+      <c r="B118" s="93">
         <v>44709</v>
       </c>
-      <c r="C118" s="137">
+      <c r="C118" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D118" s="139" t="s">
+      <c r="D118" s="94" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="119" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="84"/>
       <c r="C119" s="13"/>
-      <c r="D119" s="140"/>
+      <c r="D119" s="137"/>
     </row>
     <row r="120" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="132"/>
@@ -6649,7 +6617,7 @@
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
-  <phoneticPr fontId="34" type="noConversion"/>
+  <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.45000000000000007" right="0.45000000000000007" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -6666,8 +6634,8 @@
   </sheetPr>
   <dimension ref="A1:Y1016"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88:D89"/>
+    <sheetView showGridLines="0" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91:D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6681,11 +6649,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="143" t="s">
+      <c r="B1" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -7677,14 +7645,26 @@
       </c>
     </row>
     <row r="90" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="16"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="11"/>
+      <c r="B90" s="16">
+        <v>44709</v>
+      </c>
+      <c r="C90" s="15">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="91" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="16"/>
-      <c r="C91" s="136"/>
-      <c r="D91" s="26"/>
+      <c r="B91" s="16">
+        <v>44709</v>
+      </c>
+      <c r="C91" s="136">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="92" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="93" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8631,8 +8611,8 @@
   </sheetPr>
   <dimension ref="A1:Z1104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C152" sqref="C152"/>
+    <sheetView showGridLines="0" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B151" sqref="B151:D151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8646,11 +8626,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="143" t="s">
+      <c r="B1" s="138" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -11306,7 +11286,7 @@
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
   </mergeCells>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.45000000000000007" right="0.45000000000000007" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -11323,7 +11303,7 @@
   </sheetPr>
   <dimension ref="A1:Z993"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -11338,11 +11318,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="143" t="s">
+      <c r="B1" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ausau\Documents\GitHub\WavContact\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E3EC10-38B3-4E66-80BC-59D1461E6E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72384A43-68CA-4FC8-A8FE-87C0B4786C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14430" yWindow="4665" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="372">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -1149,6 +1149,9 @@
   </si>
   <si>
     <t>Modification script SQL</t>
+  </si>
+  <si>
+    <t>Continuation du code et ajoutes de tous les commentaires</t>
   </si>
 </sst>
 </file>
@@ -1159,7 +1162,7 @@
     <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
     <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF504A3B"/>
@@ -1379,6 +1382,26 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Bookman Old Style"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1698,7 +1721,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2118,6 +2141,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="35" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2657,8 +2689,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D152" totalsRowShown="0">
-  <autoFilter ref="B2:D152" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D153" totalsRowShown="0">
+  <autoFilter ref="B2:D153" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="5" totalsRowDxfId="4"/>
@@ -8609,10 +8641,10 @@
     <tabColor rgb="FFFEE1AE"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1104"/>
+  <dimension ref="A1:Z1105"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B151" sqref="B151:D151"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10325,12 +10357,22 @@
         <v>369</v>
       </c>
     </row>
-    <row r="152" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B152" s="97"/>
-      <c r="C152" s="98"/>
-      <c r="D152" s="51"/>
-    </row>
-    <row r="153" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B152" s="141">
+        <v>44710</v>
+      </c>
+      <c r="C152" s="142">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="D152" s="140" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B153" s="97"/>
+      <c r="C153" s="98"/>
+      <c r="D153" s="51"/>
+    </row>
     <row r="154" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="155" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="156" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11282,6 +11324,7 @@
     <row r="1102" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1103" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1104" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1105" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
@@ -11303,7 +11346,7 @@
   </sheetPr>
   <dimension ref="A1:Z993"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72384A43-68CA-4FC8-A8FE-87C0B4786C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6733229-24ED-443F-AE81-A4C7F547970C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="372">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -1162,7 +1162,7 @@
     <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
     <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF504A3B"/>
@@ -1403,6 +1403,18 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Bookman Old Style"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFE39202"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1442,7 +1454,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1716,12 +1728,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2136,20 +2157,29 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="35" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="37" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="35" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2689,8 +2719,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D153" totalsRowShown="0">
-  <autoFilter ref="B2:D153" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D154" totalsRowShown="0">
+  <autoFilter ref="B2:D154" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="5" totalsRowDxfId="4"/>
@@ -2943,11 +2973,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4340,11 +4370,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="141" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -6681,11 +6711,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="141" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -8644,7 +8674,7 @@
   <dimension ref="A1:Z1105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B153" sqref="B153"/>
+      <selection activeCell="B153" sqref="B153:D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8658,11 +8688,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="141" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -10358,22 +10388,32 @@
       </c>
     </row>
     <row r="152" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B152" s="141">
+      <c r="B152" s="139">
         <v>44710</v>
       </c>
-      <c r="C152" s="142">
+      <c r="C152" s="140">
         <v>0.10416666666666667</v>
       </c>
-      <c r="D152" s="140" t="s">
+      <c r="D152" s="138" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="153" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B153" s="97"/>
-      <c r="C153" s="98"/>
-      <c r="D153" s="51"/>
-    </row>
-    <row r="154" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="B153" s="139">
+        <v>44710</v>
+      </c>
+      <c r="C153" s="140">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="D153" s="145" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B154" s="143"/>
+      <c r="C154" s="144"/>
+      <c r="D154" s="145"/>
+    </row>
     <row r="155" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="156" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="157" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11361,11 +11401,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="141" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6733229-24ED-443F-AE81-A4C7F547970C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B34BA9-108D-4FFC-BF0C-226197821B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="373">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -1152,6 +1152,9 @@
   </si>
   <si>
     <t>Continuation du code et ajoutes de tous les commentaires</t>
+  </si>
+  <si>
+    <t>Mise à jour de la BDD et de la modélisation BDD de WavMap</t>
   </si>
 </sst>
 </file>
@@ -2166,20 +2169,20 @@
     <xf numFmtId="164" fontId="36" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="37" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="37" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2719,8 +2722,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D154" totalsRowShown="0">
-  <autoFilter ref="B2:D154" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau1" displayName="Tableau1" ref="B2:D155" totalsRowShown="0">
+  <autoFilter ref="B2:D155" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DURÉE" dataDxfId="5" totalsRowDxfId="4"/>
@@ -2973,11 +2976,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4370,11 +4373,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -6711,11 +6714,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -8671,10 +8674,10 @@
     <tabColor rgb="FFFEE1AE"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1105"/>
+  <dimension ref="A1:Z1106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B153" sqref="B153:D153"/>
+      <selection activeCell="C154" sqref="B154:C154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8688,11 +8691,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="144" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -10405,16 +10408,26 @@
       <c r="C153" s="140">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="D153" s="145" t="s">
+      <c r="D153" s="143" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="154" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B154" s="143"/>
-      <c r="C154" s="144"/>
-      <c r="D154" s="145"/>
-    </row>
-    <row r="155" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" spans="2:4" s="14" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B154" s="139">
+        <v>44710</v>
+      </c>
+      <c r="C154" s="140">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="D154" s="138" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B155" s="141"/>
+      <c r="C155" s="142"/>
+      <c r="D155" s="143"/>
+    </row>
     <row r="156" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="157" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="158" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11365,6 +11378,7 @@
     <row r="1103" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1104" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1105" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1106" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
@@ -11401,11 +11415,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="144" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aurelie/Documents/GitHub/WavContact/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3743F7-F3F2-6444-ADDA-586FDAF49F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD10DC8-B177-9248-ABEF-8EB0554C6E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13140" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="13140" windowHeight="15880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="378">
   <si>
     <t>AGENDA COMMUN</t>
   </si>
@@ -1167,6 +1167,9 @@
   </si>
   <si>
     <t>Continuation du code</t>
+  </si>
+  <si>
+    <t>Design WavMap</t>
   </si>
 </sst>
 </file>
@@ -1177,7 +1180,7 @@
     <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
     <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF504A3B"/>
@@ -1397,6 +1400,27 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Bookman Old Style"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1716,7 +1740,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2136,6 +2160,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="34" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2660,8 +2693,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau3" displayName="Tableau3" ref="B2:D91">
-  <autoFilter ref="B2:D91" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau3" displayName="Tableau3" ref="B2:D103">
+  <autoFilter ref="B2:D103" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D25">
     <sortCondition ref="B2:B25"/>
   </sortState>
@@ -6652,8 +6685,8 @@
   </sheetPr>
   <dimension ref="A1:Y1016"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91:D91"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B87" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7684,27 +7717,81 @@
         <v>155</v>
       </c>
     </row>
-    <row r="92" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B92" s="140">
+        <v>44712</v>
+      </c>
+      <c r="C92" s="141">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="D92" s="142" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B93" s="16"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="11"/>
+    </row>
+    <row r="94" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B94" s="16"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="11"/>
+    </row>
+    <row r="95" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B95" s="16"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="11"/>
+    </row>
+    <row r="96" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B96" s="16"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="11"/>
+    </row>
+    <row r="97" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B97" s="16"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="11"/>
+    </row>
+    <row r="98" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B98" s="16"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="11"/>
+    </row>
+    <row r="99" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B99" s="16"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="11"/>
+    </row>
+    <row r="100" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B100" s="16"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="11"/>
+    </row>
+    <row r="101" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B101" s="16"/>
+      <c r="C101" s="15"/>
+      <c r="D101" s="11"/>
+    </row>
+    <row r="102" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B102" s="16"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="11"/>
+    </row>
+    <row r="103" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B103" s="16"/>
+      <c r="C103" s="136"/>
+      <c r="D103" s="26"/>
+    </row>
+    <row r="104" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="113" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="114" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="115" ht="30.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11370,7 +11457,7 @@
   </sheetPr>
   <dimension ref="A1:Z993"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>

--- a/Documents/0_Journal_de_bord.xlsx
+++ b/Documents/0_Journal_de_bord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Constantin\Documents\GitHub\WavContact\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA593BDD-0484-4F60-A29F-0D528F6CD05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7448684-B1A4-4562-909C-BDE90C7FA0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="32914" windowHeight="17777" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1194,7 +1194,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="hh&quot;h&quot;mm"/>
     <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ am/pm"/>
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="37" x14ac:knownFonts="1">
     <font>
@@ -2171,22 +2171,22 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="34" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="34" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2981,11 +2981,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4378,11 +4378,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -6752,11 +6752,11 @@
   <sheetData>
     <row r="1" spans="1:25" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -8789,11 +8789,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -11516,7 +11516,7 @@
   <dimension ref="A1:Z993"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -11532,11 +11532,11 @@
   <sheetData>
     <row r="1" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="142" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -12065,9 +12065,9 @@
       <c r="D45" s="69" t="s">
         <v>325</v>
       </c>
-      <c r="G45" s="143">
+      <c r="G45" s="141">
         <f>SUM(C45:C60)</f>
-        <v>2.145833333333333</v>
+        <v>2.2291666666666665</v>
       </c>
     </row>
     <row r="46" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12214,24 +12214,24 @@
       </c>
     </row>
     <row r="59" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="140">
+      <c r="B59" s="138">
         <v>44712</v>
       </c>
-      <c r="C59" s="141">
-        <v>0.125</v>
-      </c>
-      <c r="D59" s="142" t="s">
+      <c r="C59" s="139">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D59" s="140" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="60" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="140">
+      <c r="B60" s="138">
         <v>44713</v>
       </c>
-      <c r="C60" s="141">
+      <c r="C60" s="139">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D60" s="142" t="s">
+      <c r="D60" s="140" t="s">
         <v>382</v>
       </c>
     </row>
